--- a/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="8070" windowHeight="7575" activeTab="7"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="8070" windowHeight="7575" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="457">
   <si>
     <t>number</t>
   </si>
@@ -270,9 +270,6 @@
   </si>
   <si>
     <t>Blade data</t>
-  </si>
-  <si>
-    <t>Drivetrain torsional damper (N-m-sec/rad)</t>
   </si>
   <si>
     <t>Blade is pitched zero degrees , coning is positive (Blade tip downwind).</t>
@@ -1721,6 +1718,153 @@
   <si>
     <t>blade modal damping ratios</t>
   </si>
+  <si>
+    <t>RotorDiameter</t>
+  </si>
+  <si>
+    <t>HubDiameter</t>
+  </si>
+  <si>
+    <t>Airfoils</t>
+  </si>
+  <si>
+    <t>BladeDamping</t>
+  </si>
+  <si>
+    <t>TipSpeed</t>
+  </si>
+  <si>
+    <t>HubHeight</t>
+  </si>
+  <si>
+    <t>Overhang</t>
+  </si>
+  <si>
+    <t>MainframeCG (nacelle coordinates)</t>
+  </si>
+  <si>
+    <t>GenShaftCG (nacelle coordinates)</t>
+  </si>
+  <si>
+    <t>RotShaftCG (nacelle coordinates)</t>
+  </si>
+  <si>
+    <t>RotShaftTilt (deg, neg raises hub)</t>
+  </si>
+  <si>
+    <t>Coning angle (deg)</t>
+  </si>
+  <si>
+    <t>Hub mass (kg)</t>
+  </si>
+  <si>
+    <t>Nacelle YInteria (kg m^2)</t>
+  </si>
+  <si>
+    <t>mass</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Hub intertia (kg m^2)</t>
+  </si>
+  <si>
+    <t>GenRatedRPM</t>
+  </si>
+  <si>
+    <t>Drivetrain torsoinal spring</t>
+  </si>
+  <si>
+    <t>Drivetrain efficiency</t>
+  </si>
+  <si>
+    <t>Drivetrain natural frequency (rad/s)</t>
+  </si>
+  <si>
+    <t>Drivetrain natural frequency</t>
+  </si>
+  <si>
+    <t>BladeSchedule</t>
+  </si>
+  <si>
+    <t>StrctBldNodes (%R)</t>
+  </si>
+  <si>
+    <t>DistanceHHtoTowerTop</t>
+  </si>
+  <si>
+    <t>TopThickness (m)</t>
+  </si>
+  <si>
+    <t>TopDiameter (m)</t>
+  </si>
+  <si>
+    <t>BottomDiameter (m)</t>
+  </si>
+  <si>
+    <t>BottomThickness (m)</t>
+  </si>
+  <si>
+    <t>Parasitic weight increase</t>
+  </si>
+  <si>
+    <t>Steel density (kg/m^3)</t>
+  </si>
+  <si>
+    <t>Young's modulus</t>
+  </si>
+  <si>
+    <t>Steel G</t>
+  </si>
+  <si>
+    <t>Tower stations</t>
+  </si>
+  <si>
+    <t>NADBldNodes</t>
+  </si>
+  <si>
+    <t>Mainframe mass</t>
+  </si>
+  <si>
+    <t>GenShaft mass</t>
+  </si>
+  <si>
+    <t>Rotshaft mass</t>
+  </si>
+  <si>
+    <t>Inertia</t>
+  </si>
+  <si>
+    <t>kg m^2</t>
+  </si>
+  <si>
+    <t>Taken from CertTest folder</t>
+  </si>
+  <si>
+    <t>Generator inertia</t>
+  </si>
+  <si>
+    <t>&lt;-- added this (JR)</t>
+  </si>
+  <si>
+    <t>Rated (high speed shaft) torque (N-m)</t>
+  </si>
+  <si>
+    <t>Rated HSS torque (N-m)</t>
+  </si>
+  <si>
+    <t>Tower damping</t>
+  </si>
+  <si>
+    <t>MinPitchAng (deg)</t>
+  </si>
+  <si>
+    <t>MaxPitchAng (deg)</t>
+  </si>
+  <si>
+    <t>ADBladNodes (x/L)</t>
+  </si>
 </sst>
 </file>
 
@@ -1731,8 +1875,8 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000E+00"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0E+00"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="173" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="35">
     <font>
@@ -2574,7 +2718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="376">
+  <cellXfs count="390">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3329,9 +3473,6 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3379,6 +3520,7 @@
     <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3424,7 +3566,33 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4011,11 +4179,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="66777856"/>
-        <c:axId val="67026944"/>
+        <c:axId val="100553856"/>
+        <c:axId val="100555776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="66777856"/>
+        <c:axId val="100553856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4100,12 +4268,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67026944"/>
+        <c:crossAx val="100555776"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67026944"/>
+        <c:axId val="100555776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4189,7 +4357,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66777856"/>
+        <c:crossAx val="100553856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4299,7 +4467,7 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4481,8 +4649,8 @@
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4537,8 +4705,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>238125</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4587,13 +4755,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>60</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4754,6 +4922,18 @@
             </a:rPr>
             <a:t>	Switched modal damping order</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr rtl="0"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Oct 11, 2015     Added generator inertia input, drivetrain natural frequency</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1000">
             <a:effectLst/>
           </a:endParaRPr>
@@ -4778,13 +4958,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5251,10 +5431,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U142"/>
+  <dimension ref="A1:U144"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L44" sqref="L44"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5275,11 +5455,11 @@
       <c r="A1" s="99" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="337" t="s">
-        <v>401</v>
+      <c r="B1" s="336" t="s">
+        <v>400</v>
       </c>
       <c r="C1" s="367" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D1" s="368"/>
       <c r="E1" s="368"/>
@@ -5302,7 +5482,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="361" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C3" s="362"/>
       <c r="D3" s="363"/>
@@ -5456,24 +5636,24 @@
       </c>
       <c r="E8" s="149">
         <f>GECdrivetrain!I14</f>
-        <v>19035.818475766009</v>
+        <v>19186.870177541427</v>
       </c>
       <c r="F8" s="40">
         <f>GECdrivetrain!M14</f>
-        <v>42184.215717568528</v>
+        <v>42475.576821214963</v>
       </c>
       <c r="G8" s="40">
         <f>GECdrivetrain!N14</f>
-        <v>42184.215717568528</v>
+        <v>42475.576821214963</v>
       </c>
       <c r="H8" s="40">
         <f>GECdrivetrain!O14</f>
-        <v>42184.215717568528</v>
+        <v>42475.576821214963</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="12" thickBot="1">
       <c r="A9" s="107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9" s="274">
         <v>84</v>
@@ -5495,39 +5675,53 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="E11" s="334">
+        <f>SUM(E5:E8)</f>
+        <v>72025.778437163113</v>
+      </c>
+      <c r="F11" s="375"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="54" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="276" t="s">
-        <v>119</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="E12" s="334"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="276">
         <v>70</v>
       </c>
+      <c r="F13" s="334"/>
     </row>
     <row r="14" spans="1:8" ht="22.5">
       <c r="A14" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="336">
-        <f>PI()*(B58^4-B59^4)/2/(GECdrivetrain!C7)*GECtwrdata!F7</f>
-        <v>7730074235.4095106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="22.5">
+      <c r="B14" s="379">
+        <f>PI()*(B59^4-B60^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
+        <v>483129639.71309441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="29"/>
+        <v>428</v>
+      </c>
+      <c r="B15" s="380">
+        <v>15</v>
+      </c>
+      <c r="D15" s="384" t="s">
+        <v>450</v>
+      </c>
+      <c r="E15" s="385"/>
+      <c r="H15" s="104"/>
     </row>
     <row r="16" spans="1:8" ht="23.45" customHeight="1">
       <c r="A16" s="61" t="s">
@@ -5545,10 +5739,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I17" s="180" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J17" s="181"/>
       <c r="K17" s="181"/>
@@ -5556,7 +5750,7 @@
       <c r="M17" s="181"/>
       <c r="N17" s="181"/>
       <c r="P17" s="182" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="183"/>
       <c r="R17" s="183"/>
@@ -5566,7 +5760,7 @@
     </row>
     <row r="18" spans="1:21" ht="24" customHeight="1" thickBot="1">
       <c r="A18" s="62" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B18" s="276">
         <v>0.95</v>
@@ -5575,14 +5769,15 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D18" s="370" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E18" s="369"/>
       <c r="F18" s="369"/>
+      <c r="G18" s="381"/>
     </row>
     <row r="19" spans="1:21" ht="25.5" customHeight="1">
       <c r="A19" s="269" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B19" s="275">
         <v>5.0000000000000001E-3</v>
@@ -5591,12 +5786,12 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D19" s="370" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E19" s="369"/>
       <c r="F19" s="369"/>
       <c r="I19" s="35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J19" s="171"/>
       <c r="K19" s="171"/>
@@ -5614,7 +5809,7 @@
         <v>33</v>
       </c>
       <c r="I20" s="173" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
@@ -5626,7 +5821,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="I21" s="173" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
@@ -5638,11 +5833,11 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="101" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B22" s="29"/>
       <c r="I22" s="173" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
@@ -5654,16 +5849,16 @@
     </row>
     <row r="23" spans="1:21" ht="12.6" customHeight="1">
       <c r="A23" s="100" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B23" s="271">
-        <f>B80</f>
+        <f>B81</f>
         <v>20.462778397529398</v>
       </c>
       <c r="G23" s="89"/>
       <c r="H23" s="12"/>
       <c r="I23" s="173" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
@@ -5675,7 +5870,7 @@
     </row>
     <row r="24" spans="1:21" ht="12" thickBot="1">
       <c r="A24" s="100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="272">
         <v>1</v>
@@ -5683,7 +5878,7 @@
       <c r="G24" s="89"/>
       <c r="H24" s="12"/>
       <c r="I24" s="175" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J24" s="176"/>
       <c r="K24" s="176"/>
@@ -5695,10 +5890,10 @@
     </row>
     <row r="25" spans="1:21" ht="9.75" customHeight="1">
       <c r="A25" s="100" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="272">
-        <f>B83</f>
+        <f>B84</f>
         <v>1500</v>
       </c>
       <c r="G25" s="89"/>
@@ -5706,1464 +5901,1513 @@
     </row>
     <row r="27" spans="1:21" ht="12.6" customHeight="1">
       <c r="A27" s="101" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="29"/>
     </row>
     <row r="28" spans="1:21" ht="21" customHeight="1">
       <c r="A28" s="100" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="91">
-        <f>B80</f>
+        <f>B81</f>
         <v>20.462778397529398</v>
       </c>
     </row>
     <row r="29" spans="1:21" ht="9.75" customHeight="1">
       <c r="A29" s="100" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B29" s="270">
-        <f>B83*1000/(B28*PI()/30)/(B18-C18-B19-C19)</f>
+        <f>B84*1000/(B28*PI()/30)/(B18-C18-B19-C19)</f>
         <v>756756.7567567568</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
-      <c r="B30" s="53"/>
+    <row r="30" spans="1:21" ht="9.75" customHeight="1">
+      <c r="A30" s="386" t="s">
+        <v>451</v>
+      </c>
+      <c r="B30" s="270">
+        <f>B84*1000/(B79*PI()/30)/(B18-C18-B19-C19)</f>
+        <v>8602.9698968592093</v>
+      </c>
     </row>
     <row r="31" spans="1:21">
-      <c r="A31" s="110" t="s">
-        <v>81</v>
-      </c>
-      <c r="B31" s="29"/>
+      <c r="B31" s="53"/>
     </row>
     <row r="32" spans="1:21">
-      <c r="A32" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="276">
-        <v>2.6</v>
-      </c>
+      <c r="A32" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="29"/>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="276">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="276">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="12" customHeight="1">
+      <c r="A35" s="100" t="s">
         <v>83</v>
       </c>
-      <c r="B33" s="276">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="12" customHeight="1">
-      <c r="A34" s="100" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" s="276">
+      <c r="B35" s="276">
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="12.75" customHeight="1"/>
-    <row r="36" spans="1:4" ht="18.75" customHeight="1">
-      <c r="A36" s="110" t="s">
+    <row r="36" spans="1:4" ht="12.75" customHeight="1"/>
+    <row r="37" spans="1:4" ht="18.75" customHeight="1">
+      <c r="A37" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="54"/>
+    </row>
+    <row r="38" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A38" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="277">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="100" t="s">
         <v>123</v>
       </c>
-      <c r="B36" s="54"/>
-    </row>
-    <row r="37" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A37" s="100" t="s">
-        <v>207</v>
-      </c>
-      <c r="B37" s="277">
-        <v>1.61</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="100" t="s">
+      <c r="B39" s="278">
+        <v>2.5649999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1">
+      <c r="A40" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="B38" s="278">
-        <v>2.5649999999999999</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1">
-      <c r="A39" s="100" t="s">
+      <c r="B40" s="278">
+        <v>10.26</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="11.25" customHeight="1">
+      <c r="A41" s="100" t="s">
         <v>125</v>
       </c>
-      <c r="B39" s="278">
-        <v>10.26</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="11.25" customHeight="1">
-      <c r="A40" s="100" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="278">
+      <c r="B41" s="278">
         <v>5.6627999999999998</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A41" s="100" t="s">
-        <v>127</v>
-      </c>
-      <c r="B41" s="278">
-        <v>17.39</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="13.5" customHeight="1">
       <c r="A42" s="100" t="s">
-        <v>387</v>
-      </c>
-      <c r="B42" s="331">
+        <v>126</v>
+      </c>
+      <c r="B42" s="278">
+        <v>17.39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A43" s="100" t="s">
+        <v>386</v>
+      </c>
+      <c r="B43" s="331">
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18" customHeight="1">
-      <c r="A43" s="110" t="s">
+    <row r="44" spans="1:4" ht="18" customHeight="1">
+      <c r="A44" s="110" t="s">
+        <v>384</v>
+      </c>
+      <c r="B44" s="63"/>
+    </row>
+    <row r="45" spans="1:4" ht="13.5" customHeight="1">
+      <c r="A45" s="100" t="s">
         <v>385</v>
       </c>
-      <c r="B43" s="63"/>
-    </row>
-    <row r="44" spans="1:4" ht="13.5" customHeight="1">
-      <c r="A44" s="100" t="s">
-        <v>386</v>
-      </c>
-      <c r="B44" s="106">
-        <f>ABS(B8)+B13/2*(B11+B17)/57.3-0.5*(B38+B13/2/B9*(B40-B38))</f>
+      <c r="B45" s="106">
+        <f>ABS(B8)+B13/2*(B11+B17)/57.3-0.5*(B39+B13/2/B9*(B41-B39))</f>
         <v>4.4262262216404888</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="5"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="111" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" s="279">
-        <v>3.5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" t="s">
-        <v>129</v>
-      </c>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B48" s="279">
+        <v>3.5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
+      </c>
+      <c r="D48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="279">
+        <v>1.8859999999999999</v>
+      </c>
+      <c r="C49" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="273" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="10.9" customHeight="1">
+      <c r="A50" s="111" t="s">
         <v>130</v>
       </c>
-      <c r="B48" s="279">
-        <v>1.8859999999999999</v>
-      </c>
-      <c r="C48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="273" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="10.9" customHeight="1">
-      <c r="A49" s="111" t="s">
+      <c r="B50" s="279">
+        <v>1.6586999999999998</v>
+      </c>
+      <c r="C50" t="s">
+        <v>85</v>
+      </c>
+      <c r="D50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="279">
-        <v>1.6586999999999998</v>
-      </c>
-      <c r="C49" t="s">
-        <v>86</v>
-      </c>
-      <c r="D49" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="111" t="s">
+      <c r="B51" s="279">
+        <v>0.05</v>
+      </c>
+      <c r="C51" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="273" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B50" s="279">
-        <v>4.9500000000000002E-2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>86</v>
-      </c>
-      <c r="D50" s="273" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="18" t="s">
+      <c r="B52" s="280">
+        <v>7850</v>
+      </c>
+      <c r="C52" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="280">
+      <c r="B53" s="279">
+        <v>-3.3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B54" s="279">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="279">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="18"/>
+      <c r="B56" s="125"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="112" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="126"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B58" s="279">
+        <v>1.98</v>
+      </c>
+      <c r="C58" t="s">
+        <v>85</v>
+      </c>
+      <c r="D58" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="279">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="279">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="C60" t="s">
+        <v>85</v>
+      </c>
+      <c r="D60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" s="280">
         <v>7850</v>
       </c>
-      <c r="C51" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B52" s="279">
-        <v>-3.3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="18" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="18" t="s">
+      <c r="B62" s="279">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="D62" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B53" s="279">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B54" s="279">
-        <v>0</v>
-      </c>
-      <c r="C54" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="18"/>
-      <c r="B55" s="125"/>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="112" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="126"/>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B57" s="279">
+      <c r="B63" s="279">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="18"/>
+      <c r="B64" s="125"/>
+      <c r="H64" s="104">
+        <f>B58</f>
         <v>1.98</v>
       </c>
-      <c r="C57" t="s">
-        <v>86</v>
-      </c>
-      <c r="D57" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B58" s="279">
-        <v>0.60419999999999996</v>
-      </c>
-      <c r="C58" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B59" s="279">
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="C59" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="18" t="s">
+      <c r="I64" t="s">
+        <v>422</v>
+      </c>
+      <c r="J64" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="112" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" s="126"/>
+      <c r="H65">
+        <f>B59/2</f>
+        <v>0.30209999999999998</v>
+      </c>
+      <c r="I65">
+        <f>B61*H64*PI()*(H65^2-H66^2)</f>
+        <v>3464.8709598770952</v>
+      </c>
+      <c r="J65">
+        <f>0.5*I65*(H65^2+H66^2)</f>
+        <v>193.2889699041605</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" s="279">
+        <v>-2.31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66" t="s">
+        <v>145</v>
+      </c>
+      <c r="H66">
+        <f>B60/2</f>
+        <v>0.14249999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67" s="279">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="279">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B69" s="279">
+        <v>-0.66</v>
+      </c>
+      <c r="C69" t="s">
+        <v>85</v>
+      </c>
+      <c r="D69" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="279">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="279">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="18"/>
+      <c r="B72" s="126"/>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="112" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="126"/>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B74" s="281">
+        <v>10602.62</v>
+      </c>
+      <c r="C74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D74" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="280">
-        <v>7850</v>
-      </c>
-      <c r="C60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="18" t="s">
+      <c r="B75" s="279">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>85</v>
+      </c>
+      <c r="D75" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="279">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="B61" s="279">
-        <v>0</v>
-      </c>
-      <c r="C61" t="s">
-        <v>86</v>
-      </c>
-      <c r="D61" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B62" s="279">
-        <v>0</v>
-      </c>
-      <c r="C62" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="18"/>
-      <c r="B63" s="125"/>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="112" t="s">
-        <v>144</v>
-      </c>
-      <c r="B64" s="126"/>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="B65" s="279">
-        <v>-2.31</v>
-      </c>
-      <c r="C65" t="s">
-        <v>86</v>
-      </c>
-      <c r="D65" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="18" t="s">
-        <v>147</v>
-      </c>
-      <c r="B66" s="279">
-        <v>0</v>
-      </c>
-      <c r="C66" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B67" s="279">
-        <v>0</v>
-      </c>
-      <c r="C67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="B68" s="279">
-        <v>-0.66</v>
-      </c>
-      <c r="C68" t="s">
-        <v>86</v>
-      </c>
-      <c r="D68" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B69" s="279">
-        <v>0</v>
-      </c>
-      <c r="C69" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="B70" s="279">
-        <v>0</v>
-      </c>
-      <c r="C70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="18"/>
-      <c r="B71" s="126"/>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="112" t="s">
-        <v>153</v>
-      </c>
-      <c r="B72" s="126"/>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B73" s="281">
-        <v>10602.62</v>
-      </c>
-      <c r="C73" t="s">
-        <v>118</v>
-      </c>
-      <c r="D73" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B74" s="279">
-        <v>0</v>
-      </c>
-      <c r="C74" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="B77" s="279">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="B78" s="279">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="B79" s="279">
+        <v>1800</v>
+      </c>
+      <c r="C79" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="18" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75" s="279">
-        <v>0</v>
-      </c>
-      <c r="C75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B76" s="279">
-        <v>0</v>
-      </c>
-      <c r="C76" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="B77" s="279">
-        <v>75</v>
-      </c>
-      <c r="C77" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="B78" s="279">
-        <v>1800</v>
-      </c>
-      <c r="C78" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="18" t="s">
+      <c r="B80" s="335">
+        <f>1800/B81</f>
+        <v>87.964594300514221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="B79" s="335">
-        <f>1800/B80</f>
-        <v>87.964594300514221</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="18" t="s">
+      <c r="B81" s="335">
+        <f>B78/B13*2*30/PI()</f>
+        <v>20.462778397529398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="18"/>
+      <c r="B82" s="124"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="B80" s="335">
-        <f>B77/B13*2*30/PI()</f>
-        <v>20.462778397529398</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="18"/>
-      <c r="B81" s="124"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="B82" s="126"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="B83" s="282">
-        <v>1500</v>
-      </c>
-      <c r="C83" t="s">
-        <v>161</v>
-      </c>
+      <c r="B83" s="126"/>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B84" s="279">
-        <v>0.82499999999999996</v>
+        <v>159</v>
+      </c>
+      <c r="B84" s="282">
+        <v>1500</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
-      </c>
-      <c r="D84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B85" s="283">
-        <v>0</v>
+        <v>133</v>
+      </c>
+      <c r="B85" s="279">
+        <v>0.82499999999999996</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="D85" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B86" s="283">
         <v>0</v>
       </c>
       <c r="C86" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="18"/>
-      <c r="B87" s="127"/>
+      <c r="A87" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="283">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="112" t="s">
-        <v>163</v>
-      </c>
-      <c r="B88" s="127"/>
+      <c r="A88" s="332" t="s">
+        <v>446</v>
+      </c>
+      <c r="B88" s="383">
+        <v>53.036000000000001</v>
+      </c>
+      <c r="C88" s="381" t="s">
+        <v>447</v>
+      </c>
+      <c r="D88" s="384" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B89" s="283">
-        <v>2.31</v>
-      </c>
-      <c r="C89" t="s">
-        <v>86</v>
-      </c>
-      <c r="D89" t="s">
-        <v>164</v>
-      </c>
+      <c r="A89" s="18"/>
+      <c r="B89" s="127"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="B90" s="279">
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="C90" t="s">
-        <v>86</v>
-      </c>
-      <c r="D90" t="s">
-        <v>166</v>
-      </c>
+      <c r="A90" s="112" t="s">
+        <v>162</v>
+      </c>
+      <c r="B90" s="127"/>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="B91" s="279">
-        <v>1.1880000000000002</v>
+        <v>138</v>
+      </c>
+      <c r="B91" s="283">
+        <v>2.31</v>
       </c>
       <c r="C91" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="D91" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="18" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B92" s="279">
-        <v>0.191</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="C92" t="s">
-        <v>86</v>
+        <v>85</v>
+      </c>
+      <c r="D92" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B93" s="279">
-        <v>0.17399999999999999</v>
+        <v>1.1880000000000002</v>
       </c>
       <c r="C93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B94" s="280">
-        <v>7850</v>
+        <v>167</v>
+      </c>
+      <c r="B94" s="279">
+        <v>0.191</v>
       </c>
       <c r="C94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B95" s="283">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="B95" s="279">
+        <v>0.17399999999999999</v>
       </c>
       <c r="C95" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B96" s="283">
-        <v>0</v>
+        <v>132</v>
+      </c>
+      <c r="B96" s="280">
+        <v>7850</v>
       </c>
       <c r="C96" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="18" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B97" s="283">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B98" s="283">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" s="283">
         <v>-0.80500000000000005</v>
       </c>
-      <c r="C97" t="s">
-        <v>86</v>
-      </c>
-      <c r="D97" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11">
-      <c r="A99" s="112" t="s">
+      <c r="C99" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101" s="112" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102" s="332" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
-      <c r="A100" s="332" t="s">
+      <c r="B102" s="333">
+        <f>'Blade Data'!R32*B10+E8</f>
+        <v>32166.678162056698</v>
+      </c>
+      <c r="C102" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103" s="332" t="s">
         <v>391</v>
       </c>
-      <c r="B100" s="333">
-        <f>'Blade Data'!R32*B10+E8</f>
-        <v>32015.626460281281</v>
-      </c>
-      <c r="C100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11">
-      <c r="A101" s="332" t="s">
-        <v>392</v>
-      </c>
-      <c r="B101" s="333">
+      <c r="B103" s="333">
         <f>E5+E6+E7</f>
         <v>52838.90825962169</v>
       </c>
-      <c r="C101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11">
-      <c r="A102" s="332" t="s">
-        <v>393</v>
-      </c>
-      <c r="B102" s="333">
-        <f>B100+B101</f>
-        <v>84854.534719902964</v>
-      </c>
-      <c r="C102" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="B103" s="333">
+      <c r="C103" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="332" t="s">
+        <v>392</v>
+      </c>
+      <c r="B104" s="333">
+        <f>B102+B103</f>
+        <v>85005.586421678396</v>
+      </c>
+      <c r="C104" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="B105" s="333">
         <f>GECtwrdata!O26</f>
         <v>125363.31583700494</v>
       </c>
-      <c r="C103" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11">
-      <c r="A104" t="s">
-        <v>348</v>
-      </c>
-      <c r="H104" t="s">
+      <c r="C105" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106" t="s">
+        <v>347</v>
+      </c>
+      <c r="H106" t="s">
+        <v>319</v>
+      </c>
+      <c r="I106" s="184"/>
+      <c r="J106" s="184"/>
+    </row>
+    <row r="107" spans="1:11" ht="14.25">
+      <c r="A107" s="185"/>
+      <c r="B107" s="186"/>
+      <c r="C107" s="187" t="s">
         <v>320</v>
       </c>
-      <c r="I104" s="184"/>
-      <c r="J104" s="184"/>
-    </row>
-    <row r="105" spans="1:11" ht="14.25">
-      <c r="A105" s="185"/>
-      <c r="B105" s="186"/>
-      <c r="C105" s="187" t="s">
+      <c r="D107" s="188"/>
+      <c r="E107" s="186"/>
+      <c r="F107" s="189" t="s">
         <v>321</v>
       </c>
-      <c r="D105" s="188"/>
-      <c r="E105" s="186"/>
-      <c r="F105" s="189" t="s">
-        <v>322</v>
-      </c>
-      <c r="G105" s="190"/>
-      <c r="H105" s="185"/>
-      <c r="I105" s="191" t="s">
+      <c r="G107" s="190"/>
+      <c r="H107" s="185"/>
+      <c r="I107" s="191" t="s">
+        <v>332</v>
+      </c>
+      <c r="J107" s="191" t="s">
         <v>333</v>
       </c>
-      <c r="J105" s="191" t="s">
+      <c r="K107" s="192" t="s">
         <v>334</v>
       </c>
-      <c r="K105" s="192" t="s">
+    </row>
+    <row r="108" spans="1:11" ht="13.5">
+      <c r="A108" s="193" t="s">
+        <v>87</v>
+      </c>
+      <c r="B108" s="177" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="106" spans="1:11" ht="13.5">
-      <c r="A106" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="B106" s="177" t="s">
+      <c r="C108" s="177" t="s">
         <v>336</v>
       </c>
-      <c r="C106" s="177" t="s">
+      <c r="D108" s="178" t="s">
         <v>337</v>
       </c>
-      <c r="D106" s="178" t="s">
+      <c r="E108" s="178" t="s">
         <v>338</v>
       </c>
-      <c r="E106" s="178" t="s">
+      <c r="F108" s="177" t="s">
         <v>339</v>
       </c>
-      <c r="F106" s="177" t="s">
+      <c r="G108" s="194" t="s">
         <v>340</v>
       </c>
-      <c r="G106" s="194" t="s">
+      <c r="H108" s="193" t="s">
+        <v>87</v>
+      </c>
+      <c r="I108" s="177" t="s">
         <v>341</v>
       </c>
-      <c r="H106" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="I106" s="177" t="s">
-        <v>342</v>
-      </c>
-      <c r="J106" s="177" t="s">
-        <v>342</v>
-      </c>
-      <c r="K106" s="195" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" ht="12">
-      <c r="A107" s="284">
+      <c r="J108" s="177" t="s">
+        <v>341</v>
+      </c>
+      <c r="K108" s="195" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="12">
+      <c r="A109" s="284">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B107" s="285">
+      <c r="B109" s="285">
         <v>952.73170702154005</v>
       </c>
-      <c r="C107" s="286">
+      <c r="C109" s="286">
         <v>4314766.098439455</v>
-      </c>
-      <c r="D107" s="287">
-        <v>3620</v>
-      </c>
-      <c r="E107" s="288">
-        <v>3620</v>
-      </c>
-      <c r="F107" s="286">
-        <v>4314766.098439455</v>
-      </c>
-      <c r="G107" s="289">
-        <v>3620</v>
-      </c>
-      <c r="H107" s="290">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I107" s="291">
-        <v>8.3897942957076286E-4</v>
-      </c>
-      <c r="J107" s="291">
-        <v>8.3897942957076286E-4</v>
-      </c>
-      <c r="K107" s="292">
-        <v>8.3897942957076286E-4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" ht="12">
-      <c r="A108" s="293">
-        <v>0.25</v>
-      </c>
-      <c r="B108" s="285">
-        <v>404.82301427952984</v>
-      </c>
-      <c r="C108" s="286">
-        <v>2429500</v>
-      </c>
-      <c r="D108" s="287">
-        <v>3620</v>
-      </c>
-      <c r="E108" s="288">
-        <v>3891.6881914728747</v>
-      </c>
-      <c r="F108" s="286">
-        <v>381175.3719549317</v>
-      </c>
-      <c r="G108" s="289">
-        <v>960.13709169347362</v>
-      </c>
-      <c r="H108" s="294">
-        <v>0.25</v>
-      </c>
-      <c r="I108" s="286">
-        <v>1.4900185223296974E-3</v>
-      </c>
-      <c r="J108" s="286">
-        <v>1.6018473724934655E-3</v>
-      </c>
-      <c r="K108" s="295">
-        <v>2.5188854326270468E-3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="12">
-      <c r="A109" s="293">
-        <v>0.5</v>
-      </c>
-      <c r="B109" s="285">
-        <v>250.47067332126738</v>
-      </c>
-      <c r="C109" s="286">
-        <v>1087060</v>
       </c>
       <c r="D109" s="287">
         <v>3620</v>
       </c>
       <c r="E109" s="288">
+        <v>3620</v>
+      </c>
+      <c r="F109" s="286">
+        <v>4314766.098439455</v>
+      </c>
+      <c r="G109" s="289">
+        <v>3620</v>
+      </c>
+      <c r="H109" s="290">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I109" s="291">
+        <v>8.3897942957076286E-4</v>
+      </c>
+      <c r="J109" s="291">
+        <v>8.3897942957076286E-4</v>
+      </c>
+      <c r="K109" s="292">
+        <v>8.3897942957076286E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="12">
+      <c r="A110" s="293">
+        <v>0.25</v>
+      </c>
+      <c r="B110" s="285">
+        <v>404.82301427952984</v>
+      </c>
+      <c r="C110" s="286">
+        <v>2429500</v>
+      </c>
+      <c r="D110" s="287">
+        <v>3620</v>
+      </c>
+      <c r="E110" s="288">
+        <v>3891.6881914728747</v>
+      </c>
+      <c r="F110" s="286">
+        <v>381175.3719549317</v>
+      </c>
+      <c r="G110" s="289">
+        <v>960.13709169347362</v>
+      </c>
+      <c r="H110" s="294">
+        <v>0.25</v>
+      </c>
+      <c r="I110" s="286">
+        <v>1.4900185223296974E-3</v>
+      </c>
+      <c r="J110" s="286">
+        <v>1.6018473724934655E-3</v>
+      </c>
+      <c r="K110" s="295">
+        <v>2.5188854326270468E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" ht="12">
+      <c r="A111" s="293">
+        <v>0.5</v>
+      </c>
+      <c r="B111" s="285">
+        <v>250.47067332126738</v>
+      </c>
+      <c r="C111" s="286">
+        <v>1087060</v>
+      </c>
+      <c r="D111" s="287">
+        <v>3620</v>
+      </c>
+      <c r="E111" s="288">
         <v>3826.5675588601162</v>
       </c>
-      <c r="F109" s="286">
+      <c r="F111" s="286">
         <v>176817.62236228006</v>
       </c>
-      <c r="G109" s="289">
+      <c r="G111" s="289">
         <v>960.13709169347362</v>
       </c>
-      <c r="H109" s="294">
+      <c r="H111" s="294">
         <v>0.5</v>
       </c>
-      <c r="I109" s="286">
+      <c r="I111" s="286">
         <v>3.3300829761006754E-3</v>
       </c>
-      <c r="J109" s="286">
+      <c r="J111" s="286">
         <v>3.5201070399611028E-3</v>
       </c>
-      <c r="K109" s="295">
+      <c r="K111" s="295">
         <v>5.4300984192981469E-3</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="12">
-      <c r="A110" s="296">
+    <row r="112" spans="1:11" ht="12">
+      <c r="A112" s="296">
         <v>0.75</v>
       </c>
-      <c r="B110" s="297">
+      <c r="B112" s="297">
         <v>152.6490092237247</v>
       </c>
-      <c r="C110" s="298">
+      <c r="C112" s="298">
         <v>273460</v>
       </c>
-      <c r="D110" s="299">
+      <c r="D112" s="299">
         <v>3620</v>
       </c>
-      <c r="E110" s="300">
+      <c r="E112" s="300">
         <v>3819.072160210982</v>
       </c>
-      <c r="F110" s="298">
+      <c r="F112" s="298">
         <v>66873.396648013819</v>
       </c>
-      <c r="G110" s="301">
+      <c r="G112" s="301">
         <v>960.13709169347362</v>
       </c>
-      <c r="H110" s="302">
+      <c r="H112" s="302">
         <v>0.75</v>
       </c>
-      <c r="I110" s="298">
+      <c r="I112" s="298">
         <v>1.3237767863672933E-2</v>
       </c>
-      <c r="J110" s="298">
+      <c r="J112" s="298">
         <v>1.3965743290466548E-2</v>
       </c>
-      <c r="K110" s="303">
+      <c r="K112" s="303">
         <v>1.4357534383173736E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
-      <c r="A112" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" ht="13.5">
-      <c r="A113" s="185"/>
-      <c r="B113" s="189" t="s">
+    <row r="114" spans="1:13">
+      <c r="A114" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="13.5">
+      <c r="A115" s="185"/>
+      <c r="B115" s="189" t="s">
+        <v>88</v>
+      </c>
+      <c r="C115" s="189" t="s">
+        <v>322</v>
+      </c>
+      <c r="D115" s="189" t="s">
         <v>89</v>
       </c>
-      <c r="C113" s="189" t="s">
+      <c r="E115" s="196" t="s">
         <v>323</v>
       </c>
-      <c r="D113" s="189" t="s">
+      <c r="F115" s="189" t="s">
+        <v>324</v>
+      </c>
+      <c r="G115" s="189" t="s">
+        <v>325</v>
+      </c>
+      <c r="H115" s="189" t="s">
+        <v>326</v>
+      </c>
+      <c r="I115" s="189" t="s">
+        <v>342</v>
+      </c>
+      <c r="J115" s="189" t="s">
+        <v>343</v>
+      </c>
+      <c r="K115" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="L115" s="189" t="s">
+        <v>112</v>
+      </c>
+      <c r="M115" s="197" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" ht="13.5">
+      <c r="A116" s="193" t="s">
+        <v>87</v>
+      </c>
+      <c r="B116" s="177" t="s">
         <v>90</v>
       </c>
-      <c r="E113" s="196" t="s">
-        <v>324</v>
-      </c>
-      <c r="F113" s="189" t="s">
-        <v>325</v>
-      </c>
-      <c r="G113" s="189" t="s">
-        <v>326</v>
-      </c>
-      <c r="H113" s="189" t="s">
+      <c r="C116" s="177" t="s">
         <v>327</v>
       </c>
-      <c r="I113" s="189" t="s">
-        <v>343</v>
-      </c>
-      <c r="J113" s="189" t="s">
-        <v>344</v>
-      </c>
-      <c r="K113" s="189" t="s">
-        <v>114</v>
-      </c>
-      <c r="L113" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="M113" s="197" t="s">
+      <c r="D116" s="177" t="s">
+        <v>328</v>
+      </c>
+      <c r="E116" s="177" t="s">
+        <v>329</v>
+      </c>
+      <c r="F116" s="177" t="s">
+        <v>329</v>
+      </c>
+      <c r="G116" s="177" t="s">
+        <v>329</v>
+      </c>
+      <c r="H116" s="177" t="s">
+        <v>330</v>
+      </c>
+      <c r="I116" s="177" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="13.5">
-      <c r="A114" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="B114" s="177" t="s">
-        <v>91</v>
-      </c>
-      <c r="C114" s="177" t="s">
-        <v>328</v>
-      </c>
-      <c r="D114" s="177" t="s">
-        <v>329</v>
-      </c>
-      <c r="E114" s="177" t="s">
-        <v>330</v>
-      </c>
-      <c r="F114" s="177" t="s">
-        <v>330</v>
-      </c>
-      <c r="G114" s="177" t="s">
-        <v>330</v>
-      </c>
-      <c r="H114" s="177" t="s">
+      <c r="J116" s="177" t="s">
+        <v>345</v>
+      </c>
+      <c r="K116" s="177" t="s">
         <v>331</v>
       </c>
-      <c r="I114" s="177" t="s">
-        <v>346</v>
-      </c>
-      <c r="J114" s="177" t="s">
-        <v>346</v>
-      </c>
-      <c r="K114" s="177" t="s">
-        <v>332</v>
-      </c>
-      <c r="L114" s="177" t="s">
-        <v>346</v>
-      </c>
-      <c r="M114" s="195" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
-      <c r="A115" s="304">
+      <c r="L116" s="177" t="s">
+        <v>345</v>
+      </c>
+      <c r="M116" s="195" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="304">
         <v>0.05</v>
       </c>
-      <c r="B115" s="305">
+      <c r="B117" s="305">
         <v>1.9250698501397006</v>
       </c>
-      <c r="C115" s="306">
+      <c r="C117" s="306">
         <v>1</v>
       </c>
-      <c r="D115" s="306" t="s">
-        <v>378</v>
-      </c>
-      <c r="E115" s="339">
+      <c r="D117" s="306" t="s">
+        <v>377</v>
+      </c>
+      <c r="E117" s="338">
         <v>0.25</v>
       </c>
-      <c r="F115" s="305">
+      <c r="F117" s="305">
         <v>0.5</v>
       </c>
-      <c r="G115" s="305">
+      <c r="G117" s="305">
         <v>0.5</v>
       </c>
-      <c r="H115" s="308">
+      <c r="H117" s="308">
         <v>1447.6067650097025</v>
       </c>
-      <c r="I115" s="309">
+      <c r="I117" s="309">
         <v>7681455580.9267292</v>
       </c>
-      <c r="J115" s="309">
+      <c r="J117" s="309">
         <v>7681455580.9267292</v>
       </c>
-      <c r="K115" s="309">
+      <c r="K117" s="309">
         <v>17152702552.539173</v>
       </c>
-      <c r="L115" s="309">
+      <c r="L117" s="309">
         <v>2655231266.008985</v>
       </c>
-      <c r="M115" s="310">
+      <c r="M117" s="310">
         <v>1292.0872285403536</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
-      <c r="A116" s="284">
+    <row r="118" spans="1:13">
+      <c r="A118" s="284">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B116" s="311">
+      <c r="B118" s="311">
         <v>1.8895199390398785</v>
       </c>
-      <c r="C116" s="312">
+      <c r="C118" s="312">
         <v>1</v>
       </c>
-      <c r="D116" s="312" t="s">
-        <v>378</v>
-      </c>
-      <c r="E116" s="339">
+      <c r="D118" s="312" t="s">
+        <v>377</v>
+      </c>
+      <c r="E118" s="338">
         <v>0.25</v>
       </c>
-      <c r="F116" s="311">
+      <c r="F118" s="311">
         <v>0.5</v>
       </c>
-      <c r="G116" s="311">
+      <c r="G118" s="311">
         <v>0.5</v>
       </c>
-      <c r="H116" s="313">
+      <c r="H118" s="313">
         <v>175.09526752452746</v>
       </c>
-      <c r="I116" s="314">
+      <c r="I118" s="314">
         <v>1135890133.898103</v>
       </c>
-      <c r="J116" s="314">
+      <c r="J118" s="314">
         <v>1135890133.898103</v>
       </c>
-      <c r="K116" s="314">
+      <c r="K118" s="314">
         <v>2564102972.7290158</v>
       </c>
-      <c r="L116" s="314">
+      <c r="L118" s="314">
         <v>396922874.29357898</v>
       </c>
-      <c r="M116" s="315">
+      <c r="M118" s="315">
         <v>156.28440292953599</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
-      <c r="A117" s="293">
-        <v>0.25</v>
-      </c>
-      <c r="B117" s="311">
-        <v>2.8001016002032006</v>
-      </c>
-      <c r="C117" s="312">
-        <v>0.3</v>
-      </c>
-      <c r="D117" s="312">
-        <v>4.0013725457641511</v>
-      </c>
-      <c r="E117" s="307">
-        <v>0.34</v>
-      </c>
-      <c r="F117" s="311">
-        <v>0.41002988816858021</v>
-      </c>
-      <c r="G117" s="311">
-        <v>0.32873282532820286</v>
-      </c>
-      <c r="H117" s="313">
-        <v>186.9057949192036</v>
-      </c>
-      <c r="I117" s="314">
-        <v>271763137.89022917</v>
-      </c>
-      <c r="J117" s="314">
-        <v>703333384.04530549</v>
-      </c>
-      <c r="K117" s="316">
-        <v>2443063660.8188953</v>
-      </c>
-      <c r="L117" s="316">
-        <v>18842756.85303637</v>
-      </c>
-      <c r="M117" s="317">
-        <v>84.977866851913092</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118" s="293">
-        <v>0.5</v>
-      </c>
-      <c r="B118" s="311">
-        <v>2.1468122936245875</v>
-      </c>
-      <c r="C118" s="312">
-        <v>0.24</v>
-      </c>
-      <c r="D118" s="312">
-        <v>6.7200108877128066</v>
-      </c>
-      <c r="E118" s="307">
-        <v>0.31</v>
-      </c>
-      <c r="F118" s="311">
-        <v>0.38649869580913698</v>
-      </c>
-      <c r="G118" s="311">
-        <v>0.3240414781728897</v>
-      </c>
-      <c r="H118" s="313">
-        <v>138.12296357376664</v>
-      </c>
-      <c r="I118" s="314">
-        <v>75234813.639765084</v>
-      </c>
-      <c r="J118" s="314">
-        <v>255870093.3882812</v>
-      </c>
-      <c r="K118" s="316">
-        <v>1809554986.9197025</v>
-      </c>
-      <c r="L118" s="316">
-        <v>8477345.5047051143</v>
-      </c>
-      <c r="M118" s="317">
-        <v>30.021881657931356</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" s="293">
+        <v>0.25</v>
+      </c>
+      <c r="B119" s="311">
+        <v>2.8001016002032006</v>
+      </c>
+      <c r="C119" s="312">
+        <v>0.3</v>
+      </c>
+      <c r="D119" s="312">
+        <v>4.0013725457641511</v>
+      </c>
+      <c r="E119" s="307">
+        <v>0.34</v>
+      </c>
+      <c r="F119" s="311">
+        <v>0.41002988816858021</v>
+      </c>
+      <c r="G119" s="311">
+        <v>0.32873282532820286</v>
+      </c>
+      <c r="H119" s="313">
+        <v>186.9057949192036</v>
+      </c>
+      <c r="I119" s="314">
+        <v>271763137.89022917</v>
+      </c>
+      <c r="J119" s="314">
+        <v>703333384.04530549</v>
+      </c>
+      <c r="K119" s="316">
+        <v>2443063660.8188953</v>
+      </c>
+      <c r="L119" s="316">
+        <v>18842756.85303637</v>
+      </c>
+      <c r="M119" s="317">
+        <v>84.977866851913092</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="293">
+        <v>0.5</v>
+      </c>
+      <c r="B120" s="311">
+        <v>2.1468122936245875</v>
+      </c>
+      <c r="C120" s="312">
+        <v>0.24</v>
+      </c>
+      <c r="D120" s="312">
+        <v>6.7200108877128066</v>
+      </c>
+      <c r="E120" s="307">
+        <v>0.31</v>
+      </c>
+      <c r="F120" s="311">
+        <v>0.38649869580913698</v>
+      </c>
+      <c r="G120" s="311">
+        <v>0.3240414781728897</v>
+      </c>
+      <c r="H120" s="313">
+        <v>138.12296357376664</v>
+      </c>
+      <c r="I120" s="314">
+        <v>75234813.639765084</v>
+      </c>
+      <c r="J120" s="314">
+        <v>255870093.3882812</v>
+      </c>
+      <c r="K120" s="316">
+        <v>1809554986.9197025</v>
+      </c>
+      <c r="L120" s="316">
+        <v>8477345.5047051143</v>
+      </c>
+      <c r="M120" s="317">
+        <v>30.021881657931356</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="293">
         <v>0.75</v>
       </c>
-      <c r="B119" s="311">
+      <c r="B121" s="311">
         <v>1.4937769875539753</v>
       </c>
-      <c r="C119" s="312">
+      <c r="C121" s="312">
         <v>0.21</v>
       </c>
-      <c r="D119" s="312">
+      <c r="D121" s="312">
         <v>6.2038591936354734</v>
       </c>
-      <c r="E119" s="307">
+      <c r="E121" s="307">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F119" s="311">
+      <c r="F121" s="311">
         <v>0.40257796771355664</v>
       </c>
-      <c r="G119" s="311">
+      <c r="G121" s="311">
         <v>0.327834346949612</v>
       </c>
-      <c r="H119" s="313">
+      <c r="H121" s="313">
         <v>61.988105452646913</v>
       </c>
-      <c r="I119" s="314">
+      <c r="I121" s="314">
         <v>11534432.983097235</v>
       </c>
-      <c r="J119" s="314">
+      <c r="J121" s="314">
         <v>65848849.292116806</v>
       </c>
-      <c r="K119" s="316">
+      <c r="K121" s="316">
         <v>788312554.19834387</v>
       </c>
-      <c r="L119" s="316">
+      <c r="L121" s="316">
         <v>1678043.4287947295</v>
       </c>
-      <c r="M119" s="317">
+      <c r="M121" s="317">
         <v>6.9998727386933259</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
-      <c r="A120" s="318">
+    <row r="122" spans="1:13">
+      <c r="A122" s="318">
         <v>1</v>
       </c>
-      <c r="B120" s="319">
+      <c r="B122" s="319">
         <v>0.90601981203962423</v>
       </c>
-      <c r="C120" s="320">
+      <c r="C122" s="320">
         <v>0.16</v>
       </c>
-      <c r="D120" s="320">
-        <v>0</v>
-      </c>
-      <c r="E120" s="319">
+      <c r="D122" s="320">
+        <v>0</v>
+      </c>
+      <c r="E122" s="319">
         <v>0.25</v>
       </c>
-      <c r="F120" s="319">
+      <c r="F122" s="319">
         <v>0.49249999999999999</v>
       </c>
-      <c r="G120" s="319">
+      <c r="G122" s="319">
         <v>0.35780000000000001</v>
       </c>
-      <c r="H120" s="321">
+      <c r="H122" s="321">
         <v>11.352890666908433</v>
       </c>
-      <c r="I120" s="322">
+      <c r="I122" s="322">
         <v>231293.14864714985</v>
       </c>
-      <c r="J120" s="322">
+      <c r="J122" s="322">
         <v>7874070.2274504323</v>
       </c>
-      <c r="K120" s="323">
+      <c r="K122" s="323">
         <v>118472290.90243222</v>
       </c>
-      <c r="L120" s="323">
+      <c r="L122" s="323">
         <v>179433.04791581735</v>
       </c>
-      <c r="M120" s="324">
+      <c r="M122" s="324">
         <v>0.76662287964958964</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
-      <c r="B122" s="18" t="s">
+    <row r="124" spans="1:13">
+      <c r="B124" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="C124" s="200"/>
+      <c r="D124" t="s">
         <v>350</v>
       </c>
-      <c r="C122" s="200"/>
-      <c r="D122" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
-      <c r="A124" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
-      <c r="A125" s="185"/>
-      <c r="B125" s="231" t="s">
-        <v>364</v>
-      </c>
-      <c r="C125" s="351" t="s">
-        <v>407</v>
-      </c>
-      <c r="D125" s="190"/>
-    </row>
-    <row r="126" spans="1:13" ht="12">
-      <c r="A126" s="193" t="s">
-        <v>88</v>
-      </c>
-      <c r="B126" s="234" t="s">
-        <v>367</v>
-      </c>
-      <c r="C126" s="226"/>
-      <c r="D126" s="227"/>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="127" spans="1:13">
-      <c r="A127" s="237">
-        <f t="shared" ref="A127:A132" si="0">A115</f>
+      <c r="A127" s="185"/>
+      <c r="B127" s="231" t="s">
+        <v>363</v>
+      </c>
+      <c r="C127" s="350" t="s">
+        <v>406</v>
+      </c>
+      <c r="D127" s="190"/>
+    </row>
+    <row r="128" spans="1:13" ht="12">
+      <c r="A128" s="193" t="s">
+        <v>87</v>
+      </c>
+      <c r="B128" s="234" t="s">
+        <v>366</v>
+      </c>
+      <c r="C128" s="226"/>
+      <c r="D128" s="227"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="237">
+        <f t="shared" ref="A129:A134" si="0">A117</f>
         <v>0.05</v>
       </c>
-      <c r="B127" s="257">
+      <c r="B129" s="257">
         <v>10.5</v>
       </c>
-      <c r="C127" s="325"/>
-      <c r="D127" s="345">
+      <c r="C129" s="325"/>
+      <c r="D129" s="344">
         <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="A128" s="242">
-        <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B128" s="258">
-        <v>10.5</v>
-      </c>
-      <c r="C128" s="326"/>
-      <c r="D128" s="347">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="242">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="B129" s="328">
-        <v>10.5</v>
-      </c>
-      <c r="C129" s="352"/>
-      <c r="D129" s="347">
-        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="242">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-      <c r="B130" s="328">
-        <v>2.5</v>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B130" s="258">
+        <v>10.5</v>
       </c>
       <c r="C130" s="326"/>
-      <c r="D130" s="347">
-        <v>2.5</v>
+      <c r="D130" s="346">
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="242">
         <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="B131" s="328">
+        <v>10.5</v>
+      </c>
+      <c r="C131" s="351"/>
+      <c r="D131" s="346">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="242">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="B132" s="328">
+        <v>2.5</v>
+      </c>
+      <c r="C132" s="326"/>
+      <c r="D132" s="346">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="242">
+        <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
-      <c r="B131" s="328">
-        <v>0</v>
-      </c>
-      <c r="C131" s="326"/>
-      <c r="D131" s="347">
+      <c r="B133" s="328">
+        <v>0</v>
+      </c>
+      <c r="C133" s="326"/>
+      <c r="D133" s="346">
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="248">
+    <row r="134" spans="1:4">
+      <c r="A134" s="248">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B132" s="329">
+      <c r="B134" s="329">
         <v>-0.6</v>
       </c>
-      <c r="C132" s="327"/>
-      <c r="D132" s="353">
+      <c r="C134" s="327"/>
+      <c r="D134" s="352">
         <v>4</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="12">
-      <c r="A134" s="340" t="s">
+    <row r="136" spans="1:4" ht="12">
+      <c r="A136" s="339" t="s">
+        <v>403</v>
+      </c>
+      <c r="B136" s="340" t="s">
         <v>404</v>
       </c>
-      <c r="B134" s="341" t="s">
+      <c r="C136" s="341"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="342">
+        <v>1</v>
+      </c>
+      <c r="B137" s="343"/>
+      <c r="C137" s="344" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="342">
+        <v>2</v>
+      </c>
+      <c r="B138" s="345"/>
+      <c r="C138" s="346" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="342">
+        <v>3</v>
+      </c>
+      <c r="B139" s="345"/>
+      <c r="C139" s="346" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="347">
+        <v>4</v>
+      </c>
+      <c r="B140" s="348"/>
+      <c r="C140" s="349" t="s">
         <v>405</v>
       </c>
-      <c r="C134" s="342"/>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="343">
-        <v>1</v>
-      </c>
-      <c r="B135" s="344"/>
-      <c r="C135" s="345" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="343">
-        <v>2</v>
-      </c>
-      <c r="B136" s="346"/>
-      <c r="C136" s="347" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="343">
-        <v>3</v>
-      </c>
-      <c r="B137" s="346"/>
-      <c r="C137" s="347" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="348">
-        <v>4</v>
-      </c>
-      <c r="B138" s="349"/>
-      <c r="C138" s="350" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="12" thickBot="1"/>
-    <row r="140" spans="1:4" ht="12" thickBot="1">
-      <c r="A140" s="358" t="s">
-        <v>408</v>
-      </c>
-      <c r="B140" s="359"/>
-      <c r="C140" s="360"/>
-    </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="93" t="s">
+    </row>
+    <row r="141" spans="1:4" ht="12" thickBot="1"/>
+    <row r="142" spans="1:4" ht="12" thickBot="1">
+      <c r="A142" s="358" t="s">
+        <v>407</v>
+      </c>
+      <c r="B142" s="359"/>
+      <c r="C142" s="360"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="B141" s="354" t="s">
+      <c r="B143" s="353" t="s">
         <v>36</v>
       </c>
-      <c r="C141" s="355" t="s">
+      <c r="C143" s="354" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="12" thickBot="1">
-      <c r="A142" s="266">
+    <row r="144" spans="1:4" ht="12" thickBot="1">
+      <c r="A144" s="266">
         <v>0.01</v>
       </c>
-      <c r="B142" s="356">
+      <c r="B144" s="355">
         <v>0.01</v>
       </c>
-      <c r="C142" s="357">
+      <c r="C144" s="356">
         <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="A142:C142"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C1:H1"/>
@@ -7181,360 +7425,677 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:23">
       <c r="A1">
         <f>'Main Page'!B13</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="W1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
-        <f>'Main Page'!B47</f>
+        <f>'Main Page'!B48</f>
         <v>3.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="W2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="str">
-        <f>'Main Page'!C135</f>
+        <f>'Main Page'!C137</f>
         <v>cylinder</v>
       </c>
       <c r="B3" t="str">
-        <f>'Main Page'!C136</f>
+        <f>'Main Page'!C138</f>
         <v>s818_2702.dat</v>
       </c>
       <c r="C3" t="str">
-        <f>'Main Page'!C137</f>
+        <f>'Main Page'!C139</f>
         <v>s825_2102.dat</v>
       </c>
       <c r="D3" t="str">
-        <f>'Main Page'!C138</f>
+        <f>'Main Page'!C140</f>
         <v>s826_1602.dat</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="W3" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
-        <f>'Main Page'!A142</f>
+        <f>'Main Page'!A144</f>
         <v>0.01</v>
       </c>
       <c r="B4">
-        <f>'Main Page'!B142</f>
+        <f>'Main Page'!B144</f>
         <v>0.01</v>
       </c>
       <c r="C4">
-        <f>'Main Page'!C142</f>
+        <f>'Main Page'!C144</f>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="103" t="str">
-        <f>'Main Page'!A114</f>
+      <c r="W4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="382">
+        <v>0.05</v>
+      </c>
+      <c r="B5" s="382">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C5" s="382">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="382">
+        <v>0.15</v>
+      </c>
+      <c r="E5" s="382">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="382">
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="382">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="382">
+        <v>0.35</v>
+      </c>
+      <c r="I5" s="382">
+        <v>0.4</v>
+      </c>
+      <c r="J5" s="382">
+        <v>0.45</v>
+      </c>
+      <c r="K5" s="382">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="382">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M5" s="382">
+        <v>0.6</v>
+      </c>
+      <c r="N5" s="382">
+        <v>0.65</v>
+      </c>
+      <c r="O5" s="382">
+        <v>0.7</v>
+      </c>
+      <c r="P5" s="382">
+        <v>0.75</v>
+      </c>
+      <c r="Q5" s="382">
+        <v>0.8</v>
+      </c>
+      <c r="R5" s="382">
+        <v>0.85</v>
+      </c>
+      <c r="S5" s="382">
+        <v>0.9</v>
+      </c>
+      <c r="T5" s="382">
+        <v>0.95</v>
+      </c>
+      <c r="U5" s="382">
+        <v>1</v>
+      </c>
+      <c r="W5" s="381" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="389">
+        <v>0.05</v>
+      </c>
+      <c r="B6" s="389">
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="C6" s="389">
+        <v>0.17666666666666664</v>
+      </c>
+      <c r="D6" s="389">
+        <v>0.24</v>
+      </c>
+      <c r="E6" s="389">
+        <v>0.30333333333333329</v>
+      </c>
+      <c r="F6" s="389">
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="G6" s="389">
+        <v>0.43</v>
+      </c>
+      <c r="H6" s="389">
+        <v>0.49333333333333329</v>
+      </c>
+      <c r="I6" s="389">
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="J6" s="389">
+        <v>0.62</v>
+      </c>
+      <c r="K6" s="389">
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="L6" s="389">
+        <v>0.74666666666666659</v>
+      </c>
+      <c r="M6" s="389">
+        <v>0.81</v>
+      </c>
+      <c r="N6" s="389">
+        <v>0.87333333333333341</v>
+      </c>
+      <c r="O6" s="389">
+        <v>0.93666666666666665</v>
+      </c>
+      <c r="P6" s="389">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="102"/>
+      <c r="W6" s="381" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <f>'Main Page'!B33</f>
+        <v>2.6</v>
+      </c>
+      <c r="B7" s="388"/>
+      <c r="C7" s="388"/>
+      <c r="D7" s="388"/>
+      <c r="E7" s="388"/>
+      <c r="F7" s="388"/>
+      <c r="G7" s="388"/>
+      <c r="H7" s="388"/>
+      <c r="I7" s="388"/>
+      <c r="J7" s="388"/>
+      <c r="K7" s="388"/>
+      <c r="L7" s="388"/>
+      <c r="M7" s="388"/>
+      <c r="N7" s="388"/>
+      <c r="O7" s="388"/>
+      <c r="P7" s="388"/>
+      <c r="Q7" s="102"/>
+      <c r="W7" s="381" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <f>'Main Page'!B34</f>
+        <v>90</v>
+      </c>
+      <c r="B8" s="388"/>
+      <c r="C8" s="388"/>
+      <c r="D8" s="388"/>
+      <c r="E8" s="388"/>
+      <c r="F8" s="388"/>
+      <c r="G8" s="388"/>
+      <c r="H8" s="388"/>
+      <c r="I8" s="388"/>
+      <c r="J8" s="388"/>
+      <c r="K8" s="388"/>
+      <c r="L8" s="388"/>
+      <c r="M8" s="388"/>
+      <c r="N8" s="388"/>
+      <c r="O8" s="388"/>
+      <c r="P8" s="388"/>
+      <c r="Q8" s="102"/>
+      <c r="W8" s="381" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="103" t="str">
+        <f>'Main Page'!A116</f>
         <v>Station</v>
       </c>
-      <c r="B5" s="103" t="str">
-        <f>'Main Page'!H113</f>
+      <c r="B9" s="103" t="str">
+        <f>'Main Page'!H115</f>
         <v>Unit Weight</v>
       </c>
-      <c r="C5" s="103" t="str">
-        <f>'Main Page'!B125</f>
+      <c r="C9" s="103" t="str">
+        <f>'Main Page'!B127</f>
         <v>Twist</v>
       </c>
-      <c r="D5" s="103" t="str">
-        <f>'Main Page'!L113</f>
+      <c r="D9" s="103" t="str">
+        <f>'Main Page'!L115</f>
         <v>GJ</v>
       </c>
-      <c r="E5" s="103" t="str">
-        <f>'Main Page'!K113</f>
+      <c r="E9" s="103" t="str">
+        <f>'Main Page'!K115</f>
         <v>EA</v>
       </c>
-      <c r="F5" s="103" t="str">
-        <f>'Main Page'!J113</f>
+      <c r="F9" s="103" t="str">
+        <f>'Main Page'!J115</f>
         <v>EIEdge</v>
       </c>
-      <c r="G5" s="103" t="str">
-        <f>'Main Page'!I113</f>
+      <c r="G9" s="103" t="str">
+        <f>'Main Page'!I115</f>
         <v>EIFlap</v>
       </c>
-      <c r="H5" s="103" t="str">
-        <f>'Main Page'!B113</f>
+      <c r="H9" s="103" t="str">
+        <f>'Main Page'!B115</f>
         <v>Chord</v>
       </c>
-      <c r="I5" s="103" t="str">
-        <f>'Main Page'!E113</f>
+      <c r="I9" s="103" t="str">
+        <f>'Main Page'!E115</f>
         <v>Gen. Axis Loc.</v>
       </c>
-      <c r="J5" s="103" t="str">
-        <f>'Main Page'!A134</f>
+      <c r="J9" s="103" t="str">
+        <f>'Main Page'!A136</f>
         <v>Airfoil ID</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="103">
-        <f>'Main Page'!A115</f>
+      <c r="W9" s="381" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="103">
+        <f>'Main Page'!A117</f>
         <v>0.05</v>
       </c>
-      <c r="B6" s="103">
-        <f>'Main Page'!H115</f>
+      <c r="B10" s="103">
+        <f>'Main Page'!H117</f>
         <v>1447.6067650097025</v>
       </c>
-      <c r="C6" s="103">
-        <f>'Main Page'!B127 - 'Main Page'!B$132</f>
+      <c r="C10" s="103">
+        <f>'Main Page'!B129 - 'Main Page'!B$134</f>
         <v>11.1</v>
       </c>
-      <c r="D6" s="103">
-        <f>'Main Page'!L115</f>
+      <c r="D10" s="103">
+        <f>'Main Page'!L117</f>
         <v>2655231266.008985</v>
       </c>
-      <c r="E6" s="103">
-        <f>'Main Page'!K115</f>
+      <c r="E10" s="103">
+        <f>'Main Page'!K117</f>
         <v>17152702552.539173</v>
       </c>
-      <c r="F6" s="103">
-        <f>'Main Page'!J115</f>
+      <c r="F10" s="103">
+        <f>'Main Page'!J117</f>
         <v>7681455580.9267292</v>
       </c>
-      <c r="G6" s="103">
-        <f>'Main Page'!I115</f>
+      <c r="G10" s="103">
+        <f>'Main Page'!I117</f>
         <v>7681455580.9267292</v>
       </c>
-      <c r="H6" s="103">
-        <f>'Main Page'!B115</f>
+      <c r="H10" s="103">
+        <f>'Main Page'!B117</f>
         <v>1.9250698501397006</v>
       </c>
-      <c r="I6" s="103">
-        <f>'Main Page'!E115</f>
+      <c r="I10" s="103">
+        <f>'Main Page'!E117</f>
         <v>0.25</v>
       </c>
-      <c r="J6" s="103">
-        <f>'Main Page'!D127</f>
+      <c r="J10" s="103">
+        <f>'Main Page'!D129</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="103">
-        <f>'Main Page'!A116</f>
+    <row r="11" spans="1:23">
+      <c r="A11" s="103">
+        <f>'Main Page'!A118</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="B7" s="103">
-        <f>'Main Page'!H116</f>
+      <c r="B11" s="103">
+        <f>'Main Page'!H118</f>
         <v>175.09526752452746</v>
       </c>
-      <c r="C7" s="103">
-        <f>'Main Page'!B128 - 'Main Page'!B$132</f>
+      <c r="C11" s="103">
+        <f>'Main Page'!B130 - 'Main Page'!B$134</f>
         <v>11.1</v>
       </c>
-      <c r="D7" s="103">
-        <f>'Main Page'!L116</f>
+      <c r="D11" s="103">
+        <f>'Main Page'!L118</f>
         <v>396922874.29357898</v>
       </c>
-      <c r="E7" s="103">
-        <f>'Main Page'!K116</f>
+      <c r="E11" s="103">
+        <f>'Main Page'!K118</f>
         <v>2564102972.7290158</v>
       </c>
-      <c r="F7" s="103">
-        <f>'Main Page'!J116</f>
+      <c r="F11" s="103">
+        <f>'Main Page'!J118</f>
         <v>1135890133.898103</v>
       </c>
-      <c r="G7" s="103">
-        <f>'Main Page'!I116</f>
+      <c r="G11" s="103">
+        <f>'Main Page'!I118</f>
         <v>1135890133.898103</v>
       </c>
-      <c r="H7" s="103">
-        <f>'Main Page'!B116</f>
+      <c r="H11" s="103">
+        <f>'Main Page'!B118</f>
         <v>1.8895199390398785</v>
       </c>
-      <c r="I7" s="103">
-        <f>'Main Page'!E116</f>
+      <c r="I11" s="103">
+        <f>'Main Page'!E118</f>
         <v>0.25</v>
       </c>
-      <c r="J7" s="103">
-        <f>'Main Page'!D128</f>
+      <c r="J11" s="103">
+        <f>'Main Page'!D130</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="103">
-        <f>'Main Page'!A117</f>
+    <row r="12" spans="1:23">
+      <c r="A12" s="103">
+        <f>'Main Page'!A119</f>
         <v>0.25</v>
       </c>
-      <c r="B8" s="103">
-        <f>'Main Page'!H117</f>
+      <c r="B12" s="103">
+        <f>'Main Page'!H119</f>
         <v>186.9057949192036</v>
       </c>
-      <c r="C8" s="103">
-        <f>'Main Page'!B129 - 'Main Page'!B$132</f>
+      <c r="C12" s="103">
+        <f>'Main Page'!B131 - 'Main Page'!B$134</f>
         <v>11.1</v>
       </c>
-      <c r="D8" s="103">
-        <f>'Main Page'!L117</f>
+      <c r="D12" s="103">
+        <f>'Main Page'!L119</f>
         <v>18842756.85303637</v>
       </c>
-      <c r="E8" s="103">
-        <f>'Main Page'!K117</f>
+      <c r="E12" s="103">
+        <f>'Main Page'!K119</f>
         <v>2443063660.8188953</v>
       </c>
-      <c r="F8" s="103">
-        <f>'Main Page'!J117</f>
+      <c r="F12" s="103">
+        <f>'Main Page'!J119</f>
         <v>703333384.04530549</v>
       </c>
-      <c r="G8" s="103">
-        <f>'Main Page'!I117</f>
+      <c r="G12" s="103">
+        <f>'Main Page'!I119</f>
         <v>271763137.89022917</v>
       </c>
-      <c r="H8" s="103">
-        <f>'Main Page'!B117</f>
+      <c r="H12" s="103">
+        <f>'Main Page'!B119</f>
         <v>2.8001016002032006</v>
       </c>
-      <c r="I8" s="103">
-        <f>'Main Page'!E117</f>
+      <c r="I12" s="103">
+        <f>'Main Page'!E119</f>
         <v>0.34</v>
       </c>
-      <c r="J8" s="103">
-        <f>'Main Page'!D129</f>
+      <c r="J12" s="103">
+        <f>'Main Page'!D131</f>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="103">
-        <f>'Main Page'!A118</f>
+    <row r="13" spans="1:23">
+      <c r="A13" s="103">
+        <f>'Main Page'!A120</f>
         <v>0.5</v>
       </c>
-      <c r="B9" s="103">
-        <f>'Main Page'!H118</f>
+      <c r="B13" s="103">
+        <f>'Main Page'!H120</f>
         <v>138.12296357376664</v>
       </c>
-      <c r="C9" s="103">
-        <f>'Main Page'!B130 - 'Main Page'!B$132</f>
+      <c r="C13" s="103">
+        <f>'Main Page'!B132 - 'Main Page'!B$134</f>
         <v>3.1</v>
       </c>
-      <c r="D9" s="103">
-        <f>'Main Page'!L118</f>
+      <c r="D13" s="103">
+        <f>'Main Page'!L120</f>
         <v>8477345.5047051143</v>
       </c>
-      <c r="E9" s="103">
-        <f>'Main Page'!K118</f>
+      <c r="E13" s="103">
+        <f>'Main Page'!K120</f>
         <v>1809554986.9197025</v>
       </c>
-      <c r="F9" s="103">
-        <f>'Main Page'!J118</f>
+      <c r="F13" s="103">
+        <f>'Main Page'!J120</f>
         <v>255870093.3882812</v>
       </c>
-      <c r="G9" s="103">
-        <f>'Main Page'!I118</f>
+      <c r="G13" s="103">
+        <f>'Main Page'!I120</f>
         <v>75234813.639765084</v>
       </c>
-      <c r="H9" s="103">
-        <f>'Main Page'!B118</f>
+      <c r="H13" s="103">
+        <f>'Main Page'!B120</f>
         <v>2.1468122936245875</v>
       </c>
-      <c r="I9" s="103">
-        <f>'Main Page'!E118</f>
+      <c r="I13" s="103">
+        <f>'Main Page'!E120</f>
         <v>0.31</v>
       </c>
-      <c r="J9" s="103">
-        <f>'Main Page'!D130</f>
+      <c r="J13" s="103">
+        <f>'Main Page'!D132</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="103">
-        <f>'Main Page'!A119</f>
+    <row r="14" spans="1:23">
+      <c r="A14" s="103">
+        <f>'Main Page'!A121</f>
         <v>0.75</v>
       </c>
-      <c r="B10" s="103">
-        <f>'Main Page'!H119</f>
+      <c r="B14" s="103">
+        <f>'Main Page'!H121</f>
         <v>61.988105452646913</v>
       </c>
-      <c r="C10" s="103">
-        <f>'Main Page'!B131 - 'Main Page'!B$132</f>
+      <c r="C14" s="103">
+        <f>'Main Page'!B133 - 'Main Page'!B$134</f>
         <v>0.6</v>
       </c>
-      <c r="D10" s="103">
-        <f>'Main Page'!L119</f>
+      <c r="D14" s="103">
+        <f>'Main Page'!L121</f>
         <v>1678043.4287947295</v>
       </c>
-      <c r="E10" s="103">
-        <f>'Main Page'!K119</f>
+      <c r="E14" s="103">
+        <f>'Main Page'!K121</f>
         <v>788312554.19834387</v>
       </c>
-      <c r="F10" s="103">
-        <f>'Main Page'!J119</f>
+      <c r="F14" s="103">
+        <f>'Main Page'!J121</f>
         <v>65848849.292116806</v>
       </c>
-      <c r="G10" s="103">
-        <f>'Main Page'!I119</f>
+      <c r="G14" s="103">
+        <f>'Main Page'!I121</f>
         <v>11534432.983097235</v>
       </c>
-      <c r="H10" s="103">
-        <f>'Main Page'!B119</f>
+      <c r="H14" s="103">
+        <f>'Main Page'!B121</f>
         <v>1.4937769875539753</v>
       </c>
-      <c r="I10" s="103">
-        <f>'Main Page'!E119</f>
+      <c r="I14" s="103">
+        <f>'Main Page'!E121</f>
         <v>0.28000000000000003</v>
       </c>
-      <c r="J10" s="103">
-        <f>'Main Page'!D131</f>
+      <c r="J14" s="103">
+        <f>'Main Page'!D133</f>
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="103">
-        <f>'Main Page'!A120</f>
+    <row r="15" spans="1:23">
+      <c r="A15" s="103">
+        <f>'Main Page'!A122</f>
         <v>1</v>
       </c>
-      <c r="B11" s="103">
-        <f>'Main Page'!H120</f>
+      <c r="B15" s="103">
+        <f>'Main Page'!H122</f>
         <v>11.352890666908433</v>
       </c>
-      <c r="C11" s="103">
-        <f>'Main Page'!B132 - 'Main Page'!B$132</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="103">
-        <f>'Main Page'!L120</f>
+      <c r="C15" s="103">
+        <f>'Main Page'!B134 - 'Main Page'!B$134</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="103">
+        <f>'Main Page'!L122</f>
         <v>179433.04791581735</v>
       </c>
-      <c r="E11" s="103">
-        <f>'Main Page'!K120</f>
+      <c r="E15" s="103">
+        <f>'Main Page'!K122</f>
         <v>118472290.90243222</v>
       </c>
-      <c r="F11" s="103">
-        <f>'Main Page'!J120</f>
+      <c r="F15" s="103">
+        <f>'Main Page'!J122</f>
         <v>7874070.2274504323</v>
       </c>
-      <c r="G11" s="103">
-        <f>'Main Page'!I120</f>
+      <c r="G15" s="103">
+        <f>'Main Page'!I122</f>
         <v>231293.14864714985</v>
       </c>
-      <c r="H11" s="103">
-        <f>'Main Page'!B120</f>
+      <c r="H15" s="103">
+        <f>'Main Page'!B122</f>
         <v>0.90601981203962423</v>
       </c>
-      <c r="I11" s="103">
-        <f>'Main Page'!E120</f>
+      <c r="I15" s="103">
+        <f>'Main Page'!E122</f>
         <v>0.25</v>
       </c>
-      <c r="J11" s="103">
-        <f>'Main Page'!D132</f>
+      <c r="J15" s="103">
+        <f>'Main Page'!D134</f>
         <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="381" t="s">
+        <v>442</v>
+      </c>
+      <c r="B23">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>5</v>
+      </c>
+      <c r="G24">
+        <v>6</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+      <c r="J24">
+        <v>9</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24">
+        <v>11</v>
+      </c>
+      <c r="M24">
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <v>13</v>
+      </c>
+      <c r="O24">
+        <v>14</v>
+      </c>
+      <c r="P24">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <f>A24/$B$23*0.95+0.05</f>
+        <v>0.05</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ref="B25:P25" si="0">B24/$B$23*0.95+0.05</f>
+        <v>0.11333333333333333</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.17666666666666664</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0.30333333333333329</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>0.49333333333333329</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0.55666666666666664</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0.74666666666666659</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>0.81</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>0.87333333333333341</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="0"/>
+        <v>0.93666666666666665</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <f>A24/$B23</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7544,28 +8105,222 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:9">
       <c r="A1">
-        <f>'Main Page'!B77</f>
+        <f>'Main Page'!B78</f>
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="E1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="103">
         <f>'Main Page'!B9</f>
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="103"/>
+      <c r="E2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="103">
+        <f>'Main Page'!B53</f>
+        <v>-3.3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="104">
+        <f>'Main Page'!B5</f>
+        <v>-3.620904759358208E-2</v>
+      </c>
+      <c r="B4" s="104">
+        <f>'Main Page'!C5</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="104">
+        <f>'Main Page'!D5</f>
+        <v>-0.30297072228205113</v>
+      </c>
+      <c r="E4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="104">
+        <f>'Main Page'!B6</f>
+        <v>0.76653355801984624</v>
+      </c>
+      <c r="B5" s="104">
+        <f>'Main Page'!C6</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="104">
+        <f>'Main Page'!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="104">
+        <f>'Main Page'!B7</f>
+        <v>-0.79496927830119335</v>
+      </c>
+      <c r="B6" s="104">
+        <f>'Main Page'!C7</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="104">
+        <f>'Main Page'!D7</f>
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="104">
+        <f>-'Main Page'!B11</f>
+        <v>-5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="104">
+        <f>'Main Page'!E5</f>
+        <v>39324.660321372365</v>
+      </c>
+      <c r="E8" s="381" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="104">
+        <f>'Main Page'!E6</f>
+        <v>2105.4148204736439</v>
+      </c>
+      <c r="E9" s="381" t="s">
+        <v>444</v>
+      </c>
+      <c r="I9" s="104"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="104">
+        <f>'Main Page'!E7</f>
+        <v>11408.833117775681</v>
+      </c>
+      <c r="E10" s="381" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="104">
+        <f>-'Main Page'!B17</f>
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="104">
+        <f>'Main Page'!E8</f>
+        <v>19186.870177541427</v>
+      </c>
+      <c r="E12" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="334">
+        <f>SUM('Main Page'!H5:H7)</f>
+        <v>45376.990833681382</v>
+      </c>
+      <c r="E13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="104">
+        <f>GECdrivetrain!M5</f>
+        <v>29975.370571214964</v>
+      </c>
+      <c r="E14" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="104">
+        <f>'Main Page'!B79</f>
+        <v>1800</v>
+      </c>
+      <c r="E15" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="104">
+        <f>'Main Page'!B14</f>
+        <v>483129639.71309441</v>
+      </c>
+      <c r="E16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="104">
+        <f>'Main Page'!B18-'Main Page'!C18-'Main Page'!B19-'Main Page'!C19</f>
+        <v>0.92499999999999993</v>
+      </c>
+      <c r="E17" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="104">
+        <f>'Main Page'!B15</f>
+        <v>15</v>
+      </c>
+      <c r="E18" s="381" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="104">
+        <f>'Main Page'!B88</f>
+        <v>53.036000000000001</v>
+      </c>
+      <c r="E19" s="381" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="104">
+        <f>'Main Page'!B30</f>
+        <v>8602.9698968592093</v>
+      </c>
+      <c r="E20" s="381" t="s">
+        <v>452</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7574,10 +8329,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:A9"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7585,58 +8340,147 @@
     <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="375">
-        <f>'Main Page'!B37</f>
+    <row r="1" spans="1:12">
+      <c r="A1" s="357">
+        <f>'Main Page'!B38</f>
         <v>1.61</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="375">
-        <f>'Main Page'!B38</f>
+      <c r="L1" s="381" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="357">
+        <f>'Main Page'!B39</f>
         <v>2.5649999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="375">
-        <f>'Main Page'!B39/1000</f>
+      <c r="L2" s="381" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="357">
+        <f>'Main Page'!B40/1000</f>
         <v>1.026E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="375">
-        <f>'Main Page'!B40</f>
+      <c r="L3" s="381" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="357">
+        <f>'Main Page'!B41</f>
         <v>5.6627999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="375">
-        <f>'Main Page'!B41/1000</f>
+      <c r="L4" s="381" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="357">
+        <f>'Main Page'!B42/1000</f>
         <v>1.7389999999999999E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="375">
-        <f>'Main Page'!B42/100</f>
+      <c r="L5" s="381" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="357">
+        <f>'Main Page'!B43/100</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="L6" s="381" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <f>GECtwrdata!F5</f>
         <v>7850</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="L7" s="381" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="103">
         <f>GECtwrdata!F6</f>
         <v>200000000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
+      <c r="L8" s="381" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="103">
         <f>GECtwrdata!F7</f>
         <v>76923076923.07692</v>
+      </c>
+      <c r="L9" s="381" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="382">
+        <f>0/9</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="382">
+        <f>1/9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C10" s="382">
+        <f>2/9</f>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="D10" s="382">
+        <f>3/9</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E10" s="382">
+        <f>4/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="F10" s="382">
+        <f>5/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="G10" s="382">
+        <f>6/9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H10" s="382">
+        <f>7/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="I10" s="382">
+        <f>8/9</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="J10" s="382">
+        <f>9/9</f>
+        <v>1</v>
+      </c>
+      <c r="L10" s="381" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="387">
+        <v>0.01</v>
+      </c>
+      <c r="B11" s="387">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="387">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="387">
+        <v>0.01</v>
+      </c>
+      <c r="L11" s="381" t="s">
+        <v>453</v>
       </c>
     </row>
   </sheetData>
@@ -7652,7 +8496,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7676,7 +8520,7 @@
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
       <c r="A2" s="371" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="372"/>
       <c r="C2" s="372"/>
@@ -7720,7 +8564,7 @@
         <v>0.01</v>
       </c>
       <c r="F4" s="74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G4" s="75"/>
       <c r="H4" s="33"/>
@@ -7745,7 +8589,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="43" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E7" s="43" t="s">
         <v>19</v>
@@ -8481,7 +9325,7 @@
         <v>33.25</v>
       </c>
       <c r="D2" s="358" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E2" s="359"/>
       <c r="F2" s="360"/>
@@ -8622,22 +9466,22 @@
         <v>61</v>
       </c>
       <c r="M9" s="88" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N9" s="88" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O9" s="88" t="s">
         <v>62</v>
       </c>
       <c r="P9" s="88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q9" s="62" t="s">
         <v>41</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S9" s="89"/>
       <c r="T9" s="89"/>
@@ -10685,410 +11529,410 @@
   <sheetData>
     <row r="2" spans="2:21">
       <c r="B2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="2:21" ht="13.5">
       <c r="B3" s="185"/>
       <c r="C3" s="189" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="189" t="s">
+        <v>322</v>
+      </c>
+      <c r="E3" s="189" t="s">
         <v>89</v>
       </c>
-      <c r="D3" s="189" t="s">
+      <c r="F3" s="196" t="s">
         <v>323</v>
       </c>
-      <c r="E3" s="189" t="s">
-        <v>90</v>
-      </c>
-      <c r="F3" s="196" t="s">
+      <c r="G3" s="189" t="s">
         <v>324</v>
       </c>
-      <c r="G3" s="189" t="s">
+      <c r="H3" s="189" t="s">
         <v>325</v>
       </c>
-      <c r="H3" s="189" t="s">
+      <c r="I3" s="189" t="s">
         <v>326</v>
       </c>
-      <c r="I3" s="189" t="s">
-        <v>327</v>
-      </c>
       <c r="J3" s="189" t="s">
+        <v>342</v>
+      </c>
+      <c r="K3" s="189" t="s">
         <v>343</v>
       </c>
-      <c r="K3" s="189" t="s">
+      <c r="L3" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="M3" s="189" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="197" t="s">
         <v>344</v>
-      </c>
-      <c r="L3" s="189" t="s">
-        <v>114</v>
-      </c>
-      <c r="M3" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="N3" s="197" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="4" spans="2:21" ht="13.5">
       <c r="B4" s="193" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="177" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="177" t="s">
+        <v>327</v>
+      </c>
+      <c r="E4" s="177" t="s">
         <v>328</v>
       </c>
-      <c r="E4" s="177" t="s">
+      <c r="F4" s="177" t="s">
         <v>329</v>
       </c>
-      <c r="F4" s="177" t="s">
+      <c r="G4" s="177" t="s">
+        <v>329</v>
+      </c>
+      <c r="H4" s="177" t="s">
+        <v>329</v>
+      </c>
+      <c r="I4" s="177" t="s">
         <v>330</v>
       </c>
-      <c r="G4" s="177" t="s">
-        <v>330</v>
-      </c>
-      <c r="H4" s="177" t="s">
-        <v>330</v>
-      </c>
-      <c r="I4" s="177" t="s">
+      <c r="J4" s="177" t="s">
+        <v>345</v>
+      </c>
+      <c r="K4" s="177" t="s">
+        <v>345</v>
+      </c>
+      <c r="L4" s="177" t="s">
         <v>331</v>
       </c>
-      <c r="J4" s="177" t="s">
-        <v>346</v>
-      </c>
-      <c r="K4" s="177" t="s">
-        <v>346</v>
-      </c>
-      <c r="L4" s="177" t="s">
-        <v>332</v>
-      </c>
       <c r="M4" s="177" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="N4" s="195" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="201">
-        <f>'Main Page'!A115</f>
+        <f>'Main Page'!A117</f>
         <v>0.05</v>
       </c>
       <c r="C5" s="202">
-        <f>'Main Page'!B115</f>
+        <f>'Main Page'!B117</f>
         <v>1.9250698501397006</v>
       </c>
       <c r="D5" s="203">
-        <f>'Main Page'!C115</f>
+        <f>'Main Page'!C117</f>
         <v>1</v>
       </c>
       <c r="E5" s="203" t="str">
-        <f>'Main Page'!D115</f>
+        <f>'Main Page'!D117</f>
         <v>NA</v>
       </c>
       <c r="F5" s="204">
-        <f>'Main Page'!E115</f>
+        <f>'Main Page'!E117</f>
         <v>0.25</v>
       </c>
       <c r="G5" s="202">
-        <f>'Main Page'!F115</f>
+        <f>'Main Page'!F117</f>
         <v>0.5</v>
       </c>
       <c r="H5" s="202">
-        <f>'Main Page'!G115</f>
+        <f>'Main Page'!G117</f>
         <v>0.5</v>
       </c>
       <c r="I5" s="205">
-        <f>'Main Page'!H115</f>
+        <f>'Main Page'!H117</f>
         <v>1447.6067650097025</v>
       </c>
       <c r="J5" s="206">
-        <f>'Main Page'!I115</f>
+        <f>'Main Page'!I117</f>
         <v>7681455580.9267292</v>
       </c>
       <c r="K5" s="206">
-        <f>'Main Page'!J115</f>
+        <f>'Main Page'!J117</f>
         <v>7681455580.9267292</v>
       </c>
       <c r="L5" s="206">
-        <f>'Main Page'!K115</f>
+        <f>'Main Page'!K117</f>
         <v>17152702552.539173</v>
       </c>
       <c r="M5" s="206">
-        <f>'Main Page'!L115</f>
+        <f>'Main Page'!L117</f>
         <v>2655231266.008985</v>
       </c>
       <c r="N5" s="207">
-        <f>'Main Page'!M115</f>
+        <f>'Main Page'!M117</f>
         <v>1292.0872285403536</v>
       </c>
     </row>
     <row r="6" spans="2:21">
       <c r="B6" s="208">
-        <f>'Main Page'!A116</f>
+        <f>'Main Page'!A118</f>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6" s="209">
-        <f>'Main Page'!B116</f>
+        <f>'Main Page'!B118</f>
         <v>1.8895199390398785</v>
       </c>
       <c r="D6" s="210">
-        <f>'Main Page'!C116</f>
+        <f>'Main Page'!C118</f>
         <v>1</v>
       </c>
       <c r="E6" s="210" t="str">
-        <f>'Main Page'!D116</f>
+        <f>'Main Page'!D118</f>
         <v>NA</v>
       </c>
       <c r="F6" s="204">
-        <f>'Main Page'!E116</f>
+        <f>'Main Page'!E118</f>
         <v>0.25</v>
       </c>
       <c r="G6" s="209">
-        <f>'Main Page'!F116</f>
+        <f>'Main Page'!F118</f>
         <v>0.5</v>
       </c>
       <c r="H6" s="209">
-        <f>'Main Page'!G116</f>
+        <f>'Main Page'!G118</f>
         <v>0.5</v>
       </c>
       <c r="I6" s="211">
-        <f>'Main Page'!H116</f>
+        <f>'Main Page'!H118</f>
         <v>175.09526752452746</v>
       </c>
       <c r="J6" s="212">
-        <f>'Main Page'!I116</f>
+        <f>'Main Page'!I118</f>
         <v>1135890133.898103</v>
       </c>
       <c r="K6" s="212">
-        <f>'Main Page'!J116</f>
+        <f>'Main Page'!J118</f>
         <v>1135890133.898103</v>
       </c>
       <c r="L6" s="212">
-        <f>'Main Page'!K116</f>
+        <f>'Main Page'!K118</f>
         <v>2564102972.7290158</v>
       </c>
       <c r="M6" s="212">
-        <f>'Main Page'!L116</f>
+        <f>'Main Page'!L118</f>
         <v>396922874.29357898</v>
       </c>
       <c r="N6" s="213">
-        <f>'Main Page'!M116</f>
+        <f>'Main Page'!M118</f>
         <v>156.28440292953599</v>
       </c>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="198">
-        <f>'Main Page'!A117</f>
+        <f>'Main Page'!A119</f>
         <v>0.25</v>
       </c>
       <c r="C7" s="209">
-        <f>'Main Page'!B117</f>
+        <f>'Main Page'!B119</f>
         <v>2.8001016002032006</v>
       </c>
       <c r="D7" s="210">
-        <f>'Main Page'!C117</f>
+        <f>'Main Page'!C119</f>
         <v>0.3</v>
       </c>
       <c r="E7" s="210">
-        <f>'Main Page'!D117</f>
+        <f>'Main Page'!D119</f>
         <v>4.0013725457641511</v>
       </c>
       <c r="F7" s="204">
-        <f>'Main Page'!E117</f>
+        <f>'Main Page'!E119</f>
         <v>0.34</v>
       </c>
       <c r="G7" s="209">
-        <f>'Main Page'!F117</f>
+        <f>'Main Page'!F119</f>
         <v>0.41002988816858021</v>
       </c>
       <c r="H7" s="209">
-        <f>'Main Page'!G117</f>
+        <f>'Main Page'!G119</f>
         <v>0.32873282532820286</v>
       </c>
       <c r="I7" s="211">
-        <f>'Main Page'!H117</f>
+        <f>'Main Page'!H119</f>
         <v>186.9057949192036</v>
       </c>
       <c r="J7" s="212">
-        <f>'Main Page'!I117</f>
+        <f>'Main Page'!I119</f>
         <v>271763137.89022917</v>
       </c>
       <c r="K7" s="212">
-        <f>'Main Page'!J117</f>
+        <f>'Main Page'!J119</f>
         <v>703333384.04530549</v>
       </c>
       <c r="L7" s="199">
-        <f>'Main Page'!K117</f>
+        <f>'Main Page'!K119</f>
         <v>2443063660.8188953</v>
       </c>
       <c r="M7" s="199">
-        <f>'Main Page'!L117</f>
+        <f>'Main Page'!L119</f>
         <v>18842756.85303637</v>
       </c>
       <c r="N7" s="214">
-        <f>'Main Page'!M117</f>
+        <f>'Main Page'!M119</f>
         <v>84.977866851913092</v>
       </c>
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="198">
-        <f>'Main Page'!A118</f>
+        <f>'Main Page'!A120</f>
         <v>0.5</v>
       </c>
       <c r="C8" s="209">
-        <f>'Main Page'!B118</f>
+        <f>'Main Page'!B120</f>
         <v>2.1468122936245875</v>
       </c>
       <c r="D8" s="215">
-        <f>'Main Page'!C118</f>
+        <f>'Main Page'!C120</f>
         <v>0.24</v>
       </c>
       <c r="E8" s="210">
-        <f>'Main Page'!D118</f>
+        <f>'Main Page'!D120</f>
         <v>6.7200108877128066</v>
       </c>
       <c r="F8" s="204">
-        <f>'Main Page'!E118</f>
+        <f>'Main Page'!E120</f>
         <v>0.31</v>
       </c>
       <c r="G8" s="209">
-        <f>'Main Page'!F118</f>
+        <f>'Main Page'!F120</f>
         <v>0.38649869580913698</v>
       </c>
       <c r="H8" s="209">
-        <f>'Main Page'!G118</f>
+        <f>'Main Page'!G120</f>
         <v>0.3240414781728897</v>
       </c>
       <c r="I8" s="211">
-        <f>'Main Page'!H118</f>
+        <f>'Main Page'!H120</f>
         <v>138.12296357376664</v>
       </c>
       <c r="J8" s="212">
-        <f>'Main Page'!I118</f>
+        <f>'Main Page'!I120</f>
         <v>75234813.639765084</v>
       </c>
       <c r="K8" s="212">
-        <f>'Main Page'!J118</f>
+        <f>'Main Page'!J120</f>
         <v>255870093.3882812</v>
       </c>
       <c r="L8" s="199">
-        <f>'Main Page'!K118</f>
+        <f>'Main Page'!K120</f>
         <v>1809554986.9197025</v>
       </c>
       <c r="M8" s="199">
-        <f>'Main Page'!L118</f>
+        <f>'Main Page'!L120</f>
         <v>8477345.5047051143</v>
       </c>
       <c r="N8" s="214">
-        <f>'Main Page'!M118</f>
+        <f>'Main Page'!M120</f>
         <v>30.021881657931356</v>
       </c>
     </row>
     <row r="9" spans="2:21">
       <c r="B9" s="198">
-        <f>'Main Page'!A119</f>
+        <f>'Main Page'!A121</f>
         <v>0.75</v>
       </c>
       <c r="C9" s="209">
-        <f>'Main Page'!B119</f>
+        <f>'Main Page'!B121</f>
         <v>1.4937769875539753</v>
       </c>
       <c r="D9" s="215">
-        <f>'Main Page'!C119</f>
+        <f>'Main Page'!C121</f>
         <v>0.21</v>
       </c>
       <c r="E9" s="210">
-        <f>'Main Page'!D119</f>
+        <f>'Main Page'!D121</f>
         <v>6.2038591936354734</v>
       </c>
       <c r="F9" s="204">
-        <f>'Main Page'!E119</f>
+        <f>'Main Page'!E121</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="G9" s="209">
-        <f>'Main Page'!F119</f>
+        <f>'Main Page'!F121</f>
         <v>0.40257796771355664</v>
       </c>
       <c r="H9" s="209">
-        <f>'Main Page'!G119</f>
+        <f>'Main Page'!G121</f>
         <v>0.327834346949612</v>
       </c>
       <c r="I9" s="211">
-        <f>'Main Page'!H119</f>
+        <f>'Main Page'!H121</f>
         <v>61.988105452646913</v>
       </c>
       <c r="J9" s="212">
-        <f>'Main Page'!I119</f>
+        <f>'Main Page'!I121</f>
         <v>11534432.983097235</v>
       </c>
       <c r="K9" s="212">
-        <f>'Main Page'!J119</f>
+        <f>'Main Page'!J121</f>
         <v>65848849.292116806</v>
       </c>
       <c r="L9" s="199">
-        <f>'Main Page'!K119</f>
+        <f>'Main Page'!K121</f>
         <v>788312554.19834387</v>
       </c>
       <c r="M9" s="199">
-        <f>'Main Page'!L119</f>
+        <f>'Main Page'!L121</f>
         <v>1678043.4287947295</v>
       </c>
       <c r="N9" s="214">
-        <f>'Main Page'!M119</f>
+        <f>'Main Page'!M121</f>
         <v>6.9998727386933259</v>
       </c>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="216">
-        <f>'Main Page'!A120</f>
+        <f>'Main Page'!A122</f>
         <v>1</v>
       </c>
       <c r="C10" s="217">
-        <f>'Main Page'!B120</f>
+        <f>'Main Page'!B122</f>
         <v>0.90601981203962423</v>
       </c>
       <c r="D10" s="218">
-        <f>'Main Page'!C120</f>
+        <f>'Main Page'!C122</f>
         <v>0.16</v>
       </c>
       <c r="E10" s="218">
-        <f>'Main Page'!D120</f>
+        <f>'Main Page'!D122</f>
         <v>0</v>
       </c>
       <c r="F10" s="217">
-        <f>'Main Page'!E120</f>
+        <f>'Main Page'!E122</f>
         <v>0.25</v>
       </c>
       <c r="G10" s="217">
-        <f>'Main Page'!F120</f>
+        <f>'Main Page'!F122</f>
         <v>0.49249999999999999</v>
       </c>
       <c r="H10" s="217">
-        <f>'Main Page'!G120</f>
+        <f>'Main Page'!G122</f>
         <v>0.35780000000000001</v>
       </c>
       <c r="I10" s="219">
-        <f>'Main Page'!H120</f>
+        <f>'Main Page'!H122</f>
         <v>11.352890666908433</v>
       </c>
       <c r="J10" s="220">
-        <f>'Main Page'!I120</f>
+        <f>'Main Page'!I122</f>
         <v>231293.14864714985</v>
       </c>
       <c r="K10" s="220">
-        <f>'Main Page'!J120</f>
+        <f>'Main Page'!J122</f>
         <v>7874070.2274504323</v>
       </c>
       <c r="L10" s="221">
-        <f>'Main Page'!K120</f>
+        <f>'Main Page'!K122</f>
         <v>118472290.90243222</v>
       </c>
       <c r="M10" s="221">
-        <f>'Main Page'!L120</f>
+        <f>'Main Page'!L122</f>
         <v>179433.04791581735</v>
       </c>
       <c r="N10" s="222">
-        <f>'Main Page'!M120</f>
+        <f>'Main Page'!M122</f>
         <v>0.76662287964958964</v>
       </c>
     </row>
@@ -11106,14 +11950,14 @@
     <row r="12" spans="2:21">
       <c r="B12" s="185"/>
       <c r="C12" s="223" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D12" s="228">
         <f>'Main Page'!B13/2</f>
         <v>35</v>
       </c>
       <c r="E12" s="190" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" s="102"/>
       <c r="L12" s="102"/>
@@ -11128,14 +11972,14 @@
     <row r="13" spans="2:21">
       <c r="B13" s="224"/>
       <c r="C13" s="225" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D13" s="229">
-        <f>'Main Page'!B47/2</f>
+        <f>'Main Page'!B48/2</f>
         <v>1.75</v>
       </c>
       <c r="E13" s="227" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J13" s="102"/>
       <c r="L13" s="102"/>
@@ -11160,7 +12004,7 @@
     </row>
     <row r="15" spans="2:21">
       <c r="B15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J15" s="102"/>
       <c r="L15" s="102"/>
@@ -11174,55 +12018,55 @@
     </row>
     <row r="16" spans="2:21" ht="13.5">
       <c r="B16" s="230" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="231" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="231" t="s">
+        <v>153</v>
+      </c>
+      <c r="E16" s="189" t="s">
+        <v>357</v>
+      </c>
+      <c r="F16" s="189" t="s">
+        <v>358</v>
+      </c>
+      <c r="G16" s="232" t="s">
+        <v>359</v>
+      </c>
+      <c r="H16" s="232" t="s">
+        <v>359</v>
+      </c>
+      <c r="I16" s="232" t="s">
+        <v>362</v>
+      </c>
+      <c r="J16" s="232" t="s">
+        <v>362</v>
+      </c>
+      <c r="K16" s="231" t="s">
+        <v>363</v>
+      </c>
+      <c r="L16" s="189" t="s">
+        <v>112</v>
+      </c>
+      <c r="M16" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="N16" s="189" t="s">
+        <v>343</v>
+      </c>
+      <c r="O16" s="189" t="s">
+        <v>342</v>
+      </c>
+      <c r="P16" s="189" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="231" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="231" t="s">
-        <v>154</v>
-      </c>
-      <c r="E16" s="189" t="s">
-        <v>358</v>
-      </c>
-      <c r="F16" s="189" t="s">
-        <v>359</v>
-      </c>
-      <c r="G16" s="232" t="s">
-        <v>360</v>
-      </c>
-      <c r="H16" s="232" t="s">
-        <v>360</v>
-      </c>
-      <c r="I16" s="232" t="s">
-        <v>363</v>
-      </c>
-      <c r="J16" s="232" t="s">
-        <v>363</v>
-      </c>
-      <c r="K16" s="231" t="s">
-        <v>364</v>
-      </c>
-      <c r="L16" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="M16" s="189" t="s">
-        <v>114</v>
-      </c>
-      <c r="N16" s="189" t="s">
-        <v>344</v>
-      </c>
-      <c r="O16" s="189" t="s">
-        <v>343</v>
-      </c>
-      <c r="P16" s="189" t="s">
-        <v>89</v>
-      </c>
       <c r="Q16" s="259" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R16" s="233" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="S16" s="109"/>
       <c r="T16" s="109"/>
@@ -11230,55 +12074,55 @@
     </row>
     <row r="17" spans="2:21" ht="13.5">
       <c r="B17" s="193" t="s">
+        <v>354</v>
+      </c>
+      <c r="C17" s="234" t="s">
         <v>355</v>
       </c>
-      <c r="C17" s="234" t="s">
+      <c r="D17" s="234" t="s">
+        <v>330</v>
+      </c>
+      <c r="E17" s="177" t="s">
         <v>356</v>
       </c>
-      <c r="D17" s="234" t="s">
+      <c r="F17" s="177" t="s">
+        <v>356</v>
+      </c>
+      <c r="G17" s="235" t="s">
+        <v>360</v>
+      </c>
+      <c r="H17" s="235" t="s">
+        <v>361</v>
+      </c>
+      <c r="I17" s="235" t="s">
+        <v>360</v>
+      </c>
+      <c r="J17" s="235" t="s">
+        <v>361</v>
+      </c>
+      <c r="K17" s="234" t="s">
+        <v>364</v>
+      </c>
+      <c r="L17" s="177" t="s">
+        <v>345</v>
+      </c>
+      <c r="M17" s="177" t="s">
         <v>331</v>
       </c>
-      <c r="E17" s="177" t="s">
-        <v>357</v>
-      </c>
-      <c r="F17" s="177" t="s">
-        <v>357</v>
-      </c>
-      <c r="G17" s="235" t="s">
-        <v>361</v>
-      </c>
-      <c r="H17" s="235" t="s">
-        <v>362</v>
-      </c>
-      <c r="I17" s="235" t="s">
-        <v>361</v>
-      </c>
-      <c r="J17" s="235" t="s">
-        <v>362</v>
-      </c>
-      <c r="K17" s="234" t="s">
-        <v>365</v>
-      </c>
-      <c r="L17" s="177" t="s">
-        <v>346</v>
-      </c>
-      <c r="M17" s="177" t="s">
-        <v>332</v>
-      </c>
       <c r="N17" s="177" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O17" s="177" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P17" s="177" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="261" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R17" s="262" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="S17" s="109"/>
       <c r="T17" s="109"/>
@@ -11298,7 +12142,7 @@
         <v>1447.6067650097025</v>
       </c>
       <c r="E18" s="239">
-        <f>N5*'Main Page'!C$122/('Main Page'!C$122+1)</f>
+        <f>N5*'Main Page'!C$124/('Main Page'!C$124+1)</f>
         <v>0</v>
       </c>
       <c r="F18" s="239">
@@ -11320,7 +12164,7 @@
         <v>0.48126746253492514</v>
       </c>
       <c r="K18" s="239">
-        <f>'Main Page'!B127-'Main Page'!B$132</f>
+        <f>'Main Page'!B129-'Main Page'!B$134</f>
         <v>11.1</v>
       </c>
       <c r="L18" s="241">
@@ -11347,7 +12191,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="265">
-        <f>'Main Page'!D127</f>
+        <f>'Main Page'!D129</f>
         <v>1</v>
       </c>
       <c r="S18" s="109"/>
@@ -11368,7 +12212,7 @@
         <v>175.09526752452746</v>
       </c>
       <c r="E19" s="244">
-        <f>N6*'Main Page'!C$122/('Main Page'!C$122+1)</f>
+        <f>N6*'Main Page'!C$124/('Main Page'!C$124+1)</f>
         <v>0</v>
       </c>
       <c r="F19" s="244">
@@ -11390,7 +12234,7 @@
         <v>0.47237998475996962</v>
       </c>
       <c r="K19" s="244">
-        <f>'Main Page'!B128-'Main Page'!B$132</f>
+        <f>'Main Page'!B130-'Main Page'!B$134</f>
         <v>11.1</v>
       </c>
       <c r="L19" s="247">
@@ -11417,7 +12261,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="263">
-        <f>'Main Page'!D128</f>
+        <f>'Main Page'!D130</f>
         <v>1</v>
       </c>
       <c r="S19" s="109"/>
@@ -11438,7 +12282,7 @@
         <v>186.9057949192036</v>
       </c>
       <c r="E20" s="244">
-        <f>N7*'Main Page'!C$122/('Main Page'!C$122+1)</f>
+        <f>N7*'Main Page'!C$124/('Main Page'!C$124+1)</f>
         <v>0</v>
       </c>
       <c r="F20" s="244">
@@ -11460,7 +12304,7 @@
         <v>-3.1549233828268214E-2</v>
       </c>
       <c r="K20" s="244">
-        <f>'Main Page'!B129-'Main Page'!B$132</f>
+        <f>'Main Page'!B131-'Main Page'!B$134</f>
         <v>11.1</v>
       </c>
       <c r="L20" s="247">
@@ -11488,7 +12332,7 @@
         <v>-0.25200914401828811</v>
       </c>
       <c r="R20" s="263">
-        <f>'Main Page'!D129</f>
+        <f>'Main Page'!D131</f>
         <v>2</v>
       </c>
       <c r="S20" s="109"/>
@@ -11509,7 +12353,7 @@
         <v>138.12296357376664</v>
       </c>
       <c r="E21" s="244">
-        <f>N8*'Main Page'!C$122/('Main Page'!C$122+1)</f>
+        <f>N8*'Main Page'!C$124/('Main Page'!C$124+1)</f>
         <v>0</v>
       </c>
       <c r="F21" s="244">
@@ -11531,7 +12375,7 @@
         <v>3.0144417962220917E-2</v>
       </c>
       <c r="K21" s="244">
-        <f>'Main Page'!B130-'Main Page'!B$132</f>
+        <f>'Main Page'!B132-'Main Page'!B$134</f>
         <v>3.1</v>
       </c>
       <c r="L21" s="247">
@@ -11577,7 +12421,7 @@
         <v>61.988105452646913</v>
       </c>
       <c r="E22" s="244">
-        <f>N9*'Main Page'!C$122/('Main Page'!C$122+1)</f>
+        <f>N9*'Main Page'!C$124/('Main Page'!C$124+1)</f>
         <v>0</v>
       </c>
       <c r="F22" s="244">
@@ -11599,7 +12443,7 @@
         <v>7.1453846688003059E-2</v>
       </c>
       <c r="K22" s="244">
-        <f>'Main Page'!B131-'Main Page'!B$132</f>
+        <f>'Main Page'!B133-'Main Page'!B$134</f>
         <v>0.6</v>
       </c>
       <c r="L22" s="247">
@@ -11627,7 +12471,7 @@
         <v>-4.4813309626619301E-2</v>
       </c>
       <c r="R22" s="263">
-        <f>'Main Page'!D131</f>
+        <f>'Main Page'!D133</f>
         <v>3</v>
       </c>
       <c r="S22" s="109"/>
@@ -11648,7 +12492,7 @@
         <v>11.352890666908433</v>
       </c>
       <c r="E23" s="250">
-        <f>N10*'Main Page'!C$122/('Main Page'!C$122+1)</f>
+        <f>N10*'Main Page'!C$124/('Main Page'!C$124+1)</f>
         <v>0</v>
       </c>
       <c r="F23" s="250">
@@ -11670,7 +12514,7 @@
         <v>9.7668935737871498E-2</v>
       </c>
       <c r="K23" s="250">
-        <f>'Main Page'!B132-'Main Page'!B$132</f>
+        <f>'Main Page'!B134-'Main Page'!B$134</f>
         <v>0</v>
       </c>
       <c r="L23" s="252">
@@ -11698,7 +12542,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="264">
-        <f>'Main Page'!D132</f>
+        <f>'Main Page'!D134</f>
         <v>4</v>
       </c>
       <c r="S23" s="109"/>
@@ -11707,119 +12551,119 @@
     </row>
     <row r="25" spans="2:21">
       <c r="B25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="2:21" ht="13.5">
       <c r="B26" s="230" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="231" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="231" t="s">
+        <v>153</v>
+      </c>
+      <c r="E26" s="189" t="s">
+        <v>357</v>
+      </c>
+      <c r="F26" s="189" t="s">
+        <v>358</v>
+      </c>
+      <c r="G26" s="232" t="s">
+        <v>359</v>
+      </c>
+      <c r="H26" s="232" t="s">
+        <v>359</v>
+      </c>
+      <c r="I26" s="232" t="s">
+        <v>362</v>
+      </c>
+      <c r="J26" s="232" t="s">
+        <v>362</v>
+      </c>
+      <c r="K26" s="231" t="s">
+        <v>363</v>
+      </c>
+      <c r="L26" s="189" t="s">
+        <v>112</v>
+      </c>
+      <c r="M26" s="189" t="s">
+        <v>113</v>
+      </c>
+      <c r="N26" s="189" t="s">
+        <v>343</v>
+      </c>
+      <c r="O26" s="189" t="s">
+        <v>342</v>
+      </c>
+      <c r="P26" s="189" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="231" t="s">
-        <v>139</v>
-      </c>
-      <c r="D26" s="231" t="s">
-        <v>154</v>
-      </c>
-      <c r="E26" s="189" t="s">
-        <v>358</v>
-      </c>
-      <c r="F26" s="189" t="s">
-        <v>359</v>
-      </c>
-      <c r="G26" s="232" t="s">
-        <v>360</v>
-      </c>
-      <c r="H26" s="232" t="s">
-        <v>360</v>
-      </c>
-      <c r="I26" s="232" t="s">
-        <v>363</v>
-      </c>
-      <c r="J26" s="232" t="s">
-        <v>363</v>
-      </c>
-      <c r="K26" s="231" t="s">
-        <v>364</v>
-      </c>
-      <c r="L26" s="189" t="s">
-        <v>113</v>
-      </c>
-      <c r="M26" s="189" t="s">
-        <v>114</v>
-      </c>
-      <c r="N26" s="189" t="s">
-        <v>344</v>
-      </c>
-      <c r="O26" s="189" t="s">
-        <v>343</v>
-      </c>
-      <c r="P26" s="189" t="s">
-        <v>89</v>
-      </c>
       <c r="Q26" s="259" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R26" s="233" t="s">
-        <v>370</v>
-      </c>
-      <c r="S26" s="338" t="s">
-        <v>403</v>
+        <v>369</v>
+      </c>
+      <c r="S26" s="337" t="s">
+        <v>402</v>
       </c>
       <c r="T26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="13.5">
       <c r="B27" s="193" t="s">
+        <v>354</v>
+      </c>
+      <c r="C27" s="234" t="s">
         <v>355</v>
       </c>
-      <c r="C27" s="234" t="s">
+      <c r="D27" s="234" t="s">
+        <v>330</v>
+      </c>
+      <c r="E27" s="177" t="s">
         <v>356</v>
       </c>
-      <c r="D27" s="234" t="s">
+      <c r="F27" s="177" t="s">
+        <v>356</v>
+      </c>
+      <c r="G27" s="235" t="s">
+        <v>360</v>
+      </c>
+      <c r="H27" s="235" t="s">
+        <v>361</v>
+      </c>
+      <c r="I27" s="235" t="s">
+        <v>360</v>
+      </c>
+      <c r="J27" s="235" t="s">
+        <v>361</v>
+      </c>
+      <c r="K27" s="234" t="s">
+        <v>364</v>
+      </c>
+      <c r="L27" s="177" t="s">
+        <v>345</v>
+      </c>
+      <c r="M27" s="177" t="s">
         <v>331</v>
       </c>
-      <c r="E27" s="177" t="s">
-        <v>357</v>
-      </c>
-      <c r="F27" s="177" t="s">
-        <v>357</v>
-      </c>
-      <c r="G27" s="235" t="s">
-        <v>361</v>
-      </c>
-      <c r="H27" s="235" t="s">
-        <v>362</v>
-      </c>
-      <c r="I27" s="235" t="s">
-        <v>361</v>
-      </c>
-      <c r="J27" s="235" t="s">
-        <v>362</v>
-      </c>
-      <c r="K27" s="234" t="s">
-        <v>365</v>
-      </c>
-      <c r="L27" s="177" t="s">
-        <v>346</v>
-      </c>
-      <c r="M27" s="177" t="s">
-        <v>332</v>
-      </c>
       <c r="N27" s="177" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="O27" s="177" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="P27" s="177" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q27" s="260" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="R27" s="236" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="2:21">
@@ -13463,8 +14307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -13475,219 +14319,219 @@
   <sheetData>
     <row r="1" spans="2:15">
       <c r="H1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="2:15">
       <c r="H2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="2:15">
       <c r="H3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="2:15">
       <c r="H4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="2:15">
       <c r="B5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="154">
         <f>'Main Page'!B9</f>
         <v>84</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F5" s="126">
         <v>7850</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="154">
-        <f>C5-'Main Page'!B37</f>
+        <f>C5-'Main Page'!B38</f>
         <v>82.39</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F6" s="153">
         <v>200000000000</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="2:15">
       <c r="B7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="154">
-        <f>'Main Page'!B40</f>
+        <f>'Main Page'!B41</f>
         <v>5.6627999999999998</v>
       </c>
       <c r="D7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F7" s="153">
         <f>F6/2.6</f>
         <v>76923076923.07692</v>
       </c>
       <c r="G7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="2:15">
       <c r="B8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C8" s="154">
-        <f>'Main Page'!B38</f>
+        <f>'Main Page'!B39</f>
         <v>2.5649999999999999</v>
       </c>
       <c r="D8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:15">
       <c r="B9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="154">
-        <f>'Main Page'!B41</f>
+        <f>'Main Page'!B42</f>
         <v>17.39</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="2:15">
       <c r="B10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C10" s="154">
-        <f>'Main Page'!B39</f>
+        <f>'Main Page'!B40</f>
         <v>10.26</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
+        <v>387</v>
+      </c>
+      <c r="C11" s="154">
+        <f>'Main Page'!B43</f>
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>388</v>
-      </c>
-      <c r="C11" s="154">
-        <f>'Main Page'!B42</f>
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="13" spans="2:15">
       <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
         <v>107</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>108</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>109</v>
       </c>
-      <c r="E13" t="s">
-        <v>110</v>
-      </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
       </c>
       <c r="J13" t="s">
+        <v>306</v>
+      </c>
+      <c r="K13" t="s">
+        <v>112</v>
+      </c>
+      <c r="L13" t="s">
         <v>307</v>
       </c>
-      <c r="K13" t="s">
-        <v>113</v>
-      </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>308</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>309</v>
       </c>
-      <c r="N13" t="s">
-        <v>310</v>
-      </c>
       <c r="O13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="2:15">
       <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14" t="s">
         <v>86</v>
       </c>
-      <c r="D14" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" t="s">
-        <v>98</v>
-      </c>
-      <c r="F14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" t="s">
-        <v>87</v>
-      </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J14" t="s">
+        <v>110</v>
+      </c>
+      <c r="K14" t="s">
+        <v>91</v>
+      </c>
+      <c r="L14" t="s">
         <v>111</v>
       </c>
-      <c r="K14" t="s">
-        <v>92</v>
-      </c>
-      <c r="L14" t="s">
-        <v>112</v>
-      </c>
       <c r="M14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:15">
@@ -13777,15 +14621,15 @@
         <v>55466037795.582756</v>
       </c>
       <c r="I16" s="155">
-        <f t="shared" ref="I15:I24" si="5">F16*D16^2/4</f>
+        <f t="shared" ref="I16:I24" si="5">F16*D16^2/4</f>
         <v>1.9612448434001657</v>
       </c>
       <c r="J16" s="157">
-        <f t="shared" ref="J15:J24" si="6">I16*F$5</f>
+        <f t="shared" ref="J16:J24" si="6">I16*F$5</f>
         <v>15395.7720206913</v>
       </c>
       <c r="K16" s="158">
-        <f t="shared" ref="K15:K24" si="7">I16*F$7</f>
+        <f t="shared" ref="K16:K24" si="7">I16*F$7</f>
         <v>150864987953.85889</v>
       </c>
       <c r="L16" s="155">
@@ -13797,7 +14641,7 @@
         <v>7697.88601034565</v>
       </c>
       <c r="N16" s="158">
-        <f t="shared" ref="N15:N24" si="10">L16*F$6</f>
+        <f t="shared" ref="N16:N24" si="10">L16*F$6</f>
         <v>196124484340.01657</v>
       </c>
       <c r="O16" s="333">
@@ -13831,7 +14675,7 @@
         <v>2035.9133906776767</v>
       </c>
       <c r="H17" s="158">
-        <f t="shared" ref="H15:H24" si="12">F17*F$6</f>
+        <f t="shared" ref="H17:H24" si="12">F17*F$6</f>
         <v>49400385579.076172</v>
       </c>
       <c r="I17" s="155">
@@ -14293,7 +15137,7 @@
   <dimension ref="A1:Y131"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -14315,7 +15159,7 @@
     <row r="1" spans="1:25" ht="12.75">
       <c r="A1" s="113"/>
       <c r="B1" s="113" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1" s="128">
         <f>'Main Page'!B13</f>
@@ -14347,10 +15191,10 @@
     <row r="2" spans="1:25" ht="12.75">
       <c r="A2" s="113"/>
       <c r="B2" s="114" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C2" s="128">
-        <f>'Main Page'!B79*'Main Page'!B80</f>
+        <f>'Main Page'!B80*'Main Page'!B81</f>
         <v>1800</v>
       </c>
       <c r="D2" s="115"/>
@@ -14406,53 +15250,53 @@
     <row r="4" spans="1:25" ht="38.25">
       <c r="A4" s="116"/>
       <c r="B4" s="164" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="116" t="s">
         <v>173</v>
       </c>
-      <c r="C4" s="116" t="s">
+      <c r="D4" s="116" t="s">
         <v>174</v>
       </c>
-      <c r="D4" s="116" t="s">
+      <c r="E4" s="116" t="s">
         <v>175</v>
       </c>
-      <c r="E4" s="116" t="s">
-        <v>176</v>
-      </c>
       <c r="F4" s="116" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G4" s="116"/>
       <c r="H4" s="116" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" s="116" t="s">
         <v>177</v>
       </c>
-      <c r="I4" s="116" t="s">
+      <c r="J4" s="116" t="s">
         <v>178</v>
       </c>
-      <c r="J4" s="116" t="s">
+      <c r="K4" s="116" t="s">
         <v>179</v>
       </c>
-      <c r="K4" s="116" t="s">
+      <c r="L4" s="116" t="s">
         <v>180</v>
       </c>
-      <c r="L4" s="116" t="s">
+      <c r="M4" s="116" t="s">
         <v>181</v>
       </c>
-      <c r="M4" s="116" t="s">
+      <c r="N4" s="116" t="s">
         <v>182</v>
       </c>
-      <c r="N4" s="116" t="s">
+      <c r="O4" s="116" t="s">
         <v>183</v>
       </c>
-      <c r="O4" s="116" t="s">
-        <v>184</v>
-      </c>
       <c r="P4" s="116" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q4" s="116" t="s">
         <v>213</v>
       </c>
-      <c r="Q4" s="116" t="s">
+      <c r="R4" s="116" t="s">
         <v>214</v>
-      </c>
-      <c r="R4" s="116" t="s">
-        <v>215</v>
       </c>
       <c r="S4" s="116"/>
       <c r="T4" s="116"/>
@@ -14470,45 +15314,45 @@
       <c r="C5" s="132"/>
       <c r="D5" s="132"/>
       <c r="E5" s="133">
-        <f>'Main Page'!B47</f>
+        <f>'Main Page'!B48</f>
         <v>3.5</v>
       </c>
       <c r="F5" s="133">
-        <f>'Main Page'!B50</f>
-        <v>4.9500000000000002E-2</v>
+        <f>'Main Page'!B51</f>
+        <v>0.05</v>
       </c>
       <c r="G5" s="132"/>
       <c r="H5" s="136">
-        <f>'Main Page'!B51</f>
+        <f>'Main Page'!B52</f>
         <v>7850</v>
       </c>
       <c r="I5" s="137">
         <f>H5*F5*PI()*E5^2</f>
-        <v>14954.11847576601</v>
+        <v>15105.170177541426</v>
       </c>
       <c r="J5" s="133">
-        <f>'Main Page'!B52</f>
+        <f>'Main Page'!B53</f>
         <v>-3.3</v>
       </c>
       <c r="K5" s="133">
-        <f>'Main Page'!B53</f>
+        <f>'Main Page'!B54</f>
         <v>0</v>
       </c>
       <c r="L5" s="133">
-        <f>'Main Page'!B54</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="161">
+        <f>'Main Page'!B55</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="378">
         <f>0.4*I5*((E5/2)^5-(E5/2-F5)^5)/((E5/2)^3-(E5/2-F5)^3)</f>
-        <v>29684.009467568529</v>
+        <v>29975.370571214964</v>
       </c>
       <c r="N5" s="161">
         <f>M5</f>
-        <v>29684.009467568529</v>
+        <v>29975.370571214964</v>
       </c>
       <c r="O5" s="161">
         <f>M5</f>
-        <v>29684.009467568529</v>
+        <v>29975.370571214964</v>
       </c>
       <c r="P5" s="161">
         <f>$I5*((K5-K$14)^2+(L5-L$14)^2)</f>
@@ -14535,7 +15379,7 @@
     <row r="6" spans="1:25" ht="12.75">
       <c r="A6" s="113"/>
       <c r="B6" s="165" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="132"/>
       <c r="D6" s="132"/>
@@ -14548,15 +15392,15 @@
         <v>4081.7000000000003</v>
       </c>
       <c r="J6" s="133">
-        <f>'Main Page'!B52</f>
+        <f>'Main Page'!B53</f>
         <v>-3.3</v>
       </c>
       <c r="K6" s="133">
-        <f>'Main Page'!B53</f>
+        <f>'Main Page'!B54</f>
         <v>0</v>
       </c>
       <c r="L6" s="133">
-        <f>'Main Page'!B54</f>
+        <f>'Main Page'!B55</f>
         <v>0</v>
       </c>
       <c r="M6" s="161">
@@ -14596,24 +15440,24 @@
     <row r="7" spans="1:25" ht="12.75">
       <c r="A7" s="113"/>
       <c r="B7" s="165" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="133">
-        <f>'Main Page'!B57</f>
+        <f>'Main Page'!B58</f>
         <v>1.98</v>
       </c>
       <c r="D7" s="133">
+        <f>'Main Page'!B60</f>
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="E7" s="133">
         <f>'Main Page'!B59</f>
-        <v>0.28499999999999998</v>
-      </c>
-      <c r="E7" s="133">
-        <f>'Main Page'!B58</f>
         <v>0.60419999999999996</v>
       </c>
       <c r="F7" s="132"/>
       <c r="G7" s="137"/>
       <c r="H7" s="136">
-        <f>'Main Page'!B60</f>
+        <f>'Main Page'!B61</f>
         <v>7850</v>
       </c>
       <c r="I7" s="137">
@@ -14621,15 +15465,15 @@
         <v>3464.8709598770956</v>
       </c>
       <c r="J7" s="133">
-        <f>0.5*('Main Page'!B65+'Main Page'!B68)</f>
+        <f>0.5*('Main Page'!B66+'Main Page'!B69)</f>
         <v>-1.4850000000000001</v>
       </c>
       <c r="K7" s="133">
-        <f>'Main Page'!B61</f>
+        <f>'Main Page'!B62</f>
         <v>0</v>
       </c>
       <c r="L7" s="133">
-        <f>'Main Page'!B62</f>
+        <f>'Main Page'!B63</f>
         <v>0</v>
       </c>
       <c r="M7" s="161">
@@ -14657,7 +15501,7 @@
         <v>1649.7719637441157</v>
       </c>
       <c r="S7" s="113" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T7" s="113"/>
       <c r="U7" s="113"/>
@@ -14669,7 +15513,7 @@
     <row r="8" spans="1:25" ht="12.75">
       <c r="A8" s="113"/>
       <c r="B8" s="165" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C8" s="132"/>
       <c r="D8" s="160">
@@ -14684,15 +15528,15 @@
         <v>1321.3260789492929</v>
       </c>
       <c r="J8" s="133">
-        <f>'Main Page'!B65</f>
+        <f>'Main Page'!B66</f>
         <v>-2.31</v>
       </c>
       <c r="K8" s="133">
-        <f>'Main Page'!B66</f>
+        <f>'Main Page'!B67</f>
         <v>0</v>
       </c>
       <c r="L8" s="133">
-        <f>'Main Page'!B67</f>
+        <f>'Main Page'!B68</f>
         <v>0</v>
       </c>
       <c r="M8" s="161">
@@ -14720,7 +15564,7 @@
         <v>3032.8636487504127</v>
       </c>
       <c r="S8" s="113" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T8" s="114"/>
       <c r="U8" s="118"/>
@@ -14732,7 +15576,7 @@
     <row r="9" spans="1:25" ht="12.75">
       <c r="A9" s="113"/>
       <c r="B9" s="165" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C9" s="132"/>
       <c r="D9" s="160">
@@ -14747,15 +15591,15 @@
         <v>1321.3260789492929</v>
       </c>
       <c r="J9" s="133">
-        <f>'Main Page'!B68</f>
+        <f>'Main Page'!B69</f>
         <v>-0.66</v>
       </c>
       <c r="K9" s="133">
-        <f>'Main Page'!B69</f>
+        <f>'Main Page'!B70</f>
         <v>0</v>
       </c>
       <c r="L9" s="133">
-        <f>'Main Page'!B70</f>
+        <f>'Main Page'!B71</f>
         <v>0</v>
       </c>
       <c r="M9" s="161">
@@ -14783,7 +15627,7 @@
         <v>24.07020882285633</v>
       </c>
       <c r="S9" s="113" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T9" s="114"/>
       <c r="U9" s="120"/>
@@ -14794,8 +15638,8 @@
     </row>
     <row r="10" spans="1:25" ht="12.75">
       <c r="A10" s="113"/>
-      <c r="B10" s="165" t="s">
-        <v>188</v>
+      <c r="B10" s="377" t="s">
+        <v>187</v>
       </c>
       <c r="C10" s="132">
         <f>C24</f>
@@ -14810,19 +15654,19 @@
       <c r="G10" s="129"/>
       <c r="H10" s="138"/>
       <c r="I10" s="137">
-        <f>'Main Page'!B73/2</f>
+        <f>'Main Page'!B74/2</f>
         <v>5301.31</v>
       </c>
       <c r="J10" s="133">
-        <f>'Main Page'!B74</f>
+        <f>'Main Page'!B75</f>
         <v>0</v>
       </c>
       <c r="K10" s="133">
-        <f>'Main Page'!B75</f>
+        <f>'Main Page'!B76</f>
         <v>0</v>
       </c>
       <c r="L10" s="133">
-        <f>'Main Page'!B76</f>
+        <f>'Main Page'!B77</f>
         <v>0</v>
       </c>
       <c r="M10" s="161">
@@ -14850,7 +15694,7 @@
         <v>3350.3015020074272</v>
       </c>
       <c r="S10" s="113" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="T10" s="114"/>
       <c r="U10" s="113"/>
@@ -14861,8 +15705,8 @@
     </row>
     <row r="11" spans="1:25" ht="13.15" customHeight="1">
       <c r="A11" s="113"/>
-      <c r="B11" s="165" t="s">
-        <v>189</v>
+      <c r="B11" s="376" t="s">
+        <v>188</v>
       </c>
       <c r="C11" s="132">
         <f>1.6*0.015*C1</f>
@@ -14874,19 +15718,19 @@
       <c r="G11" s="129"/>
       <c r="H11" s="138"/>
       <c r="I11" s="140">
-        <f>(3.3*'Main Page'!B83+471)/3</f>
+        <f>(3.3*'Main Page'!B84+471)/3</f>
         <v>1807</v>
       </c>
       <c r="J11" s="133">
-        <f>'Main Page'!B84</f>
+        <f>'Main Page'!B85</f>
         <v>0.82499999999999996</v>
       </c>
       <c r="K11" s="133">
-        <f>'Main Page'!B85</f>
+        <f>'Main Page'!B86</f>
         <v>0</v>
       </c>
       <c r="L11" s="133">
-        <f>'Main Page'!B86</f>
+        <f>'Main Page'!B87</f>
         <v>0</v>
       </c>
       <c r="M11" s="161">
@@ -14894,7 +15738,7 @@
         <v>336158.51508794067</v>
       </c>
       <c r="N11" s="161">
-        <f>M11/2/('Main Page'!B79^2)+I11*C11^2/12</f>
+        <f>M11/2/('Main Page'!B80^2)+I11*C11^2/12</f>
         <v>446.72832515316372</v>
       </c>
       <c r="O11" s="161">
@@ -14914,7 +15758,7 @@
         <v>6.1769129819383561</v>
       </c>
       <c r="S11" s="113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T11" s="114"/>
       <c r="V11" s="120"/>
@@ -14924,8 +15768,8 @@
     </row>
     <row r="12" spans="1:25" ht="12.75">
       <c r="A12" s="113"/>
-      <c r="B12" s="165" t="s">
-        <v>256</v>
+      <c r="B12" s="376" t="s">
+        <v>255</v>
       </c>
       <c r="C12" s="132">
         <v>2.5000000000000001E-2</v>
@@ -14941,7 +15785,7 @@
         <v>7850</v>
       </c>
       <c r="I12" s="140">
-        <f>1.5*0.025*1000*'Main Page'!B83/0.10472/C2</f>
+        <f>1.5*0.025*1000*'Main Page'!B84/0.10472/C2</f>
         <v>298.41482047364406</v>
       </c>
       <c r="J12" s="133">
@@ -14957,7 +15801,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="161">
-        <f>0.25*C12*PI()*H12*E12^2*'Main Page'!B79^2*E12^2/8</f>
+        <f>0.25*C12*PI()*H12*E12^2*'Main Page'!B80^2*E12^2/8</f>
         <v>100580.38364803854</v>
       </c>
       <c r="N12" s="161">
@@ -14981,7 +15825,7 @@
         <v>37.403242039543507</v>
       </c>
       <c r="S12" s="113" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="T12" s="114"/>
       <c r="V12" s="120"/>
@@ -15003,13 +15847,13 @@
       <c r="K13" s="133"/>
       <c r="L13" s="133"/>
       <c r="M13" s="159" t="s">
+        <v>207</v>
+      </c>
+      <c r="N13" s="159" t="s">
         <v>208</v>
       </c>
-      <c r="N13" s="159" t="s">
-        <v>209</v>
-      </c>
       <c r="O13" s="159" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P13" s="159"/>
       <c r="Q13" s="159"/>
@@ -15030,11 +15874,11 @@
       <c r="F14" s="132"/>
       <c r="G14" s="132"/>
       <c r="H14" s="142" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I14" s="137">
         <f>I5+I6</f>
-        <v>19035.818475766009</v>
+        <v>19186.870177541427</v>
       </c>
       <c r="J14" s="133">
         <f>SUMPRODUCT($I5:$I6,J5:J6)/SUM($I5:$I6)</f>
@@ -15050,15 +15894,15 @@
       </c>
       <c r="M14" s="162">
         <f>M5+M6+P5+P6</f>
-        <v>42184.215717568528</v>
+        <v>42475.576821214963</v>
       </c>
       <c r="N14" s="162">
         <f>N5+N6+Q5+Q6</f>
-        <v>42184.215717568528</v>
+        <v>42475.576821214963</v>
       </c>
       <c r="O14" s="162">
         <f>O5+O6+R5+R6</f>
-        <v>42184.215717568528</v>
+        <v>42475.576821214963</v>
       </c>
       <c r="P14" s="113"/>
       <c r="Q14" s="113"/>
@@ -15079,7 +15923,7 @@
       <c r="F15" s="132"/>
       <c r="G15" s="132"/>
       <c r="H15" s="114" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I15" s="143">
         <f>SUM(I7:I10)</f>
@@ -15128,7 +15972,7 @@
       <c r="F16" s="113"/>
       <c r="G16" s="121"/>
       <c r="H16" s="114" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I16" s="137">
         <f>SUM(I11:I12)</f>
@@ -15178,15 +16022,15 @@
       <c r="F17" s="113"/>
       <c r="G17" s="121"/>
       <c r="H17" s="114" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I17" s="137">
         <f>SUM(I14:I16)</f>
-        <v>32550.066414015335</v>
+        <v>32701.118115790752</v>
       </c>
       <c r="J17" s="133">
         <f>SUMPRODUCT($I14:$I16,J14:J16)/SUM($I14:$I16)</f>
-        <v>-2.1589510999037755</v>
+        <v>-2.1642217875162966</v>
       </c>
       <c r="K17" s="133">
         <f>SUMPRODUCT($I14:$I16,K14:K16)/SUM($I14:$I16)</f>
@@ -15242,7 +16086,7 @@
       <c r="B19" s="166"/>
       <c r="C19" s="113"/>
       <c r="D19" s="374" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E19" s="374"/>
       <c r="F19" s="374"/>
@@ -15269,22 +16113,22 @@
     <row r="20" spans="1:25" ht="38.25">
       <c r="A20" s="116"/>
       <c r="B20" s="164" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="116" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20" s="116" t="s">
         <v>190</v>
       </c>
-      <c r="C20" s="116" t="s">
-        <v>174</v>
-      </c>
-      <c r="D20" s="116" t="s">
+      <c r="E20" s="116" t="s">
         <v>191</v>
       </c>
-      <c r="E20" s="116" t="s">
+      <c r="F20" s="116" t="s">
+        <v>193</v>
+      </c>
+      <c r="G20" s="116" t="s">
         <v>192</v>
-      </c>
-      <c r="F20" s="116" t="s">
-        <v>194</v>
-      </c>
-      <c r="G20" s="116" t="s">
-        <v>193</v>
       </c>
       <c r="H20" s="116"/>
       <c r="I20" s="116"/>
@@ -15308,30 +16152,30 @@
     <row r="21" spans="1:25" ht="12.75">
       <c r="A21" s="113"/>
       <c r="B21" s="165" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C21" s="133">
-        <f>'Main Page'!B89</f>
+        <f>'Main Page'!B91</f>
         <v>2.31</v>
       </c>
       <c r="D21" s="133">
-        <f>'Main Page'!B90</f>
+        <f>'Main Page'!B92</f>
         <v>2.4750000000000001</v>
       </c>
       <c r="E21" s="133">
-        <f>'Main Page'!B91</f>
+        <f>'Main Page'!B93</f>
         <v>1.1880000000000002</v>
       </c>
       <c r="F21" s="133">
-        <f>'Main Page'!B92</f>
+        <f>'Main Page'!B94</f>
         <v>0.191</v>
       </c>
       <c r="G21" s="133">
-        <f>'Main Page'!B93</f>
+        <f>'Main Page'!B95</f>
         <v>0.17399999999999999</v>
       </c>
       <c r="H21" s="137">
-        <f>'Main Page'!B94</f>
+        <f>'Main Page'!B96</f>
         <v>7850</v>
       </c>
       <c r="I21" s="140">
@@ -15339,15 +16183,15 @@
         <v>14800.274212500004</v>
       </c>
       <c r="J21" s="133">
-        <f>'Main Page'!B95</f>
+        <f>'Main Page'!B97</f>
         <v>0</v>
       </c>
       <c r="K21" s="133">
-        <f>'Main Page'!B96</f>
+        <f>'Main Page'!B98</f>
         <v>0</v>
       </c>
       <c r="L21" s="133">
-        <f>'Main Page'!B97</f>
+        <f>'Main Page'!B99</f>
         <v>-0.80500000000000005</v>
       </c>
       <c r="M21" s="161">
@@ -15384,7 +16228,7 @@
     <row r="22" spans="1:25" ht="12.75">
       <c r="A22" s="113"/>
       <c r="B22" s="165" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C22" s="133"/>
       <c r="E22" s="134">
@@ -15444,7 +16288,7 @@
     <row r="23" spans="1:25" ht="12.75">
       <c r="A23" s="113"/>
       <c r="B23" s="165" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C23" s="133"/>
       <c r="E23" s="134">
@@ -15504,8 +16348,8 @@
     </row>
     <row r="24" spans="1:25" ht="12.75">
       <c r="A24" s="113"/>
-      <c r="B24" s="165" t="s">
-        <v>197</v>
+      <c r="B24" s="377" t="s">
+        <v>196</v>
       </c>
       <c r="C24" s="133">
         <f>0.012*C1</f>
@@ -15523,7 +16367,7 @@
       <c r="G24" s="131"/>
       <c r="H24" s="130"/>
       <c r="I24" s="141">
-        <f>'Main Page'!B73/2</f>
+        <f>'Main Page'!B74/2</f>
         <v>5301.31</v>
       </c>
       <c r="J24" s="133">
@@ -15572,8 +16416,8 @@
     </row>
     <row r="25" spans="1:25" ht="12.75">
       <c r="A25" s="113"/>
-      <c r="B25" s="165" t="s">
-        <v>198</v>
+      <c r="B25" s="377" t="s">
+        <v>197</v>
       </c>
       <c r="C25" s="133">
         <f>C11</f>
@@ -15591,7 +16435,7 @@
       <c r="G25" s="131"/>
       <c r="H25" s="130"/>
       <c r="I25" s="140">
-        <f>2*(3.3*'Main Page'!B83+471)/3</f>
+        <f>2*(3.3*'Main Page'!B84+471)/3</f>
         <v>3614</v>
       </c>
       <c r="J25" s="133">
@@ -15641,7 +16485,7 @@
     <row r="26" spans="1:25" ht="12.75">
       <c r="A26" s="113"/>
       <c r="B26" s="165" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C26" s="133">
         <f>2*C21</f>
@@ -15707,7 +16551,7 @@
     <row r="27" spans="1:25" ht="12.75">
       <c r="A27" s="113"/>
       <c r="B27" s="165" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C27" s="130"/>
       <c r="D27" s="130"/>
@@ -15716,7 +16560,7 @@
       <c r="G27" s="130"/>
       <c r="H27" s="130"/>
       <c r="I27" s="140">
-        <f>2.6*'Main Page'!B83+0.002168*C1^3.4</f>
+        <f>2.6*'Main Page'!B84+0.002168*C1^3.4</f>
         <v>7968.1093102339655</v>
       </c>
       <c r="J27" s="133">
@@ -15759,7 +16603,7 @@
     <row r="28" spans="1:25" ht="12.75">
       <c r="A28" s="113"/>
       <c r="B28" s="165" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C28" s="130"/>
       <c r="D28" s="130"/>
@@ -15822,13 +16666,13 @@
       <c r="K29" s="122"/>
       <c r="L29" s="122"/>
       <c r="M29" s="159" t="s">
+        <v>207</v>
+      </c>
+      <c r="N29" s="159" t="s">
         <v>208</v>
       </c>
-      <c r="N29" s="159" t="s">
-        <v>209</v>
-      </c>
       <c r="O29" s="159" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P29" s="113"/>
       <c r="Q29" s="113"/>
@@ -15850,7 +16694,7 @@
       <c r="F30" s="113"/>
       <c r="G30" s="113"/>
       <c r="H30" s="114" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I30" s="137">
         <f>SUM(I21:I28)</f>
@@ -15900,15 +16744,15 @@
       <c r="F31" s="113"/>
       <c r="G31" s="113"/>
       <c r="H31" s="114" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I31" s="137">
         <f>SUM(I17,I30)</f>
-        <v>71874.726735387696</v>
+        <v>72025.778437163113</v>
       </c>
       <c r="J31" s="133">
         <f>($I17*J17+$I30*J30)/($I17+$I30)</f>
-        <v>-0.99753993427507148</v>
+        <v>-1.0023686292054721</v>
       </c>
       <c r="K31" s="133">
         <f>($I17*K17+$I30*K30)/($I17+$I30)</f>
@@ -15916,7 +16760,7 @@
       </c>
       <c r="L31" s="133">
         <f>($I17*L17+$I30*L30)/($I17+$I30)</f>
-        <v>-0.16576370140405008</v>
+        <v>-0.16541606352032323</v>
       </c>
       <c r="M31" s="113"/>
       <c r="N31" s="113"/>
@@ -15991,23 +16835,23 @@
     </row>
     <row r="35" spans="1:25" s="113" customFormat="1" ht="12.75">
       <c r="B35" s="165" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="36" spans="1:25" s="113" customFormat="1" ht="12.75">
       <c r="B36" s="165" t="s">
+        <v>217</v>
+      </c>
+      <c r="C36" s="152" t="s">
         <v>218</v>
-      </c>
-      <c r="C36" s="152" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:25" s="113" customFormat="1" ht="12.75">
       <c r="B37" s="165" t="s">
+        <v>219</v>
+      </c>
+      <c r="C37" s="113" t="s">
         <v>220</v>
-      </c>
-      <c r="C37" s="113" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:25" s="113" customFormat="1" ht="12.75">
@@ -16015,26 +16859,26 @@
     </row>
     <row r="39" spans="1:25" s="113" customFormat="1" ht="12.75">
       <c r="B39" s="165" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="113" t="s">
         <v>227</v>
-      </c>
-      <c r="C39" s="113" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="40" spans="1:25" s="113" customFormat="1" ht="12.75">
       <c r="B40" s="165" t="s">
+        <v>223</v>
+      </c>
+      <c r="C40" s="113" t="s">
         <v>224</v>
-      </c>
-      <c r="C40" s="113" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:25" s="113" customFormat="1" ht="12.75">
       <c r="B41" s="165" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C41" s="113" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="42" spans="1:25" s="113" customFormat="1" ht="12.75">
@@ -16042,26 +16886,26 @@
     </row>
     <row r="43" spans="1:25" s="113" customFormat="1" ht="12.75">
       <c r="B43" s="165" t="s">
+        <v>229</v>
+      </c>
+      <c r="C43" s="113" t="s">
         <v>230</v>
-      </c>
-      <c r="C43" s="113" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="44" spans="1:25" s="113" customFormat="1" ht="12.75">
       <c r="B44" s="165" t="s">
+        <v>231</v>
+      </c>
+      <c r="C44" s="113" t="s">
         <v>232</v>
-      </c>
-      <c r="C44" s="113" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="45" spans="1:25" s="113" customFormat="1" ht="12.75">
       <c r="B45" s="165" t="s">
+        <v>275</v>
+      </c>
+      <c r="C45" s="113" t="s">
         <v>276</v>
-      </c>
-      <c r="C45" s="113" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:25" s="113" customFormat="1" ht="12.75">
@@ -16069,26 +16913,26 @@
     </row>
     <row r="47" spans="1:25" s="113" customFormat="1" ht="12.75">
       <c r="B47" s="165" t="s">
+        <v>234</v>
+      </c>
+      <c r="C47" s="115" t="s">
         <v>235</v>
-      </c>
-      <c r="C47" s="115" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:25" s="113" customFormat="1" ht="12.75">
       <c r="B48" s="165" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C48" s="113" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B49" s="165" t="s">
+        <v>277</v>
+      </c>
+      <c r="C49" s="113" t="s">
         <v>278</v>
-      </c>
-      <c r="C49" s="113" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="50" spans="2:3" s="113" customFormat="1" ht="12.75">
@@ -16099,34 +16943,34 @@
     </row>
     <row r="52" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B52" s="165" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C52" s="113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="53" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B53" s="165" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C53" s="113" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B54" s="165" t="s">
+        <v>243</v>
+      </c>
+      <c r="C54" s="113" t="s">
         <v>244</v>
-      </c>
-      <c r="C54" s="113" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="55" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B55" s="165" t="s">
+        <v>245</v>
+      </c>
+      <c r="C55" s="113" t="s">
         <v>246</v>
-      </c>
-      <c r="C55" s="113" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="56" spans="2:3" s="113" customFormat="1" ht="12.75">
@@ -16134,34 +16978,34 @@
     </row>
     <row r="57" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B57" s="165" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="113" t="s">
         <v>253</v>
-      </c>
-      <c r="C57" s="113" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="58" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B58" s="165" t="s">
+        <v>247</v>
+      </c>
+      <c r="C58" s="113" t="s">
         <v>248</v>
-      </c>
-      <c r="C58" s="113" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="59" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B59" s="165" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C59" s="113" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="60" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B60" s="165" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C60" s="113" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="61" spans="2:3" s="113" customFormat="1" ht="12.75">
@@ -16169,42 +17013,42 @@
     </row>
     <row r="62" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B62" s="165" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C62" s="113" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B63" s="165" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C63" s="113" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B64" s="165" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C64" s="113" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B65" s="165" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C65" s="113" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="66" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B66" s="165" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C66" s="113" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="2:3" s="113" customFormat="1" ht="12.75">
@@ -16212,18 +17056,18 @@
     </row>
     <row r="68" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B68" s="165" t="s">
+        <v>266</v>
+      </c>
+      <c r="C68" s="113" t="s">
         <v>267</v>
-      </c>
-      <c r="C68" s="113" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="69" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B69" s="165" t="s">
+        <v>268</v>
+      </c>
+      <c r="C69" s="113" t="s">
         <v>269</v>
-      </c>
-      <c r="C69" s="113" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="70" spans="2:3" s="113" customFormat="1" ht="12.75">
@@ -16231,26 +17075,26 @@
     </row>
     <row r="71" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B71" s="165" t="s">
+        <v>272</v>
+      </c>
+      <c r="C71" s="113" t="s">
         <v>273</v>
-      </c>
-      <c r="C71" s="113" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="72" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B72" s="165" t="s">
+        <v>270</v>
+      </c>
+      <c r="C72" s="113" t="s">
         <v>271</v>
-      </c>
-      <c r="C72" s="113" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="73" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B73" s="165" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C73" s="113" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="2:3" s="113" customFormat="1" ht="12.75">
@@ -16258,42 +17102,42 @@
     </row>
     <row r="75" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B75" s="165" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C75" s="113" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="76" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B76" s="165" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C76" s="113" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B77" s="165" t="s">
+        <v>282</v>
+      </c>
+      <c r="C77" s="113" t="s">
         <v>283</v>
-      </c>
-      <c r="C77" s="113" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="78" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B78" s="165" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C78" s="113" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B79" s="165" t="s">
+        <v>285</v>
+      </c>
+      <c r="C79" s="113" t="s">
         <v>286</v>
-      </c>
-      <c r="C79" s="113" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="80" spans="2:3" s="113" customFormat="1" ht="12.75">
@@ -16301,42 +17145,42 @@
     </row>
     <row r="81" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B81" s="165" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C81" s="113" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B82" s="165" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C82" s="113" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="83" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B83" s="165" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C83" s="113" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="84" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B84" s="165" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C84" s="113" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="85" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B85" s="165" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C85" s="113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="86" spans="2:3" s="113" customFormat="1" ht="12.75">
@@ -16344,59 +17188,59 @@
     </row>
     <row r="87" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B87" s="165" t="s">
+        <v>294</v>
+      </c>
+      <c r="C87" s="113" t="s">
         <v>295</v>
-      </c>
-      <c r="C87" s="113" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="88" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B88" s="165" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C88" s="113" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="89" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B89" s="165" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C89" s="113" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="90" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B90" s="165" t="s">
+        <v>300</v>
+      </c>
+      <c r="C90" s="113" t="s">
         <v>301</v>
-      </c>
-      <c r="C90" s="113" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="91" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B91" s="165" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C91" s="113" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="92" spans="2:3" s="113" customFormat="1" ht="12.75"/>
     <row r="93" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B93" s="165" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C93" s="113" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="94" spans="2:3" s="113" customFormat="1" ht="12.75">
       <c r="B94" s="165" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C94" s="113" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="95" spans="2:3" s="113" customFormat="1" ht="12.75">
@@ -16404,10 +17248,10 @@
     </row>
     <row r="96" spans="2:3" ht="12.75">
       <c r="B96" s="165" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" s="113" t="s">
         <v>222</v>
-      </c>
-      <c r="C96" s="113" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="97" spans="2:2">

--- a/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="8070" windowHeight="7575" activeTab="2"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="8070" windowHeight="7575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="464">
   <si>
     <t>number</t>
   </si>
@@ -1602,12 +1602,6 @@
     <t>cylinder</t>
   </si>
   <si>
-    <t>s818_2702.dat</t>
-  </si>
-  <si>
-    <t>s825_2102.dat</t>
-  </si>
-  <si>
     <t>Initial value = 0.03*D (shorter than for 750 kW?)</t>
   </si>
   <si>
@@ -1710,9 +1704,6 @@
     <t>Airfoil Filename</t>
   </si>
   <si>
-    <t>s826_1602.dat</t>
-  </si>
-  <si>
     <t xml:space="preserve">      Airfoil ID</t>
   </si>
   <si>
@@ -1728,9 +1719,6 @@
     <t>Airfoils</t>
   </si>
   <si>
-    <t>BladeDamping</t>
-  </si>
-  <si>
     <t>TipSpeed</t>
   </si>
   <si>
@@ -1776,9 +1764,6 @@
     <t>Drivetrain torsoinal spring</t>
   </si>
   <si>
-    <t>Drivetrain efficiency</t>
-  </si>
-  <si>
     <t>Drivetrain natural frequency (rad/s)</t>
   </si>
   <si>
@@ -1833,27 +1818,12 @@
     <t>Rotshaft mass</t>
   </si>
   <si>
-    <t>Inertia</t>
-  </si>
-  <si>
-    <t>kg m^2</t>
-  </si>
-  <si>
-    <t>Generator inertia</t>
-  </si>
-  <si>
     <t>&lt;-- added this (JR)</t>
   </si>
   <si>
     <t>Rated (high speed shaft) torque (N-m)</t>
   </si>
   <si>
-    <t>Rated HSS torque (N-m)</t>
-  </si>
-  <si>
-    <t>Tower damping</t>
-  </si>
-  <si>
     <t>MinPitchAng (deg)</t>
   </si>
   <si>
@@ -1863,9 +1833,6 @@
     <t>ADBladNodes (x/L)</t>
   </si>
   <si>
-    <t>Taken from CertTest folder (JR)</t>
-  </si>
-  <si>
     <t>AirDensity</t>
   </si>
   <si>
@@ -1884,10 +1851,40 @@
     <t>Optimal tip-speed ratio</t>
   </si>
   <si>
-    <t>Generator slip (%)</t>
-  </si>
-  <si>
-    <t>Variable speed generator slipage (%)</t>
+    <t>&lt;-- changed this (JR)</t>
+  </si>
+  <si>
+    <t>Generator efficiency</t>
+  </si>
+  <si>
+    <t>Rated Power (W)</t>
+  </si>
+  <si>
+    <t>s818_2703.dat</t>
+  </si>
+  <si>
+    <t>s825_2103.dat</t>
+  </si>
+  <si>
+    <t>s826_1603.dat</t>
+  </si>
+  <si>
+    <t>&lt;-- changed to "sXXX_XX03.dat" (JR)</t>
+  </si>
+  <si>
+    <t>tower modal damping ratios</t>
+  </si>
+  <si>
+    <t>Tower damping (%)</t>
+  </si>
+  <si>
+    <t>BladeDamping (%)</t>
+  </si>
+  <si>
+    <t>Cylinder changed to produce correct AeroCent</t>
+  </si>
+  <si>
+    <t>GenIner (LSS reference frame)</t>
   </si>
 </sst>
 </file>
@@ -2152,7 +2149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="48">
+  <borders count="52">
     <border>
       <left/>
       <right/>
@@ -2737,12 +2734,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="394">
+  <cellXfs count="409">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3520,27 +3571,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3558,15 +3593,11 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="169" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3575,14 +3606,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -4213,11 +4307,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="75981568"/>
-        <c:axId val="75983488"/>
+        <c:axId val="55157120"/>
+        <c:axId val="55159040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75981568"/>
+        <c:axId val="55157120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4302,12 +4396,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75983488"/>
+        <c:crossAx val="55159040"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75983488"/>
+        <c:axId val="55159040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4391,7 +4485,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="75981568"/>
+        <c:crossAx val="55157120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4939,7 +5033,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>                          Changed AC for cylinders to yield correct AeroCent</a:t>
+            <a:t>                          	Changed AC for cylinders to yield correct AeroCent</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000">
             <a:effectLst/>
@@ -4966,7 +5060,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>Oct 11, 2015     Added generator inertia input, drivetrain natural frequency</a:t>
+            <a:t>Oct 11, 2015     	Added generator inertia input, drivetrain natural frequency</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1000">
             <a:effectLst/>
@@ -4984,7 +5078,52 @@
               <a:latin typeface="Arial"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
-            <a:t>Oct 12, 2015    Added TSR, CpMax values</a:t>
+            <a:t>Oct 12, 2015    	Added TSR, CpMax values</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Oct 16, 2015    	Removed TSR, CpMax dependencies, changed rated torque definition, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>	changed airfoil names</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial"/>
+              <a:cs typeface="Arial"/>
+            </a:rPr>
+            <a:t>Oct 19, 2015	Added blade and tower damping to front page</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5468,10 +5607,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U148"/>
+  <dimension ref="A1:U153"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView topLeftCell="A112" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C104" sqref="C104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5493,16 +5632,16 @@
         <v>40</v>
       </c>
       <c r="B1" s="335" t="s">
-        <v>400</v>
-      </c>
-      <c r="C1" s="386" t="s">
         <v>398</v>
       </c>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="388"/>
+      <c r="C1" s="401" t="s">
+        <v>396</v>
+      </c>
+      <c r="D1" s="402"/>
+      <c r="E1" s="402"/>
+      <c r="F1" s="402"/>
+      <c r="G1" s="402"/>
+      <c r="H1" s="403"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5518,17 +5657,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="380" t="s">
+      <c r="B3" s="395" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="381"/>
-      <c r="D3" s="382"/>
+      <c r="C3" s="396"/>
+      <c r="D3" s="397"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="383" t="s">
+      <c r="F3" s="398" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="384"/>
-      <c r="H3" s="385"/>
+      <c r="G3" s="399"/>
+      <c r="H3" s="400"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -5718,7 +5857,7 @@
         <f>SUM(E5:E8)</f>
         <v>72025.778437163113</v>
       </c>
-      <c r="F11" s="357"/>
+      <c r="F11" s="351"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="54" t="s">
@@ -5742,22 +5881,22 @@
       <c r="A14" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="361">
+      <c r="B14" s="355">
         <f>PI()*(B63^4-B64^4)/32/(GECdrivetrain!C7)*GECtwrdata!F7</f>
         <v>483129639.71309441</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="61" t="s">
-        <v>428</v>
-      </c>
-      <c r="B15" s="362">
-        <v>15</v>
-      </c>
-      <c r="D15" s="366" t="s">
-        <v>449</v>
-      </c>
-      <c r="E15" s="367"/>
+        <v>423</v>
+      </c>
+      <c r="B15" s="356">
+        <v>56</v>
+      </c>
+      <c r="D15" s="359" t="s">
+        <v>441</v>
+      </c>
+      <c r="E15" s="360"/>
       <c r="H15" s="103"/>
     </row>
     <row r="16" spans="1:8" ht="23.45" customHeight="1">
@@ -5805,12 +5944,12 @@
       <c r="C18" s="329">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D18" s="389" t="s">
+      <c r="D18" s="404" t="s">
         <v>373</v>
       </c>
-      <c r="E18" s="388"/>
-      <c r="F18" s="388"/>
-      <c r="G18" s="363"/>
+      <c r="E18" s="403"/>
+      <c r="F18" s="403"/>
+      <c r="G18" s="357"/>
     </row>
     <row r="19" spans="1:21" ht="25.5" customHeight="1">
       <c r="A19" s="268" t="s">
@@ -5822,11 +5961,11 @@
       <c r="C19" s="329">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D19" s="389" t="s">
+      <c r="D19" s="404" t="s">
         <v>372</v>
       </c>
-      <c r="E19" s="388"/>
-      <c r="F19" s="388"/>
+      <c r="E19" s="403"/>
+      <c r="F19" s="403"/>
       <c r="I19" s="35" t="s">
         <v>68</v>
       </c>
@@ -5869,7 +6008,7 @@
       <c r="P21" s="173"/>
     </row>
     <row r="22" spans="1:21">
-      <c r="A22" s="372" t="s">
+      <c r="A22" s="364" t="s">
         <v>77</v>
       </c>
       <c r="B22" s="29"/>
@@ -5937,7 +6076,7 @@
       <c r="H25" s="12"/>
     </row>
     <row r="27" spans="1:21" ht="12.6" customHeight="1">
-      <c r="A27" s="372" t="s">
+      <c r="A27" s="390" t="s">
         <v>78</v>
       </c>
       <c r="B27" s="29"/>
@@ -5961,13 +6100,17 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="9.75" customHeight="1">
-      <c r="A30" s="368" t="s">
-        <v>450</v>
+      <c r="A30" s="361" t="s">
+        <v>442</v>
       </c>
       <c r="B30" s="269">
-        <f>B88*1000/(B83*PI()/30)/(B18-C18-B19-C19)</f>
-        <v>8602.9698968592093</v>
-      </c>
+        <f>B88*1000/(B83*PI()/30)/(B18)</f>
+        <v>8376.5759522050193</v>
+      </c>
+      <c r="D30" s="359" t="s">
+        <v>452</v>
+      </c>
+      <c r="E30" s="360"/>
     </row>
     <row r="31" spans="1:21">
       <c r="B31" s="53"/>
@@ -6003,56 +6146,50 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="12" customHeight="1">
-      <c r="A36" s="373"/>
-      <c r="B36" s="374"/>
+      <c r="A36" s="365"/>
+      <c r="B36" s="370"/>
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1">
       <c r="A37" s="109" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="B37" s="29"/>
-      <c r="D37" s="366" t="s">
-        <v>449</v>
-      </c>
-      <c r="E37" s="367"/>
+      <c r="D37" s="359" t="s">
+        <v>441</v>
+      </c>
+      <c r="E37" s="360"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1">
       <c r="A38" s="100" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B38" s="275">
         <v>0.45</v>
       </c>
-      <c r="D38" s="366" t="s">
-        <v>449</v>
-      </c>
-      <c r="E38" s="367"/>
+      <c r="D38" s="359" t="s">
+        <v>441</v>
+      </c>
+      <c r="E38" s="360"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1">
       <c r="A39" s="100" t="s">
-        <v>462</v>
-      </c>
-      <c r="B39" s="375">
+        <v>451</v>
+      </c>
+      <c r="B39" s="366">
         <v>7</v>
       </c>
-      <c r="D39" s="366" t="s">
-        <v>449</v>
-      </c>
-      <c r="E39" s="367"/>
+      <c r="D39" s="359" t="s">
+        <v>441</v>
+      </c>
+      <c r="E39" s="360"/>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
-      <c r="A40" s="100" t="s">
-        <v>463</v>
-      </c>
-      <c r="B40" s="375">
-        <v>1</v>
-      </c>
-      <c r="D40" s="366" t="s">
-        <v>449</v>
-      </c>
-      <c r="E40" s="367"/>
-    </row>
-    <row r="41" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A40" s="100"/>
+      <c r="B40" s="368"/>
+      <c r="D40" s="369"/>
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" s="109" t="s">
         <v>122</v>
       </c>
@@ -6100,7 +6237,7 @@
     </row>
     <row r="47" spans="1:5" ht="13.5" customHeight="1">
       <c r="A47" s="100" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B47" s="330">
         <v>5</v>
@@ -6108,13 +6245,13 @@
     </row>
     <row r="48" spans="1:5" ht="18" customHeight="1">
       <c r="A48" s="109" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B48" s="63"/>
     </row>
     <row r="49" spans="1:4" ht="13.5" customHeight="1">
       <c r="A49" s="100" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B49" s="105">
         <f>ABS(B8)+B13/2*(B11+B17)/57.3-0.5*(B43+B13/2/B9*(B45-B43))</f>
@@ -6152,7 +6289,7 @@
         <v>85</v>
       </c>
       <c r="D53" s="272" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="10.9" customHeight="1">
@@ -6166,7 +6303,7 @@
         <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -6251,7 +6388,7 @@
         <v>85</v>
       </c>
       <c r="D62" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -6323,10 +6460,10 @@
         <v>1.98</v>
       </c>
       <c r="I68" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="J68" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -6472,7 +6609,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:4">
       <c r="A81" s="18" t="s">
         <v>136</v>
       </c>
@@ -6483,29 +6620,29 @@
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:4">
       <c r="A82" s="18" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B82" s="278">
         <v>75</v>
       </c>
       <c r="C82" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="18" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B83" s="278">
         <v>1800</v>
       </c>
       <c r="C83" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="18" t="s">
         <v>156</v>
       </c>
@@ -6514,7 +6651,7 @@
         <v>87.964594300514221</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:4">
       <c r="A85" s="18" t="s">
         <v>157</v>
       </c>
@@ -6523,17 +6660,17 @@
         <v>20.462778397529398</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:4">
       <c r="A86" s="18"/>
       <c r="B86" s="123"/>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:4">
       <c r="A87" s="111" t="s">
         <v>158</v>
       </c>
       <c r="B87" s="125"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:4">
       <c r="A88" s="18" t="s">
         <v>159</v>
       </c>
@@ -6544,7 +6681,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:4">
       <c r="A89" s="18" t="s">
         <v>133</v>
       </c>
@@ -6558,7 +6695,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:4">
       <c r="A90" s="18" t="s">
         <v>135</v>
       </c>
@@ -6569,7 +6706,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:4">
       <c r="A91" s="18" t="s">
         <v>136</v>
       </c>
@@ -6580,65 +6717,61 @@
         <v>85</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="331" t="s">
-        <v>446</v>
-      </c>
-      <c r="B92" s="365">
-        <v>53.036000000000001</v>
-      </c>
-      <c r="C92" s="363" t="s">
-        <v>447</v>
-      </c>
-      <c r="D92" s="366" t="s">
-        <v>456</v>
-      </c>
-      <c r="E92" s="367"/>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="18"/>
+    <row r="92" spans="1:4">
+      <c r="A92" s="18"/>
+      <c r="B92" s="126"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="111" t="s">
+        <v>162</v>
+      </c>
       <c r="B93" s="126"/>
     </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="111" t="s">
-        <v>162</v>
-      </c>
-      <c r="B94" s="126"/>
-    </row>
-    <row r="95" spans="1:5">
+    <row r="94" spans="1:4">
+      <c r="A94" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B94" s="282">
+        <v>2.31</v>
+      </c>
+      <c r="C94" t="s">
+        <v>85</v>
+      </c>
+      <c r="D94" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B95" s="282">
-        <v>2.31</v>
+        <v>164</v>
+      </c>
+      <c r="B95" s="278">
+        <v>2.4750000000000001</v>
       </c>
       <c r="C95" t="s">
         <v>85</v>
       </c>
       <c r="D95" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B96" s="278">
-        <v>2.4750000000000001</v>
+        <v>1.1880000000000002</v>
       </c>
       <c r="C96" t="s">
         <v>85</v>
       </c>
-      <c r="D96" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="97" spans="1:11">
       <c r="A97" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B97" s="278">
-        <v>1.1880000000000002</v>
+        <v>0.191</v>
       </c>
       <c r="C97" t="s">
         <v>85</v>
@@ -6646,10 +6779,10 @@
     </row>
     <row r="98" spans="1:11">
       <c r="A98" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B98" s="278">
-        <v>0.191</v>
+        <v>0.17399999999999999</v>
       </c>
       <c r="C98" t="s">
         <v>85</v>
@@ -6657,10 +6790,10 @@
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B99" s="278">
-        <v>0.17399999999999999</v>
+        <v>132</v>
+      </c>
+      <c r="B99" s="279">
+        <v>7850</v>
       </c>
       <c r="C99" t="s">
         <v>85</v>
@@ -6668,10 +6801,10 @@
     </row>
     <row r="100" spans="1:11">
       <c r="A100" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B100" s="279">
-        <v>7850</v>
+        <v>133</v>
+      </c>
+      <c r="B100" s="282">
+        <v>0</v>
       </c>
       <c r="C100" t="s">
         <v>85</v>
@@ -6679,7 +6812,7 @@
     </row>
     <row r="101" spans="1:11">
       <c r="A101" s="18" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B101" s="282">
         <v>0</v>
@@ -6690,41 +6823,42 @@
     </row>
     <row r="102" spans="1:11">
       <c r="A102" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B102" s="282">
-        <v>0</v>
+        <v>-0.80500000000000005</v>
       </c>
       <c r="C102" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
-      <c r="A103" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B103" s="282">
-        <v>-0.80500000000000005</v>
-      </c>
-      <c r="C103" t="s">
-        <v>85</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="D102" t="s">
         <v>169</v>
       </c>
     </row>
+    <row r="104" spans="1:11">
+      <c r="A104" s="111" t="s">
+        <v>387</v>
+      </c>
+    </row>
     <row r="105" spans="1:11">
-      <c r="A105" s="111" t="s">
-        <v>389</v>
+      <c r="A105" s="331" t="s">
+        <v>388</v>
+      </c>
+      <c r="B105" s="332">
+        <f>'Blade Data'!R32*B10+E8</f>
+        <v>32166.678162056698</v>
+      </c>
+      <c r="C105" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:11">
       <c r="A106" s="331" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B106" s="332">
-        <f>'Blade Data'!R32*B10+E8</f>
-        <v>32166.678162056698</v>
+        <f>E5+E6+E7</f>
+        <v>52838.90825962169</v>
       </c>
       <c r="C106" t="s">
         <v>117</v>
@@ -6732,769 +6866,851 @@
     </row>
     <row r="107" spans="1:11">
       <c r="A107" s="331" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B107" s="332">
-        <f>E5+E6+E7</f>
-        <v>52838.90825962169</v>
+        <f>B105+B106</f>
+        <v>85005.586421678396</v>
       </c>
       <c r="C107" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="108" spans="1:11">
-      <c r="A108" s="331" t="s">
-        <v>392</v>
+      <c r="A108" s="18" t="s">
+        <v>397</v>
       </c>
       <c r="B108" s="332">
-        <f>B106+B107</f>
-        <v>85005.586421678396</v>
+        <f>GECtwrdata!O26</f>
+        <v>125363.31583700494</v>
       </c>
       <c r="C108" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="109" spans="1:11">
-      <c r="A109" s="18" t="s">
-        <v>399</v>
-      </c>
-      <c r="B109" s="332">
-        <f>GECtwrdata!O26</f>
-        <v>125363.31583700494</v>
-      </c>
-      <c r="C109" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11">
-      <c r="A110" t="s">
+      <c r="A109" t="s">
         <v>347</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H109" t="s">
         <v>319</v>
       </c>
-      <c r="I110" s="183"/>
-      <c r="J110" s="183"/>
-    </row>
-    <row r="111" spans="1:11" ht="14.25">
-      <c r="A111" s="184"/>
-      <c r="B111" s="185"/>
-      <c r="C111" s="186" t="s">
+      <c r="I109" s="183"/>
+      <c r="J109" s="183"/>
+    </row>
+    <row r="110" spans="1:11" ht="14.25">
+      <c r="A110" s="184"/>
+      <c r="B110" s="185"/>
+      <c r="C110" s="186" t="s">
         <v>320</v>
       </c>
-      <c r="D111" s="187"/>
-      <c r="E111" s="185"/>
-      <c r="F111" s="188" t="s">
+      <c r="D110" s="187"/>
+      <c r="E110" s="185"/>
+      <c r="F110" s="188" t="s">
         <v>321</v>
       </c>
-      <c r="G111" s="189"/>
-      <c r="H111" s="184"/>
-      <c r="I111" s="190" t="s">
+      <c r="G110" s="189"/>
+      <c r="H110" s="184"/>
+      <c r="I110" s="190" t="s">
         <v>332</v>
       </c>
-      <c r="J111" s="190" t="s">
+      <c r="J110" s="190" t="s">
         <v>333</v>
       </c>
-      <c r="K111" s="191" t="s">
+      <c r="K110" s="191" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="13.5">
-      <c r="A112" s="192" t="s">
+    <row r="111" spans="1:11" ht="13.5">
+      <c r="A111" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B112" s="176" t="s">
+      <c r="B111" s="176" t="s">
         <v>335</v>
       </c>
-      <c r="C112" s="176" t="s">
+      <c r="C111" s="176" t="s">
         <v>336</v>
       </c>
-      <c r="D112" s="177" t="s">
+      <c r="D111" s="177" t="s">
         <v>337</v>
       </c>
-      <c r="E112" s="177" t="s">
+      <c r="E111" s="177" t="s">
         <v>338</v>
       </c>
-      <c r="F112" s="176" t="s">
+      <c r="F111" s="176" t="s">
         <v>339</v>
       </c>
-      <c r="G112" s="193" t="s">
+      <c r="G111" s="193" t="s">
         <v>340</v>
       </c>
-      <c r="H112" s="192" t="s">
+      <c r="H111" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="I112" s="176" t="s">
+      <c r="I111" s="176" t="s">
         <v>341</v>
       </c>
-      <c r="J112" s="176" t="s">
+      <c r="J111" s="176" t="s">
         <v>341</v>
       </c>
-      <c r="K112" s="194" t="s">
+      <c r="K111" s="194" t="s">
         <v>341</v>
       </c>
     </row>
+    <row r="112" spans="1:11" ht="12">
+      <c r="A112" s="283">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B112" s="284">
+        <v>952.73170702154005</v>
+      </c>
+      <c r="C112" s="285">
+        <v>4314766.098439455</v>
+      </c>
+      <c r="D112" s="286">
+        <v>3620</v>
+      </c>
+      <c r="E112" s="287">
+        <v>3620</v>
+      </c>
+      <c r="F112" s="285">
+        <v>4314766.098439455</v>
+      </c>
+      <c r="G112" s="288">
+        <v>3620</v>
+      </c>
+      <c r="H112" s="289">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I112" s="290">
+        <v>8.3897942957076286E-4</v>
+      </c>
+      <c r="J112" s="290">
+        <v>8.3897942957076286E-4</v>
+      </c>
+      <c r="K112" s="291">
+        <v>8.3897942957076286E-4</v>
+      </c>
+    </row>
     <row r="113" spans="1:13" ht="12">
-      <c r="A113" s="283">
-        <v>7.0000000000000007E-2</v>
+      <c r="A113" s="292">
+        <v>0.25</v>
       </c>
       <c r="B113" s="284">
-        <v>952.73170702154005</v>
+        <v>404.82301427952984</v>
       </c>
       <c r="C113" s="285">
-        <v>4314766.098439455</v>
+        <v>2429500</v>
       </c>
       <c r="D113" s="286">
         <v>3620</v>
       </c>
       <c r="E113" s="287">
-        <v>3620</v>
+        <v>3891.6881914728747</v>
       </c>
       <c r="F113" s="285">
-        <v>4314766.098439455</v>
+        <v>381175.3719549317</v>
       </c>
       <c r="G113" s="288">
-        <v>3620</v>
-      </c>
-      <c r="H113" s="289">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="I113" s="290">
-        <v>8.3897942957076286E-4</v>
-      </c>
-      <c r="J113" s="290">
-        <v>8.3897942957076286E-4</v>
-      </c>
-      <c r="K113" s="291">
-        <v>8.3897942957076286E-4</v>
+        <v>960.13709169347362</v>
+      </c>
+      <c r="H113" s="293">
+        <v>0.25</v>
+      </c>
+      <c r="I113" s="285">
+        <v>1.4900185223296974E-3</v>
+      </c>
+      <c r="J113" s="285">
+        <v>1.6018473724934655E-3</v>
+      </c>
+      <c r="K113" s="294">
+        <v>2.5188854326270468E-3</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="12">
       <c r="A114" s="292">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B114" s="284">
-        <v>404.82301427952984</v>
+        <v>250.47067332126738</v>
       </c>
       <c r="C114" s="285">
-        <v>2429500</v>
+        <v>1087060</v>
       </c>
       <c r="D114" s="286">
         <v>3620</v>
       </c>
       <c r="E114" s="287">
-        <v>3891.6881914728747</v>
+        <v>3826.5675588601162</v>
       </c>
       <c r="F114" s="285">
-        <v>381175.3719549317</v>
+        <v>176817.62236228006</v>
       </c>
       <c r="G114" s="288">
         <v>960.13709169347362</v>
       </c>
       <c r="H114" s="293">
+        <v>0.5</v>
+      </c>
+      <c r="I114" s="285">
+        <v>3.3300829761006754E-3</v>
+      </c>
+      <c r="J114" s="285">
+        <v>3.5201070399611028E-3</v>
+      </c>
+      <c r="K114" s="294">
+        <v>5.4300984192981469E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" ht="12">
+      <c r="A115" s="295">
+        <v>0.75</v>
+      </c>
+      <c r="B115" s="296">
+        <v>152.6490092237247</v>
+      </c>
+      <c r="C115" s="297">
+        <v>273460</v>
+      </c>
+      <c r="D115" s="298">
+        <v>3620</v>
+      </c>
+      <c r="E115" s="299">
+        <v>3819.072160210982</v>
+      </c>
+      <c r="F115" s="297">
+        <v>66873.396648013819</v>
+      </c>
+      <c r="G115" s="300">
+        <v>960.13709169347362</v>
+      </c>
+      <c r="H115" s="301">
+        <v>0.75</v>
+      </c>
+      <c r="I115" s="297">
+        <v>1.3237767863672933E-2</v>
+      </c>
+      <c r="J115" s="297">
+        <v>1.3965743290466548E-2</v>
+      </c>
+      <c r="K115" s="302">
+        <v>1.4357534383173736E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" ht="13.5">
+      <c r="A118" s="184"/>
+      <c r="B118" s="188" t="s">
+        <v>88</v>
+      </c>
+      <c r="C118" s="188" t="s">
+        <v>322</v>
+      </c>
+      <c r="D118" s="188" t="s">
+        <v>89</v>
+      </c>
+      <c r="E118" s="195" t="s">
+        <v>323</v>
+      </c>
+      <c r="F118" s="188" t="s">
+        <v>324</v>
+      </c>
+      <c r="G118" s="188" t="s">
+        <v>325</v>
+      </c>
+      <c r="H118" s="188" t="s">
+        <v>326</v>
+      </c>
+      <c r="I118" s="188" t="s">
+        <v>342</v>
+      </c>
+      <c r="J118" s="188" t="s">
+        <v>343</v>
+      </c>
+      <c r="K118" s="188" t="s">
+        <v>113</v>
+      </c>
+      <c r="L118" s="188" t="s">
+        <v>112</v>
+      </c>
+      <c r="M118" s="196" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" ht="13.5">
+      <c r="A119" s="192" t="s">
+        <v>87</v>
+      </c>
+      <c r="B119" s="176" t="s">
+        <v>90</v>
+      </c>
+      <c r="C119" s="176" t="s">
+        <v>327</v>
+      </c>
+      <c r="D119" s="176" t="s">
+        <v>328</v>
+      </c>
+      <c r="E119" s="176" t="s">
+        <v>329</v>
+      </c>
+      <c r="F119" s="176" t="s">
+        <v>329</v>
+      </c>
+      <c r="G119" s="176" t="s">
+        <v>329</v>
+      </c>
+      <c r="H119" s="176" t="s">
+        <v>330</v>
+      </c>
+      <c r="I119" s="176" t="s">
+        <v>345</v>
+      </c>
+      <c r="J119" s="176" t="s">
+        <v>345</v>
+      </c>
+      <c r="K119" s="176" t="s">
+        <v>331</v>
+      </c>
+      <c r="L119" s="176" t="s">
+        <v>345</v>
+      </c>
+      <c r="M119" s="194" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
+      <c r="A120" s="303">
+        <v>0.05</v>
+      </c>
+      <c r="B120" s="304">
+        <v>1.9250698501397006</v>
+      </c>
+      <c r="C120" s="305">
+        <v>1</v>
+      </c>
+      <c r="D120" s="305" t="s">
+        <v>377</v>
+      </c>
+      <c r="E120" s="337">
         <v>0.25</v>
       </c>
-      <c r="I114" s="285">
-        <v>1.4900185223296974E-3</v>
-      </c>
-      <c r="J114" s="285">
-        <v>1.6018473724934655E-3</v>
-      </c>
-      <c r="K114" s="294">
-        <v>2.5188854326270468E-3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" ht="12">
-      <c r="A115" s="292">
+      <c r="F120" s="304">
         <v>0.5</v>
       </c>
-      <c r="B115" s="284">
-        <v>250.47067332126738</v>
-      </c>
-      <c r="C115" s="285">
-        <v>1087060</v>
-      </c>
-      <c r="D115" s="286">
-        <v>3620</v>
-      </c>
-      <c r="E115" s="287">
-        <v>3826.5675588601162</v>
-      </c>
-      <c r="F115" s="285">
-        <v>176817.62236228006</v>
-      </c>
-      <c r="G115" s="288">
-        <v>960.13709169347362</v>
-      </c>
-      <c r="H115" s="293">
+      <c r="G120" s="304">
         <v>0.5</v>
       </c>
-      <c r="I115" s="285">
-        <v>3.3300829761006754E-3</v>
-      </c>
-      <c r="J115" s="285">
-        <v>3.5201070399611028E-3</v>
-      </c>
-      <c r="K115" s="294">
-        <v>5.4300984192981469E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" ht="12">
-      <c r="A116" s="295">
-        <v>0.75</v>
-      </c>
-      <c r="B116" s="296">
-        <v>152.6490092237247</v>
-      </c>
-      <c r="C116" s="297">
-        <v>273460</v>
-      </c>
-      <c r="D116" s="298">
-        <v>3620</v>
-      </c>
-      <c r="E116" s="299">
-        <v>3819.072160210982</v>
-      </c>
-      <c r="F116" s="297">
-        <v>66873.396648013819</v>
-      </c>
-      <c r="G116" s="300">
-        <v>960.13709169347362</v>
-      </c>
-      <c r="H116" s="301">
-        <v>0.75</v>
-      </c>
-      <c r="I116" s="297">
-        <v>1.3237767863672933E-2</v>
-      </c>
-      <c r="J116" s="297">
-        <v>1.3965743290466548E-2</v>
-      </c>
-      <c r="K116" s="302">
-        <v>1.4357534383173736E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
-      <c r="A118" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" ht="13.5">
-      <c r="A119" s="184"/>
-      <c r="B119" s="188" t="s">
-        <v>88</v>
-      </c>
-      <c r="C119" s="188" t="s">
-        <v>322</v>
-      </c>
-      <c r="D119" s="188" t="s">
-        <v>89</v>
-      </c>
-      <c r="E119" s="195" t="s">
-        <v>323</v>
-      </c>
-      <c r="F119" s="188" t="s">
-        <v>324</v>
-      </c>
-      <c r="G119" s="188" t="s">
-        <v>325</v>
-      </c>
-      <c r="H119" s="188" t="s">
-        <v>326</v>
-      </c>
-      <c r="I119" s="188" t="s">
-        <v>342</v>
-      </c>
-      <c r="J119" s="188" t="s">
-        <v>343</v>
-      </c>
-      <c r="K119" s="188" t="s">
-        <v>113</v>
-      </c>
-      <c r="L119" s="188" t="s">
-        <v>112</v>
-      </c>
-      <c r="M119" s="196" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" ht="13.5">
-      <c r="A120" s="192" t="s">
-        <v>87</v>
-      </c>
-      <c r="B120" s="176" t="s">
-        <v>90</v>
-      </c>
-      <c r="C120" s="176" t="s">
-        <v>327</v>
-      </c>
-      <c r="D120" s="176" t="s">
-        <v>328</v>
-      </c>
-      <c r="E120" s="176" t="s">
-        <v>329</v>
-      </c>
-      <c r="F120" s="176" t="s">
-        <v>329</v>
-      </c>
-      <c r="G120" s="176" t="s">
-        <v>329</v>
-      </c>
-      <c r="H120" s="176" t="s">
-        <v>330</v>
-      </c>
-      <c r="I120" s="176" t="s">
-        <v>345</v>
-      </c>
-      <c r="J120" s="176" t="s">
-        <v>345</v>
-      </c>
-      <c r="K120" s="176" t="s">
-        <v>331</v>
-      </c>
-      <c r="L120" s="176" t="s">
-        <v>345</v>
-      </c>
-      <c r="M120" s="194" t="s">
-        <v>356</v>
+      <c r="H120" s="307">
+        <v>1447.6067650097025</v>
+      </c>
+      <c r="I120" s="308">
+        <v>7681455580.9267292</v>
+      </c>
+      <c r="J120" s="308">
+        <v>7681455580.9267292</v>
+      </c>
+      <c r="K120" s="308">
+        <v>17152702552.539173</v>
+      </c>
+      <c r="L120" s="308">
+        <v>2655231266.008985</v>
+      </c>
+      <c r="M120" s="309">
+        <v>1292.0872285403536</v>
       </c>
     </row>
     <row r="121" spans="1:13">
-      <c r="A121" s="303">
-        <v>0.05</v>
-      </c>
-      <c r="B121" s="304">
-        <v>1.9250698501397006</v>
-      </c>
-      <c r="C121" s="305">
+      <c r="A121" s="283">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B121" s="310">
+        <v>1.8895199390398785</v>
+      </c>
+      <c r="C121" s="311">
         <v>1</v>
       </c>
-      <c r="D121" s="305" t="s">
+      <c r="D121" s="311" t="s">
         <v>377</v>
       </c>
       <c r="E121" s="337">
         <v>0.25</v>
       </c>
-      <c r="F121" s="304">
+      <c r="F121" s="310">
         <v>0.5</v>
       </c>
-      <c r="G121" s="304">
+      <c r="G121" s="310">
         <v>0.5</v>
       </c>
-      <c r="H121" s="307">
-        <v>1447.6067650097025</v>
-      </c>
-      <c r="I121" s="308">
-        <v>7681455580.9267292</v>
-      </c>
-      <c r="J121" s="308">
-        <v>7681455580.9267292</v>
-      </c>
-      <c r="K121" s="308">
-        <v>17152702552.539173</v>
-      </c>
-      <c r="L121" s="308">
-        <v>2655231266.008985</v>
-      </c>
-      <c r="M121" s="309">
-        <v>1292.0872285403536</v>
+      <c r="H121" s="312">
+        <v>175.09526752452746</v>
+      </c>
+      <c r="I121" s="313">
+        <v>1135890133.898103</v>
+      </c>
+      <c r="J121" s="313">
+        <v>1135890133.898103</v>
+      </c>
+      <c r="K121" s="313">
+        <v>2564102972.7290158</v>
+      </c>
+      <c r="L121" s="313">
+        <v>396922874.29357898</v>
+      </c>
+      <c r="M121" s="314">
+        <v>156.28440292953599</v>
       </c>
     </row>
     <row r="122" spans="1:13">
-      <c r="A122" s="283">
-        <v>7.0000000000000007E-2</v>
+      <c r="A122" s="292">
+        <v>0.25</v>
       </c>
       <c r="B122" s="310">
-        <v>1.8895199390398785</v>
+        <v>2.8001016002032006</v>
       </c>
       <c r="C122" s="311">
-        <v>1</v>
-      </c>
-      <c r="D122" s="311" t="s">
-        <v>377</v>
-      </c>
-      <c r="E122" s="337">
-        <v>0.25</v>
+        <v>0.3</v>
+      </c>
+      <c r="D122" s="311">
+        <v>4.0013725457641511</v>
+      </c>
+      <c r="E122" s="306">
+        <v>0.34</v>
       </c>
       <c r="F122" s="310">
-        <v>0.5</v>
+        <v>0.41002988816858021</v>
       </c>
       <c r="G122" s="310">
-        <v>0.5</v>
+        <v>0.32873282532820286</v>
       </c>
       <c r="H122" s="312">
-        <v>175.09526752452746</v>
+        <v>186.9057949192036</v>
       </c>
       <c r="I122" s="313">
-        <v>1135890133.898103</v>
+        <v>271763137.89022917</v>
       </c>
       <c r="J122" s="313">
-        <v>1135890133.898103</v>
-      </c>
-      <c r="K122" s="313">
-        <v>2564102972.7290158</v>
-      </c>
-      <c r="L122" s="313">
-        <v>396922874.29357898</v>
-      </c>
-      <c r="M122" s="314">
-        <v>156.28440292953599</v>
+        <v>703333384.04530549</v>
+      </c>
+      <c r="K122" s="315">
+        <v>2443063660.8188953</v>
+      </c>
+      <c r="L122" s="315">
+        <v>18842756.85303637</v>
+      </c>
+      <c r="M122" s="316">
+        <v>84.977866851913092</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" s="292">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B123" s="310">
-        <v>2.8001016002032006</v>
+        <v>2.1468122936245875</v>
       </c>
       <c r="C123" s="311">
-        <v>0.3</v>
+        <v>0.24</v>
       </c>
       <c r="D123" s="311">
-        <v>4.0013725457641511</v>
+        <v>6.7200108877128066</v>
       </c>
       <c r="E123" s="306">
-        <v>0.34</v>
+        <v>0.31</v>
       </c>
       <c r="F123" s="310">
-        <v>0.41002988816858021</v>
+        <v>0.38649869580913698</v>
       </c>
       <c r="G123" s="310">
-        <v>0.32873282532820286</v>
+        <v>0.3240414781728897</v>
       </c>
       <c r="H123" s="312">
-        <v>186.9057949192036</v>
+        <v>138.12296357376664</v>
       </c>
       <c r="I123" s="313">
-        <v>271763137.89022917</v>
+        <v>75234813.639765084</v>
       </c>
       <c r="J123" s="313">
-        <v>703333384.04530549</v>
+        <v>255870093.3882812</v>
       </c>
       <c r="K123" s="315">
-        <v>2443063660.8188953</v>
+        <v>1809554986.9197025</v>
       </c>
       <c r="L123" s="315">
-        <v>18842756.85303637</v>
+        <v>8477345.5047051143</v>
       </c>
       <c r="M123" s="316">
-        <v>84.977866851913092</v>
+        <v>30.021881657931356</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" s="292">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B124" s="310">
-        <v>2.1468122936245875</v>
+        <v>1.4937769875539753</v>
       </c>
       <c r="C124" s="311">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="D124" s="311">
-        <v>6.7200108877128066</v>
+        <v>6.2038591936354734</v>
       </c>
       <c r="E124" s="306">
-        <v>0.31</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F124" s="310">
-        <v>0.38649869580913698</v>
+        <v>0.40257796771355664</v>
       </c>
       <c r="G124" s="310">
-        <v>0.3240414781728897</v>
+        <v>0.327834346949612</v>
       </c>
       <c r="H124" s="312">
-        <v>138.12296357376664</v>
+        <v>61.988105452646913</v>
       </c>
       <c r="I124" s="313">
-        <v>75234813.639765084</v>
+        <v>11534432.983097235</v>
       </c>
       <c r="J124" s="313">
-        <v>255870093.3882812</v>
+        <v>65848849.292116806</v>
       </c>
       <c r="K124" s="315">
-        <v>1809554986.9197025</v>
+        <v>788312554.19834387</v>
       </c>
       <c r="L124" s="315">
-        <v>8477345.5047051143</v>
+        <v>1678043.4287947295</v>
       </c>
       <c r="M124" s="316">
-        <v>30.021881657931356</v>
+        <v>6.9998727386933259</v>
       </c>
     </row>
     <row r="125" spans="1:13">
-      <c r="A125" s="292">
-        <v>0.75</v>
-      </c>
-      <c r="B125" s="310">
-        <v>1.4937769875539753</v>
-      </c>
-      <c r="C125" s="311">
-        <v>0.21</v>
-      </c>
-      <c r="D125" s="311">
-        <v>6.2038591936354734</v>
-      </c>
-      <c r="E125" s="306">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="F125" s="310">
-        <v>0.40257796771355664</v>
-      </c>
-      <c r="G125" s="310">
-        <v>0.327834346949612</v>
-      </c>
-      <c r="H125" s="312">
-        <v>61.988105452646913</v>
-      </c>
-      <c r="I125" s="313">
-        <v>11534432.983097235</v>
-      </c>
-      <c r="J125" s="313">
-        <v>65848849.292116806</v>
-      </c>
-      <c r="K125" s="315">
-        <v>788312554.19834387</v>
-      </c>
-      <c r="L125" s="315">
-        <v>1678043.4287947295</v>
-      </c>
-      <c r="M125" s="316">
-        <v>6.9998727386933259</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
-      <c r="A126" s="317">
+      <c r="A125" s="317">
         <v>1</v>
       </c>
-      <c r="B126" s="318">
+      <c r="B125" s="318">
         <v>0.90601981203962423</v>
       </c>
-      <c r="C126" s="319">
+      <c r="C125" s="319">
         <v>0.16</v>
       </c>
-      <c r="D126" s="319">
-        <v>0</v>
-      </c>
-      <c r="E126" s="318">
+      <c r="D125" s="319">
+        <v>0</v>
+      </c>
+      <c r="E125" s="318">
         <v>0.25</v>
       </c>
-      <c r="F126" s="318">
+      <c r="F125" s="318">
         <v>0.49249999999999999</v>
       </c>
-      <c r="G126" s="318">
+      <c r="G125" s="318">
         <v>0.35780000000000001</v>
       </c>
-      <c r="H126" s="320">
+      <c r="H125" s="320">
         <v>11.352890666908433</v>
       </c>
-      <c r="I126" s="321">
+      <c r="I125" s="321">
         <v>231293.14864714985</v>
       </c>
-      <c r="J126" s="321">
+      <c r="J125" s="321">
         <v>7874070.2274504323</v>
       </c>
-      <c r="K126" s="322">
+      <c r="K125" s="322">
         <v>118472290.90243222</v>
       </c>
-      <c r="L126" s="322">
+      <c r="L125" s="322">
         <v>179433.04791581735</v>
       </c>
-      <c r="M126" s="323">
+      <c r="M125" s="323">
         <v>0.76662287964958964</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
-      <c r="B128" s="18" t="s">
+    <row r="127" spans="1:13">
+      <c r="B127" s="18" t="s">
         <v>349</v>
       </c>
-      <c r="C128" s="199"/>
-      <c r="D128" t="s">
+      <c r="C127" s="199"/>
+      <c r="D127" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" t="s">
+      <c r="H127" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="184"/>
-      <c r="B131" s="230" t="s">
+    <row r="130" spans="1:7">
+      <c r="A130" s="184"/>
+      <c r="B130" s="230" t="s">
         <v>363</v>
       </c>
-      <c r="C131" s="349" t="s">
-        <v>406</v>
-      </c>
-      <c r="D131" s="189"/>
-    </row>
-    <row r="132" spans="1:4" ht="12">
-      <c r="A132" s="192" t="s">
+      <c r="C130" s="347" t="s">
+        <v>403</v>
+      </c>
+      <c r="D130" s="189"/>
+    </row>
+    <row r="131" spans="1:7" ht="12">
+      <c r="A131" s="192" t="s">
         <v>87</v>
       </c>
-      <c r="B132" s="233" t="s">
+      <c r="B131" s="233" t="s">
         <v>366</v>
       </c>
-      <c r="C132" s="225"/>
-      <c r="D132" s="226"/>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="236">
-        <f t="shared" ref="A133:A138" si="0">A121</f>
+      <c r="C131" s="225"/>
+      <c r="D131" s="226"/>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="236">
+        <f t="shared" ref="A132:A137" si="0">A120</f>
         <v>0.05</v>
       </c>
-      <c r="B133" s="256">
+      <c r="B132" s="256">
         <v>10.5</v>
       </c>
-      <c r="C133" s="324"/>
-      <c r="D133" s="343">
+      <c r="C132" s="324"/>
+      <c r="D132" s="343">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="133" spans="1:7">
+      <c r="A133" s="241">
+        <f t="shared" si="0"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B133" s="257">
+        <v>10.5</v>
+      </c>
+      <c r="C133" s="325"/>
+      <c r="D133" s="345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
       <c r="A134" s="241">
         <f t="shared" si="0"/>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B134" s="257">
+        <v>0.25</v>
+      </c>
+      <c r="B134" s="327">
         <v>10.5</v>
       </c>
-      <c r="C134" s="325"/>
+      <c r="C134" s="348"/>
       <c r="D134" s="345">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
       <c r="A135" s="241">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="B135" s="327">
-        <v>10.5</v>
-      </c>
-      <c r="C135" s="350"/>
+        <v>2.5</v>
+      </c>
+      <c r="C135" s="325"/>
       <c r="D135" s="345">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
       <c r="A136" s="241">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="B136" s="327">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="C136" s="325"/>
       <c r="D136" s="345">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="241">
-        <f t="shared" si="0"/>
-        <v>0.75</v>
-      </c>
-      <c r="B137" s="327">
-        <v>0</v>
-      </c>
-      <c r="C137" s="325"/>
-      <c r="D137" s="345">
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="247">
+    <row r="137" spans="1:7">
+      <c r="A137" s="247">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B138" s="328">
+      <c r="B137" s="328">
         <v>-0.6</v>
       </c>
-      <c r="C138" s="326"/>
-      <c r="D138" s="351">
+      <c r="C137" s="326"/>
+      <c r="D137" s="349">
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="12">
-      <c r="A140" s="338" t="s">
-        <v>403</v>
-      </c>
-      <c r="B140" s="339" t="s">
-        <v>404</v>
-      </c>
-      <c r="C140" s="340"/>
-    </row>
-    <row r="141" spans="1:4">
+    <row r="139" spans="1:7" ht="12">
+      <c r="A139" s="338" t="s">
+        <v>401</v>
+      </c>
+      <c r="B139" s="339" t="s">
+        <v>402</v>
+      </c>
+      <c r="C139" s="340"/>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="341">
+        <v>1</v>
+      </c>
+      <c r="B140" s="342"/>
+      <c r="C140" s="343" t="s">
+        <v>378</v>
+      </c>
+      <c r="E140" s="369"/>
+    </row>
+    <row r="141" spans="1:7">
       <c r="A141" s="341">
-        <v>1</v>
-      </c>
-      <c r="B141" s="342"/>
-      <c r="C141" s="343" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="B141" s="344"/>
+      <c r="C141" s="345" t="s">
+        <v>455</v>
+      </c>
+      <c r="E141" s="359" t="s">
+        <v>458</v>
+      </c>
+      <c r="F141" s="360"/>
+      <c r="G141" s="360"/>
+    </row>
+    <row r="142" spans="1:7">
       <c r="A142" s="341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B142" s="344"/>
       <c r="C142" s="345" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="341">
-        <v>3</v>
-      </c>
-      <c r="B143" s="344"/>
-      <c r="C143" s="345" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="346">
+        <v>456</v>
+      </c>
+      <c r="E142" s="359" t="s">
+        <v>458</v>
+      </c>
+      <c r="F142" s="360"/>
+      <c r="G142" s="360"/>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="346">
         <v>4</v>
       </c>
-      <c r="B144" s="347"/>
-      <c r="C144" s="348" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="12" thickBot="1"/>
-    <row r="146" spans="1:3" ht="12" thickBot="1">
-      <c r="A146" s="377" t="s">
-        <v>407</v>
-      </c>
-      <c r="B146" s="378"/>
-      <c r="C146" s="379"/>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="93" t="s">
+      <c r="B143" s="375"/>
+      <c r="C143" s="349" t="s">
+        <v>457</v>
+      </c>
+      <c r="E143" s="359" t="s">
+        <v>458</v>
+      </c>
+      <c r="F143" s="360"/>
+      <c r="G143" s="360"/>
+    </row>
+    <row r="144" spans="1:7" ht="12" thickBot="1"/>
+    <row r="145" spans="1:6" ht="12" thickBot="1">
+      <c r="A145" s="391" t="s">
+        <v>404</v>
+      </c>
+      <c r="B145" s="393"/>
+      <c r="C145" s="394"/>
+      <c r="E145" s="359" t="s">
+        <v>441</v>
+      </c>
+      <c r="F145" s="360"/>
+    </row>
+    <row r="146" spans="1:6" ht="12" thickBot="1">
+      <c r="A146" s="388" t="s">
         <v>35</v>
       </c>
-      <c r="B147" s="352" t="s">
+      <c r="B146" s="389" t="s">
         <v>36</v>
       </c>
-      <c r="C147" s="353" t="s">
+      <c r="C146" s="389" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" ht="12" thickBot="1">
-      <c r="A148" s="265">
-        <v>0.01</v>
-      </c>
-      <c r="B148" s="354">
-        <v>0.01</v>
-      </c>
-      <c r="C148" s="355">
-        <v>0.01</v>
-      </c>
+      <c r="E146" s="359" t="s">
+        <v>441</v>
+      </c>
+      <c r="F146" s="360"/>
+    </row>
+    <row r="147" spans="1:6" ht="12" thickBot="1">
+      <c r="A147" s="385">
+        <v>3.882E-2</v>
+      </c>
+      <c r="B147" s="386">
+        <v>3.882E-2</v>
+      </c>
+      <c r="C147" s="387">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E147" s="359" t="s">
+        <v>441</v>
+      </c>
+      <c r="F147" s="360"/>
+    </row>
+    <row r="148" spans="1:6" ht="12" thickBot="1"/>
+    <row r="149" spans="1:6" ht="12" thickBot="1">
+      <c r="A149" s="391" t="s">
+        <v>459</v>
+      </c>
+      <c r="B149" s="392"/>
+      <c r="C149" s="377"/>
+      <c r="E149" s="359" t="s">
+        <v>441</v>
+      </c>
+      <c r="F149" s="360"/>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="376" t="s">
+        <v>50</v>
+      </c>
+      <c r="B150" s="380">
+        <v>3.4349999999999999E-2</v>
+      </c>
+      <c r="C150" s="378"/>
+      <c r="E150" s="359" t="s">
+        <v>441</v>
+      </c>
+      <c r="F150" s="360"/>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="381" t="s">
+        <v>51</v>
+      </c>
+      <c r="B151" s="382">
+        <v>3.4349999999999999E-2</v>
+      </c>
+      <c r="C151" s="379"/>
+      <c r="E151" s="359" t="s">
+        <v>441</v>
+      </c>
+      <c r="F151" s="360"/>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="383" t="s">
+        <v>52</v>
+      </c>
+      <c r="B152" s="382">
+        <v>3.4349999999999999E-2</v>
+      </c>
+      <c r="E152" s="359" t="s">
+        <v>441</v>
+      </c>
+      <c r="F152" s="360"/>
+    </row>
+    <row r="153" spans="1:6" ht="12" thickBot="1">
+      <c r="A153" s="384" t="s">
+        <v>53</v>
+      </c>
+      <c r="B153" s="371">
+        <v>3.4349999999999999E-2</v>
+      </c>
+      <c r="E153" s="359" t="s">
+        <v>441</v>
+      </c>
+      <c r="F153" s="360"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A146:C146"/>
+  <mergeCells count="7">
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A145:C145"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="C1:H1"/>
@@ -7515,7 +7731,7 @@
   <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7536,7 +7752,7 @@
         <v>70</v>
       </c>
       <c r="W1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -7545,167 +7761,167 @@
         <v>3.5</v>
       </c>
       <c r="W2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="str">
+        <f>'Main Page'!C140</f>
+        <v>cylinder</v>
+      </c>
+      <c r="B3" t="str">
         <f>'Main Page'!C141</f>
-        <v>cylinder</v>
-      </c>
-      <c r="B3" t="str">
+        <v>s818_2703.dat</v>
+      </c>
+      <c r="C3" t="str">
         <f>'Main Page'!C142</f>
-        <v>s818_2702.dat</v>
-      </c>
-      <c r="C3" t="str">
+        <v>s825_2103.dat</v>
+      </c>
+      <c r="D3" t="str">
         <f>'Main Page'!C143</f>
-        <v>s825_2102.dat</v>
-      </c>
-      <c r="D3" t="str">
-        <f>'Main Page'!C144</f>
-        <v>s826_1602.dat</v>
+        <v>s826_1603.dat</v>
       </c>
       <c r="W3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4">
-        <f>'Main Page'!A148</f>
-        <v>0.01</v>
+        <f>'Main Page'!A147*100</f>
+        <v>3.8820000000000001</v>
       </c>
       <c r="B4">
-        <f>'Main Page'!B148</f>
-        <v>0.01</v>
-      </c>
-      <c r="C4">
-        <f>'Main Page'!C148</f>
-        <v>0.01</v>
-      </c>
-      <c r="W4" t="s">
-        <v>411</v>
+        <f>'Main Page'!B147*100</f>
+        <v>3.8820000000000001</v>
+      </c>
+      <c r="C4" s="103">
+        <f>'Main Page'!C147*100</f>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="W4" s="357" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="364">
+      <c r="A5" s="358">
         <v>0.05</v>
       </c>
-      <c r="B5" s="364">
+      <c r="B5" s="358">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C5" s="364">
+      <c r="C5" s="358">
         <v>0.1</v>
       </c>
-      <c r="D5" s="364">
+      <c r="D5" s="358">
         <v>0.15</v>
       </c>
-      <c r="E5" s="364">
+      <c r="E5" s="358">
         <v>0.2</v>
       </c>
-      <c r="F5" s="364">
+      <c r="F5" s="358">
         <v>0.25</v>
       </c>
-      <c r="G5" s="364">
+      <c r="G5" s="358">
         <v>0.3</v>
       </c>
-      <c r="H5" s="364">
+      <c r="H5" s="358">
         <v>0.35</v>
       </c>
-      <c r="I5" s="364">
+      <c r="I5" s="358">
         <v>0.4</v>
       </c>
-      <c r="J5" s="364">
+      <c r="J5" s="358">
         <v>0.45</v>
       </c>
-      <c r="K5" s="364">
+      <c r="K5" s="358">
         <v>0.5</v>
       </c>
-      <c r="L5" s="364">
+      <c r="L5" s="358">
         <v>0.55000000000000004</v>
       </c>
-      <c r="M5" s="364">
+      <c r="M5" s="358">
         <v>0.6</v>
       </c>
-      <c r="N5" s="364">
+      <c r="N5" s="358">
         <v>0.65</v>
       </c>
-      <c r="O5" s="364">
+      <c r="O5" s="358">
         <v>0.7</v>
       </c>
-      <c r="P5" s="364">
+      <c r="P5" s="358">
         <v>0.75</v>
       </c>
-      <c r="Q5" s="364">
+      <c r="Q5" s="358">
         <v>0.8</v>
       </c>
-      <c r="R5" s="364">
+      <c r="R5" s="358">
         <v>0.85</v>
       </c>
-      <c r="S5" s="364">
+      <c r="S5" s="358">
         <v>0.9</v>
       </c>
-      <c r="T5" s="364">
+      <c r="T5" s="358">
         <v>0.95</v>
       </c>
-      <c r="U5" s="364">
+      <c r="U5" s="358">
         <v>1</v>
       </c>
-      <c r="W5" s="363" t="s">
-        <v>431</v>
+      <c r="W5" s="357" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="371">
+      <c r="A6" s="363">
         <v>0.05</v>
       </c>
-      <c r="B6" s="371">
+      <c r="B6" s="363">
         <v>0.11333333333333333</v>
       </c>
-      <c r="C6" s="371">
+      <c r="C6" s="363">
         <v>0.17666666666666664</v>
       </c>
-      <c r="D6" s="371">
+      <c r="D6" s="363">
         <v>0.24</v>
       </c>
-      <c r="E6" s="371">
+      <c r="E6" s="363">
         <v>0.30333333333333329</v>
       </c>
-      <c r="F6" s="371">
+      <c r="F6" s="363">
         <v>0.36666666666666664</v>
       </c>
-      <c r="G6" s="371">
+      <c r="G6" s="363">
         <v>0.43</v>
       </c>
-      <c r="H6" s="371">
+      <c r="H6" s="363">
         <v>0.49333333333333329</v>
       </c>
-      <c r="I6" s="371">
+      <c r="I6" s="363">
         <v>0.55666666666666664</v>
       </c>
-      <c r="J6" s="371">
+      <c r="J6" s="363">
         <v>0.62</v>
       </c>
-      <c r="K6" s="371">
+      <c r="K6" s="363">
         <v>0.68333333333333335</v>
       </c>
-      <c r="L6" s="371">
+      <c r="L6" s="363">
         <v>0.74666666666666659</v>
       </c>
-      <c r="M6" s="371">
+      <c r="M6" s="363">
         <v>0.81</v>
       </c>
-      <c r="N6" s="371">
+      <c r="N6" s="363">
         <v>0.87333333333333341</v>
       </c>
-      <c r="O6" s="371">
+      <c r="O6" s="363">
         <v>0.93666666666666665</v>
       </c>
-      <c r="P6" s="371">
+      <c r="P6" s="363">
         <v>1</v>
       </c>
       <c r="Q6" s="101"/>
-      <c r="W6" s="363" t="s">
-        <v>455</v>
+      <c r="W6" s="357" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -7713,24 +7929,24 @@
         <f>'Main Page'!B33</f>
         <v>2.6</v>
       </c>
-      <c r="B7" s="370"/>
-      <c r="C7" s="370"/>
-      <c r="D7" s="370"/>
-      <c r="E7" s="370"/>
-      <c r="F7" s="370"/>
-      <c r="G7" s="370"/>
-      <c r="H7" s="370"/>
-      <c r="I7" s="370"/>
-      <c r="J7" s="370"/>
-      <c r="K7" s="370"/>
-      <c r="L7" s="370"/>
-      <c r="M7" s="370"/>
-      <c r="N7" s="370"/>
-      <c r="O7" s="370"/>
-      <c r="P7" s="370"/>
+      <c r="B7" s="362"/>
+      <c r="C7" s="362"/>
+      <c r="D7" s="362"/>
+      <c r="E7" s="362"/>
+      <c r="F7" s="362"/>
+      <c r="G7" s="362"/>
+      <c r="H7" s="362"/>
+      <c r="I7" s="362"/>
+      <c r="J7" s="362"/>
+      <c r="K7" s="362"/>
+      <c r="L7" s="362"/>
+      <c r="M7" s="362"/>
+      <c r="N7" s="362"/>
+      <c r="O7" s="362"/>
+      <c r="P7" s="362"/>
       <c r="Q7" s="101"/>
-      <c r="W7" s="363" t="s">
-        <v>453</v>
+      <c r="W7" s="357" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -7738,24 +7954,24 @@
         <f>'Main Page'!B34</f>
         <v>90</v>
       </c>
-      <c r="B8" s="370"/>
-      <c r="C8" s="370"/>
-      <c r="D8" s="370"/>
-      <c r="E8" s="370"/>
-      <c r="F8" s="370"/>
-      <c r="G8" s="370"/>
-      <c r="H8" s="370"/>
-      <c r="I8" s="370"/>
-      <c r="J8" s="370"/>
-      <c r="K8" s="370"/>
-      <c r="L8" s="370"/>
-      <c r="M8" s="370"/>
-      <c r="N8" s="370"/>
-      <c r="O8" s="370"/>
-      <c r="P8" s="370"/>
+      <c r="B8" s="362"/>
+      <c r="C8" s="362"/>
+      <c r="D8" s="362"/>
+      <c r="E8" s="362"/>
+      <c r="F8" s="362"/>
+      <c r="G8" s="362"/>
+      <c r="H8" s="362"/>
+      <c r="I8" s="362"/>
+      <c r="J8" s="362"/>
+      <c r="K8" s="362"/>
+      <c r="L8" s="362"/>
+      <c r="M8" s="362"/>
+      <c r="N8" s="362"/>
+      <c r="O8" s="362"/>
+      <c r="P8" s="362"/>
       <c r="Q8" s="101"/>
-      <c r="W8" s="363" t="s">
-        <v>454</v>
+      <c r="W8" s="357" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -7763,24 +7979,24 @@
         <f>'Main Page'!B16</f>
         <v>1.2250000000000001</v>
       </c>
-      <c r="B9" s="370"/>
-      <c r="C9" s="370"/>
-      <c r="D9" s="370"/>
-      <c r="E9" s="370"/>
-      <c r="F9" s="370"/>
-      <c r="G9" s="370"/>
-      <c r="H9" s="370"/>
-      <c r="I9" s="370"/>
-      <c r="J9" s="370"/>
-      <c r="K9" s="370"/>
-      <c r="L9" s="370"/>
-      <c r="M9" s="370"/>
-      <c r="N9" s="370"/>
-      <c r="O9" s="370"/>
-      <c r="P9" s="370"/>
+      <c r="B9" s="362"/>
+      <c r="C9" s="362"/>
+      <c r="D9" s="362"/>
+      <c r="E9" s="362"/>
+      <c r="F9" s="362"/>
+      <c r="G9" s="362"/>
+      <c r="H9" s="362"/>
+      <c r="I9" s="362"/>
+      <c r="J9" s="362"/>
+      <c r="K9" s="362"/>
+      <c r="L9" s="362"/>
+      <c r="M9" s="362"/>
+      <c r="N9" s="362"/>
+      <c r="O9" s="362"/>
+      <c r="P9" s="362"/>
       <c r="Q9" s="101"/>
-      <c r="W9" s="363" t="s">
-        <v>457</v>
+      <c r="W9" s="357" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -7788,351 +8004,351 @@
         <f>'Main Page'!B38</f>
         <v>0.45</v>
       </c>
-      <c r="B10" s="370"/>
-      <c r="C10" s="370"/>
-      <c r="D10" s="370"/>
-      <c r="E10" s="370"/>
-      <c r="F10" s="370"/>
-      <c r="G10" s="370"/>
-      <c r="H10" s="370"/>
-      <c r="I10" s="370"/>
-      <c r="J10" s="370"/>
-      <c r="K10" s="370"/>
-      <c r="L10" s="370"/>
-      <c r="M10" s="370"/>
-      <c r="N10" s="370"/>
-      <c r="O10" s="370"/>
-      <c r="P10" s="370"/>
+      <c r="B10" s="362"/>
+      <c r="C10" s="362"/>
+      <c r="D10" s="362"/>
+      <c r="E10" s="362"/>
+      <c r="F10" s="362"/>
+      <c r="G10" s="362"/>
+      <c r="H10" s="362"/>
+      <c r="I10" s="362"/>
+      <c r="J10" s="362"/>
+      <c r="K10" s="362"/>
+      <c r="L10" s="362"/>
+      <c r="M10" s="362"/>
+      <c r="N10" s="362"/>
+      <c r="O10" s="362"/>
+      <c r="P10" s="362"/>
       <c r="Q10" s="101"/>
-      <c r="W10" s="363" t="s">
-        <v>458</v>
+      <c r="W10" s="357" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="376">
+      <c r="A11" s="367">
         <f>'Main Page'!B39</f>
         <v>7</v>
       </c>
-      <c r="B11" s="370"/>
-      <c r="C11" s="370"/>
-      <c r="D11" s="370"/>
-      <c r="E11" s="370"/>
-      <c r="F11" s="370"/>
-      <c r="G11" s="370"/>
-      <c r="H11" s="370"/>
-      <c r="I11" s="370"/>
-      <c r="J11" s="370"/>
-      <c r="K11" s="370"/>
-      <c r="L11" s="370"/>
-      <c r="M11" s="370"/>
-      <c r="N11" s="370"/>
-      <c r="O11" s="370"/>
-      <c r="P11" s="370"/>
+      <c r="B11" s="362"/>
+      <c r="C11" s="362"/>
+      <c r="D11" s="362"/>
+      <c r="E11" s="362"/>
+      <c r="F11" s="362"/>
+      <c r="G11" s="362"/>
+      <c r="H11" s="362"/>
+      <c r="I11" s="362"/>
+      <c r="J11" s="362"/>
+      <c r="K11" s="362"/>
+      <c r="L11" s="362"/>
+      <c r="M11" s="362"/>
+      <c r="N11" s="362"/>
+      <c r="O11" s="362"/>
+      <c r="P11" s="362"/>
       <c r="Q11" s="101"/>
-      <c r="W11" s="363" t="s">
-        <v>459</v>
+      <c r="W11" s="357" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" s="102" t="str">
-        <f>'Main Page'!A120</f>
+        <f>'Main Page'!A119</f>
         <v>Station</v>
       </c>
       <c r="B12" s="102" t="str">
-        <f>'Main Page'!H119</f>
+        <f>'Main Page'!H118</f>
         <v>Unit Weight</v>
       </c>
       <c r="C12" s="102" t="str">
-        <f>'Main Page'!B131</f>
+        <f>'Main Page'!B130</f>
         <v>Twist</v>
       </c>
       <c r="D12" s="102" t="str">
-        <f>'Main Page'!L119</f>
+        <f>'Main Page'!L118</f>
         <v>GJ</v>
       </c>
       <c r="E12" s="102" t="str">
-        <f>'Main Page'!K119</f>
+        <f>'Main Page'!K118</f>
         <v>EA</v>
       </c>
       <c r="F12" s="102" t="str">
-        <f>'Main Page'!J119</f>
+        <f>'Main Page'!J118</f>
         <v>EIEdge</v>
       </c>
       <c r="G12" s="102" t="str">
-        <f>'Main Page'!I119</f>
+        <f>'Main Page'!I118</f>
         <v>EIFlap</v>
       </c>
       <c r="H12" s="102" t="str">
-        <f>'Main Page'!B119</f>
+        <f>'Main Page'!B118</f>
         <v>Chord</v>
       </c>
       <c r="I12" s="102" t="str">
-        <f>'Main Page'!E119</f>
+        <f>'Main Page'!E118</f>
         <v>Gen. Axis Loc.</v>
       </c>
       <c r="J12" s="102" t="str">
-        <f>'Main Page'!A140</f>
+        <f>'Main Page'!A139</f>
         <v>Airfoil ID</v>
       </c>
-      <c r="W12" s="363" t="s">
-        <v>430</v>
+      <c r="W12" s="357" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" s="102">
+        <f>'Main Page'!A120</f>
+        <v>0.05</v>
+      </c>
+      <c r="B13" s="102">
+        <f>'Main Page'!H120</f>
+        <v>1447.6067650097025</v>
+      </c>
+      <c r="C13" s="102">
+        <f>'Main Page'!B132 - 'Main Page'!B$137</f>
+        <v>11.1</v>
+      </c>
+      <c r="D13" s="102">
+        <f>'Main Page'!L120</f>
+        <v>2655231266.008985</v>
+      </c>
+      <c r="E13" s="102">
+        <f>'Main Page'!K120</f>
+        <v>17152702552.539173</v>
+      </c>
+      <c r="F13" s="102">
+        <f>'Main Page'!J120</f>
+        <v>7681455580.9267292</v>
+      </c>
+      <c r="G13" s="102">
+        <f>'Main Page'!I120</f>
+        <v>7681455580.9267292</v>
+      </c>
+      <c r="H13" s="102">
+        <f>'Main Page'!B120</f>
+        <v>1.9250698501397006</v>
+      </c>
+      <c r="I13" s="102">
+        <f>'Main Page'!E120</f>
+        <v>0.25</v>
+      </c>
+      <c r="J13" s="102">
+        <f>'Main Page'!D132</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="102">
         <f>'Main Page'!A121</f>
-        <v>0.05</v>
-      </c>
-      <c r="B13" s="102">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="B14" s="102">
         <f>'Main Page'!H121</f>
-        <v>1447.6067650097025</v>
-      </c>
-      <c r="C13" s="102">
-        <f>'Main Page'!B133 - 'Main Page'!B$138</f>
+        <v>175.09526752452746</v>
+      </c>
+      <c r="C14" s="102">
+        <f>'Main Page'!B133 - 'Main Page'!B$137</f>
         <v>11.1</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D14" s="102">
         <f>'Main Page'!L121</f>
-        <v>2655231266.008985</v>
-      </c>
-      <c r="E13" s="102">
+        <v>396922874.29357898</v>
+      </c>
+      <c r="E14" s="102">
         <f>'Main Page'!K121</f>
-        <v>17152702552.539173</v>
-      </c>
-      <c r="F13" s="102">
+        <v>2564102972.7290158</v>
+      </c>
+      <c r="F14" s="102">
         <f>'Main Page'!J121</f>
-        <v>7681455580.9267292</v>
-      </c>
-      <c r="G13" s="102">
+        <v>1135890133.898103</v>
+      </c>
+      <c r="G14" s="102">
         <f>'Main Page'!I121</f>
-        <v>7681455580.9267292</v>
-      </c>
-      <c r="H13" s="102">
+        <v>1135890133.898103</v>
+      </c>
+      <c r="H14" s="102">
         <f>'Main Page'!B121</f>
-        <v>1.9250698501397006</v>
-      </c>
-      <c r="I13" s="102">
+        <v>1.8895199390398785</v>
+      </c>
+      <c r="I14" s="102">
         <f>'Main Page'!E121</f>
         <v>0.25</v>
       </c>
-      <c r="J13" s="102">
+      <c r="J14" s="102">
         <f>'Main Page'!D133</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
-      <c r="A14" s="102">
-        <f>'Main Page'!A122</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="B14" s="102">
-        <f>'Main Page'!H122</f>
-        <v>175.09526752452746</v>
-      </c>
-      <c r="C14" s="102">
-        <f>'Main Page'!B134 - 'Main Page'!B$138</f>
-        <v>11.1</v>
-      </c>
-      <c r="D14" s="102">
-        <f>'Main Page'!L122</f>
-        <v>396922874.29357898</v>
-      </c>
-      <c r="E14" s="102">
-        <f>'Main Page'!K122</f>
-        <v>2564102972.7290158</v>
-      </c>
-      <c r="F14" s="102">
-        <f>'Main Page'!J122</f>
-        <v>1135890133.898103</v>
-      </c>
-      <c r="G14" s="102">
-        <f>'Main Page'!I122</f>
-        <v>1135890133.898103</v>
-      </c>
-      <c r="H14" s="102">
-        <f>'Main Page'!B122</f>
-        <v>1.8895199390398785</v>
-      </c>
-      <c r="I14" s="102">
-        <f>'Main Page'!E122</f>
-        <v>0.25</v>
-      </c>
-      <c r="J14" s="102">
-        <f>'Main Page'!D134</f>
-        <v>1</v>
-      </c>
-    </row>
     <row r="15" spans="1:23">
       <c r="A15" s="102">
-        <f>'Main Page'!A123</f>
+        <f>'Main Page'!A122</f>
         <v>0.25</v>
       </c>
       <c r="B15" s="102">
-        <f>'Main Page'!H123</f>
+        <f>'Main Page'!H122</f>
         <v>186.9057949192036</v>
       </c>
       <c r="C15" s="102">
-        <f>'Main Page'!B135 - 'Main Page'!B$138</f>
+        <f>'Main Page'!B134 - 'Main Page'!B$137</f>
         <v>11.1</v>
       </c>
       <c r="D15" s="102">
-        <f>'Main Page'!L123</f>
+        <f>'Main Page'!L122</f>
         <v>18842756.85303637</v>
       </c>
       <c r="E15" s="102">
-        <f>'Main Page'!K123</f>
+        <f>'Main Page'!K122</f>
         <v>2443063660.8188953</v>
       </c>
       <c r="F15" s="102">
-        <f>'Main Page'!J123</f>
+        <f>'Main Page'!J122</f>
         <v>703333384.04530549</v>
       </c>
       <c r="G15" s="102">
-        <f>'Main Page'!I123</f>
+        <f>'Main Page'!I122</f>
         <v>271763137.89022917</v>
       </c>
       <c r="H15" s="102">
-        <f>'Main Page'!B123</f>
+        <f>'Main Page'!B122</f>
         <v>2.8001016002032006</v>
       </c>
       <c r="I15" s="102">
-        <f>'Main Page'!E123</f>
+        <f>'Main Page'!E122</f>
         <v>0.34</v>
       </c>
       <c r="J15" s="102">
-        <f>'Main Page'!D135</f>
+        <f>'Main Page'!D134</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" s="102">
-        <f>'Main Page'!A124</f>
+        <f>'Main Page'!A123</f>
         <v>0.5</v>
       </c>
       <c r="B16" s="102">
-        <f>'Main Page'!H124</f>
+        <f>'Main Page'!H123</f>
         <v>138.12296357376664</v>
       </c>
       <c r="C16" s="102">
-        <f>'Main Page'!B136 - 'Main Page'!B$138</f>
+        <f>'Main Page'!B135 - 'Main Page'!B$137</f>
         <v>3.1</v>
       </c>
       <c r="D16" s="102">
-        <f>'Main Page'!L124</f>
+        <f>'Main Page'!L123</f>
         <v>8477345.5047051143</v>
       </c>
       <c r="E16" s="102">
-        <f>'Main Page'!K124</f>
+        <f>'Main Page'!K123</f>
         <v>1809554986.9197025</v>
       </c>
       <c r="F16" s="102">
-        <f>'Main Page'!J124</f>
+        <f>'Main Page'!J123</f>
         <v>255870093.3882812</v>
       </c>
       <c r="G16" s="102">
-        <f>'Main Page'!I124</f>
+        <f>'Main Page'!I123</f>
         <v>75234813.639765084</v>
       </c>
       <c r="H16" s="102">
-        <f>'Main Page'!B124</f>
+        <f>'Main Page'!B123</f>
         <v>2.1468122936245875</v>
       </c>
       <c r="I16" s="102">
-        <f>'Main Page'!E124</f>
+        <f>'Main Page'!E123</f>
         <v>0.31</v>
       </c>
       <c r="J16" s="102">
-        <f>'Main Page'!D136</f>
+        <f>'Main Page'!D135</f>
         <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="102">
-        <f>'Main Page'!A125</f>
+        <f>'Main Page'!A124</f>
         <v>0.75</v>
       </c>
       <c r="B17" s="102">
-        <f>'Main Page'!H125</f>
+        <f>'Main Page'!H124</f>
         <v>61.988105452646913</v>
       </c>
       <c r="C17" s="102">
-        <f>'Main Page'!B137 - 'Main Page'!B$138</f>
+        <f>'Main Page'!B136 - 'Main Page'!B$137</f>
         <v>0.6</v>
       </c>
       <c r="D17" s="102">
-        <f>'Main Page'!L125</f>
+        <f>'Main Page'!L124</f>
         <v>1678043.4287947295</v>
       </c>
       <c r="E17" s="102">
-        <f>'Main Page'!K125</f>
+        <f>'Main Page'!K124</f>
         <v>788312554.19834387</v>
       </c>
       <c r="F17" s="102">
-        <f>'Main Page'!J125</f>
+        <f>'Main Page'!J124</f>
         <v>65848849.292116806</v>
       </c>
       <c r="G17" s="102">
-        <f>'Main Page'!I125</f>
+        <f>'Main Page'!I124</f>
         <v>11534432.983097235</v>
       </c>
       <c r="H17" s="102">
-        <f>'Main Page'!B125</f>
+        <f>'Main Page'!B124</f>
         <v>1.4937769875539753</v>
       </c>
       <c r="I17" s="102">
-        <f>'Main Page'!E125</f>
+        <f>'Main Page'!E124</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="J17" s="102">
-        <f>'Main Page'!D137</f>
+        <f>'Main Page'!D136</f>
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="102">
-        <f>'Main Page'!A126</f>
+        <f>'Main Page'!A125</f>
         <v>1</v>
       </c>
       <c r="B18" s="102">
-        <f>'Main Page'!H126</f>
+        <f>'Main Page'!H125</f>
         <v>11.352890666908433</v>
       </c>
       <c r="C18" s="102">
-        <f>'Main Page'!B138 - 'Main Page'!B$138</f>
+        <f>'Main Page'!B137 - 'Main Page'!B$137</f>
         <v>0</v>
       </c>
       <c r="D18" s="102">
-        <f>'Main Page'!L126</f>
+        <f>'Main Page'!L125</f>
         <v>179433.04791581735</v>
       </c>
       <c r="E18" s="102">
-        <f>'Main Page'!K126</f>
+        <f>'Main Page'!K125</f>
         <v>118472290.90243222</v>
       </c>
       <c r="F18" s="102">
-        <f>'Main Page'!J126</f>
+        <f>'Main Page'!J125</f>
         <v>7874070.2274504323</v>
       </c>
       <c r="G18" s="102">
-        <f>'Main Page'!I126</f>
+        <f>'Main Page'!I125</f>
         <v>231293.14864714985</v>
       </c>
       <c r="H18" s="102">
-        <f>'Main Page'!B126</f>
+        <f>'Main Page'!B125</f>
         <v>0.90601981203962423</v>
       </c>
       <c r="I18" s="102">
-        <f>'Main Page'!E126</f>
+        <f>'Main Page'!E125</f>
         <v>0.25</v>
       </c>
       <c r="J18" s="102">
-        <f>'Main Page'!D138</f>
+        <f>'Main Page'!D137</f>
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="363" t="s">
-        <v>442</v>
+      <c r="A26" s="357" t="s">
+        <v>437</v>
       </c>
       <c r="B26">
         <v>15</v>
@@ -8267,10 +8483,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8285,7 +8501,7 @@
         <v>75</v>
       </c>
       <c r="E1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -8294,7 +8510,7 @@
         <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8303,7 +8519,7 @@
         <v>-3.3</v>
       </c>
       <c r="E3" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8320,7 +8536,7 @@
         <v>-0.30297072228205113</v>
       </c>
       <c r="E4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8337,7 +8553,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8354,7 +8570,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -8363,7 +8579,7 @@
         <v>-5</v>
       </c>
       <c r="E7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -8371,8 +8587,8 @@
         <f>'Main Page'!E5</f>
         <v>39324.660321372365</v>
       </c>
-      <c r="E8" s="363" t="s">
-        <v>443</v>
+      <c r="E8" s="357" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -8380,8 +8596,8 @@
         <f>'Main Page'!E6</f>
         <v>2105.4148204736439</v>
       </c>
-      <c r="E9" s="363" t="s">
-        <v>444</v>
+      <c r="E9" s="357" t="s">
+        <v>439</v>
       </c>
       <c r="I9" s="103"/>
     </row>
@@ -8390,8 +8606,8 @@
         <f>'Main Page'!E7</f>
         <v>11408.833117775681</v>
       </c>
-      <c r="E10" s="363" t="s">
-        <v>445</v>
+      <c r="E10" s="357" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -8400,7 +8616,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -8409,7 +8625,7 @@
         <v>19186.870177541427</v>
       </c>
       <c r="E12" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -8418,7 +8634,7 @@
         <v>45376.990833681382</v>
       </c>
       <c r="E13" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -8427,7 +8643,7 @@
         <v>29975.370571214964</v>
       </c>
       <c r="E14" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -8436,7 +8652,7 @@
         <v>1800</v>
       </c>
       <c r="E15" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -8445,7 +8661,7 @@
         <v>483129639.71309441</v>
       </c>
       <c r="E16" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -8454,43 +8670,34 @@
         <v>0.95</v>
       </c>
       <c r="E17" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="103">
         <f>'Main Page'!B15</f>
-        <v>15</v>
-      </c>
-      <c r="E18" s="363" t="s">
-        <v>429</v>
+        <v>56</v>
+      </c>
+      <c r="E18" s="357" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="103">
-        <f>'Main Page'!B92</f>
-        <v>53.036000000000001</v>
-      </c>
-      <c r="E19" s="363" t="s">
-        <v>448</v>
+      <c r="A19" s="333">
+        <f>'Main Page'!B88*1000</f>
+        <v>1500000</v>
+      </c>
+      <c r="E19" s="357" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="103">
-        <f>'Main Page'!B30</f>
-        <v>8602.9698968592093</v>
-      </c>
-      <c r="E20" s="363" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="103">
-        <f>'Main Page'!B40</f>
-        <v>1</v>
-      </c>
-      <c r="E21" s="363" t="s">
-        <v>464</v>
+        <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)</f>
+        <v>436738.89873597922</v>
+      </c>
+      <c r="E20" s="357" t="s">
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -8502,8 +8709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8512,57 +8719,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="356">
+      <c r="A1" s="350">
         <f>'Main Page'!B42</f>
         <v>1.61</v>
       </c>
-      <c r="L1" s="363" t="s">
-        <v>432</v>
+      <c r="L1" s="357" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="356">
+      <c r="A2" s="350">
         <f>'Main Page'!B43</f>
         <v>2.5649999999999999</v>
       </c>
-      <c r="L2" s="363" t="s">
-        <v>434</v>
+      <c r="L2" s="357" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="356">
+      <c r="A3" s="350">
         <f>'Main Page'!B44/1000</f>
         <v>1.026E-2</v>
       </c>
-      <c r="L3" s="363" t="s">
-        <v>433</v>
+      <c r="L3" s="357" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="356">
+      <c r="A4" s="350">
         <f>'Main Page'!B45</f>
         <v>5.6627999999999998</v>
       </c>
-      <c r="L4" s="363" t="s">
-        <v>435</v>
+      <c r="L4" s="357" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="356">
+      <c r="A5" s="350">
         <f>'Main Page'!B46/1000</f>
         <v>1.7389999999999999E-2</v>
       </c>
-      <c r="L5" s="363" t="s">
-        <v>436</v>
+      <c r="L5" s="357" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="356">
+      <c r="A6" s="350">
         <f>'Main Page'!B47/100</f>
         <v>0.05</v>
       </c>
-      <c r="L6" s="363" t="s">
-        <v>437</v>
+      <c r="L6" s="357" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8570,8 +8777,8 @@
         <f>GECtwrdata!F5</f>
         <v>7850</v>
       </c>
-      <c r="L7" s="363" t="s">
-        <v>438</v>
+      <c r="L7" s="357" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8579,8 +8786,8 @@
         <f>GECtwrdata!F6</f>
         <v>200000000000</v>
       </c>
-      <c r="L8" s="363" t="s">
-        <v>439</v>
+      <c r="L8" s="357" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8588,70 +8795,74 @@
         <f>GECtwrdata!F7</f>
         <v>76923076923.07692</v>
       </c>
-      <c r="L9" s="363" t="s">
-        <v>440</v>
+      <c r="L9" s="357" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="364">
+      <c r="A10" s="358">
         <f>0/9</f>
         <v>0</v>
       </c>
-      <c r="B10" s="364">
+      <c r="B10" s="358">
         <f>1/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="C10" s="364">
+      <c r="C10" s="358">
         <f>2/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D10" s="364">
+      <c r="D10" s="358">
         <f>3/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E10" s="364">
+      <c r="E10" s="358">
         <f>4/9</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="F10" s="364">
+      <c r="F10" s="358">
         <f>5/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="G10" s="364">
+      <c r="G10" s="358">
         <f>6/9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="H10" s="364">
+      <c r="H10" s="358">
         <f>7/9</f>
         <v>0.77777777777777779</v>
       </c>
-      <c r="I10" s="364">
+      <c r="I10" s="358">
         <f>8/9</f>
         <v>0.88888888888888884</v>
       </c>
-      <c r="J10" s="364">
+      <c r="J10" s="358">
         <f>9/9</f>
         <v>1</v>
       </c>
-      <c r="L10" s="363" t="s">
-        <v>441</v>
+      <c r="L10" s="357" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="369">
-        <v>0.01</v>
-      </c>
-      <c r="B11" s="369">
-        <v>0.01</v>
-      </c>
-      <c r="C11" s="369">
-        <v>0.01</v>
-      </c>
-      <c r="D11" s="369">
-        <v>0.01</v>
-      </c>
-      <c r="L11" s="363" t="s">
-        <v>452</v>
+      <c r="A11" s="103">
+        <f>'Main Page'!B150*100</f>
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="B11" s="103">
+        <f>'Main Page'!B151*100</f>
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="C11" s="103">
+        <f>'Main Page'!B152*100</f>
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="D11" s="103">
+        <f>'Main Page'!B153*100</f>
+        <v>3.4350000000000001</v>
+      </c>
+      <c r="L11" s="357" t="s">
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -8667,7 +8878,7 @@
   <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -8690,12 +8901,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="390" t="s">
+      <c r="A2" s="405" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="391"/>
-      <c r="C2" s="391"/>
-      <c r="D2" s="392"/>
+      <c r="B2" s="406"/>
+      <c r="C2" s="406"/>
+      <c r="D2" s="407"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -8722,17 +8933,17 @@
       <c r="H3" s="78"/>
     </row>
     <row r="4" spans="1:11" ht="12" thickBot="1">
-      <c r="A4" s="265">
-        <v>0.01</v>
-      </c>
-      <c r="B4" s="266">
-        <v>0.01</v>
-      </c>
-      <c r="C4" s="266">
-        <v>0.01</v>
-      </c>
-      <c r="D4" s="267">
-        <v>0.01</v>
+      <c r="A4" s="372">
+        <v>3.4349999999999999E-2</v>
+      </c>
+      <c r="B4" s="373">
+        <v>3.4349999999999999E-2</v>
+      </c>
+      <c r="C4" s="373">
+        <v>3.4349999999999999E-2</v>
+      </c>
+      <c r="D4" s="374">
+        <v>3.4349999999999999E-2</v>
       </c>
       <c r="F4" s="74" t="s">
         <v>116</v>
@@ -9495,11 +9706,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>33.25</v>
       </c>
-      <c r="D2" s="377" t="s">
+      <c r="D2" s="391" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="378"/>
-      <c r="F2" s="379"/>
+      <c r="E2" s="393"/>
+      <c r="F2" s="394"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
@@ -9652,7 +9863,7 @@
         <v>41</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="S9" s="89"/>
       <c r="T9" s="89"/>
@@ -11785,325 +11996,325 @@
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="200">
+        <f>'Main Page'!A120</f>
+        <v>0.05</v>
+      </c>
+      <c r="C5" s="201">
+        <f>'Main Page'!B120</f>
+        <v>1.9250698501397006</v>
+      </c>
+      <c r="D5" s="202">
+        <f>'Main Page'!C120</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="202" t="str">
+        <f>'Main Page'!D120</f>
+        <v>NA</v>
+      </c>
+      <c r="F5" s="203">
+        <f>'Main Page'!E120</f>
+        <v>0.25</v>
+      </c>
+      <c r="G5" s="201">
+        <f>'Main Page'!F120</f>
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="201">
+        <f>'Main Page'!G120</f>
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="204">
+        <f>'Main Page'!H120</f>
+        <v>1447.6067650097025</v>
+      </c>
+      <c r="J5" s="205">
+        <f>'Main Page'!I120</f>
+        <v>7681455580.9267292</v>
+      </c>
+      <c r="K5" s="205">
+        <f>'Main Page'!J120</f>
+        <v>7681455580.9267292</v>
+      </c>
+      <c r="L5" s="205">
+        <f>'Main Page'!K120</f>
+        <v>17152702552.539173</v>
+      </c>
+      <c r="M5" s="205">
+        <f>'Main Page'!L120</f>
+        <v>2655231266.008985</v>
+      </c>
+      <c r="N5" s="206">
+        <f>'Main Page'!M120</f>
+        <v>1292.0872285403536</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="207">
         <f>'Main Page'!A121</f>
-        <v>0.05</v>
-      </c>
-      <c r="C5" s="201">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C6" s="208">
         <f>'Main Page'!B121</f>
-        <v>1.9250698501397006</v>
-      </c>
-      <c r="D5" s="202">
+        <v>1.8895199390398785</v>
+      </c>
+      <c r="D6" s="209">
         <f>'Main Page'!C121</f>
         <v>1</v>
       </c>
-      <c r="E5" s="202" t="str">
+      <c r="E6" s="209" t="str">
         <f>'Main Page'!D121</f>
         <v>NA</v>
       </c>
-      <c r="F5" s="203">
+      <c r="F6" s="203">
         <f>'Main Page'!E121</f>
         <v>0.25</v>
       </c>
-      <c r="G5" s="201">
+      <c r="G6" s="208">
         <f>'Main Page'!F121</f>
         <v>0.5</v>
       </c>
-      <c r="H5" s="201">
+      <c r="H6" s="208">
         <f>'Main Page'!G121</f>
         <v>0.5</v>
       </c>
-      <c r="I5" s="204">
+      <c r="I6" s="210">
         <f>'Main Page'!H121</f>
-        <v>1447.6067650097025</v>
-      </c>
-      <c r="J5" s="205">
+        <v>175.09526752452746</v>
+      </c>
+      <c r="J6" s="211">
         <f>'Main Page'!I121</f>
-        <v>7681455580.9267292</v>
-      </c>
-      <c r="K5" s="205">
+        <v>1135890133.898103</v>
+      </c>
+      <c r="K6" s="211">
         <f>'Main Page'!J121</f>
-        <v>7681455580.9267292</v>
-      </c>
-      <c r="L5" s="205">
+        <v>1135890133.898103</v>
+      </c>
+      <c r="L6" s="211">
         <f>'Main Page'!K121</f>
-        <v>17152702552.539173</v>
-      </c>
-      <c r="M5" s="205">
+        <v>2564102972.7290158</v>
+      </c>
+      <c r="M6" s="211">
         <f>'Main Page'!L121</f>
-        <v>2655231266.008985</v>
-      </c>
-      <c r="N5" s="206">
+        <v>396922874.29357898</v>
+      </c>
+      <c r="N6" s="212">
         <f>'Main Page'!M121</f>
-        <v>1292.0872285403536</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21">
-      <c r="B6" s="207">
-        <f>'Main Page'!A122</f>
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C6" s="208">
-        <f>'Main Page'!B122</f>
-        <v>1.8895199390398785</v>
-      </c>
-      <c r="D6" s="209">
-        <f>'Main Page'!C122</f>
-        <v>1</v>
-      </c>
-      <c r="E6" s="209" t="str">
-        <f>'Main Page'!D122</f>
-        <v>NA</v>
-      </c>
-      <c r="F6" s="203">
-        <f>'Main Page'!E122</f>
-        <v>0.25</v>
-      </c>
-      <c r="G6" s="208">
-        <f>'Main Page'!F122</f>
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="208">
-        <f>'Main Page'!G122</f>
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="210">
-        <f>'Main Page'!H122</f>
-        <v>175.09526752452746</v>
-      </c>
-      <c r="J6" s="211">
-        <f>'Main Page'!I122</f>
-        <v>1135890133.898103</v>
-      </c>
-      <c r="K6" s="211">
-        <f>'Main Page'!J122</f>
-        <v>1135890133.898103</v>
-      </c>
-      <c r="L6" s="211">
-        <f>'Main Page'!K122</f>
-        <v>2564102972.7290158</v>
-      </c>
-      <c r="M6" s="211">
-        <f>'Main Page'!L122</f>
-        <v>396922874.29357898</v>
-      </c>
-      <c r="N6" s="212">
-        <f>'Main Page'!M122</f>
         <v>156.28440292953599</v>
       </c>
     </row>
     <row r="7" spans="2:21">
       <c r="B7" s="197">
-        <f>'Main Page'!A123</f>
+        <f>'Main Page'!A122</f>
         <v>0.25</v>
       </c>
       <c r="C7" s="208">
-        <f>'Main Page'!B123</f>
+        <f>'Main Page'!B122</f>
         <v>2.8001016002032006</v>
       </c>
       <c r="D7" s="209">
-        <f>'Main Page'!C123</f>
+        <f>'Main Page'!C122</f>
         <v>0.3</v>
       </c>
       <c r="E7" s="209">
-        <f>'Main Page'!D123</f>
+        <f>'Main Page'!D122</f>
         <v>4.0013725457641511</v>
       </c>
       <c r="F7" s="203">
-        <f>'Main Page'!E123</f>
+        <f>'Main Page'!E122</f>
         <v>0.34</v>
       </c>
       <c r="G7" s="208">
-        <f>'Main Page'!F123</f>
+        <f>'Main Page'!F122</f>
         <v>0.41002988816858021</v>
       </c>
       <c r="H7" s="208">
-        <f>'Main Page'!G123</f>
+        <f>'Main Page'!G122</f>
         <v>0.32873282532820286</v>
       </c>
       <c r="I7" s="210">
-        <f>'Main Page'!H123</f>
+        <f>'Main Page'!H122</f>
         <v>186.9057949192036</v>
       </c>
       <c r="J7" s="211">
-        <f>'Main Page'!I123</f>
+        <f>'Main Page'!I122</f>
         <v>271763137.89022917</v>
       </c>
       <c r="K7" s="211">
-        <f>'Main Page'!J123</f>
+        <f>'Main Page'!J122</f>
         <v>703333384.04530549</v>
       </c>
       <c r="L7" s="198">
-        <f>'Main Page'!K123</f>
+        <f>'Main Page'!K122</f>
         <v>2443063660.8188953</v>
       </c>
       <c r="M7" s="198">
-        <f>'Main Page'!L123</f>
+        <f>'Main Page'!L122</f>
         <v>18842756.85303637</v>
       </c>
       <c r="N7" s="213">
-        <f>'Main Page'!M123</f>
+        <f>'Main Page'!M122</f>
         <v>84.977866851913092</v>
       </c>
     </row>
     <row r="8" spans="2:21">
       <c r="B8" s="197">
-        <f>'Main Page'!A124</f>
+        <f>'Main Page'!A123</f>
         <v>0.5</v>
       </c>
       <c r="C8" s="208">
-        <f>'Main Page'!B124</f>
+        <f>'Main Page'!B123</f>
         <v>2.1468122936245875</v>
       </c>
       <c r="D8" s="214">
-        <f>'Main Page'!C124</f>
+        <f>'Main Page'!C123</f>
         <v>0.24</v>
       </c>
       <c r="E8" s="209">
-        <f>'Main Page'!D124</f>
+        <f>'Main Page'!D123</f>
         <v>6.7200108877128066</v>
       </c>
       <c r="F8" s="203">
-        <f>'Main Page'!E124</f>
+        <f>'Main Page'!E123</f>
         <v>0.31</v>
       </c>
       <c r="G8" s="208">
-        <f>'Main Page'!F124</f>
+        <f>'Main Page'!F123</f>
         <v>0.38649869580913698</v>
       </c>
       <c r="H8" s="208">
-        <f>'Main Page'!G124</f>
+        <f>'Main Page'!G123</f>
         <v>0.3240414781728897</v>
       </c>
       <c r="I8" s="210">
-        <f>'Main Page'!H124</f>
+        <f>'Main Page'!H123</f>
         <v>138.12296357376664</v>
       </c>
       <c r="J8" s="211">
-        <f>'Main Page'!I124</f>
+        <f>'Main Page'!I123</f>
         <v>75234813.639765084</v>
       </c>
       <c r="K8" s="211">
-        <f>'Main Page'!J124</f>
+        <f>'Main Page'!J123</f>
         <v>255870093.3882812</v>
       </c>
       <c r="L8" s="198">
-        <f>'Main Page'!K124</f>
+        <f>'Main Page'!K123</f>
         <v>1809554986.9197025</v>
       </c>
       <c r="M8" s="198">
-        <f>'Main Page'!L124</f>
+        <f>'Main Page'!L123</f>
         <v>8477345.5047051143</v>
       </c>
       <c r="N8" s="213">
-        <f>'Main Page'!M124</f>
+        <f>'Main Page'!M123</f>
         <v>30.021881657931356</v>
       </c>
     </row>
     <row r="9" spans="2:21">
       <c r="B9" s="197">
-        <f>'Main Page'!A125</f>
+        <f>'Main Page'!A124</f>
         <v>0.75</v>
       </c>
       <c r="C9" s="208">
-        <f>'Main Page'!B125</f>
+        <f>'Main Page'!B124</f>
         <v>1.4937769875539753</v>
       </c>
       <c r="D9" s="214">
-        <f>'Main Page'!C125</f>
+        <f>'Main Page'!C124</f>
         <v>0.21</v>
       </c>
       <c r="E9" s="209">
-        <f>'Main Page'!D125</f>
+        <f>'Main Page'!D124</f>
         <v>6.2038591936354734</v>
       </c>
       <c r="F9" s="203">
-        <f>'Main Page'!E125</f>
+        <f>'Main Page'!E124</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="G9" s="208">
-        <f>'Main Page'!F125</f>
+        <f>'Main Page'!F124</f>
         <v>0.40257796771355664</v>
       </c>
       <c r="H9" s="208">
-        <f>'Main Page'!G125</f>
+        <f>'Main Page'!G124</f>
         <v>0.327834346949612</v>
       </c>
       <c r="I9" s="210">
-        <f>'Main Page'!H125</f>
+        <f>'Main Page'!H124</f>
         <v>61.988105452646913</v>
       </c>
       <c r="J9" s="211">
-        <f>'Main Page'!I125</f>
+        <f>'Main Page'!I124</f>
         <v>11534432.983097235</v>
       </c>
       <c r="K9" s="211">
-        <f>'Main Page'!J125</f>
+        <f>'Main Page'!J124</f>
         <v>65848849.292116806</v>
       </c>
       <c r="L9" s="198">
-        <f>'Main Page'!K125</f>
+        <f>'Main Page'!K124</f>
         <v>788312554.19834387</v>
       </c>
       <c r="M9" s="198">
-        <f>'Main Page'!L125</f>
+        <f>'Main Page'!L124</f>
         <v>1678043.4287947295</v>
       </c>
       <c r="N9" s="213">
-        <f>'Main Page'!M125</f>
+        <f>'Main Page'!M124</f>
         <v>6.9998727386933259</v>
       </c>
     </row>
     <row r="10" spans="2:21">
       <c r="B10" s="215">
-        <f>'Main Page'!A126</f>
+        <f>'Main Page'!A125</f>
         <v>1</v>
       </c>
       <c r="C10" s="216">
-        <f>'Main Page'!B126</f>
+        <f>'Main Page'!B125</f>
         <v>0.90601981203962423</v>
       </c>
       <c r="D10" s="217">
-        <f>'Main Page'!C126</f>
+        <f>'Main Page'!C125</f>
         <v>0.16</v>
       </c>
       <c r="E10" s="217">
-        <f>'Main Page'!D126</f>
+        <f>'Main Page'!D125</f>
         <v>0</v>
       </c>
       <c r="F10" s="216">
-        <f>'Main Page'!E126</f>
+        <f>'Main Page'!E125</f>
         <v>0.25</v>
       </c>
       <c r="G10" s="216">
-        <f>'Main Page'!F126</f>
+        <f>'Main Page'!F125</f>
         <v>0.49249999999999999</v>
       </c>
       <c r="H10" s="216">
-        <f>'Main Page'!G126</f>
+        <f>'Main Page'!G125</f>
         <v>0.35780000000000001</v>
       </c>
       <c r="I10" s="218">
-        <f>'Main Page'!H126</f>
+        <f>'Main Page'!H125</f>
         <v>11.352890666908433</v>
       </c>
       <c r="J10" s="219">
-        <f>'Main Page'!I126</f>
+        <f>'Main Page'!I125</f>
         <v>231293.14864714985</v>
       </c>
       <c r="K10" s="219">
-        <f>'Main Page'!J126</f>
+        <f>'Main Page'!J125</f>
         <v>7874070.2274504323</v>
       </c>
       <c r="L10" s="220">
-        <f>'Main Page'!K126</f>
+        <f>'Main Page'!K125</f>
         <v>118472290.90243222</v>
       </c>
       <c r="M10" s="220">
-        <f>'Main Page'!L126</f>
+        <f>'Main Page'!L125</f>
         <v>179433.04791581735</v>
       </c>
       <c r="N10" s="221">
-        <f>'Main Page'!M126</f>
+        <f>'Main Page'!M125</f>
         <v>0.76662287964958964</v>
       </c>
     </row>
@@ -12313,7 +12524,7 @@
         <v>1447.6067650097025</v>
       </c>
       <c r="E18" s="238">
-        <f>N5*'Main Page'!C$128/('Main Page'!C$128+1)</f>
+        <f>N5*'Main Page'!C$127/('Main Page'!C$127+1)</f>
         <v>0</v>
       </c>
       <c r="F18" s="238">
@@ -12335,7 +12546,7 @@
         <v>0.48126746253492514</v>
       </c>
       <c r="K18" s="238">
-        <f>'Main Page'!B133-'Main Page'!B$138</f>
+        <f>'Main Page'!B132-'Main Page'!B$137</f>
         <v>11.1</v>
       </c>
       <c r="L18" s="240">
@@ -12362,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="R18" s="264">
-        <f>'Main Page'!D133</f>
+        <f>'Main Page'!D132</f>
         <v>1</v>
       </c>
       <c r="S18" s="108"/>
@@ -12383,7 +12594,7 @@
         <v>175.09526752452746</v>
       </c>
       <c r="E19" s="243">
-        <f>N6*'Main Page'!C$128/('Main Page'!C$128+1)</f>
+        <f>N6*'Main Page'!C$127/('Main Page'!C$127+1)</f>
         <v>0</v>
       </c>
       <c r="F19" s="243">
@@ -12405,7 +12616,7 @@
         <v>0.47237998475996962</v>
       </c>
       <c r="K19" s="243">
-        <f>'Main Page'!B134-'Main Page'!B$138</f>
+        <f>'Main Page'!B133-'Main Page'!B$137</f>
         <v>11.1</v>
       </c>
       <c r="L19" s="246">
@@ -12432,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="262">
-        <f>'Main Page'!D134</f>
+        <f>'Main Page'!D133</f>
         <v>1</v>
       </c>
       <c r="S19" s="108"/>
@@ -12453,7 +12664,7 @@
         <v>186.9057949192036</v>
       </c>
       <c r="E20" s="243">
-        <f>N7*'Main Page'!C$128/('Main Page'!C$128+1)</f>
+        <f>N7*'Main Page'!C$127/('Main Page'!C$127+1)</f>
         <v>0</v>
       </c>
       <c r="F20" s="243">
@@ -12475,7 +12686,7 @@
         <v>-3.1549233828268214E-2</v>
       </c>
       <c r="K20" s="243">
-        <f>'Main Page'!B135-'Main Page'!B$138</f>
+        <f>'Main Page'!B134-'Main Page'!B$137</f>
         <v>11.1</v>
       </c>
       <c r="L20" s="246">
@@ -12503,7 +12714,7 @@
         <v>-0.25200914401828811</v>
       </c>
       <c r="R20" s="262">
-        <f>'Main Page'!D135</f>
+        <f>'Main Page'!D134</f>
         <v>2</v>
       </c>
       <c r="S20" s="108"/>
@@ -12524,7 +12735,7 @@
         <v>138.12296357376664</v>
       </c>
       <c r="E21" s="243">
-        <f>N8*'Main Page'!C$128/('Main Page'!C$128+1)</f>
+        <f>N8*'Main Page'!C$127/('Main Page'!C$127+1)</f>
         <v>0</v>
       </c>
       <c r="F21" s="243">
@@ -12546,7 +12757,7 @@
         <v>3.0144417962220917E-2</v>
       </c>
       <c r="K21" s="243">
-        <f>'Main Page'!B136-'Main Page'!B$138</f>
+        <f>'Main Page'!B135-'Main Page'!B$137</f>
         <v>3.1</v>
       </c>
       <c r="L21" s="246">
@@ -12592,7 +12803,7 @@
         <v>61.988105452646913</v>
       </c>
       <c r="E22" s="243">
-        <f>N9*'Main Page'!C$128/('Main Page'!C$128+1)</f>
+        <f>N9*'Main Page'!C$127/('Main Page'!C$127+1)</f>
         <v>0</v>
       </c>
       <c r="F22" s="243">
@@ -12614,7 +12825,7 @@
         <v>7.1453846688003059E-2</v>
       </c>
       <c r="K22" s="243">
-        <f>'Main Page'!B137-'Main Page'!B$138</f>
+        <f>'Main Page'!B136-'Main Page'!B$137</f>
         <v>0.6</v>
       </c>
       <c r="L22" s="246">
@@ -12642,7 +12853,7 @@
         <v>-4.4813309626619301E-2</v>
       </c>
       <c r="R22" s="262">
-        <f>'Main Page'!D137</f>
+        <f>'Main Page'!D136</f>
         <v>3</v>
       </c>
       <c r="S22" s="108"/>
@@ -12663,7 +12874,7 @@
         <v>11.352890666908433</v>
       </c>
       <c r="E23" s="249">
-        <f>N10*'Main Page'!C$128/('Main Page'!C$128+1)</f>
+        <f>N10*'Main Page'!C$127/('Main Page'!C$127+1)</f>
         <v>0</v>
       </c>
       <c r="F23" s="249">
@@ -12685,7 +12896,7 @@
         <v>9.7668935737871498E-2</v>
       </c>
       <c r="K23" s="249">
-        <f>'Main Page'!B138-'Main Page'!B$138</f>
+        <f>'Main Page'!B137-'Main Page'!B$137</f>
         <v>0</v>
       </c>
       <c r="L23" s="251">
@@ -12713,7 +12924,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="263">
-        <f>'Main Page'!D138</f>
+        <f>'Main Page'!D137</f>
         <v>4</v>
       </c>
       <c r="S23" s="108"/>
@@ -12778,10 +12989,10 @@
         <v>369</v>
       </c>
       <c r="S26" s="336" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="T26" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="13.5">
@@ -14610,14 +14821,14 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C11" s="153">
         <f>'Main Page'!B47</f>
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -14661,7 +14872,7 @@
         <v>309</v>
       </c>
       <c r="O13" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -15307,8 +15518,8 @@
   </sheetPr>
   <dimension ref="A1:Y131"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -15513,7 +15724,7 @@
         <f>'Main Page'!B59</f>
         <v>0</v>
       </c>
-      <c r="M5" s="360">
+      <c r="M5" s="354">
         <f>0.4*I5*((E5/2)^5-(E5/2-F5)^5)/((E5/2)^3-(E5/2-F5)^3)</f>
         <v>29975.370571214964</v>
       </c>
@@ -15809,7 +16020,7 @@
     </row>
     <row r="10" spans="1:25" ht="12.75">
       <c r="A10" s="112"/>
-      <c r="B10" s="359" t="s">
+      <c r="B10" s="353" t="s">
         <v>187</v>
       </c>
       <c r="C10" s="131">
@@ -15868,7 +16079,6 @@
         <v>209</v>
       </c>
       <c r="T10" s="113"/>
-      <c r="U10" s="112"/>
       <c r="V10" s="112"/>
       <c r="W10" s="112"/>
       <c r="X10" s="112"/>
@@ -15876,7 +16086,7 @@
     </row>
     <row r="11" spans="1:25" ht="13.15" customHeight="1">
       <c r="A11" s="112"/>
-      <c r="B11" s="358" t="s">
+      <c r="B11" s="352" t="s">
         <v>188</v>
       </c>
       <c r="C11" s="131">
@@ -15939,7 +16149,7 @@
     </row>
     <row r="12" spans="1:25" ht="12.75">
       <c r="A12" s="112"/>
-      <c r="B12" s="358" t="s">
+      <c r="B12" s="352" t="s">
         <v>255</v>
       </c>
       <c r="C12" s="131">
@@ -16256,12 +16466,12 @@
       <c r="A19" s="112"/>
       <c r="B19" s="165"/>
       <c r="C19" s="112"/>
-      <c r="D19" s="393" t="s">
+      <c r="D19" s="408" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="393"/>
-      <c r="F19" s="393"/>
-      <c r="G19" s="393"/>
+      <c r="E19" s="408"/>
+      <c r="F19" s="408"/>
+      <c r="G19" s="408"/>
       <c r="H19" s="112"/>
       <c r="I19" s="112"/>
       <c r="J19" s="121"/>
@@ -16326,27 +16536,27 @@
         <v>162</v>
       </c>
       <c r="C21" s="132">
+        <f>'Main Page'!B94</f>
+        <v>2.31</v>
+      </c>
+      <c r="D21" s="132">
         <f>'Main Page'!B95</f>
-        <v>2.31</v>
-      </c>
-      <c r="D21" s="132">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="E21" s="132">
         <f>'Main Page'!B96</f>
-        <v>2.4750000000000001</v>
-      </c>
-      <c r="E21" s="132">
+        <v>1.1880000000000002</v>
+      </c>
+      <c r="F21" s="132">
         <f>'Main Page'!B97</f>
-        <v>1.1880000000000002</v>
-      </c>
-      <c r="F21" s="132">
+        <v>0.191</v>
+      </c>
+      <c r="G21" s="132">
         <f>'Main Page'!B98</f>
-        <v>0.191</v>
-      </c>
-      <c r="G21" s="132">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="H21" s="136">
         <f>'Main Page'!B99</f>
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="H21" s="136">
-        <f>'Main Page'!B100</f>
         <v>7850</v>
       </c>
       <c r="I21" s="139">
@@ -16354,15 +16564,15 @@
         <v>14800.274212500004</v>
       </c>
       <c r="J21" s="132">
+        <f>'Main Page'!B100</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="132">
         <f>'Main Page'!B101</f>
         <v>0</v>
       </c>
-      <c r="K21" s="132">
+      <c r="L21" s="132">
         <f>'Main Page'!B102</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="132">
-        <f>'Main Page'!B103</f>
         <v>-0.80500000000000005</v>
       </c>
       <c r="M21" s="160">
@@ -16519,7 +16729,7 @@
     </row>
     <row r="24" spans="1:25" ht="12.75">
       <c r="A24" s="112"/>
-      <c r="B24" s="359" t="s">
+      <c r="B24" s="353" t="s">
         <v>196</v>
       </c>
       <c r="C24" s="132">
@@ -16587,7 +16797,7 @@
     </row>
     <row r="25" spans="1:25" ht="12.75">
       <c r="A25" s="112"/>
-      <c r="B25" s="359" t="s">
+      <c r="B25" s="353" t="s">
         <v>197</v>
       </c>
       <c r="C25" s="132">

--- a/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="8070" windowHeight="7575" activeTab="2"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="8070" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -3695,6 +3695,14 @@
     <xf numFmtId="2" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3743,14 +3751,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="16" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4337,11 +4337,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="64385792"/>
-        <c:axId val="64387712"/>
+        <c:axId val="83094912"/>
+        <c:axId val="83097088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="64385792"/>
+        <c:axId val="83094912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4426,12 +4426,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64387712"/>
+        <c:crossAx val="83097088"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64387712"/>
+        <c:axId val="83097088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4515,7 +4515,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64385792"/>
+        <c:crossAx val="83094912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5639,7 +5639,7 @@
   </sheetPr>
   <dimension ref="A1:U154"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -5665,14 +5665,14 @@
       <c r="B1" s="334" t="s">
         <v>398</v>
       </c>
-      <c r="C1" s="400" t="s">
+      <c r="C1" s="406" t="s">
         <v>396</v>
       </c>
-      <c r="D1" s="401"/>
-      <c r="E1" s="401"/>
-      <c r="F1" s="401"/>
-      <c r="G1" s="401"/>
-      <c r="H1" s="402"/>
+      <c r="D1" s="407"/>
+      <c r="E1" s="407"/>
+      <c r="F1" s="407"/>
+      <c r="G1" s="407"/>
+      <c r="H1" s="408"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5688,17 +5688,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="394" t="s">
+      <c r="B3" s="400" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="395"/>
-      <c r="D3" s="396"/>
+      <c r="C3" s="401"/>
+      <c r="D3" s="402"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="397" t="s">
+      <c r="F3" s="403" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="398"/>
-      <c r="H3" s="399"/>
+      <c r="G3" s="404"/>
+      <c r="H3" s="405"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -5994,11 +5994,11 @@
       <c r="C19" s="328">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D19" s="403" t="s">
+      <c r="D19" s="409" t="s">
         <v>373</v>
       </c>
-      <c r="E19" s="402"/>
-      <c r="F19" s="402"/>
+      <c r="E19" s="408"/>
+      <c r="F19" s="408"/>
       <c r="G19" s="354"/>
     </row>
     <row r="20" spans="1:21" ht="25.5" customHeight="1">
@@ -6011,11 +6011,11 @@
       <c r="C20" s="328">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D20" s="403" t="s">
+      <c r="D20" s="409" t="s">
         <v>372</v>
       </c>
-      <c r="E20" s="402"/>
-      <c r="F20" s="402"/>
+      <c r="E20" s="408"/>
+      <c r="F20" s="408"/>
       <c r="I20" s="35" t="s">
         <v>68</v>
       </c>
@@ -7655,11 +7655,11 @@
     </row>
     <row r="145" spans="1:6" ht="12" thickBot="1"/>
     <row r="146" spans="1:6" ht="12" thickBot="1">
-      <c r="A146" s="390" t="s">
+      <c r="A146" s="396" t="s">
         <v>404</v>
       </c>
-      <c r="B146" s="392"/>
-      <c r="C146" s="393"/>
+      <c r="B146" s="398"/>
+      <c r="C146" s="399"/>
       <c r="E146" s="356" t="s">
         <v>439</v>
       </c>
@@ -7697,10 +7697,10 @@
     </row>
     <row r="149" spans="1:6" ht="12" thickBot="1"/>
     <row r="150" spans="1:6" ht="12" thickBot="1">
-      <c r="A150" s="390" t="s">
+      <c r="A150" s="396" t="s">
         <v>457</v>
       </c>
-      <c r="B150" s="391"/>
+      <c r="B150" s="397"/>
       <c r="C150" s="374"/>
       <c r="E150" s="356" t="s">
         <v>439</v>
@@ -8544,7 +8544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -8960,12 +8960,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="404" t="s">
+      <c r="A2" s="410" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="405"/>
-      <c r="C2" s="405"/>
-      <c r="D2" s="406"/>
+      <c r="B2" s="411"/>
+      <c r="C2" s="411"/>
+      <c r="D2" s="412"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -9765,11 +9765,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>33.25</v>
       </c>
-      <c r="D2" s="390" t="s">
+      <c r="D2" s="396" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="392"/>
-      <c r="F2" s="393"/>
+      <c r="E2" s="398"/>
+      <c r="F2" s="399"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
@@ -15836,7 +15836,7 @@
         <f>'Main Page'!B57</f>
         <v>7850</v>
       </c>
-      <c r="I5" s="411">
+      <c r="I5" s="393">
         <f>H5*F5*PI()*E5^2</f>
         <v>15105.170177541426</v>
       </c>
@@ -15897,7 +15897,7 @@
       <c r="F6" s="131"/>
       <c r="G6" s="136"/>
       <c r="H6" s="134"/>
-      <c r="I6" s="411">
+      <c r="I6" s="393">
         <f>0.0119*'Main Page'!B13^3</f>
         <v>4081.7000000000003</v>
       </c>
@@ -15970,7 +15970,7 @@
         <f>'Main Page'!B66</f>
         <v>7850</v>
       </c>
-      <c r="I7" s="408">
+      <c r="I7" s="390">
         <f>0.25*PI()*(E7^2-D7^2)*H7*C7</f>
         <v>3464.8709598770956</v>
       </c>
@@ -16033,7 +16033,7 @@
       <c r="F8" s="131"/>
       <c r="G8" s="131"/>
       <c r="H8" s="138"/>
-      <c r="I8" s="408">
+      <c r="I8" s="390">
         <f>0.00002613*(1000*E7)^2.77</f>
         <v>1321.3260789492929</v>
       </c>
@@ -16096,7 +16096,7 @@
       <c r="F9" s="131"/>
       <c r="G9" s="131"/>
       <c r="H9" s="138"/>
-      <c r="I9" s="408">
+      <c r="I9" s="390">
         <f>0.00002613*(1000*E7)^2.77</f>
         <v>1321.3260789492929</v>
       </c>
@@ -16163,7 +16163,7 @@
       <c r="F10" s="128"/>
       <c r="G10" s="128"/>
       <c r="H10" s="137"/>
-      <c r="I10" s="408">
+      <c r="I10" s="390">
         <f>'Main Page'!B79/2</f>
         <v>5301.31</v>
       </c>
@@ -16226,7 +16226,7 @@
       <c r="F11" s="128"/>
       <c r="G11" s="128"/>
       <c r="H11" s="137"/>
-      <c r="I11" s="409">
+      <c r="I11" s="391">
         <f>(3.3*'Main Page'!B89+471)/3</f>
         <v>1807</v>
       </c>
@@ -16293,7 +16293,7 @@
       <c r="H12" s="168">
         <v>7850</v>
       </c>
-      <c r="I12" s="409">
+      <c r="I12" s="391">
         <f>1.5*0.025*1000*'Main Page'!B89/0.10472/C2</f>
         <v>298.41482047364406</v>
       </c>
@@ -16594,12 +16594,12 @@
       <c r="A19" s="112"/>
       <c r="B19" s="164"/>
       <c r="C19" s="112"/>
-      <c r="D19" s="407" t="s">
+      <c r="D19" s="413" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="407"/>
-      <c r="F19" s="407"/>
-      <c r="G19" s="407"/>
+      <c r="E19" s="413"/>
+      <c r="F19" s="413"/>
+      <c r="G19" s="413"/>
       <c r="H19" s="112"/>
       <c r="I19" s="120"/>
       <c r="J19" s="121"/>
@@ -16690,7 +16690,7 @@
         <f>'Main Page'!B100</f>
         <v>7850</v>
       </c>
-      <c r="I21" s="409">
+      <c r="I21" s="391">
         <f>1.5*H21*(0.00000042875*C1^3-(0.00030625*F21+0.00003675*D21+0.0000735*E21)*C1^2+(0.035*F21*D21+0.07*E21*F21)*C1)</f>
         <v>14800.274212500004</v>
       </c>
@@ -16750,7 +16750,7 @@
       <c r="F22" s="133"/>
       <c r="G22" s="136"/>
       <c r="H22" s="133"/>
-      <c r="I22" s="409">
+      <c r="I22" s="391">
         <f>0.00006744*(1000*E7)^2.64</f>
         <v>1483.3193593191988</v>
       </c>
@@ -16810,7 +16810,7 @@
       <c r="F23" s="133"/>
       <c r="G23" s="136"/>
       <c r="H23" s="133"/>
-      <c r="I23" s="409">
+      <c r="I23" s="391">
         <f>0.00006744*(1000*E7)^2.64</f>
         <v>1483.3193593191988</v>
       </c>
@@ -16878,7 +16878,7 @@
       <c r="F24" s="129"/>
       <c r="G24" s="130"/>
       <c r="H24" s="129"/>
-      <c r="I24" s="409">
+      <c r="I24" s="391">
         <f>'Main Page'!B79/2</f>
         <v>5301.31</v>
       </c>
@@ -16946,7 +16946,7 @@
       <c r="F25" s="129"/>
       <c r="G25" s="130"/>
       <c r="H25" s="129"/>
-      <c r="I25" s="409">
+      <c r="I25" s="391">
         <f>2*(3.3*'Main Page'!B89+471)/3</f>
         <v>3614</v>
       </c>
@@ -17014,7 +17014,7 @@
       <c r="F26" s="133"/>
       <c r="G26" s="136"/>
       <c r="H26" s="133"/>
-      <c r="I26" s="409">
+      <c r="I26" s="391">
         <f>84.1*2*C26^2</f>
         <v>3590.12808</v>
       </c>
@@ -17071,7 +17071,7 @@
       <c r="F27" s="129"/>
       <c r="G27" s="129"/>
       <c r="H27" s="129"/>
-      <c r="I27" s="409">
+      <c r="I27" s="391">
         <f>2.6*'Main Page'!B89+0.002168*C1^3.4</f>
         <v>7968.1093102339655</v>
       </c>
@@ -17123,7 +17123,7 @@
       <c r="F28" s="129"/>
       <c r="G28" s="129"/>
       <c r="H28" s="129"/>
-      <c r="I28" s="409">
+      <c r="I28" s="391">
         <f>0.2*(I11+I25)</f>
         <v>1084.2</v>
       </c>
@@ -17350,10 +17350,10 @@
       <c r="B35" s="163" t="s">
         <v>216</v>
       </c>
-      <c r="I35" s="410" t="s">
+      <c r="I35" s="392" t="s">
         <v>466</v>
       </c>
-      <c r="J35" s="410"/>
+      <c r="J35" s="392"/>
     </row>
     <row r="36" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B36" s="163" t="s">
@@ -17362,10 +17362,10 @@
       <c r="C36" s="150" t="s">
         <v>218</v>
       </c>
-      <c r="I36" s="412" t="s">
+      <c r="I36" s="394" t="s">
         <v>467</v>
       </c>
-      <c r="J36" s="412"/>
+      <c r="J36" s="394"/>
     </row>
     <row r="37" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B37" s="163" t="s">
@@ -17374,10 +17374,10 @@
       <c r="C37" s="112" t="s">
         <v>220</v>
       </c>
-      <c r="I37" s="413" t="s">
+      <c r="I37" s="395" t="s">
         <v>468</v>
       </c>
-      <c r="J37" s="413"/>
+      <c r="J37" s="395"/>
     </row>
     <row r="38" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B38" s="164"/>

--- a/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
@@ -4498,11 +4498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319062096"/>
-        <c:axId val="319061312"/>
+        <c:axId val="307190288"/>
+        <c:axId val="307189896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319062096"/>
+        <c:axId val="307190288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4587,12 +4587,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319061312"/>
+        <c:crossAx val="307189896"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319061312"/>
+        <c:axId val="307189896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4676,7 +4676,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319062096"/>
+        <c:crossAx val="307190288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11060,7 +11060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>

--- a/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrinker\Documents\GitHub\dissertation\FAST_models\WindPACT\excel_proc\turbines\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="8070" windowHeight="7580" activeTab="5"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="8070" windowHeight="7575" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -27,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Blade Data'!$A$6:$Q$32</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -37,7 +32,7 @@
     <author>Jeff Minnema</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="517">
   <si>
     <t>number</t>
   </si>
@@ -2039,6 +2034,18 @@
   </si>
   <si>
     <t>N-m</t>
+  </si>
+  <si>
+    <t>P2P_Num</t>
+  </si>
+  <si>
+    <t>numerator blade pitch actuator TF</t>
+  </si>
+  <si>
+    <t>P2P_Den</t>
+  </si>
+  <si>
+    <t>denominator blade pitch actuator TF</t>
   </si>
 </sst>
 </file>
@@ -4498,11 +4505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307190288"/>
-        <c:axId val="307189896"/>
+        <c:axId val="100945280"/>
+        <c:axId val="100963840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307190288"/>
+        <c:axId val="100945280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4587,12 +4594,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307189896"/>
+        <c:crossAx val="100963840"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307189896"/>
+        <c:axId val="100963840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4676,7 +4683,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307190288"/>
+        <c:crossAx val="100945280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5800,23 +5807,23 @@
   </sheetPr>
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" customWidth="1"/>
-    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="8" width="12.109375" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" customWidth="1"/>
+    <col min="7" max="8" width="12.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" customWidth="1"/>
+    <col min="13" max="13" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" thickBot="1">
@@ -5861,7 +5868,7 @@
       <c r="G3" s="412"/>
       <c r="H3" s="413"/>
     </row>
-    <row r="4" spans="1:8" ht="11" thickBot="1">
+    <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
@@ -5986,7 +5993,7 @@
         <v>9923.4097569871301</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="10.5" thickBot="1">
+    <row r="8" spans="1:8" ht="12" thickBot="1">
       <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
@@ -6019,7 +6026,7 @@
         <v>42475.576821214963</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="10.5" thickBot="1">
+    <row r="9" spans="1:8" ht="12" thickBot="1">
       <c r="A9" s="106" t="s">
         <v>120</v>
       </c>
@@ -6069,7 +6076,7 @@
       </c>
       <c r="F13" s="332"/>
     </row>
-    <row r="14" spans="1:8" ht="20">
+    <row r="14" spans="1:8" ht="22.5">
       <c r="A14" s="61" t="s">
         <v>43</v>
       </c>
@@ -6110,7 +6117,7 @@
       <c r="E16" s="354"/>
       <c r="H16" s="103"/>
     </row>
-    <row r="17" spans="1:21" ht="23.5" customHeight="1">
+    <row r="17" spans="1:21" ht="23.45" customHeight="1">
       <c r="A17" s="61" t="s">
         <v>42</v>
       </c>
@@ -6188,7 +6195,7 @@
       <c r="O20" s="169"/>
       <c r="P20" s="170"/>
     </row>
-    <row r="21" spans="1:21" ht="11.5" customHeight="1">
+    <row r="21" spans="1:21" ht="11.45" customHeight="1">
       <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
@@ -6234,7 +6241,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="172"/>
     </row>
-    <row r="24" spans="1:21" ht="12.65" customHeight="1">
+    <row r="24" spans="1:21" ht="12.6" customHeight="1">
       <c r="A24" s="100" t="s">
         <v>74</v>
       </c>
@@ -6255,7 +6262,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="172"/>
     </row>
-    <row r="25" spans="1:21" ht="10.5" thickBot="1">
+    <row r="25" spans="1:21" ht="12" thickBot="1">
       <c r="A25" s="100" t="s">
         <v>75</v>
       </c>
@@ -6286,7 +6293,7 @@
       <c r="G26" s="89"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="28" spans="1:21" ht="12.65" customHeight="1">
+    <row r="28" spans="1:21" ht="12.6" customHeight="1">
       <c r="A28" s="381" t="s">
         <v>78</v>
       </c>
@@ -6326,7 +6333,7 @@
     <row r="32" spans="1:21">
       <c r="B32" s="53"/>
     </row>
-    <row r="33" spans="1:5" ht="10.5">
+    <row r="33" spans="1:5">
       <c r="A33" s="109" t="s">
         <v>80</v>
       </c>
@@ -6437,7 +6444,7 @@
       <c r="D44" s="360"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" ht="10.5">
+    <row r="45" spans="1:5">
       <c r="A45" s="109" t="s">
         <v>122</v>
       </c>
@@ -6506,7 +6513,7 @@
         <v>4.4262262216404888</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="10.5">
+    <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -6619,7 +6626,7 @@
       <c r="A64" s="18"/>
       <c r="B64" s="124"/>
     </row>
-    <row r="65" spans="1:10" ht="10.5">
+    <row r="65" spans="1:10">
       <c r="A65" s="111" t="s">
         <v>137</v>
       </c>
@@ -6714,7 +6721,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="10.5">
+    <row r="73" spans="1:10">
       <c r="A73" s="111" t="s">
         <v>143</v>
       </c>
@@ -6812,7 +6819,7 @@
       <c r="A80" s="18"/>
       <c r="B80" s="125"/>
     </row>
-    <row r="81" spans="1:4" ht="10.5">
+    <row r="81" spans="1:4">
       <c r="A81" s="111" t="s">
         <v>152</v>
       </c>
@@ -6912,7 +6919,7 @@
       <c r="A90" s="18"/>
       <c r="B90" s="123"/>
     </row>
-    <row r="91" spans="1:4" ht="10.5">
+    <row r="91" spans="1:4">
       <c r="A91" s="111" t="s">
         <v>158</v>
       </c>
@@ -6969,7 +6976,7 @@
       <c r="A96" s="18"/>
       <c r="B96" s="126"/>
     </row>
-    <row r="97" spans="1:4" ht="10.5">
+    <row r="97" spans="1:4">
       <c r="A97" s="111" t="s">
         <v>162</v>
       </c>
@@ -7083,7 +7090,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="10.5">
+    <row r="108" spans="1:4">
       <c r="A108" s="111" t="s">
         <v>387</v>
       </c>
@@ -7146,7 +7153,7 @@
       <c r="I113" s="182"/>
       <c r="J113" s="182"/>
     </row>
-    <row r="114" spans="1:13" ht="15">
+    <row r="114" spans="1:13" ht="14.25">
       <c r="A114" s="183"/>
       <c r="B114" s="184"/>
       <c r="C114" s="185" t="s">
@@ -7204,7 +7211,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="11.5">
+    <row r="116" spans="1:13" ht="12">
       <c r="A116" s="282">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7239,7 +7246,7 @@
         <v>8.3897942957076286E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="11.5">
+    <row r="117" spans="1:13" ht="12">
       <c r="A117" s="291">
         <v>0.25</v>
       </c>
@@ -7274,7 +7281,7 @@
         <v>2.5188854326270468E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="11.5">
+    <row r="118" spans="1:13" ht="12">
       <c r="A118" s="291">
         <v>0.5</v>
       </c>
@@ -7309,7 +7316,7 @@
         <v>5.4300984192981469E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="11.5">
+    <row r="119" spans="1:13" ht="12">
       <c r="A119" s="294">
         <v>0.75</v>
       </c>
@@ -7675,7 +7682,7 @@
         <v>0.76662287964958964</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="13">
+    <row r="131" spans="1:13">
       <c r="B131" s="18" t="s">
         <v>349</v>
       </c>
@@ -7692,7 +7699,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="10.5">
+    <row r="134" spans="1:13">
       <c r="A134" s="183"/>
       <c r="B134" s="229" t="s">
         <v>363</v>
@@ -7702,7 +7709,7 @@
       </c>
       <c r="D134" s="402"/>
     </row>
-    <row r="135" spans="1:13" ht="11.5">
+    <row r="135" spans="1:13" ht="12">
       <c r="A135" s="191" t="s">
         <v>87</v>
       </c>
@@ -7790,7 +7797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="11.5">
+    <row r="143" spans="1:13" ht="12">
       <c r="A143" s="337" t="s">
         <v>401</v>
       </c>
@@ -7851,8 +7858,8 @@
       <c r="F147" s="354"/>
       <c r="G147" s="354"/>
     </row>
-    <row r="148" spans="1:7" ht="10.5" thickBot="1"/>
-    <row r="149" spans="1:7" ht="10.5" thickBot="1">
+    <row r="148" spans="1:7" ht="12" thickBot="1"/>
+    <row r="149" spans="1:7" ht="12" thickBot="1">
       <c r="A149" s="404" t="s">
         <v>403</v>
       </c>
@@ -7863,7 +7870,7 @@
       </c>
       <c r="F149" s="354"/>
     </row>
-    <row r="150" spans="1:7" ht="10.5" thickBot="1">
+    <row r="150" spans="1:7" ht="12" thickBot="1">
       <c r="A150" s="379" t="s">
         <v>35</v>
       </c>
@@ -7878,7 +7885,7 @@
       </c>
       <c r="F150" s="354"/>
     </row>
-    <row r="151" spans="1:7" ht="11" thickBot="1">
+    <row r="151" spans="1:7" ht="12" thickBot="1">
       <c r="A151" s="376">
         <v>3.882E-2</v>
       </c>
@@ -7893,8 +7900,8 @@
       </c>
       <c r="F151" s="354"/>
     </row>
-    <row r="152" spans="1:7" ht="10.5" thickBot="1"/>
-    <row r="153" spans="1:7" ht="10.5" thickBot="1">
+    <row r="152" spans="1:7" ht="12" thickBot="1"/>
+    <row r="153" spans="1:7" ht="12" thickBot="1">
       <c r="A153" s="404" t="s">
         <v>414</v>
       </c>
@@ -7905,7 +7912,7 @@
       </c>
       <c r="F153" s="354"/>
     </row>
-    <row r="154" spans="1:7" ht="10.5">
+    <row r="154" spans="1:7">
       <c r="A154" s="367" t="s">
         <v>50</v>
       </c>
@@ -7918,7 +7925,7 @@
       </c>
       <c r="F154" s="354"/>
     </row>
-    <row r="155" spans="1:7" ht="10.5">
+    <row r="155" spans="1:7">
       <c r="A155" s="372" t="s">
         <v>51</v>
       </c>
@@ -7931,7 +7938,7 @@
       </c>
       <c r="F155" s="354"/>
     </row>
-    <row r="156" spans="1:7" ht="10.5">
+    <row r="156" spans="1:7">
       <c r="A156" s="374" t="s">
         <v>52</v>
       </c>
@@ -7943,7 +7950,7 @@
       </c>
       <c r="F156" s="354"/>
     </row>
-    <row r="157" spans="1:7" ht="11" thickBot="1">
+    <row r="157" spans="1:7" ht="12" thickBot="1">
       <c r="A157" s="375" t="s">
         <v>53</v>
       </c>
@@ -7982,10 +7989,10 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
@@ -8811,23 +8818,23 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="10" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="9.5" customWidth="1"/>
     <col min="13" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.5">
+    <row r="1" spans="1:25" ht="12.75">
       <c r="A1" s="112"/>
       <c r="B1" s="112" t="s">
         <v>170</v>
@@ -8859,7 +8866,7 @@
       <c r="X1" s="112"/>
       <c r="Y1" s="112"/>
     </row>
-    <row r="2" spans="1:25" ht="12.5">
+    <row r="2" spans="1:25" ht="12.75">
       <c r="A2" s="112"/>
       <c r="B2" s="113" t="s">
         <v>171</v>
@@ -8891,7 +8898,7 @@
       <c r="X2" s="112"/>
       <c r="Y2" s="112"/>
     </row>
-    <row r="3" spans="1:25" ht="12.5">
+    <row r="3" spans="1:25" ht="12.75">
       <c r="A3" s="112"/>
       <c r="B3" s="112"/>
       <c r="C3" s="112"/>
@@ -8918,7 +8925,7 @@
       <c r="X3" s="112"/>
       <c r="Y3" s="112"/>
     </row>
-    <row r="4" spans="1:25" ht="37.5">
+    <row r="4" spans="1:25" ht="38.25">
       <c r="A4" s="115"/>
       <c r="B4" s="162" t="s">
         <v>172</v>
@@ -8977,7 +8984,7 @@
       <c r="X4" s="115"/>
       <c r="Y4" s="116"/>
     </row>
-    <row r="5" spans="1:25" ht="12.5">
+    <row r="5" spans="1:25" ht="12.75">
       <c r="A5" s="112"/>
       <c r="B5" s="163" t="s">
         <v>12</v>
@@ -9047,7 +9054,7 @@
       <c r="X5" s="112"/>
       <c r="Y5" s="112"/>
     </row>
-    <row r="6" spans="1:25" ht="12.5">
+    <row r="6" spans="1:25" ht="12.75">
       <c r="A6" s="112"/>
       <c r="B6" s="163" t="s">
         <v>184</v>
@@ -9108,7 +9115,7 @@
       <c r="X6" s="112"/>
       <c r="Y6" s="112"/>
     </row>
-    <row r="7" spans="1:25" ht="12.5">
+    <row r="7" spans="1:25" ht="12.75">
       <c r="A7" s="112"/>
       <c r="B7" s="163" t="s">
         <v>137</v>
@@ -9181,7 +9188,7 @@
       <c r="X7" s="112"/>
       <c r="Y7" s="112"/>
     </row>
-    <row r="8" spans="1:25" ht="12.5">
+    <row r="8" spans="1:25" ht="12.75">
       <c r="A8" s="112"/>
       <c r="B8" s="163" t="s">
         <v>185</v>
@@ -9244,7 +9251,7 @@
       <c r="X8" s="112"/>
       <c r="Y8" s="118"/>
     </row>
-    <row r="9" spans="1:25" ht="12.5">
+    <row r="9" spans="1:25" ht="12.75">
       <c r="A9" s="112"/>
       <c r="B9" s="163" t="s">
         <v>186</v>
@@ -9307,7 +9314,7 @@
       <c r="X9" s="112"/>
       <c r="Y9" s="112"/>
     </row>
-    <row r="10" spans="1:25" ht="12.5">
+    <row r="10" spans="1:25" ht="12.75">
       <c r="A10" s="112"/>
       <c r="B10" s="349" t="s">
         <v>187</v>
@@ -9436,7 +9443,7 @@
       <c r="X11" s="112"/>
       <c r="Y11" s="118"/>
     </row>
-    <row r="12" spans="1:25" ht="12.5">
+    <row r="12" spans="1:25" ht="12.75">
       <c r="A12" s="112"/>
       <c r="B12" s="349" t="s">
         <v>255</v>
@@ -9503,7 +9510,7 @@
       <c r="X12" s="112"/>
       <c r="Y12" s="118"/>
     </row>
-    <row r="13" spans="1:25" ht="12.5">
+    <row r="13" spans="1:25" ht="12.75">
       <c r="A13" s="112"/>
       <c r="B13" s="163"/>
       <c r="C13" s="131"/>
@@ -9535,7 +9542,7 @@
       <c r="X13" s="112"/>
       <c r="Y13" s="118"/>
     </row>
-    <row r="14" spans="1:25" ht="12.5">
+    <row r="14" spans="1:25" ht="12.75">
       <c r="A14" s="112"/>
       <c r="B14" s="163"/>
       <c r="C14" s="131"/>
@@ -9584,7 +9591,7 @@
       <c r="X14" s="112"/>
       <c r="Y14" s="118"/>
     </row>
-    <row r="15" spans="1:25" ht="12.5">
+    <row r="15" spans="1:25" ht="12.75">
       <c r="A15" s="112"/>
       <c r="B15" s="163"/>
       <c r="C15" s="131"/>
@@ -9633,7 +9640,7 @@
       <c r="X15" s="112"/>
       <c r="Y15" s="118"/>
     </row>
-    <row r="16" spans="1:25" ht="12.5">
+    <row r="16" spans="1:25" ht="12.75">
       <c r="A16" s="112"/>
       <c r="B16" s="164"/>
       <c r="C16" s="112"/>
@@ -9683,7 +9690,7 @@
       <c r="X16" s="112"/>
       <c r="Y16" s="112"/>
     </row>
-    <row r="17" spans="1:25" ht="12.5">
+    <row r="17" spans="1:25" ht="12.75">
       <c r="A17" s="112"/>
       <c r="B17" s="164"/>
       <c r="C17" s="112"/>
@@ -9724,7 +9731,7 @@
       <c r="X17" s="112"/>
       <c r="Y17" s="112"/>
     </row>
-    <row r="18" spans="1:25" ht="12.5">
+    <row r="18" spans="1:25" ht="12.75">
       <c r="A18" s="112"/>
       <c r="B18" s="164"/>
       <c r="C18" s="112"/>
@@ -9751,7 +9758,7 @@
       <c r="X18" s="112"/>
       <c r="Y18" s="112"/>
     </row>
-    <row r="19" spans="1:25" ht="12.5">
+    <row r="19" spans="1:25" ht="12.75">
       <c r="A19" s="112"/>
       <c r="B19" s="164"/>
       <c r="C19" s="112"/>
@@ -9783,7 +9790,7 @@
       <c r="X19" s="112"/>
       <c r="Y19" s="112"/>
     </row>
-    <row r="20" spans="1:25" ht="37.5">
+    <row r="20" spans="1:25" ht="38.25">
       <c r="A20" s="115"/>
       <c r="B20" s="162" t="s">
         <v>189</v>
@@ -9822,7 +9829,7 @@
       <c r="X20" s="115"/>
       <c r="Y20" s="115"/>
     </row>
-    <row r="21" spans="1:25" ht="12.5">
+    <row r="21" spans="1:25" ht="12.75">
       <c r="A21" s="112"/>
       <c r="B21" s="163" t="s">
         <v>162</v>
@@ -9898,7 +9905,7 @@
       <c r="X21" s="112"/>
       <c r="Y21" s="112"/>
     </row>
-    <row r="22" spans="1:25" ht="12.5">
+    <row r="22" spans="1:25" ht="12.75">
       <c r="A22" s="112"/>
       <c r="B22" s="163" t="s">
         <v>194</v>
@@ -9958,7 +9965,7 @@
       <c r="X22" s="112"/>
       <c r="Y22" s="118"/>
     </row>
-    <row r="23" spans="1:25" ht="12.5">
+    <row r="23" spans="1:25" ht="12.75">
       <c r="A23" s="112"/>
       <c r="B23" s="163" t="s">
         <v>195</v>
@@ -10019,7 +10026,7 @@
       <c r="X23" s="112"/>
       <c r="Y23" s="112"/>
     </row>
-    <row r="24" spans="1:25" ht="12.5">
+    <row r="24" spans="1:25" ht="12.75">
       <c r="A24" s="112"/>
       <c r="B24" s="349" t="s">
         <v>196</v>
@@ -10087,7 +10094,7 @@
       <c r="X24" s="112"/>
       <c r="Y24" s="112"/>
     </row>
-    <row r="25" spans="1:25" ht="12.5">
+    <row r="25" spans="1:25" ht="12.75">
       <c r="A25" s="112"/>
       <c r="B25" s="349" t="s">
         <v>197</v>
@@ -10155,7 +10162,7 @@
       <c r="X25" s="112"/>
       <c r="Y25" s="112"/>
     </row>
-    <row r="26" spans="1:25" ht="12.5">
+    <row r="26" spans="1:25" ht="12.75">
       <c r="A26" s="112"/>
       <c r="B26" s="163" t="s">
         <v>198</v>
@@ -10221,7 +10228,7 @@
       <c r="X26" s="112"/>
       <c r="Y26" s="112"/>
     </row>
-    <row r="27" spans="1:25" ht="12.5">
+    <row r="27" spans="1:25" ht="12.75">
       <c r="A27" s="112"/>
       <c r="B27" s="163" t="s">
         <v>199</v>
@@ -10273,7 +10280,7 @@
       <c r="X27" s="112"/>
       <c r="Y27" s="112"/>
     </row>
-    <row r="28" spans="1:25" ht="12.5">
+    <row r="28" spans="1:25" ht="12.75">
       <c r="A28" s="112"/>
       <c r="B28" s="163" t="s">
         <v>200</v>
@@ -10325,7 +10332,7 @@
       <c r="X28" s="112"/>
       <c r="Y28" s="112"/>
     </row>
-    <row r="29" spans="1:25" ht="12.5">
+    <row r="29" spans="1:25" ht="12.75">
       <c r="A29" s="112"/>
       <c r="B29" s="164"/>
       <c r="C29" s="112"/>
@@ -10358,7 +10365,7 @@
       <c r="X29" s="112"/>
       <c r="Y29" s="112"/>
     </row>
-    <row r="30" spans="1:25" ht="12.5">
+    <row r="30" spans="1:25" ht="12.75">
       <c r="A30" s="112"/>
       <c r="B30" s="163"/>
       <c r="C30" s="112"/>
@@ -10408,7 +10415,7 @@
       <c r="X30" s="112"/>
       <c r="Y30" s="112"/>
     </row>
-    <row r="31" spans="1:25" ht="12.5">
+    <row r="31" spans="1:25" ht="12.75">
       <c r="A31" s="112"/>
       <c r="B31" s="163"/>
       <c r="C31" s="112"/>
@@ -10449,7 +10456,7 @@
       <c r="X31" s="112"/>
       <c r="Y31" s="112"/>
     </row>
-    <row r="32" spans="1:25" ht="12.5">
+    <row r="32" spans="1:25" ht="12.75">
       <c r="A32" s="112"/>
       <c r="B32" s="163"/>
       <c r="C32" s="112"/>
@@ -10476,7 +10483,7 @@
       <c r="X32" s="112"/>
       <c r="Y32" s="112"/>
     </row>
-    <row r="33" spans="1:25" ht="12.5">
+    <row r="33" spans="1:25" ht="12.75">
       <c r="A33" s="112"/>
       <c r="B33" s="163"/>
       <c r="C33" s="112"/>
@@ -10503,11 +10510,11 @@
       <c r="X33" s="112"/>
       <c r="Y33" s="112"/>
     </row>
-    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B34" s="164"/>
       <c r="O34" s="157"/>
     </row>
-    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B35" s="163" t="s">
         <v>216</v>
       </c>
@@ -10516,7 +10523,7 @@
       </c>
       <c r="J35" s="386"/>
     </row>
-    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B36" s="163" t="s">
         <v>217</v>
       </c>
@@ -10528,7 +10535,7 @@
       </c>
       <c r="J36" s="388"/>
     </row>
-    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B37" s="163" t="s">
         <v>219</v>
       </c>
@@ -10540,10 +10547,10 @@
       </c>
       <c r="J37" s="389"/>
     </row>
-    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B38" s="164"/>
     </row>
-    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B39" s="163" t="s">
         <v>226</v>
       </c>
@@ -10551,7 +10558,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B40" s="163" t="s">
         <v>223</v>
       </c>
@@ -10559,7 +10566,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B41" s="163" t="s">
         <v>225</v>
       </c>
@@ -10567,10 +10574,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B42" s="165"/>
     </row>
-    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B43" s="163" t="s">
         <v>229</v>
       </c>
@@ -10578,7 +10585,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B44" s="163" t="s">
         <v>231</v>
       </c>
@@ -10586,7 +10593,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B45" s="163" t="s">
         <v>275</v>
       </c>
@@ -10594,10 +10601,10 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B46" s="165"/>
     </row>
-    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B47" s="163" t="s">
         <v>234</v>
       </c>
@@ -10605,7 +10612,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.5">
+    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.75">
       <c r="B48" s="163" t="s">
         <v>233</v>
       </c>
@@ -10613,7 +10620,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B49" s="163" t="s">
         <v>277</v>
       </c>
@@ -10621,13 +10628,13 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B50" s="163"/>
     </row>
-    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B51" s="163"/>
     </row>
-    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B52" s="163" t="s">
         <v>237</v>
       </c>
@@ -10635,7 +10642,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B53" s="163" t="s">
         <v>238</v>
       </c>
@@ -10643,7 +10650,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B54" s="163" t="s">
         <v>243</v>
       </c>
@@ -10651,7 +10658,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B55" s="163" t="s">
         <v>245</v>
       </c>
@@ -10659,10 +10666,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B56" s="163"/>
     </row>
-    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B57" s="163" t="s">
         <v>252</v>
       </c>
@@ -10670,7 +10677,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B58" s="163" t="s">
         <v>247</v>
       </c>
@@ -10678,7 +10685,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B59" s="163" t="s">
         <v>249</v>
       </c>
@@ -10686,7 +10693,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B60" s="163" t="s">
         <v>250</v>
       </c>
@@ -10694,10 +10701,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B61" s="163"/>
     </row>
-    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B62" s="163" t="s">
         <v>256</v>
       </c>
@@ -10705,7 +10712,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B63" s="163" t="s">
         <v>257</v>
       </c>
@@ -10713,7 +10720,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B64" s="163" t="s">
         <v>258</v>
       </c>
@@ -10721,7 +10728,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B65" s="163" t="s">
         <v>259</v>
       </c>
@@ -10729,7 +10736,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B66" s="163" t="s">
         <v>260</v>
       </c>
@@ -10737,10 +10744,10 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B67" s="163"/>
     </row>
-    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B68" s="163" t="s">
         <v>266</v>
       </c>
@@ -10748,7 +10755,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B69" s="163" t="s">
         <v>268</v>
       </c>
@@ -10756,10 +10763,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B70" s="163"/>
     </row>
-    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B71" s="163" t="s">
         <v>272</v>
       </c>
@@ -10767,7 +10774,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B72" s="163" t="s">
         <v>270</v>
       </c>
@@ -10775,7 +10782,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B73" s="163" t="s">
         <v>274</v>
       </c>
@@ -10783,10 +10790,10 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B74" s="163"/>
     </row>
-    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B75" s="163" t="s">
         <v>281</v>
       </c>
@@ -10794,7 +10801,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B76" s="163" t="s">
         <v>280</v>
       </c>
@@ -10802,7 +10809,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B77" s="163" t="s">
         <v>282</v>
       </c>
@@ -10810,7 +10817,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B78" s="163" t="s">
         <v>284</v>
       </c>
@@ -10818,7 +10825,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B79" s="163" t="s">
         <v>285</v>
       </c>
@@ -10826,10 +10833,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B80" s="163"/>
     </row>
-    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B81" s="163" t="s">
         <v>287</v>
       </c>
@@ -10837,7 +10844,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B82" s="163" t="s">
         <v>288</v>
       </c>
@@ -10845,7 +10852,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B83" s="163" t="s">
         <v>289</v>
       </c>
@@ -10853,7 +10860,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B84" s="163" t="s">
         <v>290</v>
       </c>
@@ -10861,7 +10868,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B85" s="163" t="s">
         <v>291</v>
       </c>
@@ -10869,10 +10876,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B86" s="163"/>
     </row>
-    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B87" s="163" t="s">
         <v>294</v>
       </c>
@@ -10880,7 +10887,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B88" s="163" t="s">
         <v>296</v>
       </c>
@@ -10888,7 +10895,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B89" s="163" t="s">
         <v>297</v>
       </c>
@@ -10896,7 +10903,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B90" s="163" t="s">
         <v>300</v>
       </c>
@@ -10904,7 +10911,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B91" s="163" t="s">
         <v>302</v>
       </c>
@@ -10912,8 +10919,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.5"/>
-    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.75"/>
+    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B93" s="163" t="s">
         <v>199</v>
       </c>
@@ -10921,7 +10928,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B94" s="163" t="s">
         <v>200</v>
       </c>
@@ -10929,10 +10936,10 @@
         <v>303</v>
       </c>
     </row>
-    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.5">
+    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.75">
       <c r="B95" s="164"/>
     </row>
-    <row r="96" spans="2:3" ht="12.5">
+    <row r="96" spans="2:3" ht="12.75">
       <c r="B96" s="163" t="s">
         <v>221</v>
       </c>
@@ -11064,9 +11071,9 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="2" max="7" width="15.77734375" customWidth="1"/>
+    <col min="2" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11749,12 +11756,12 @@
       <selection activeCell="B3" sqref="B3:J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
@@ -12589,13 +12596,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -12682,7 +12689,7 @@
         <f>'Main Page'!$B$29</f>
         <v>20.462778397529398</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>496</v>
       </c>
       <c r="K8" s="396"/>
@@ -12698,7 +12705,7 @@
         <f>'Main Page'!$B$34</f>
         <v>2.6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>498</v>
       </c>
       <c r="K9" s="396"/>
@@ -12714,7 +12721,7 @@
         <f>'Main Page'!$B$35</f>
         <v>90</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>500</v>
       </c>
       <c r="K10" s="396"/>
@@ -12730,7 +12737,7 @@
         <f>'Main Page'!$B$40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>502</v>
       </c>
       <c r="K11" s="396"/>
@@ -12746,7 +12753,7 @@
         <f>'Main Page'!$B$37*PI()/180</f>
         <v>4.5378560551852569E-2</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>505</v>
       </c>
       <c r="K12" s="396"/>
@@ -12762,7 +12769,7 @@
         <f>'Main Page'!$B$38*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>507</v>
       </c>
       <c r="K13" s="396"/>
@@ -12778,7 +12785,7 @@
         <f>1/C12^C15</f>
         <v>0.21302244142778143</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>509</v>
       </c>
       <c r="K14" s="396"/>
@@ -12794,27 +12801,60 @@
         <f>'Main Page'!$B$39</f>
         <v>-0.5</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
         <v>511</v>
       </c>
       <c r="K15" s="396"/>
     </row>
     <row r="16" spans="1:14">
+      <c r="B16" t="s">
+        <v>513</v>
+      </c>
+      <c r="C16" s="101">
+        <f>(4*'Main Page'!$B$29/30*PI())^2</f>
+        <v>73.469387755102005</v>
+      </c>
+      <c r="D16" s="101">
+        <v>0</v>
+      </c>
+      <c r="E16" s="101">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>514</v>
+      </c>
       <c r="K16" s="396"/>
     </row>
-    <row r="17" spans="11:11">
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
+        <v>515</v>
+      </c>
+      <c r="C17" s="101">
+        <f>(4*'Main Page'!$B$29/30*PI())^2</f>
+        <v>73.469387755102005</v>
+      </c>
+      <c r="D17" s="101">
+        <f>2*0.8*(4*'Main Page'!$B$29/30*PI())</f>
+        <v>13.714285714285712</v>
+      </c>
+      <c r="E17" s="101">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>516</v>
+      </c>
       <c r="K17" s="102"/>
     </row>
-    <row r="19" spans="11:11">
+    <row r="19" spans="2:11">
       <c r="K19" s="397"/>
     </row>
-    <row r="20" spans="11:11">
+    <row r="20" spans="2:11">
       <c r="K20" s="102"/>
     </row>
-    <row r="21" spans="11:11">
+    <row r="21" spans="2:11">
       <c r="K21" s="102"/>
     </row>
-    <row r="22" spans="11:11">
+    <row r="22" spans="2:11">
       <c r="K22" s="102"/>
     </row>
   </sheetData>
@@ -12830,12 +12870,12 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -13104,14 +13144,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C2" workbookViewId="0">
+    <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="15.77734375" customWidth="1"/>
+    <col min="3" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -13465,18 +13505,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="16" style="18" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="11" width="12.44140625" customWidth="1"/>
+    <col min="10" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1">
@@ -13484,7 +13524,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="11" thickBot="1">
+    <row r="2" spans="1:11" ht="12" thickBot="1">
       <c r="A2" s="418" t="s">
         <v>84</v>
       </c>
@@ -13516,7 +13556,7 @@
       <c r="G3" s="77"/>
       <c r="H3" s="78"/>
     </row>
-    <row r="4" spans="1:11" ht="11" thickBot="1">
+    <row r="4" spans="1:11" ht="12" thickBot="1">
       <c r="A4" s="363">
         <v>3.4349999999999999E-2</v>
       </c>
@@ -13544,7 +13584,7 @@
       <c r="D6" s="59"/>
       <c r="E6" s="57"/>
     </row>
-    <row r="7" spans="1:11" s="19" customFormat="1" ht="32.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" s="19" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>1</v>
       </c>
@@ -13579,7 +13619,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="10.5" thickBot="1">
+    <row r="8" spans="1:11" ht="12" thickBot="1">
       <c r="A8" s="47">
         <v>1</v>
       </c>
@@ -13622,7 +13662,7 @@
         <v>248017961443.11847</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="10.5" thickBot="1">
+    <row r="9" spans="1:11" ht="12" thickBot="1">
       <c r="A9" s="48">
         <v>2</v>
       </c>
@@ -13665,7 +13705,7 @@
         <v>196124484340.01657</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="10.5" thickBot="1">
+    <row r="10" spans="1:11" ht="12" thickBot="1">
       <c r="A10" s="48">
         <v>3</v>
       </c>
@@ -13708,7 +13748,7 @@
         <v>152799439475.66925</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="10.5" thickBot="1">
+    <row r="11" spans="1:11" ht="12" thickBot="1">
       <c r="A11" s="48">
         <v>4</v>
       </c>
@@ -13751,7 +13791,7 @@
         <v>117048609933.02327</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="10.5" thickBot="1">
+    <row r="12" spans="1:11" ht="12" thickBot="1">
       <c r="A12" s="48">
         <v>5</v>
       </c>
@@ -13794,7 +13834,7 @@
         <v>87938673669.764404</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="10.5" thickBot="1">
+    <row r="13" spans="1:11" ht="12" thickBot="1">
       <c r="A13" s="48">
         <v>6</v>
       </c>
@@ -13837,7 +13877,7 @@
         <v>64597203518.317947</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="10.5" thickBot="1">
+    <row r="14" spans="1:11" ht="12" thickBot="1">
       <c r="A14" s="48">
         <v>7</v>
       </c>
@@ -13880,7 +13920,7 @@
         <v>46212667185.848305</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="10.5" thickBot="1">
+    <row r="15" spans="1:11" ht="12" thickBot="1">
       <c r="A15" s="48">
         <v>8</v>
       </c>
@@ -13923,7 +13963,7 @@
         <v>32034427254.259068</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="10.5" thickBot="1">
+    <row r="16" spans="1:11" ht="12" thickBot="1">
       <c r="A16" s="48">
         <v>9</v>
       </c>
@@ -14219,7 +14259,7 @@
       <c r="J31" s="29"/>
       <c r="K31" s="30"/>
     </row>
-    <row r="32" spans="1:11" ht="10.5" thickBot="1">
+    <row r="32" spans="1:11" ht="12" thickBot="1">
       <c r="A32" s="49">
         <v>25</v>
       </c>
@@ -14256,33 +14296,33 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.5" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" customWidth="1"/>
-    <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="10.109375" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.5" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" customWidth="1"/>
-    <col min="17" max="17" width="15.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.5" customWidth="1"/>
+    <col min="17" max="17" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.65" customHeight="1" thickBot="1">
+    <row r="1" spans="1:20" ht="15.6" customHeight="1" thickBot="1">
       <c r="A1" s="55" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="57"/>
     </row>
-    <row r="2" spans="1:20" ht="20.5" thickBot="1">
+    <row r="2" spans="1:20" ht="23.25" thickBot="1">
       <c r="A2" s="96" t="s">
         <v>56</v>
       </c>
@@ -14296,7 +14336,7 @@
       <c r="E2" s="406"/>
       <c r="F2" s="407"/>
     </row>
-    <row r="3" spans="1:20" ht="20.5" thickBot="1">
+    <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
         <v>57</v>
       </c>
@@ -14319,7 +14359,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="11" thickBot="1">
+    <row r="4" spans="1:20" ht="12" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="D4" s="264">
@@ -14337,7 +14377,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:20" ht="10.5">
+    <row r="5" spans="1:20">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="F5" s="4"/>
@@ -14347,7 +14387,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="13">
+    <row r="6" spans="1:20" ht="12.75">
       <c r="A6" s="55" t="s">
         <v>32</v>
       </c>
@@ -14361,7 +14401,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:20" ht="10.5">
+    <row r="7" spans="1:20">
       <c r="A7" s="52" t="s">
         <v>34</v>
       </c>
@@ -14373,7 +14413,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:20" s="5" customFormat="1" ht="10.5">
+    <row r="8" spans="1:20" s="5" customFormat="1">
       <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
@@ -14394,7 +14434,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:20" s="19" customFormat="1" ht="30">
+    <row r="9" spans="1:20" s="19" customFormat="1" ht="33.75">
       <c r="A9" s="87" t="s">
         <v>0</v>
       </c>
@@ -16116,7 +16156,7 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
     </row>
-    <row r="32" spans="1:20" ht="10.5">
+    <row r="32" spans="1:20">
       <c r="A32" s="7">
         <v>23</v>
       </c>
@@ -16539,27 +16579,27 @@
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10"/>
+  <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.44140625" customWidth="1"/>
+    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5" customWidth="1"/>
     <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">

--- a/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="8070" windowHeight="7575" activeTab="3"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="8070" windowHeight="7575" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -2969,7 +2969,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="422">
+  <cellXfs count="423">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3915,6 +3915,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4505,11 +4508,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100945280"/>
-        <c:axId val="100963840"/>
+        <c:axId val="102720640"/>
+        <c:axId val="102722560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100945280"/>
+        <c:axId val="102720640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4594,12 +4597,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100963840"/>
+        <c:crossAx val="102722560"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100963840"/>
+        <c:axId val="102722560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4683,7 +4686,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100945280"/>
+        <c:crossAx val="102720640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5807,8 +5810,8 @@
   </sheetPr>
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11752,8 +11755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11806,8 +11809,8 @@
         <v>426</v>
       </c>
       <c r="C4" s="18">
-        <f>'Main Page'!B70/2</f>
-        <v>0</v>
+        <f>'Main Page'!B56/2</f>
+        <v>1.75</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -11825,16 +11828,16 @@
         <v>427</v>
       </c>
       <c r="C5" s="18">
-        <f>'Main Page'!A165*100</f>
-        <v>0</v>
+        <f>'Main Page'!A151*100</f>
+        <v>3.8820000000000001</v>
       </c>
       <c r="D5" s="18">
-        <f>'Main Page'!B165*100</f>
-        <v>0</v>
+        <f>'Main Page'!B151*100</f>
+        <v>3.8820000000000001</v>
       </c>
       <c r="E5" s="390">
-        <f>'Main Page'!C165*100</f>
-        <v>0</v>
+        <f>'Main Page'!C151*100</f>
+        <v>5.8999999999999995</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
@@ -11872,7 +11875,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="C7" s="392">
+      <c r="C7" s="422">
         <f>GECbladedata!$C28</f>
         <v>0</v>
       </c>
@@ -11906,7 +11909,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="C8" s="392">
+      <c r="C8" s="422">
         <f>GECbladedata!$C29</f>
         <v>2.1052631578947371E-2</v>
       </c>
@@ -11940,7 +11943,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="C9" s="392">
+      <c r="C9" s="422">
         <f>GECbladedata!$C30</f>
         <v>5.2631578947368411E-2</v>
       </c>
@@ -11974,7 +11977,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="C10" s="392">
+      <c r="C10" s="422">
         <f>GECbladedata!$C31</f>
         <v>0.10526315789473684</v>
       </c>
@@ -12008,7 +12011,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="C11" s="392">
+      <c r="C11" s="422">
         <f>GECbladedata!$C32</f>
         <v>0.15789473684210525</v>
       </c>
@@ -12042,7 +12045,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="C12" s="392">
+      <c r="C12" s="422">
         <f>GECbladedata!$C33</f>
         <v>0.21052631578947367</v>
       </c>
@@ -12076,7 +12079,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="C13" s="392">
+      <c r="C13" s="422">
         <f>GECbladedata!$C34</f>
         <v>0.26315789473684209</v>
       </c>
@@ -12110,7 +12113,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="C14" s="392">
+      <c r="C14" s="422">
         <f>GECbladedata!$C35</f>
         <v>0.31578947368421051</v>
       </c>
@@ -12144,7 +12147,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="C15" s="392">
+      <c r="C15" s="422">
         <f>GECbladedata!$C36</f>
         <v>0.36842105263157893</v>
       </c>
@@ -12178,7 +12181,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="C16" s="392">
+      <c r="C16" s="422">
         <f>GECbladedata!$C37</f>
         <v>0.42105263157894735</v>
       </c>
@@ -12212,7 +12215,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="C17" s="392">
+      <c r="C17" s="422">
         <f>GECbladedata!$C38</f>
         <v>0.47368421052631576</v>
       </c>
@@ -12246,7 +12249,7 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="C18" s="392">
+      <c r="C18" s="422">
         <f>GECbladedata!$C39</f>
         <v>0.52631578947368418</v>
       </c>
@@ -12280,7 +12283,7 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="C19" s="392">
+      <c r="C19" s="422">
         <f>GECbladedata!$C40</f>
         <v>0.57894736842105254</v>
       </c>
@@ -12315,7 +12318,7 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="352"/>
-      <c r="C20" s="392">
+      <c r="C20" s="422">
         <f>GECbladedata!$C41</f>
         <v>0.63157894736842102</v>
       </c>
@@ -12350,7 +12353,7 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="352"/>
-      <c r="C21" s="392">
+      <c r="C21" s="422">
         <f>GECbladedata!$C42</f>
         <v>0.68421052631578938</v>
       </c>
@@ -12384,7 +12387,7 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="C22" s="392">
+      <c r="C22" s="422">
         <f>GECbladedata!$C43</f>
         <v>0.73684210526315785</v>
       </c>
@@ -12418,7 +12421,7 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="C23" s="392">
+      <c r="C23" s="422">
         <f>GECbladedata!$C44</f>
         <v>0.78947368421052622</v>
       </c>
@@ -12452,7 +12455,7 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="392">
+      <c r="C24" s="422">
         <f>GECbladedata!$C45</f>
         <v>0.84210526315789458</v>
       </c>
@@ -12486,7 +12489,7 @@
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="C25" s="392">
+      <c r="C25" s="422">
         <f>GECbladedata!$C46</f>
         <v>0.89473684210526305</v>
       </c>
@@ -12520,7 +12523,7 @@
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="C26" s="392">
+      <c r="C26" s="422">
         <f>GECbladedata!$C47</f>
         <v>0.94736842105263142</v>
       </c>
@@ -12554,7 +12557,7 @@
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="C27" s="392">
+      <c r="C27" s="422">
         <f>GECbladedata!$C48</f>
         <v>0.99999999999999989</v>
       </c>
@@ -12596,8 +12599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>

--- a/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="8070" windowHeight="7575" activeTab="2"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="8070" windowHeight="7575"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="520">
   <si>
     <t>number</t>
   </si>
@@ -1601,9 +1601,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>cylinder</t>
-  </si>
-  <si>
     <t>Initial value = 0.03*D (shorter than for 750 kW?)</t>
   </si>
   <si>
@@ -2046,6 +2043,18 @@
   </si>
   <si>
     <t>denominator blade pitch actuator TF</t>
+  </si>
+  <si>
+    <t>PrnElm</t>
+  </si>
+  <si>
+    <t>NOPRINT</t>
+  </si>
+  <si>
+    <t>cylinder.dat</t>
+  </si>
+  <si>
+    <t>&lt;-- added ".dat" (JR)</t>
   </si>
 </sst>
 </file>
@@ -3868,6 +3877,9 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3915,9 +3927,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4508,11 +4517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102720640"/>
-        <c:axId val="102722560"/>
+        <c:axId val="117688576"/>
+        <c:axId val="117838208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102720640"/>
+        <c:axId val="117688576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4597,12 +4606,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102722560"/>
+        <c:crossAx val="117838208"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102722560"/>
+        <c:axId val="117838208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4686,7 +4695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102720640"/>
+        <c:crossAx val="117688576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5810,8 +5819,8 @@
   </sheetPr>
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -5834,16 +5843,16 @@
         <v>40</v>
       </c>
       <c r="B1" s="334" t="s">
-        <v>398</v>
-      </c>
-      <c r="C1" s="414" t="s">
-        <v>396</v>
-      </c>
-      <c r="D1" s="415"/>
-      <c r="E1" s="415"/>
-      <c r="F1" s="415"/>
-      <c r="G1" s="415"/>
-      <c r="H1" s="416"/>
+        <v>397</v>
+      </c>
+      <c r="C1" s="415" t="s">
+        <v>395</v>
+      </c>
+      <c r="D1" s="416"/>
+      <c r="E1" s="416"/>
+      <c r="F1" s="416"/>
+      <c r="G1" s="416"/>
+      <c r="H1" s="417"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5859,17 +5868,17 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="408" t="s">
+      <c r="B3" s="409" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="409"/>
-      <c r="D3" s="410"/>
+      <c r="C3" s="410"/>
+      <c r="D3" s="411"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="411" t="s">
+      <c r="F3" s="412" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="412"/>
-      <c r="H3" s="413"/>
+      <c r="G3" s="413"/>
+      <c r="H3" s="414"/>
     </row>
     <row r="4" spans="1:8" ht="12" thickBot="1">
       <c r="A4" s="20" t="s">
@@ -6088,20 +6097,20 @@
         <v>483129639.71309441</v>
       </c>
       <c r="D14" s="353" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E14" s="354"/>
       <c r="G14" s="348"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B15" s="383">
         <v>5</v>
       </c>
       <c r="D15" s="353" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E15" s="354"/>
       <c r="F15" s="332"/>
@@ -6109,13 +6118,13 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="61" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B16" s="383">
         <v>2953248.5</v>
       </c>
       <c r="D16" s="353" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E16" s="354"/>
       <c r="H16" s="103"/>
@@ -6165,11 +6174,11 @@
       <c r="C19" s="328">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D19" s="417" t="s">
+      <c r="D19" s="418" t="s">
         <v>373</v>
       </c>
-      <c r="E19" s="416"/>
-      <c r="F19" s="416"/>
+      <c r="E19" s="417"/>
+      <c r="F19" s="417"/>
       <c r="G19" s="352"/>
     </row>
     <row r="20" spans="1:21" ht="25.5" customHeight="1">
@@ -6182,11 +6191,11 @@
       <c r="C20" s="328">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D20" s="417" t="s">
+      <c r="D20" s="418" t="s">
         <v>372</v>
       </c>
-      <c r="E20" s="416"/>
-      <c r="F20" s="416"/>
+      <c r="E20" s="417"/>
+      <c r="F20" s="417"/>
       <c r="I20" s="35" t="s">
         <v>68</v>
       </c>
@@ -6322,14 +6331,14 @@
     </row>
     <row r="31" spans="1:21" ht="9.75" customHeight="1">
       <c r="A31" s="355" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B31" s="268">
         <f>B92*1000/(B87*PI()/30)/(B19)</f>
         <v>8376.5759522050193</v>
       </c>
       <c r="D31" s="353" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E31" s="354"/>
     </row>
@@ -6368,49 +6377,49 @@
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1">
       <c r="A37" s="398" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B37" s="274">
         <v>2.6</v>
       </c>
       <c r="D37" s="353" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E37" s="354"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1">
       <c r="A38" s="398" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B38" s="274">
         <v>30</v>
       </c>
       <c r="D38" s="353" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E38" s="354"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1">
       <c r="A39" s="398" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B39" s="274">
         <v>-0.5</v>
       </c>
       <c r="D39" s="353" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E39" s="354"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1">
       <c r="A40" s="398" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B40" s="274">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D40" s="353" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E40" s="354"/>
     </row>
@@ -6420,24 +6429,24 @@
     </row>
     <row r="42" spans="1:5" ht="12" customHeight="1">
       <c r="A42" s="109" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B42" s="29"/>
       <c r="D42" s="353" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E42" s="354"/>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1">
       <c r="A43" s="398" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B43" s="274">
         <f>B31/B87^2</f>
         <v>2.5853629482114255E-3</v>
       </c>
       <c r="D43" s="353" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E43" s="354"/>
     </row>
@@ -6495,7 +6504,7 @@
     </row>
     <row r="51" spans="1:4" ht="13.5" customHeight="1">
       <c r="A51" s="100" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B51" s="329">
         <v>5</v>
@@ -6503,13 +6512,13 @@
     </row>
     <row r="52" spans="1:4" ht="18" customHeight="1">
       <c r="A52" s="109" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B52" s="63"/>
     </row>
     <row r="53" spans="1:4" ht="13.5" customHeight="1">
       <c r="A53" s="100" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B53" s="105">
         <f>ABS(B8)+B13/2*(B11+B18)/57.3-0.5*(B47+B13/2/B9*(B49-B47))</f>
@@ -6547,7 +6556,7 @@
         <v>85</v>
       </c>
       <c r="D57" s="271" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="10.9" customHeight="1">
@@ -6561,7 +6570,7 @@
         <v>85</v>
       </c>
       <c r="D58" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -6646,7 +6655,7 @@
         <v>85</v>
       </c>
       <c r="D66" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -6718,10 +6727,10 @@
         <v>1.98</v>
       </c>
       <c r="I72" t="s">
+        <v>403</v>
+      </c>
+      <c r="J72" t="s">
         <v>404</v>
-      </c>
-      <c r="J72" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -6880,24 +6889,24 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="18" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B86" s="277">
         <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="18" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B87" s="277">
         <v>1800</v>
       </c>
       <c r="C87" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -7095,12 +7104,12 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="111" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="330" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B109" s="331">
         <f>'Blade Data'!R32*B10+E8</f>
@@ -7112,7 +7121,7 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="330" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B110" s="331">
         <f>E5+E6+E7</f>
@@ -7124,7 +7133,7 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="330" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B111" s="331">
         <f>B109+B110</f>
@@ -7136,7 +7145,7 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="18" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B112" s="331">
         <f>GECtwrdata!O26</f>
@@ -7371,7 +7380,7 @@
         <v>89</v>
       </c>
       <c r="E122" s="399" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F122" s="187" t="s">
         <v>324</v>
@@ -7380,7 +7389,7 @@
         <v>325</v>
       </c>
       <c r="H122" s="399" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I122" s="187" t="s">
         <v>342</v>
@@ -7694,7 +7703,7 @@
         <v>350</v>
       </c>
       <c r="H131" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="133" spans="1:13">
@@ -7708,7 +7717,7 @@
         <v>363</v>
       </c>
       <c r="C134" s="401" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D134" s="402"/>
     </row>
@@ -7802,10 +7811,10 @@
     </row>
     <row r="143" spans="1:13" ht="12">
       <c r="A143" s="337" t="s">
+        <v>400</v>
+      </c>
+      <c r="B143" s="338" t="s">
         <v>401</v>
-      </c>
-      <c r="B143" s="338" t="s">
-        <v>402</v>
       </c>
       <c r="C143" s="339"/>
     </row>
@@ -7815,9 +7824,12 @@
       </c>
       <c r="B144" s="341"/>
       <c r="C144" s="342" t="s">
-        <v>378</v>
-      </c>
-      <c r="E144" s="360"/>
+        <v>518</v>
+      </c>
+      <c r="E144" s="353" t="s">
+        <v>519</v>
+      </c>
+      <c r="F144" s="354"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="340">
@@ -7825,10 +7837,10 @@
       </c>
       <c r="B145" s="343"/>
       <c r="C145" s="344" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E145" s="353" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F145" s="354"/>
       <c r="G145" s="354"/>
@@ -7839,10 +7851,10 @@
       </c>
       <c r="B146" s="343"/>
       <c r="C146" s="344" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E146" s="353" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F146" s="354"/>
       <c r="G146" s="354"/>
@@ -7853,23 +7865,23 @@
       </c>
       <c r="B147" s="366"/>
       <c r="C147" s="347" t="s">
+        <v>411</v>
+      </c>
+      <c r="E147" s="353" t="s">
         <v>412</v>
-      </c>
-      <c r="E147" s="353" t="s">
-        <v>413</v>
       </c>
       <c r="F147" s="354"/>
       <c r="G147" s="354"/>
     </row>
     <row r="148" spans="1:7" ht="12" thickBot="1"/>
     <row r="149" spans="1:7" ht="12" thickBot="1">
-      <c r="A149" s="404" t="s">
-        <v>403</v>
-      </c>
-      <c r="B149" s="406"/>
-      <c r="C149" s="407"/>
+      <c r="A149" s="405" t="s">
+        <v>402</v>
+      </c>
+      <c r="B149" s="407"/>
+      <c r="C149" s="408"/>
       <c r="E149" s="353" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F149" s="354"/>
     </row>
@@ -7884,7 +7896,7 @@
         <v>37</v>
       </c>
       <c r="E150" s="353" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F150" s="354"/>
     </row>
@@ -7899,19 +7911,19 @@
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="E151" s="353" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F151" s="354"/>
     </row>
     <row r="152" spans="1:7" ht="12" thickBot="1"/>
     <row r="153" spans="1:7" ht="12" thickBot="1">
-      <c r="A153" s="404" t="s">
-        <v>414</v>
-      </c>
-      <c r="B153" s="405"/>
+      <c r="A153" s="405" t="s">
+        <v>413</v>
+      </c>
+      <c r="B153" s="406"/>
       <c r="C153" s="368"/>
       <c r="E153" s="353" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F153" s="354"/>
     </row>
@@ -7924,7 +7936,7 @@
       </c>
       <c r="C154" s="369"/>
       <c r="E154" s="353" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F154" s="354"/>
     </row>
@@ -7937,7 +7949,7 @@
       </c>
       <c r="C155" s="370"/>
       <c r="E155" s="353" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F155" s="354"/>
     </row>
@@ -7949,7 +7961,7 @@
         <v>3.4349999999999999E-2</v>
       </c>
       <c r="E156" s="353" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F156" s="354"/>
     </row>
@@ -7961,7 +7973,7 @@
         <v>3.4349999999999999E-2</v>
       </c>
       <c r="E157" s="353" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="F157" s="354"/>
     </row>
@@ -8120,14 +8132,14 @@
     </row>
     <row r="11" spans="2:15">
       <c r="B11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C11" s="152">
         <f>'Main Page'!B51</f>
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -8171,7 +8183,7 @@
         <v>309</v>
       </c>
       <c r="O13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="2:15">
@@ -9765,12 +9777,12 @@
       <c r="A19" s="112"/>
       <c r="B19" s="164"/>
       <c r="C19" s="112"/>
-      <c r="D19" s="421" t="s">
+      <c r="D19" s="422" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="421"/>
-      <c r="F19" s="421"/>
-      <c r="G19" s="421"/>
+      <c r="E19" s="422"/>
+      <c r="F19" s="422"/>
+      <c r="G19" s="422"/>
       <c r="H19" s="112"/>
       <c r="I19" s="120"/>
       <c r="J19" s="121"/>
@@ -10522,7 +10534,7 @@
         <v>216</v>
       </c>
       <c r="I35" s="386" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J35" s="386"/>
     </row>
@@ -10534,7 +10546,7 @@
         <v>218</v>
       </c>
       <c r="I36" s="388" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J36" s="388"/>
     </row>
@@ -10546,7 +10558,7 @@
         <v>220</v>
       </c>
       <c r="I37" s="389" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J37" s="389"/>
     </row>
@@ -11068,10 +11080,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B3" sqref="B3:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11079,50 +11091,50 @@
     <col min="2" max="7" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B1" t="s">
         <v>422</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>423</v>
       </c>
-      <c r="C1" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C3" s="18">
         <f>'Main Page'!B17</f>
         <v>1.2250000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>437</v>
+      </c>
+      <c r="B4" t="s">
         <v>438</v>
-      </c>
-      <c r="B4" t="s">
-        <v>439</v>
       </c>
       <c r="C4">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>439</v>
+      </c>
+      <c r="B5" t="s">
         <v>440</v>
-      </c>
-      <c r="B5" t="s">
-        <v>441</v>
       </c>
       <c r="C5" s="18" t="str">
         <f>'Main Page'!C144</f>
-        <v>cylinder</v>
+        <v>cylinder.dat</v>
       </c>
       <c r="D5" s="18" t="str">
         <f>'Main Page'!C145</f>
@@ -11137,12 +11149,12 @@
         <v>s826_1603.dat</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C6" s="18">
         <v>15</v>
@@ -11151,27 +11163,30 @@
       <c r="E6" s="18"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="B7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C7" t="s">
         <v>443</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>444</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>445</v>
-      </c>
-      <c r="E7" t="s">
-        <v>446</v>
       </c>
       <c r="F7" t="s">
         <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>446</v>
+      </c>
+      <c r="H7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="C8" s="395">
         <f>C37*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>2.8583333333333334</v>
@@ -11192,8 +11207,11 @@
         <f>ROUND((G$39-G$38)/(D$39-D$38)*(C8-D$38)+G$38,0)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="C9" s="395">
         <f>C38*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>5.0750000000000002</v>
@@ -11214,8 +11232,11 @@
         <f>ROUNDUP((G$39-G$38)/(D$39-D$38)*(C9-D$38)+G$38,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="C10" s="395">
         <f>C39*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>7.2916666666666661</v>
@@ -11236,8 +11257,11 @@
         <f>ROUND((G$39-G$38)/(D$39-D$38)*(C10-D$38)+G$38,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="C11" s="395">
         <f>C40*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>9.5083333333333329</v>
@@ -11258,8 +11282,11 @@
         <f>ROUND((G$40-G$39)/(D$40-D$39)*(C11-D$39)+G$39,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="C12" s="395">
         <f>C41*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>11.725</v>
@@ -11280,8 +11307,11 @@
         <f t="shared" ref="G12:G14" si="2">ROUND((G$40-G$39)/(D$40-D$39)*(C12-D$39)+G$39,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="C13" s="395">
         <f>C42*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>13.941666666666666</v>
@@ -11302,8 +11332,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="C14" s="395">
         <f>C43*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>16.158333333333331</v>
@@ -11324,8 +11357,11 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="C15" s="395">
         <f>C44*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>18.375</v>
@@ -11346,8 +11382,11 @@
         <f>ROUND((G$41-G$40)/(D$41-D$40)*(C15-D$40)+G$40,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="C16" s="395">
         <f>C45*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>20.591666666666665</v>
@@ -11368,8 +11407,11 @@
         <f t="shared" ref="G16:G18" si="4">ROUND((G$41-G$40)/(D$41-D$40)*(C16-D$40)+G$40,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="3:7">
+      <c r="H16" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
       <c r="C17" s="395">
         <f>C46*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>22.808333333333334</v>
@@ -11390,8 +11432,11 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:7">
+      <c r="H17" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="395">
         <f>C47*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>25.024999999999999</v>
@@ -11412,8 +11457,11 @@
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
+      <c r="H18" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
       <c r="C19" s="395">
         <f>C48*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>27.241666666666667</v>
@@ -11434,8 +11482,11 @@
         <f>ROUND((G$42-G$41)/(D$42-D$41)*(C19-D$41)+G$41,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="3:7">
+      <c r="H19" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
       <c r="C20" s="395">
         <f>C49*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>29.458333333333336</v>
@@ -11456,8 +11507,11 @@
         <f t="shared" ref="G20:G22" si="6">ROUND((G$42-G$41)/(D$42-D$41)*(C20-D$41)+G$41,0)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:7">
+      <c r="H20" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
       <c r="C21" s="395">
         <f>C50*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>31.675000000000001</v>
@@ -11478,8 +11532,11 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:7">
+      <c r="H21" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
       <c r="C22" s="395">
         <f>C51*('Main Page'!B$13/2-'Main Page'!B$56/2) + 'Main Page'!B$56/2</f>
         <v>33.891666666666666</v>
@@ -11500,10 +11557,13 @@
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
+      <c r="H22" t="s">
+        <v>517</v>
+      </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E36" t="s">
         <v>88</v>
@@ -11755,7 +11815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
@@ -11773,13 +11833,13 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B1" t="s">
         <v>422</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>423</v>
-      </c>
-      <c r="C1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11787,7 +11847,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C3" s="18">
         <f>'Main Page'!B13/2</f>
@@ -11806,7 +11866,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C4" s="18">
         <f>'Main Page'!B56/2</f>
@@ -11822,10 +11882,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B5" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C5" s="18">
         <f>'Main Page'!A151*100</f>
@@ -11847,35 +11907,35 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
+        <v>427</v>
+      </c>
+      <c r="C6" s="391" t="s">
         <v>428</v>
       </c>
-      <c r="C6" s="391" t="s">
+      <c r="D6" s="391" t="s">
         <v>429</v>
       </c>
-      <c r="D6" s="391" t="s">
+      <c r="E6" s="391" t="s">
         <v>430</v>
       </c>
-      <c r="E6" s="391" t="s">
+      <c r="F6" s="391" t="s">
         <v>431</v>
       </c>
-      <c r="F6" s="391" t="s">
+      <c r="G6" s="391" t="s">
         <v>432</v>
       </c>
-      <c r="G6" s="391" t="s">
+      <c r="H6" s="391" t="s">
         <v>433</v>
       </c>
-      <c r="H6" s="391" t="s">
+      <c r="I6" s="391" t="s">
         <v>434</v>
       </c>
-      <c r="I6" s="391" t="s">
+      <c r="J6" s="391" t="s">
         <v>435</v>
       </c>
-      <c r="J6" s="391" t="s">
-        <v>436</v>
-      </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="C7" s="422">
+      <c r="C7" s="404">
         <f>GECbladedata!$C28</f>
         <v>0</v>
       </c>
@@ -11909,7 +11969,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="C8" s="422">
+      <c r="C8" s="404">
         <f>GECbladedata!$C29</f>
         <v>2.1052631578947371E-2</v>
       </c>
@@ -11943,7 +12003,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="C9" s="422">
+      <c r="C9" s="404">
         <f>GECbladedata!$C30</f>
         <v>5.2631578947368411E-2</v>
       </c>
@@ -11977,7 +12037,7 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="C10" s="422">
+      <c r="C10" s="404">
         <f>GECbladedata!$C31</f>
         <v>0.10526315789473684</v>
       </c>
@@ -12011,7 +12071,7 @@
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="C11" s="422">
+      <c r="C11" s="404">
         <f>GECbladedata!$C32</f>
         <v>0.15789473684210525</v>
       </c>
@@ -12045,7 +12105,7 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="C12" s="422">
+      <c r="C12" s="404">
         <f>GECbladedata!$C33</f>
         <v>0.21052631578947367</v>
       </c>
@@ -12079,7 +12139,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="C13" s="422">
+      <c r="C13" s="404">
         <f>GECbladedata!$C34</f>
         <v>0.26315789473684209</v>
       </c>
@@ -12113,7 +12173,7 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="C14" s="422">
+      <c r="C14" s="404">
         <f>GECbladedata!$C35</f>
         <v>0.31578947368421051</v>
       </c>
@@ -12147,7 +12207,7 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="C15" s="422">
+      <c r="C15" s="404">
         <f>GECbladedata!$C36</f>
         <v>0.36842105263157893</v>
       </c>
@@ -12181,7 +12241,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="C16" s="422">
+      <c r="C16" s="404">
         <f>GECbladedata!$C37</f>
         <v>0.42105263157894735</v>
       </c>
@@ -12215,7 +12275,7 @@
       </c>
     </row>
     <row r="17" spans="2:10">
-      <c r="C17" s="422">
+      <c r="C17" s="404">
         <f>GECbladedata!$C38</f>
         <v>0.47368421052631576</v>
       </c>
@@ -12249,7 +12309,7 @@
       </c>
     </row>
     <row r="18" spans="2:10">
-      <c r="C18" s="422">
+      <c r="C18" s="404">
         <f>GECbladedata!$C39</f>
         <v>0.52631578947368418</v>
       </c>
@@ -12283,7 +12343,7 @@
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="C19" s="422">
+      <c r="C19" s="404">
         <f>GECbladedata!$C40</f>
         <v>0.57894736842105254</v>
       </c>
@@ -12318,7 +12378,7 @@
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="352"/>
-      <c r="C20" s="422">
+      <c r="C20" s="404">
         <f>GECbladedata!$C41</f>
         <v>0.63157894736842102</v>
       </c>
@@ -12353,7 +12413,7 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" s="352"/>
-      <c r="C21" s="422">
+      <c r="C21" s="404">
         <f>GECbladedata!$C42</f>
         <v>0.68421052631578938</v>
       </c>
@@ -12387,7 +12447,7 @@
       </c>
     </row>
     <row r="22" spans="2:10">
-      <c r="C22" s="422">
+      <c r="C22" s="404">
         <f>GECbladedata!$C43</f>
         <v>0.73684210526315785</v>
       </c>
@@ -12421,7 +12481,7 @@
       </c>
     </row>
     <row r="23" spans="2:10">
-      <c r="C23" s="422">
+      <c r="C23" s="404">
         <f>GECbladedata!$C44</f>
         <v>0.78947368421052622</v>
       </c>
@@ -12455,7 +12515,7 @@
       </c>
     </row>
     <row r="24" spans="2:10">
-      <c r="C24" s="422">
+      <c r="C24" s="404">
         <f>GECbladedata!$C45</f>
         <v>0.84210526315789458</v>
       </c>
@@ -12489,7 +12549,7 @@
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="C25" s="422">
+      <c r="C25" s="404">
         <f>GECbladedata!$C46</f>
         <v>0.89473684210526305</v>
       </c>
@@ -12523,7 +12583,7 @@
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="C26" s="422">
+      <c r="C26" s="404">
         <f>GECbladedata!$C47</f>
         <v>0.94736842105263142</v>
       </c>
@@ -12557,7 +12617,7 @@
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="C27" s="422">
+      <c r="C27" s="404">
         <f>GECbladedata!$C48</f>
         <v>0.99999999999999989</v>
       </c>
@@ -12612,13 +12672,13 @@
   <sheetData>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" t="s">
         <v>422</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>423</v>
-      </c>
-      <c r="C2" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -12629,10 +12689,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C4" s="101">
         <f>'Main Page'!B87</f>
@@ -12645,10 +12705,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C5" s="397">
         <f>'Main Page'!$B$31</f>
@@ -12658,10 +12718,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" t="s">
         <v>492</v>
-      </c>
-      <c r="B6" t="s">
-        <v>493</v>
       </c>
       <c r="C6" s="395">
         <f>'Main Page'!B43</f>
@@ -12671,10 +12731,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B7" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C7" s="395">
         <v>2.6</v>
@@ -12683,135 +12743,135 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C8">
         <f>'Main Page'!$B$29</f>
         <v>20.462778397529398</v>
       </c>
       <c r="G8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="K8" s="396"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C9" s="102">
         <f>'Main Page'!$B$34</f>
         <v>2.6</v>
       </c>
       <c r="G9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="K9" s="396"/>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C10" s="102">
         <f>'Main Page'!$B$35</f>
         <v>90</v>
       </c>
       <c r="G10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K10" s="396"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B11" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C11">
         <f>'Main Page'!$B$40</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K11" s="396"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
+        <v>502</v>
+      </c>
+      <c r="B12" t="s">
         <v>503</v>
-      </c>
-      <c r="B12" t="s">
-        <v>504</v>
       </c>
       <c r="C12">
         <f>'Main Page'!$B$37*PI()/180</f>
         <v>4.5378560551852569E-2</v>
       </c>
       <c r="G12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K12" s="396"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C13">
         <f>'Main Page'!$B$38*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
       <c r="G13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K13" s="396"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B14" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C14">
         <f>1/C12^C15</f>
         <v>0.21302244142778143</v>
       </c>
       <c r="G14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K14" s="396"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B15" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C15">
         <f>'Main Page'!$B$39</f>
         <v>-0.5</v>
       </c>
       <c r="G15" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K15" s="396"/>
     </row>
     <row r="16" spans="1:14">
       <c r="B16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C16" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
@@ -12824,13 +12884,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="K16" s="396"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C17" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
@@ -12844,7 +12904,7 @@
         <v>1</v>
       </c>
       <c r="G17" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="K17" s="102"/>
     </row>
@@ -12883,13 +12943,13 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B1" t="s">
         <v>422</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>423</v>
-      </c>
-      <c r="C1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12897,7 +12957,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C3" s="397">
         <f>'Main Page'!B61</f>
@@ -12909,7 +12969,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C4" s="397">
         <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C11</f>
@@ -12922,7 +12982,7 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C5" s="397">
         <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C11</f>
@@ -12934,7 +12994,7 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C6" s="397">
         <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C11+'Main Page'!B46</f>
@@ -12949,7 +13009,7 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C7" s="397">
         <f>'Main Page'!B9-'Main Page'!B46</f>
@@ -12964,7 +13024,7 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C8" s="397">
         <f>'Main Page'!B46</f>
@@ -12976,10 +13036,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" t="s">
         <v>464</v>
-      </c>
-      <c r="B9" t="s">
-        <v>465</v>
       </c>
       <c r="C9" s="397">
         <f>-'Main Page'!B11</f>
@@ -12989,10 +13049,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C10" s="397">
         <f>-'Main Page'!B18</f>
@@ -13006,7 +13066,7 @@
         <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C11" s="397">
         <f>SUM('Main Page'!E5+'Main Page'!E6+'Main Page'!E7)</f>
@@ -13020,7 +13080,7 @@
         <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C12" s="397">
         <f>'Main Page'!E8</f>
@@ -13031,10 +13091,10 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>468</v>
+      </c>
+      <c r="B13" t="s">
         <v>469</v>
-      </c>
-      <c r="B13" t="s">
-        <v>470</v>
       </c>
       <c r="C13" s="397">
         <f>SUM('Main Page'!H5:H7)</f>
@@ -13044,10 +13104,10 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C14" s="397">
         <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)/('Main Page'!$B$88)^2</f>
@@ -13057,10 +13117,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B15" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C15" s="397">
         <f>GECdrivetrain!M5</f>
@@ -13069,10 +13129,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B16" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C16" s="403">
         <f>'Main Page'!B19*100</f>
@@ -13081,10 +13141,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B17" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C17">
         <f>'Main Page'!$B$88</f>
@@ -13093,10 +13153,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
+        <v>474</v>
+      </c>
+      <c r="B18" t="s">
         <v>475</v>
-      </c>
-      <c r="B18" t="s">
-        <v>476</v>
       </c>
       <c r="C18" s="348">
         <f>'Main Page'!B14</f>
@@ -13106,10 +13166,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
+        <v>476</v>
+      </c>
+      <c r="B19" t="s">
         <v>477</v>
-      </c>
-      <c r="B19" t="s">
-        <v>478</v>
       </c>
       <c r="C19" s="348">
         <f>2*'Main Page'!B15/100*SQRT(C18*'Main Page'!B16*C14*C17^2/('Main Page'!B16+C14*C17^2))</f>
@@ -13119,10 +13179,10 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
+        <v>478</v>
+      </c>
+      <c r="B20" t="s">
         <v>479</v>
-      </c>
-      <c r="B20" t="s">
-        <v>480</v>
       </c>
       <c r="C20" s="332">
         <f>'Main Page'!B92*1000</f>
@@ -13159,21 +13219,21 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B1" t="s">
         <v>422</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>423</v>
-      </c>
-      <c r="C1" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C3" s="103">
         <f>'Main Page'!B154*100</f>
@@ -13194,25 +13254,25 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
+        <v>481</v>
+      </c>
+      <c r="C4" t="s">
         <v>482</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>483</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>484</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>485</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>486</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>487</v>
-      </c>
-      <c r="H4" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -13528,12 +13588,12 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="418" t="s">
+      <c r="A2" s="419" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="419"/>
-      <c r="C2" s="419"/>
-      <c r="D2" s="420"/>
+      <c r="B2" s="420"/>
+      <c r="C2" s="420"/>
+      <c r="D2" s="421"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -14333,11 +14393,11 @@
         <f>GECbladedata!D12-B3</f>
         <v>33.25</v>
       </c>
-      <c r="D2" s="404" t="s">
+      <c r="D2" s="405" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="406"/>
-      <c r="F2" s="407"/>
+      <c r="E2" s="407"/>
+      <c r="F2" s="408"/>
     </row>
     <row r="3" spans="1:20" ht="23.25" thickBot="1">
       <c r="A3" s="98" t="s">
@@ -14490,11 +14550,11 @@
         <v>41</v>
       </c>
       <c r="R9" s="19" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="S9" s="89"/>
       <c r="T9" s="89" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -17685,10 +17745,10 @@
         <v>369</v>
       </c>
       <c r="S26" s="335" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="T26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="27" spans="2:21" ht="13.5">

--- a/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="8070" windowHeight="7575"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="8070" windowHeight="7575" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="520">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="529">
   <si>
     <t>number</t>
   </si>
@@ -1775,9 +1775,6 @@
     <t>HubRad</t>
   </si>
   <si>
-    <t>BldDmp</t>
-  </si>
-  <si>
     <t>DistBldProps</t>
   </si>
   <si>
@@ -1892,9 +1889,6 @@
     <t>ShftTilt</t>
   </si>
   <si>
-    <t>PreCone</t>
-  </si>
-  <si>
     <t>NacMass</t>
   </si>
   <si>
@@ -1937,9 +1931,6 @@
     <t>RatedPwr</t>
   </si>
   <si>
-    <t>TwrDmp</t>
-  </si>
-  <si>
     <t>TwrSchedFields</t>
   </si>
   <si>
@@ -1976,9 +1967,6 @@
     <t>VS_Rgn2K</t>
   </si>
   <si>
-    <t>BlPitchF</t>
-  </si>
-  <si>
     <t>CNST(2)</t>
   </si>
   <si>
@@ -2055,6 +2043,45 @@
   </si>
   <si>
     <t>&lt;-- added ".dat" (JR)</t>
+  </si>
+  <si>
+    <t>BldFlDmp(1)</t>
+  </si>
+  <si>
+    <t>BldFlDmp(2)</t>
+  </si>
+  <si>
+    <t>BldEdDmp(1)</t>
+  </si>
+  <si>
+    <t>BlPitchF(1)</t>
+  </si>
+  <si>
+    <t>BlPitchF(2)</t>
+  </si>
+  <si>
+    <t>BlPitchF(3)</t>
+  </si>
+  <si>
+    <t>TwrFADmp(1)</t>
+  </si>
+  <si>
+    <t>TwrFADmp(2)</t>
+  </si>
+  <si>
+    <t>TwrSSDmp(1)</t>
+  </si>
+  <si>
+    <t>TwrSSDmp(2)</t>
+  </si>
+  <si>
+    <t>PreCone(1)</t>
+  </si>
+  <si>
+    <t>PreCone(2)</t>
+  </si>
+  <si>
+    <t>PreCone(3)</t>
   </si>
 </sst>
 </file>
@@ -4517,11 +4544,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="117688576"/>
-        <c:axId val="117838208"/>
+        <c:axId val="147495936"/>
+        <c:axId val="147498112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="117688576"/>
+        <c:axId val="147495936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4606,12 +4633,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117838208"/>
+        <c:crossAx val="147498112"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117838208"/>
+        <c:axId val="147498112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4695,7 +4722,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117688576"/>
+        <c:crossAx val="147495936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5819,7 +5846,7 @@
   </sheetPr>
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
@@ -6377,49 +6404,49 @@
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1">
       <c r="A37" s="398" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B37" s="274">
         <v>2.6</v>
       </c>
       <c r="D37" s="353" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E37" s="354"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1">
       <c r="A38" s="398" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B38" s="274">
         <v>30</v>
       </c>
       <c r="D38" s="353" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E38" s="354"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1">
       <c r="A39" s="398" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B39" s="274">
         <v>-0.5</v>
       </c>
       <c r="D39" s="353" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E39" s="354"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1">
       <c r="A40" s="398" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B40" s="274">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D40" s="353" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E40" s="354"/>
     </row>
@@ -6439,14 +6466,14 @@
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1">
       <c r="A43" s="398" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B43" s="274">
         <f>B31/B87^2</f>
         <v>2.5853629482114255E-3</v>
       </c>
       <c r="D43" s="353" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E43" s="354"/>
     </row>
@@ -7380,7 +7407,7 @@
         <v>89</v>
       </c>
       <c r="E122" s="399" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F122" s="187" t="s">
         <v>324</v>
@@ -7389,7 +7416,7 @@
         <v>325</v>
       </c>
       <c r="H122" s="399" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I122" s="187" t="s">
         <v>342</v>
@@ -7717,7 +7744,7 @@
         <v>363</v>
       </c>
       <c r="C134" s="401" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D134" s="402"/>
     </row>
@@ -7824,10 +7851,10 @@
       </c>
       <c r="B144" s="341"/>
       <c r="C144" s="342" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E144" s="353" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F144" s="354"/>
     </row>
@@ -11083,7 +11110,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H22"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11107,7 +11134,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C3" s="18">
         <f>'Main Page'!B17</f>
@@ -11116,10 +11143,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>436</v>
+      </c>
+      <c r="B4" t="s">
         <v>437</v>
-      </c>
-      <c r="B4" t="s">
-        <v>438</v>
       </c>
       <c r="C4">
         <v>5.0000000000000001E-3</v>
@@ -11127,10 +11154,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>438</v>
+      </c>
+      <c r="B5" t="s">
         <v>439</v>
-      </c>
-      <c r="B5" t="s">
-        <v>440</v>
       </c>
       <c r="C5" s="18" t="str">
         <f>'Main Page'!C144</f>
@@ -11151,10 +11178,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C6" s="18">
         <v>15</v>
@@ -11165,25 +11192,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" t="s">
         <v>442</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>443</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>444</v>
-      </c>
-      <c r="E7" t="s">
-        <v>445</v>
       </c>
       <c r="F7" t="s">
         <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H7" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -11208,7 +11235,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -11233,7 +11260,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -11258,7 +11285,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -11283,7 +11310,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -11308,7 +11335,7 @@
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -11333,7 +11360,7 @@
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11358,7 +11385,7 @@
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -11383,7 +11410,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -11408,7 +11435,7 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="17" spans="3:8">
@@ -11433,7 +11460,7 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="18" spans="3:8">
@@ -11458,7 +11485,7 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="19" spans="3:8">
@@ -11483,7 +11510,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20" spans="3:8">
@@ -11508,7 +11535,7 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21" spans="3:8">
@@ -11533,7 +11560,7 @@
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22" spans="3:8">
@@ -11558,12 +11585,12 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E36" t="s">
         <v>88</v>
@@ -11816,7 +11843,7 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11847,14 +11874,12 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>516</v>
       </c>
       <c r="C3" s="18">
-        <f>'Main Page'!B13/2</f>
-        <v>35</v>
-      </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+        <f>'Main Page'!A151*100</f>
+        <v>3.8820000000000001</v>
+      </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
@@ -11866,14 +11891,14 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>517</v>
       </c>
       <c r="C4" s="18">
-        <f>'Main Page'!B56/2</f>
-        <v>1.75</v>
+        <f>'Main Page'!B151*100</f>
+        <v>3.8820000000000001</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="E4" s="390"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
@@ -11885,20 +11910,14 @@
         <v>385</v>
       </c>
       <c r="B5" t="s">
-        <v>426</v>
-      </c>
-      <c r="C5" s="18">
-        <f>'Main Page'!A151*100</f>
-        <v>3.8820000000000001</v>
-      </c>
-      <c r="D5" s="18">
-        <f>'Main Page'!B151*100</f>
-        <v>3.8820000000000001</v>
-      </c>
-      <c r="E5" s="390">
+        <v>518</v>
+      </c>
+      <c r="C5" s="390">
         <f>'Main Page'!C151*100</f>
         <v>5.8999999999999995</v>
       </c>
+      <c r="D5" s="18"/>
+      <c r="E5" s="390"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
@@ -11907,31 +11926,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" s="391" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="391" t="s">
+      <c r="D6" s="391" t="s">
         <v>428</v>
       </c>
-      <c r="D6" s="391" t="s">
+      <c r="E6" s="391" t="s">
         <v>429</v>
       </c>
-      <c r="E6" s="391" t="s">
+      <c r="F6" s="391" t="s">
         <v>430</v>
       </c>
-      <c r="F6" s="391" t="s">
+      <c r="G6" s="391" t="s">
         <v>431</v>
       </c>
-      <c r="G6" s="391" t="s">
+      <c r="H6" s="391" t="s">
         <v>432</v>
       </c>
-      <c r="H6" s="391" t="s">
+      <c r="I6" s="391" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="391" t="s">
+      <c r="J6" s="391" t="s">
         <v>434</v>
-      </c>
-      <c r="J6" s="391" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12657,10 +12676,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N22"/>
+  <dimension ref="A2:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12692,7 +12711,7 @@
         <v>394</v>
       </c>
       <c r="B4" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="C4" s="101">
         <f>'Main Page'!B87</f>
@@ -12705,10 +12724,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C5" s="397">
         <f>'Main Page'!$B$31</f>
@@ -12718,10 +12737,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C6" s="395">
         <f>'Main Page'!B43</f>
@@ -12731,10 +12750,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s">
-        <v>493</v>
+        <v>519</v>
       </c>
       <c r="C7" s="395">
         <v>2.6</v>
@@ -12743,182 +12762,206 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
+        <v>462</v>
+      </c>
+      <c r="B8" t="s">
+        <v>520</v>
+      </c>
+      <c r="C8" s="395">
+        <v>2.6</v>
+      </c>
+      <c r="K8" s="396"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" t="s">
+        <v>521</v>
+      </c>
+      <c r="C9" s="395">
+        <v>2.6</v>
+      </c>
+      <c r="K9" s="396"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
         <v>394</v>
       </c>
-      <c r="B8" t="s">
-        <v>494</v>
-      </c>
-      <c r="C8">
+      <c r="B10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C10">
         <f>'Main Page'!$B$29</f>
         <v>20.462778397529398</v>
       </c>
-      <c r="G8" t="s">
-        <v>495</v>
-      </c>
-      <c r="K8" s="396"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>463</v>
-      </c>
-      <c r="B9" t="s">
-        <v>496</v>
-      </c>
-      <c r="C9" s="102">
+      <c r="G10" t="s">
+        <v>491</v>
+      </c>
+      <c r="K10" s="396"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B11" t="s">
+        <v>492</v>
+      </c>
+      <c r="C11" s="102">
         <f>'Main Page'!$B$34</f>
         <v>2.6</v>
       </c>
-      <c r="G9" t="s">
-        <v>497</v>
-      </c>
-      <c r="K9" s="396"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>463</v>
-      </c>
-      <c r="B10" t="s">
-        <v>498</v>
-      </c>
-      <c r="C10" s="102">
+      <c r="G11" t="s">
+        <v>493</v>
+      </c>
+      <c r="K11" s="396"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C12" s="102">
         <f>'Main Page'!$B$35</f>
         <v>90</v>
       </c>
-      <c r="G10" t="s">
-        <v>499</v>
-      </c>
-      <c r="K10" s="396"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" t="s">
-        <v>437</v>
-      </c>
-      <c r="B11" t="s">
-        <v>500</v>
-      </c>
-      <c r="C11">
+      <c r="G12" t="s">
+        <v>495</v>
+      </c>
+      <c r="K12" s="396"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="s">
+        <v>436</v>
+      </c>
+      <c r="B13" t="s">
+        <v>496</v>
+      </c>
+      <c r="C13">
         <f>'Main Page'!$B$40</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="G11" t="s">
-        <v>501</v>
-      </c>
-      <c r="K11" s="396"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" t="s">
-        <v>502</v>
-      </c>
-      <c r="B12" t="s">
-        <v>503</v>
-      </c>
-      <c r="C12">
+      <c r="G13" t="s">
+        <v>497</v>
+      </c>
+      <c r="K13" s="396"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="s">
+        <v>498</v>
+      </c>
+      <c r="B14" t="s">
+        <v>499</v>
+      </c>
+      <c r="C14">
         <f>'Main Page'!$B$37*PI()/180</f>
         <v>4.5378560551852569E-2</v>
       </c>
-      <c r="G12" t="s">
-        <v>504</v>
-      </c>
-      <c r="K12" s="396"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" t="s">
-        <v>502</v>
-      </c>
-      <c r="B13" t="s">
-        <v>505</v>
-      </c>
-      <c r="C13">
+      <c r="G14" t="s">
+        <v>500</v>
+      </c>
+      <c r="K14" s="396"/>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="s">
+        <v>498</v>
+      </c>
+      <c r="B15" t="s">
+        <v>501</v>
+      </c>
+      <c r="C15">
         <f>'Main Page'!$B$38*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
-      <c r="G13" t="s">
-        <v>506</v>
-      </c>
-      <c r="K13" s="396"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B14" t="s">
-        <v>507</v>
-      </c>
-      <c r="C14">
-        <f>1/C12^C15</f>
+      <c r="G15" t="s">
+        <v>502</v>
+      </c>
+      <c r="K15" s="396"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="s">
+        <v>438</v>
+      </c>
+      <c r="B16" t="s">
+        <v>503</v>
+      </c>
+      <c r="C16">
+        <f>1/C14^C17</f>
         <v>0.21302244142778143</v>
       </c>
-      <c r="G14" t="s">
-        <v>508</v>
-      </c>
-      <c r="K14" s="396"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" t="s">
-        <v>439</v>
-      </c>
-      <c r="B15" t="s">
-        <v>509</v>
-      </c>
-      <c r="C15">
+      <c r="G16" t="s">
+        <v>504</v>
+      </c>
+      <c r="K16" s="396"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>438</v>
+      </c>
+      <c r="B17" t="s">
+        <v>505</v>
+      </c>
+      <c r="C17">
         <f>'Main Page'!$B$39</f>
         <v>-0.5</v>
       </c>
-      <c r="G15" t="s">
-        <v>510</v>
-      </c>
-      <c r="K15" s="396"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="B16" t="s">
-        <v>512</v>
-      </c>
-      <c r="C16" s="101">
+      <c r="G17" t="s">
+        <v>506</v>
+      </c>
+      <c r="K17" s="396"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="B18" t="s">
+        <v>508</v>
+      </c>
+      <c r="C18" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
         <v>73.469387755102005</v>
       </c>
-      <c r="D16" s="101">
-        <v>0</v>
-      </c>
-      <c r="E16" s="101">
-        <v>0</v>
-      </c>
-      <c r="G16" t="s">
-        <v>513</v>
-      </c>
-      <c r="K16" s="396"/>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" t="s">
-        <v>514</v>
-      </c>
-      <c r="C17" s="101">
+      <c r="D18" s="101">
+        <v>0</v>
+      </c>
+      <c r="E18" s="101">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>509</v>
+      </c>
+      <c r="K18" s="396"/>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19" t="s">
+        <v>510</v>
+      </c>
+      <c r="C19" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
         <v>73.469387755102005</v>
       </c>
-      <c r="D17" s="101">
+      <c r="D19" s="101">
         <f>2*0.8*(4*'Main Page'!$B$29/30*PI())</f>
         <v>13.714285714285712</v>
       </c>
-      <c r="E17" s="101">
+      <c r="E19" s="101">
         <v>1</v>
       </c>
-      <c r="G17" t="s">
-        <v>515</v>
-      </c>
-      <c r="K17" s="102"/>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="K19" s="397"/>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="K20" s="102"/>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="K21" s="102"/>
-    </row>
-    <row r="22" spans="2:11">
+      <c r="G19" t="s">
+        <v>511</v>
+      </c>
+      <c r="K19" s="102"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="K21" s="397"/>
+    </row>
+    <row r="22" spans="1:11">
       <c r="K22" s="102"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="K23" s="102"/>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="K24" s="102"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12927,10 +12970,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -12957,7 +13000,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C3" s="397">
         <f>'Main Page'!B61</f>
@@ -12969,10 +13012,10 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C4" s="397">
-        <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C11</f>
+        <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C13</f>
         <v>-0.16805247318887553</v>
       </c>
       <c r="I4" s="102"/>
@@ -12982,10 +13025,10 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C5" s="397">
-        <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C11</f>
+        <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C13</f>
         <v>0</v>
       </c>
     </row>
@@ -12994,10 +13037,10 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C6" s="397">
-        <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C11+'Main Page'!B46</f>
+        <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C13+'Main Page'!B46</f>
         <v>1.3845180373045847</v>
       </c>
       <c r="I6" s="103"/>
@@ -13009,7 +13052,7 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C7" s="397">
         <f>'Main Page'!B9-'Main Page'!B46</f>
@@ -13024,7 +13067,7 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C8" s="397">
         <f>'Main Page'!B46</f>
@@ -13036,10 +13079,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" t="s">
         <v>463</v>
-      </c>
-      <c r="B9" t="s">
-        <v>464</v>
       </c>
       <c r="C9" s="397">
         <f>-'Main Page'!B11</f>
@@ -13049,10 +13092,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>526</v>
       </c>
       <c r="C10" s="397">
         <f>-'Main Page'!B18</f>
@@ -13063,140 +13106,188 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B11" t="s">
+        <v>527</v>
+      </c>
+      <c r="C11" s="397">
+        <f>-'Main Page'!B18</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="103"/>
+      <c r="M11" s="352"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B12" t="s">
+        <v>528</v>
+      </c>
+      <c r="C12" s="397">
+        <f>-'Main Page'!B18</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="103"/>
+      <c r="M12" s="352"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
-        <v>466</v>
-      </c>
-      <c r="C11" s="397">
+      <c r="B13" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="397">
         <f>SUM('Main Page'!E5+'Main Page'!E6+'Main Page'!E7)</f>
         <v>52838.90825962169</v>
       </c>
-      <c r="I11" s="103"/>
-      <c r="M11" s="352"/>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
+      <c r="I13" s="103"/>
+      <c r="M13" s="352"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
         <v>117</v>
       </c>
-      <c r="B12" t="s">
-        <v>467</v>
-      </c>
-      <c r="C12" s="397">
+      <c r="B14" t="s">
+        <v>465</v>
+      </c>
+      <c r="C14" s="397">
         <f>'Main Page'!E8</f>
         <v>19186.870177541427</v>
       </c>
-      <c r="I12" s="103"/>
-      <c r="M12" s="352"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>468</v>
-      </c>
-      <c r="B13" t="s">
-        <v>469</v>
-      </c>
-      <c r="C13" s="397">
+      <c r="I14" s="103"/>
+      <c r="M14" s="352"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B15" t="s">
+        <v>467</v>
+      </c>
+      <c r="C15" s="397">
         <f>SUM('Main Page'!H5:H7)</f>
         <v>45376.990833681382</v>
       </c>
-      <c r="I13" s="103"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
+      <c r="I15" s="103"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>466</v>
+      </c>
+      <c r="B16" t="s">
         <v>468</v>
       </c>
-      <c r="B14" t="s">
-        <v>470</v>
-      </c>
-      <c r="C14" s="397">
+      <c r="C16" s="397">
         <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)/('Main Page'!$B$88)^2</f>
         <v>56.442477248189412</v>
       </c>
-      <c r="I14" s="103"/>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>468</v>
-      </c>
-      <c r="B15" t="s">
-        <v>471</v>
-      </c>
-      <c r="C15" s="397">
+      <c r="I16" s="103"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>466</v>
+      </c>
+      <c r="B17" t="s">
+        <v>469</v>
+      </c>
+      <c r="C17" s="397">
         <f>GECdrivetrain!M5</f>
         <v>29975.370571214964</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>439</v>
-      </c>
-      <c r="B16" t="s">
-        <v>472</v>
-      </c>
-      <c r="C16" s="403">
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>438</v>
+      </c>
+      <c r="B18" t="s">
+        <v>470</v>
+      </c>
+      <c r="C18" s="403">
         <f>'Main Page'!B19*100</f>
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>439</v>
-      </c>
-      <c r="B17" t="s">
-        <v>473</v>
-      </c>
-      <c r="C17">
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>438</v>
+      </c>
+      <c r="B19" t="s">
+        <v>471</v>
+      </c>
+      <c r="C19">
         <f>'Main Page'!$B$88</f>
         <v>87.964594300514221</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>474</v>
-      </c>
-      <c r="B18" t="s">
-        <v>475</v>
-      </c>
-      <c r="C18" s="348">
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>472</v>
+      </c>
+      <c r="B20" t="s">
+        <v>473</v>
+      </c>
+      <c r="C20" s="348">
         <f>'Main Page'!B14</f>
         <v>483129639.71309441</v>
       </c>
-      <c r="I18" s="103"/>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
+      <c r="I20" s="103"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>474</v>
+      </c>
+      <c r="B21" t="s">
+        <v>475</v>
+      </c>
+      <c r="C21" s="348">
+        <f>2*'Main Page'!B15/100*SQRT(C20*'Main Page'!B16*C16*C19^2/('Main Page'!B16+C16*C19^2))</f>
+        <v>1355794.0774545206</v>
+      </c>
+      <c r="I21" s="103"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
         <v>476</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>477</v>
       </c>
-      <c r="C19" s="348">
-        <f>2*'Main Page'!B15/100*SQRT(C18*'Main Page'!B16*C14*C17^2/('Main Page'!B16+C14*C17^2))</f>
-        <v>1355794.0774545206</v>
-      </c>
-      <c r="I19" s="103"/>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>478</v>
-      </c>
-      <c r="B20" t="s">
-        <v>479</v>
-      </c>
-      <c r="C20" s="332">
+      <c r="C22" s="332">
         <f>'Main Page'!B92*1000</f>
         <v>1500000</v>
       </c>
-      <c r="M20" s="352"/>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="I21" s="103"/>
-      <c r="M21" s="352"/>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="I22" s="103"/>
       <c r="M22" s="352"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>424</v>
+      </c>
+      <c r="C23" s="18">
+        <f>'Main Page'!B13/2</f>
+        <v>35</v>
+      </c>
+      <c r="I23" s="103"/>
+      <c r="M23" s="352"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" t="s">
+        <v>425</v>
+      </c>
+      <c r="C24" s="18">
+        <f>'Main Page'!B56/2</f>
+        <v>1.75</v>
+      </c>
+      <c r="I24" s="103"/>
+      <c r="M24" s="352"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13205,10 +13296,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -13233,315 +13324,261 @@
         <v>385</v>
       </c>
       <c r="B3" t="s">
-        <v>480</v>
+        <v>522</v>
       </c>
       <c r="C3" s="103">
         <f>'Main Page'!B154*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="D3" s="103">
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C4" s="103">
         <f>'Main Page'!B155*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="E3" s="103">
+      <c r="D4" s="103"/>
+      <c r="E4" s="103"/>
+      <c r="F4" s="103"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" t="s">
+        <v>524</v>
+      </c>
+      <c r="C5" s="103">
         <f>'Main Page'!B156*100</f>
         <v>3.4350000000000001</v>
       </c>
-      <c r="F3" s="103">
+      <c r="D5" s="103"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="103"/>
+      <c r="N5" s="352"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" t="s">
+        <v>525</v>
+      </c>
+      <c r="C6" s="103">
         <f>'Main Page'!B157*100</f>
         <v>3.4350000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" t="s">
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="N6" s="352"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" t="s">
+        <v>478</v>
+      </c>
+      <c r="C7" t="s">
+        <v>479</v>
+      </c>
+      <c r="D7" t="s">
+        <v>480</v>
+      </c>
+      <c r="E7" t="s">
         <v>481</v>
       </c>
-      <c r="C4" t="s">
+      <c r="F7" t="s">
         <v>482</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G7" t="s">
         <v>483</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H7" t="s">
         <v>484</v>
       </c>
-      <c r="F4" t="s">
-        <v>485</v>
-      </c>
-      <c r="G4" t="s">
-        <v>486</v>
-      </c>
-      <c r="H4" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="C5" s="396">
+      <c r="N7" s="352"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="C8" s="396">
         <f>GECtwrdata!$B15/9</f>
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D8">
         <f>GECtwrdata!$G15</f>
         <v>2549.9967909929578</v>
       </c>
-      <c r="E5" s="400">
+      <c r="E8" s="400">
         <f>GECtwrdata!$N15</f>
         <v>248017961443.11847</v>
       </c>
-      <c r="F5" s="400">
+      <c r="F8" s="400">
         <f>GECtwrdata!$N15</f>
         <v>248017961443.11847</v>
       </c>
-      <c r="G5" s="400">
+      <c r="G8" s="400">
         <f>GECtwrdata!$K15</f>
         <v>190783047263.93729</v>
       </c>
-      <c r="H5" s="400">
+      <c r="H8" s="400">
         <f>GECtwrdata!$H15</f>
         <v>61874353436.286514</v>
       </c>
-      <c r="N5" s="352"/>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="C6" s="396">
+      <c r="N8" s="352"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="C9" s="396">
         <f>GECtwrdata!$B16/9</f>
         <v>0.1111111111111111</v>
       </c>
-      <c r="D6">
+      <c r="D9">
         <f>GECtwrdata!$G16</f>
         <v>2285.8940826504545</v>
       </c>
-      <c r="E6" s="400">
+      <c r="E9" s="400">
         <f>GECtwrdata!$N16</f>
         <v>196124484340.01657</v>
       </c>
-      <c r="F6" s="400">
+      <c r="F9" s="400">
         <f>GECtwrdata!$N16</f>
         <v>196124484340.01657</v>
       </c>
-      <c r="G6" s="400">
+      <c r="G9" s="400">
         <f>GECtwrdata!$K16</f>
         <v>150864987953.85889</v>
       </c>
-      <c r="H6" s="400">
+      <c r="H9" s="400">
         <f>GECtwrdata!$H16</f>
         <v>55466037795.582756</v>
       </c>
-      <c r="N6" s="352"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="C7" s="396">
+      <c r="N9" s="352"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="C10" s="396">
         <f>GECtwrdata!$B17/9</f>
         <v>0.22222222222222221</v>
       </c>
-      <c r="D7">
+      <c r="D10">
         <f>GECtwrdata!$G17</f>
         <v>2035.9133906776767</v>
       </c>
-      <c r="E7" s="400">
+      <c r="E10" s="400">
         <f>GECtwrdata!$N17</f>
         <v>152799439475.66925</v>
       </c>
-      <c r="F7" s="400">
+      <c r="F10" s="400">
         <f>GECtwrdata!$N17</f>
         <v>152799439475.66925</v>
       </c>
-      <c r="G7" s="400">
+      <c r="G10" s="400">
         <f>GECtwrdata!$K17</f>
         <v>117538030365.89941</v>
       </c>
-      <c r="H7" s="400">
+      <c r="H10" s="400">
         <f>GECtwrdata!$H17</f>
         <v>49400385579.076172</v>
       </c>
-      <c r="N7" s="352"/>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="C8" s="396">
+      <c r="N10" s="352"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11" s="396">
         <f>GECtwrdata!$B18/9</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <f>GECtwrdata!$G18</f>
         <v>1800.0547150746263</v>
       </c>
-      <c r="E8" s="400">
+      <c r="E11" s="400">
         <f>GECtwrdata!$N18</f>
         <v>117048609933.02327</v>
       </c>
-      <c r="F8" s="400">
+      <c r="F11" s="400">
         <f>GECtwrdata!$N18</f>
         <v>117048609933.02327</v>
       </c>
-      <c r="G8" s="400">
+      <c r="G11" s="400">
         <f>GECtwrdata!$K18</f>
         <v>90037392256.171738</v>
       </c>
-      <c r="H8" s="400">
+      <c r="H11" s="400">
         <f>GECtwrdata!$H18</f>
         <v>43677396786.766785</v>
       </c>
-      <c r="N8" s="352"/>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="C9" s="396">
+      <c r="N11" s="352"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="C12" s="396">
         <f>GECtwrdata!$B19/9</f>
         <v>0.44444444444444442</v>
       </c>
-      <c r="D9">
+      <c r="D12">
         <f>GECtwrdata!$G19</f>
         <v>1578.3180558413023</v>
       </c>
-      <c r="E9" s="400">
+      <c r="E12" s="400">
         <f>GECtwrdata!$N19</f>
         <v>87938673669.764404</v>
       </c>
-      <c r="F9" s="400">
+      <c r="F12" s="400">
         <f>GECtwrdata!$N19</f>
         <v>87938673669.764404</v>
       </c>
-      <c r="G9" s="400">
+      <c r="G12" s="400">
         <f>GECtwrdata!$K19</f>
         <v>67645133592.126465</v>
       </c>
-      <c r="H9" s="400">
+      <c r="H12" s="400">
         <f>GECtwrdata!$H19</f>
         <v>38297071418.654587</v>
       </c>
-      <c r="N9" s="352"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="C10" s="396">
+      <c r="N12" s="352"/>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="C13" s="396">
         <f>GECtwrdata!$B20/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="D10">
+      <c r="D13">
         <f>GECtwrdata!$G20</f>
         <v>1370.7034129777046</v>
       </c>
-      <c r="E10" s="400">
+      <c r="E13" s="400">
         <f>GECtwrdata!$N20</f>
         <v>64597203518.317947</v>
       </c>
-      <c r="F10" s="400">
+      <c r="F13" s="400">
         <f>GECtwrdata!$N20</f>
         <v>64597203518.317947</v>
       </c>
-      <c r="G10" s="400">
+      <c r="G13" s="400">
         <f>GECtwrdata!$K20</f>
         <v>49690156552.552261</v>
       </c>
-      <c r="H10" s="400">
+      <c r="H13" s="400">
         <f>GECtwrdata!$H20</f>
         <v>33259409474.739571</v>
       </c>
-      <c r="N10" s="352"/>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="C11" s="396">
+      <c r="N13" s="352"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="C14" s="396">
         <f>GECtwrdata!$B21/9</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="D11">
+      <c r="D14">
         <f>GECtwrdata!$G21</f>
         <v>1177.2107864838345</v>
       </c>
-      <c r="E11" s="400">
+      <c r="E14" s="400">
         <f>GECtwrdata!$N21</f>
         <v>46212667185.848305</v>
       </c>
-      <c r="F11" s="400">
+      <c r="F14" s="400">
         <f>GECtwrdata!$N21</f>
         <v>46212667185.848305</v>
       </c>
-      <c r="G11" s="400">
+      <c r="G14" s="400">
         <f>GECtwrdata!$K21</f>
         <v>35548205527.575615</v>
       </c>
-      <c r="H11" s="400">
+      <c r="H14" s="400">
         <f>GECtwrdata!$H21</f>
         <v>28564410955.021763</v>
-      </c>
-      <c r="N11" s="352"/>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="C12" s="396">
-        <f>GECtwrdata!$B22/9</f>
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="D12">
-        <f>GECtwrdata!$G22</f>
-        <v>997.84017635969042</v>
-      </c>
-      <c r="E12" s="400">
-        <f>GECtwrdata!$N22</f>
-        <v>32034427254.259068</v>
-      </c>
-      <c r="F12" s="400">
-        <f>GECtwrdata!$N22</f>
-        <v>32034427254.259068</v>
-      </c>
-      <c r="G12" s="400">
-        <f>GECtwrdata!$K22</f>
-        <v>24641867118.66082</v>
-      </c>
-      <c r="H12" s="400">
-        <f>GECtwrdata!$H22</f>
-        <v>24212075859.501129</v>
-      </c>
-      <c r="N12" s="352"/>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="C13" s="396">
-        <f>GECtwrdata!$B23/9</f>
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="D13">
-        <f>GECtwrdata!$G23</f>
-        <v>832.5915826052734</v>
-      </c>
-      <c r="E13" s="400">
-        <f>GECtwrdata!$N23</f>
-        <v>21372741180.19326</v>
-      </c>
-      <c r="F13" s="400">
-        <f>GECtwrdata!$N23</f>
-        <v>21372741180.19326</v>
-      </c>
-      <c r="G13" s="400">
-        <f>GECtwrdata!$K23</f>
-        <v>16440570138.610201</v>
-      </c>
-      <c r="H13" s="400">
-        <f>GECtwrdata!$H23</f>
-        <v>20202404188.177696</v>
-      </c>
-      <c r="N13" s="352"/>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="C14" s="396">
-        <f>GECtwrdata!$B24/9</f>
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <f>GECtwrdata!$G24</f>
-        <v>681.46500522058295</v>
-      </c>
-      <c r="E14" s="400">
-        <f>GECtwrdata!$N24</f>
-        <v>13598761295.033031</v>
-      </c>
-      <c r="F14" s="400">
-        <f>GECtwrdata!$N24</f>
-        <v>13598761295.033031</v>
-      </c>
-      <c r="G14" s="400">
-        <f>GECtwrdata!$K24</f>
-        <v>10460585611.563871</v>
-      </c>
-      <c r="H14" s="400">
-        <f>GECtwrdata!$H24</f>
-        <v>16535395941.051451</v>
       </c>
       <c r="I14" s="356"/>
       <c r="J14" s="356"/>
@@ -13550,7 +13587,83 @@
       <c r="N14" s="352"/>
     </row>
     <row r="15" spans="1:14">
+      <c r="C15" s="396">
+        <f>GECtwrdata!$B22/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="D15">
+        <f>GECtwrdata!$G22</f>
+        <v>997.84017635969042</v>
+      </c>
+      <c r="E15" s="400">
+        <f>GECtwrdata!$N22</f>
+        <v>32034427254.259068</v>
+      </c>
+      <c r="F15" s="400">
+        <f>GECtwrdata!$N22</f>
+        <v>32034427254.259068</v>
+      </c>
+      <c r="G15" s="400">
+        <f>GECtwrdata!$K22</f>
+        <v>24641867118.66082</v>
+      </c>
+      <c r="H15" s="400">
+        <f>GECtwrdata!$H22</f>
+        <v>24212075859.501129</v>
+      </c>
       <c r="N15" s="352"/>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="C16" s="396">
+        <f>GECtwrdata!$B23/9</f>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="D16">
+        <f>GECtwrdata!$G23</f>
+        <v>832.5915826052734</v>
+      </c>
+      <c r="E16" s="400">
+        <f>GECtwrdata!$N23</f>
+        <v>21372741180.19326</v>
+      </c>
+      <c r="F16" s="400">
+        <f>GECtwrdata!$N23</f>
+        <v>21372741180.19326</v>
+      </c>
+      <c r="G16" s="400">
+        <f>GECtwrdata!$K23</f>
+        <v>16440570138.610201</v>
+      </c>
+      <c r="H16" s="400">
+        <f>GECtwrdata!$H23</f>
+        <v>20202404188.177696</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="C17" s="396">
+        <f>GECtwrdata!$B24/9</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>GECtwrdata!$G24</f>
+        <v>681.46500522058295</v>
+      </c>
+      <c r="E17" s="400">
+        <f>GECtwrdata!$N24</f>
+        <v>13598761295.033031</v>
+      </c>
+      <c r="F17" s="400">
+        <f>GECtwrdata!$N24</f>
+        <v>13598761295.033031</v>
+      </c>
+      <c r="G17" s="400">
+        <f>GECtwrdata!$K24</f>
+        <v>10460585611.563871</v>
+      </c>
+      <c r="H17" s="400">
+        <f>GECtwrdata!$H24</f>
+        <v>16535395941.051451</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
+++ b/FAST_models/WindPACT/excel_proc/turbines/1.5A08V03_proc.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrinker\Documents\GitHub\dissertation\FAST_models\WindPACT\excel_proc\turbines\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-75" yWindow="0" windowWidth="8070" windowHeight="7575" activeTab="4"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="8070" windowHeight="7580"/>
   </bookViews>
   <sheets>
     <sheet name="Main Page" sheetId="5" r:id="rId1"/>
@@ -22,7 +27,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Blade Data'!$A$6:$Q$32</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -32,7 +37,7 @@
     <author>Jeff Minnema</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -59,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="531">
   <si>
     <t>number</t>
   </si>
@@ -1739,9 +1744,6 @@
     <t>tower modal damping ratios</t>
   </si>
   <si>
-    <t>Cylinder changed to produce correct AeroCent</t>
-  </si>
-  <si>
     <t>&lt;-- fixed this (JR)</t>
   </si>
   <si>
@@ -2082,6 +2084,15 @@
   </si>
   <si>
     <t>PreCone(3)</t>
+  </si>
+  <si>
+    <t>JMR1: GenAxisLoc at 5/7% changed to produce correct AeroCent</t>
+  </si>
+  <si>
+    <t>JMR2: Chord at station 5% changed to 5.4% R to match other WindPACT models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    *** NOTE: this does not affect the mass/stiffness properties…</t>
   </si>
 </sst>
 </file>
@@ -3005,7 +3016,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="423">
+  <cellXfs count="424">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3906,6 +3917,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4143,7 +4157,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.48126746253492514</c:v>
+                  <c:v>0.47237998475996962</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.47237998475996962</c:v>
@@ -4306,7 +4320,7 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>0.48126746253492514</c:v>
+                  <c:v>0.47237998475996962</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.47237998475996962</c:v>
@@ -4544,11 +4558,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="147495936"/>
-        <c:axId val="147498112"/>
+        <c:axId val="333718440"/>
+        <c:axId val="333711384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="147495936"/>
+        <c:axId val="333718440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4633,12 +4647,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147498112"/>
+        <c:crossAx val="333711384"/>
         <c:crossesAt val="-10"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="147498112"/>
+        <c:axId val="333711384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4722,7 +4736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="147495936"/>
+        <c:crossAx val="333718440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5846,23 +5860,23 @@
   </sheetPr>
   <dimension ref="A1:U157"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H134" sqref="H134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="34.83203125" customWidth="1"/>
+    <col min="1" max="1" width="34.77734375" customWidth="1"/>
     <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="8" width="12.1640625" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" customWidth="1"/>
+    <col min="7" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" customWidth="1"/>
     <col min="11" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="10.1640625" customWidth="1"/>
-    <col min="13" max="13" width="12.5" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.25" customHeight="1" thickBot="1">
@@ -5872,14 +5886,14 @@
       <c r="B1" s="334" t="s">
         <v>397</v>
       </c>
-      <c r="C1" s="415" t="s">
+      <c r="C1" s="416" t="s">
         <v>395</v>
       </c>
-      <c r="D1" s="416"/>
-      <c r="E1" s="416"/>
-      <c r="F1" s="416"/>
-      <c r="G1" s="416"/>
-      <c r="H1" s="417"/>
+      <c r="D1" s="417"/>
+      <c r="E1" s="417"/>
+      <c r="F1" s="417"/>
+      <c r="G1" s="417"/>
+      <c r="H1" s="418"/>
     </row>
     <row r="2" spans="1:8" ht="16.899999999999999" customHeight="1" thickBot="1">
       <c r="A2" s="60" t="s">
@@ -5895,19 +5909,19 @@
       <c r="A3" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="409" t="s">
+      <c r="B3" s="410" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="410"/>
-      <c r="D3" s="411"/>
+      <c r="C3" s="411"/>
+      <c r="D3" s="412"/>
       <c r="E3" s="35"/>
-      <c r="F3" s="412" t="s">
+      <c r="F3" s="413" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="413"/>
-      <c r="H3" s="414"/>
-    </row>
-    <row r="4" spans="1:8" ht="12" thickBot="1">
+      <c r="G3" s="414"/>
+      <c r="H3" s="415"/>
+    </row>
+    <row r="4" spans="1:8" ht="11" thickBot="1">
       <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
@@ -6032,7 +6046,7 @@
         <v>9923.4097569871301</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12" thickBot="1">
+    <row r="8" spans="1:8" ht="10.5" thickBot="1">
       <c r="A8" s="23" t="s">
         <v>12</v>
       </c>
@@ -6065,7 +6079,7 @@
         <v>42475.576821214963</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="12" thickBot="1">
+    <row r="9" spans="1:8" ht="10.5" thickBot="1">
       <c r="A9" s="106" t="s">
         <v>120</v>
       </c>
@@ -6115,7 +6129,7 @@
       </c>
       <c r="F13" s="332"/>
     </row>
-    <row r="14" spans="1:8" ht="22.5">
+    <row r="14" spans="1:8" ht="20">
       <c r="A14" s="61" t="s">
         <v>43</v>
       </c>
@@ -6124,14 +6138,14 @@
         <v>483129639.71309441</v>
       </c>
       <c r="D14" s="353" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E14" s="354"/>
       <c r="G14" s="348"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="61" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B15" s="383">
         <v>5</v>
@@ -6145,7 +6159,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="61" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B16" s="383">
         <v>2953248.5</v>
@@ -6156,7 +6170,7 @@
       <c r="E16" s="354"/>
       <c r="H16" s="103"/>
     </row>
-    <row r="17" spans="1:21" ht="23.45" customHeight="1">
+    <row r="17" spans="1:21" ht="23.5" customHeight="1">
       <c r="A17" s="61" t="s">
         <v>42</v>
       </c>
@@ -6201,11 +6215,11 @@
       <c r="C19" s="328">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D19" s="418" t="s">
+      <c r="D19" s="419" t="s">
         <v>373</v>
       </c>
-      <c r="E19" s="417"/>
-      <c r="F19" s="417"/>
+      <c r="E19" s="418"/>
+      <c r="F19" s="418"/>
       <c r="G19" s="352"/>
     </row>
     <row r="20" spans="1:21" ht="25.5" customHeight="1">
@@ -6218,11 +6232,11 @@
       <c r="C20" s="328">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D20" s="418" t="s">
+      <c r="D20" s="419" t="s">
         <v>372</v>
       </c>
-      <c r="E20" s="417"/>
-      <c r="F20" s="417"/>
+      <c r="E20" s="418"/>
+      <c r="F20" s="418"/>
       <c r="I20" s="35" t="s">
         <v>68</v>
       </c>
@@ -6234,7 +6248,7 @@
       <c r="O20" s="169"/>
       <c r="P20" s="170"/>
     </row>
-    <row r="21" spans="1:21" ht="11.45" customHeight="1">
+    <row r="21" spans="1:21" ht="11.5" customHeight="1">
       <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
@@ -6280,7 +6294,7 @@
       <c r="O23" s="8"/>
       <c r="P23" s="172"/>
     </row>
-    <row r="24" spans="1:21" ht="12.6" customHeight="1">
+    <row r="24" spans="1:21" ht="12.65" customHeight="1">
       <c r="A24" s="100" t="s">
         <v>74</v>
       </c>
@@ -6301,7 +6315,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="172"/>
     </row>
-    <row r="25" spans="1:21" ht="12" thickBot="1">
+    <row r="25" spans="1:21" ht="10.5" thickBot="1">
       <c r="A25" s="100" t="s">
         <v>75</v>
       </c>
@@ -6332,7 +6346,7 @@
       <c r="G26" s="89"/>
       <c r="H26" s="12"/>
     </row>
-    <row r="28" spans="1:21" ht="12.6" customHeight="1">
+    <row r="28" spans="1:21" ht="12.65" customHeight="1">
       <c r="A28" s="381" t="s">
         <v>78</v>
       </c>
@@ -6372,7 +6386,7 @@
     <row r="32" spans="1:21">
       <c r="B32" s="53"/>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" ht="10.5">
       <c r="A33" s="109" t="s">
         <v>80</v>
       </c>
@@ -6404,49 +6418,49 @@
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1">
       <c r="A37" s="398" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B37" s="274">
         <v>2.6</v>
       </c>
       <c r="D37" s="353" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E37" s="354"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1">
       <c r="A38" s="398" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B38" s="274">
         <v>30</v>
       </c>
       <c r="D38" s="353" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E38" s="354"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1">
       <c r="A39" s="398" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B39" s="274">
         <v>-0.5</v>
       </c>
       <c r="D39" s="353" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E39" s="354"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1">
       <c r="A40" s="398" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B40" s="274">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D40" s="353" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E40" s="354"/>
     </row>
@@ -6466,14 +6480,14 @@
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1">
       <c r="A43" s="398" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B43" s="274">
         <f>B31/B87^2</f>
         <v>2.5853629482114255E-3</v>
       </c>
       <c r="D43" s="353" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E43" s="354"/>
     </row>
@@ -6483,7 +6497,7 @@
       <c r="D44" s="360"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" ht="10.5">
       <c r="A45" s="109" t="s">
         <v>122</v>
       </c>
@@ -6552,7 +6566,7 @@
         <v>4.4262262216404888</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" ht="10.5">
       <c r="A55" s="2" t="s">
         <v>12</v>
       </c>
@@ -6665,7 +6679,7 @@
       <c r="A64" s="18"/>
       <c r="B64" s="124"/>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" ht="10.5">
       <c r="A65" s="111" t="s">
         <v>137</v>
       </c>
@@ -6760,7 +6774,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:10" ht="10.5">
       <c r="A73" s="111" t="s">
         <v>143</v>
       </c>
@@ -6858,7 +6872,7 @@
       <c r="A80" s="18"/>
       <c r="B80" s="125"/>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="10.5">
       <c r="A81" s="111" t="s">
         <v>152</v>
       </c>
@@ -6958,7 +6972,7 @@
       <c r="A90" s="18"/>
       <c r="B90" s="123"/>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="10.5">
       <c r="A91" s="111" t="s">
         <v>158</v>
       </c>
@@ -7015,7 +7029,7 @@
       <c r="A96" s="18"/>
       <c r="B96" s="126"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" ht="10.5">
       <c r="A97" s="111" t="s">
         <v>162</v>
       </c>
@@ -7129,7 +7143,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" ht="10.5">
       <c r="A108" s="111" t="s">
         <v>386</v>
       </c>
@@ -7192,7 +7206,7 @@
       <c r="I113" s="182"/>
       <c r="J113" s="182"/>
     </row>
-    <row r="114" spans="1:13" ht="14.25">
+    <row r="114" spans="1:13" ht="15">
       <c r="A114" s="183"/>
       <c r="B114" s="184"/>
       <c r="C114" s="185" t="s">
@@ -7250,7 +7264,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="12">
+    <row r="116" spans="1:13" ht="11.5">
       <c r="A116" s="282">
         <v>7.0000000000000007E-2</v>
       </c>
@@ -7285,7 +7299,7 @@
         <v>8.3897942957076286E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="12">
+    <row r="117" spans="1:13" ht="11.5">
       <c r="A117" s="291">
         <v>0.25</v>
       </c>
@@ -7320,7 +7334,7 @@
         <v>2.5188854326270468E-3</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="12">
+    <row r="118" spans="1:13" ht="11.5">
       <c r="A118" s="291">
         <v>0.5</v>
       </c>
@@ -7355,7 +7369,7 @@
         <v>5.4300984192981469E-3</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="12">
+    <row r="119" spans="1:13" ht="11.5">
       <c r="A119" s="294">
         <v>0.75</v>
       </c>
@@ -7407,7 +7421,7 @@
         <v>89</v>
       </c>
       <c r="E122" s="399" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F122" s="187" t="s">
         <v>324</v>
@@ -7416,7 +7430,7 @@
         <v>325</v>
       </c>
       <c r="H122" s="399" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I122" s="187" t="s">
         <v>342</v>
@@ -7479,8 +7493,8 @@
       <c r="A124" s="302">
         <v>0.05</v>
       </c>
-      <c r="B124" s="303">
-        <v>1.9250698501397006</v>
+      <c r="B124" s="405">
+        <v>1.8895199390398785</v>
       </c>
       <c r="C124" s="304">
         <v>1</v>
@@ -7721,7 +7735,7 @@
         <v>0.76662287964958964</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" ht="13">
       <c r="B131" s="18" t="s">
         <v>349</v>
       </c>
@@ -7730,25 +7744,34 @@
         <v>350</v>
       </c>
       <c r="H131" t="s">
-        <v>414</v>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="H132" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="H133" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" ht="10.5">
       <c r="A134" s="183"/>
       <c r="B134" s="229" t="s">
         <v>363</v>
       </c>
       <c r="C134" s="401" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D134" s="402"/>
-    </row>
-    <row r="135" spans="1:13" ht="12">
+      <c r="F134" s="102"/>
+    </row>
+    <row r="135" spans="1:13" ht="11.5">
       <c r="A135" s="191" t="s">
         <v>87</v>
       </c>
@@ -7757,6 +7780,7 @@
       </c>
       <c r="C135" s="224"/>
       <c r="D135" s="225"/>
+      <c r="F135" s="102"/>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" s="235">
@@ -7770,6 +7794,7 @@
       <c r="D136" s="342">
         <v>1</v>
       </c>
+      <c r="F136" s="102"/>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" s="240">
@@ -7783,6 +7808,7 @@
       <c r="D137" s="344">
         <v>1</v>
       </c>
+      <c r="F137" s="102"/>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="240">
@@ -7796,6 +7822,7 @@
       <c r="D138" s="344">
         <v>2</v>
       </c>
+      <c r="F138" s="102"/>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" s="240">
@@ -7809,6 +7836,7 @@
       <c r="D139" s="344">
         <v>2.5</v>
       </c>
+      <c r="F139" s="102"/>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" s="240">
@@ -7836,7 +7864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="12">
+    <row r="143" spans="1:13" ht="11.5">
       <c r="A143" s="337" t="s">
         <v>400</v>
       </c>
@@ -7851,10 +7879,10 @@
       </c>
       <c r="B144" s="341"/>
       <c r="C144" s="342" t="s">
+        <v>513</v>
+      </c>
+      <c r="E144" s="353" t="s">
         <v>514</v>
-      </c>
-      <c r="E144" s="353" t="s">
-        <v>515</v>
       </c>
       <c r="F144" s="354"/>
     </row>
@@ -7900,19 +7928,19 @@
       <c r="F147" s="354"/>
       <c r="G147" s="354"/>
     </row>
-    <row r="148" spans="1:7" ht="12" thickBot="1"/>
-    <row r="149" spans="1:7" ht="12" thickBot="1">
-      <c r="A149" s="405" t="s">
+    <row r="148" spans="1:7" ht="10.5" thickBot="1"/>
+    <row r="149" spans="1:7" ht="10.5" thickBot="1">
+      <c r="A149" s="406" t="s">
         <v>402</v>
       </c>
-      <c r="B149" s="407"/>
-      <c r="C149" s="408"/>
+      <c r="B149" s="408"/>
+      <c r="C149" s="409"/>
       <c r="E149" s="353" t="s">
         <v>405</v>
       </c>
       <c r="F149" s="354"/>
     </row>
-    <row r="150" spans="1:7" ht="12" thickBot="1">
+    <row r="150" spans="1:7" ht="10.5" thickBot="1">
       <c r="A150" s="379" t="s">
         <v>35</v>
       </c>
@@ -7927,7 +7955,7 @@
       </c>
       <c r="F150" s="354"/>
     </row>
-    <row r="151" spans="1:7" ht="12" thickBot="1">
+    <row r="151" spans="1:7" ht="11" thickBot="1">
       <c r="A151" s="376">
         <v>3.882E-2</v>
       </c>
@@ -7942,19 +7970,19 @@
       </c>
       <c r="F151" s="354"/>
     </row>
-    <row r="152" spans="1:7" ht="12" thickBot="1"/>
-    <row r="153" spans="1:7" ht="12" thickBot="1">
-      <c r="A153" s="405" t="s">
+    <row r="152" spans="1:7" ht="10.5" thickBot="1"/>
+    <row r="153" spans="1:7" ht="10.5" thickBot="1">
+      <c r="A153" s="406" t="s">
         <v>413</v>
       </c>
-      <c r="B153" s="406"/>
+      <c r="B153" s="407"/>
       <c r="C153" s="368"/>
       <c r="E153" s="353" t="s">
         <v>405</v>
       </c>
       <c r="F153" s="354"/>
     </row>
-    <row r="154" spans="1:7">
+    <row r="154" spans="1:7" ht="10.5">
       <c r="A154" s="367" t="s">
         <v>50</v>
       </c>
@@ -7967,7 +7995,7 @@
       </c>
       <c r="F154" s="354"/>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" ht="10.5">
       <c r="A155" s="372" t="s">
         <v>51</v>
       </c>
@@ -7980,7 +8008,7 @@
       </c>
       <c r="F155" s="354"/>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" ht="10.5">
       <c r="A156" s="374" t="s">
         <v>52</v>
       </c>
@@ -7992,7 +8020,7 @@
       </c>
       <c r="F156" s="354"/>
     </row>
-    <row r="157" spans="1:7" ht="12" thickBot="1">
+    <row r="157" spans="1:7" ht="11" thickBot="1">
       <c r="A157" s="375" t="s">
         <v>53</v>
       </c>
@@ -8031,10 +8059,10 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15">
@@ -8860,23 +8888,23 @@
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="33.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="10" customWidth="1"/>
     <col min="10" max="11" width="9.6640625" customWidth="1"/>
-    <col min="12" max="12" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" customWidth="1"/>
     <col min="13" max="14" width="11.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.5" customWidth="1"/>
+    <col min="15" max="15" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="12.75">
+    <row r="1" spans="1:25" ht="12.5">
       <c r="A1" s="112"/>
       <c r="B1" s="112" t="s">
         <v>170</v>
@@ -8908,7 +8936,7 @@
       <c r="X1" s="112"/>
       <c r="Y1" s="112"/>
     </row>
-    <row r="2" spans="1:25" ht="12.75">
+    <row r="2" spans="1:25" ht="12.5">
       <c r="A2" s="112"/>
       <c r="B2" s="113" t="s">
         <v>171</v>
@@ -8940,7 +8968,7 @@
       <c r="X2" s="112"/>
       <c r="Y2" s="112"/>
     </row>
-    <row r="3" spans="1:25" ht="12.75">
+    <row r="3" spans="1:25" ht="12.5">
       <c r="A3" s="112"/>
       <c r="B3" s="112"/>
       <c r="C3" s="112"/>
@@ -8967,7 +8995,7 @@
       <c r="X3" s="112"/>
       <c r="Y3" s="112"/>
     </row>
-    <row r="4" spans="1:25" ht="38.25">
+    <row r="4" spans="1:25" ht="37.5">
       <c r="A4" s="115"/>
       <c r="B4" s="162" t="s">
         <v>172</v>
@@ -9026,7 +9054,7 @@
       <c r="X4" s="115"/>
       <c r="Y4" s="116"/>
     </row>
-    <row r="5" spans="1:25" ht="12.75">
+    <row r="5" spans="1:25" ht="12.5">
       <c r="A5" s="112"/>
       <c r="B5" s="163" t="s">
         <v>12</v>
@@ -9096,7 +9124,7 @@
       <c r="X5" s="112"/>
       <c r="Y5" s="112"/>
     </row>
-    <row r="6" spans="1:25" ht="12.75">
+    <row r="6" spans="1:25" ht="12.5">
       <c r="A6" s="112"/>
       <c r="B6" s="163" t="s">
         <v>184</v>
@@ -9157,7 +9185,7 @@
       <c r="X6" s="112"/>
       <c r="Y6" s="112"/>
     </row>
-    <row r="7" spans="1:25" ht="12.75">
+    <row r="7" spans="1:25" ht="12.5">
       <c r="A7" s="112"/>
       <c r="B7" s="163" t="s">
         <v>137</v>
@@ -9230,7 +9258,7 @@
       <c r="X7" s="112"/>
       <c r="Y7" s="112"/>
     </row>
-    <row r="8" spans="1:25" ht="12.75">
+    <row r="8" spans="1:25" ht="12.5">
       <c r="A8" s="112"/>
       <c r="B8" s="163" t="s">
         <v>185</v>
@@ -9293,7 +9321,7 @@
       <c r="X8" s="112"/>
       <c r="Y8" s="118"/>
     </row>
-    <row r="9" spans="1:25" ht="12.75">
+    <row r="9" spans="1:25" ht="12.5">
       <c r="A9" s="112"/>
       <c r="B9" s="163" t="s">
         <v>186</v>
@@ -9356,7 +9384,7 @@
       <c r="X9" s="112"/>
       <c r="Y9" s="112"/>
     </row>
-    <row r="10" spans="1:25" ht="12.75">
+    <row r="10" spans="1:25" ht="12.5">
       <c r="A10" s="112"/>
       <c r="B10" s="349" t="s">
         <v>187</v>
@@ -9485,7 +9513,7 @@
       <c r="X11" s="112"/>
       <c r="Y11" s="118"/>
     </row>
-    <row r="12" spans="1:25" ht="12.75">
+    <row r="12" spans="1:25" ht="12.5">
       <c r="A12" s="112"/>
       <c r="B12" s="349" t="s">
         <v>255</v>
@@ -9552,7 +9580,7 @@
       <c r="X12" s="112"/>
       <c r="Y12" s="118"/>
     </row>
-    <row r="13" spans="1:25" ht="12.75">
+    <row r="13" spans="1:25" ht="12.5">
       <c r="A13" s="112"/>
       <c r="B13" s="163"/>
       <c r="C13" s="131"/>
@@ -9584,7 +9612,7 @@
       <c r="X13" s="112"/>
       <c r="Y13" s="118"/>
     </row>
-    <row r="14" spans="1:25" ht="12.75">
+    <row r="14" spans="1:25" ht="12.5">
       <c r="A14" s="112"/>
       <c r="B14" s="163"/>
       <c r="C14" s="131"/>
@@ -9633,7 +9661,7 @@
       <c r="X14" s="112"/>
       <c r="Y14" s="118"/>
     </row>
-    <row r="15" spans="1:25" ht="12.75">
+    <row r="15" spans="1:25" ht="12.5">
       <c r="A15" s="112"/>
       <c r="B15" s="163"/>
       <c r="C15" s="131"/>
@@ -9682,7 +9710,7 @@
       <c r="X15" s="112"/>
       <c r="Y15" s="118"/>
     </row>
-    <row r="16" spans="1:25" ht="12.75">
+    <row r="16" spans="1:25" ht="12.5">
       <c r="A16" s="112"/>
       <c r="B16" s="164"/>
       <c r="C16" s="112"/>
@@ -9732,7 +9760,7 @@
       <c r="X16" s="112"/>
       <c r="Y16" s="112"/>
     </row>
-    <row r="17" spans="1:25" ht="12.75">
+    <row r="17" spans="1:25" ht="12.5">
       <c r="A17" s="112"/>
       <c r="B17" s="164"/>
       <c r="C17" s="112"/>
@@ -9773,7 +9801,7 @@
       <c r="X17" s="112"/>
       <c r="Y17" s="112"/>
     </row>
-    <row r="18" spans="1:25" ht="12.75">
+    <row r="18" spans="1:25" ht="12.5">
       <c r="A18" s="112"/>
       <c r="B18" s="164"/>
       <c r="C18" s="112"/>
@@ -9800,16 +9828,16 @@
       <c r="X18" s="112"/>
       <c r="Y18" s="112"/>
     </row>
-    <row r="19" spans="1:25" ht="12.75">
+    <row r="19" spans="1:25" ht="12.5">
       <c r="A19" s="112"/>
       <c r="B19" s="164"/>
       <c r="C19" s="112"/>
-      <c r="D19" s="422" t="s">
+      <c r="D19" s="423" t="s">
         <v>239</v>
       </c>
-      <c r="E19" s="422"/>
-      <c r="F19" s="422"/>
-      <c r="G19" s="422"/>
+      <c r="E19" s="423"/>
+      <c r="F19" s="423"/>
+      <c r="G19" s="423"/>
       <c r="H19" s="112"/>
       <c r="I19" s="120"/>
       <c r="J19" s="121"/>
@@ -9832,7 +9860,7 @@
       <c r="X19" s="112"/>
       <c r="Y19" s="112"/>
     </row>
-    <row r="20" spans="1:25" ht="38.25">
+    <row r="20" spans="1:25" ht="37.5">
       <c r="A20" s="115"/>
       <c r="B20" s="162" t="s">
         <v>189</v>
@@ -9871,7 +9899,7 @@
       <c r="X20" s="115"/>
       <c r="Y20" s="115"/>
     </row>
-    <row r="21" spans="1:25" ht="12.75">
+    <row r="21" spans="1:25" ht="12.5">
       <c r="A21" s="112"/>
       <c r="B21" s="163" t="s">
         <v>162</v>
@@ -9947,7 +9975,7 @@
       <c r="X21" s="112"/>
       <c r="Y21" s="112"/>
     </row>
-    <row r="22" spans="1:25" ht="12.75">
+    <row r="22" spans="1:25" ht="12.5">
       <c r="A22" s="112"/>
       <c r="B22" s="163" t="s">
         <v>194</v>
@@ -10007,7 +10035,7 @@
       <c r="X22" s="112"/>
       <c r="Y22" s="118"/>
     </row>
-    <row r="23" spans="1:25" ht="12.75">
+    <row r="23" spans="1:25" ht="12.5">
       <c r="A23" s="112"/>
       <c r="B23" s="163" t="s">
         <v>195</v>
@@ -10068,7 +10096,7 @@
       <c r="X23" s="112"/>
       <c r="Y23" s="112"/>
     </row>
-    <row r="24" spans="1:25" ht="12.75">
+    <row r="24" spans="1:25" ht="12.5">
       <c r="A24" s="112"/>
       <c r="B24" s="349" t="s">
         <v>196</v>
@@ -10136,7 +10164,7 @@
       <c r="X24" s="112"/>
       <c r="Y24" s="112"/>
     </row>
-    <row r="25" spans="1:25" ht="12.75">
+    <row r="25" spans="1:25" ht="12.5">
       <c r="A25" s="112"/>
       <c r="B25" s="349" t="s">
         <v>197</v>
@@ -10204,7 +10232,7 @@
       <c r="X25" s="112"/>
       <c r="Y25" s="112"/>
     </row>
-    <row r="26" spans="1:25" ht="12.75">
+    <row r="26" spans="1:25" ht="12.5">
       <c r="A26" s="112"/>
       <c r="B26" s="163" t="s">
         <v>198</v>
@@ -10270,7 +10298,7 @@
       <c r="X26" s="112"/>
       <c r="Y26" s="112"/>
     </row>
-    <row r="27" spans="1:25" ht="12.75">
+    <row r="27" spans="1:25" ht="12.5">
       <c r="A27" s="112"/>
       <c r="B27" s="163" t="s">
         <v>199</v>
@@ -10322,7 +10350,7 @@
       <c r="X27" s="112"/>
       <c r="Y27" s="112"/>
     </row>
-    <row r="28" spans="1:25" ht="12.75">
+    <row r="28" spans="1:25" ht="12.5">
       <c r="A28" s="112"/>
       <c r="B28" s="163" t="s">
         <v>200</v>
@@ -10374,7 +10402,7 @@
       <c r="X28" s="112"/>
       <c r="Y28" s="112"/>
     </row>
-    <row r="29" spans="1:25" ht="12.75">
+    <row r="29" spans="1:25" ht="12.5">
       <c r="A29" s="112"/>
       <c r="B29" s="164"/>
       <c r="C29" s="112"/>
@@ -10407,7 +10435,7 @@
       <c r="X29" s="112"/>
       <c r="Y29" s="112"/>
     </row>
-    <row r="30" spans="1:25" ht="12.75">
+    <row r="30" spans="1:25" ht="12.5">
       <c r="A30" s="112"/>
       <c r="B30" s="163"/>
       <c r="C30" s="112"/>
@@ -10457,7 +10485,7 @@
       <c r="X30" s="112"/>
       <c r="Y30" s="112"/>
     </row>
-    <row r="31" spans="1:25" ht="12.75">
+    <row r="31" spans="1:25" ht="12.5">
       <c r="A31" s="112"/>
       <c r="B31" s="163"/>
       <c r="C31" s="112"/>
@@ -10498,7 +10526,7 @@
       <c r="X31" s="112"/>
       <c r="Y31" s="112"/>
     </row>
-    <row r="32" spans="1:25" ht="12.75">
+    <row r="32" spans="1:25" ht="12.5">
       <c r="A32" s="112"/>
       <c r="B32" s="163"/>
       <c r="C32" s="112"/>
@@ -10525,7 +10553,7 @@
       <c r="X32" s="112"/>
       <c r="Y32" s="112"/>
     </row>
-    <row r="33" spans="1:25" ht="12.75">
+    <row r="33" spans="1:25" ht="12.5">
       <c r="A33" s="112"/>
       <c r="B33" s="163"/>
       <c r="C33" s="112"/>
@@ -10552,20 +10580,20 @@
       <c r="X33" s="112"/>
       <c r="Y33" s="112"/>
     </row>
-    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="34" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B34" s="164"/>
       <c r="O34" s="157"/>
     </row>
-    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="35" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B35" s="163" t="s">
         <v>216</v>
       </c>
       <c r="I35" s="386" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J35" s="386"/>
     </row>
-    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="36" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B36" s="163" t="s">
         <v>217</v>
       </c>
@@ -10573,11 +10601,11 @@
         <v>218</v>
       </c>
       <c r="I36" s="388" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J36" s="388"/>
     </row>
-    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="37" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B37" s="163" t="s">
         <v>219</v>
       </c>
@@ -10585,14 +10613,14 @@
         <v>220</v>
       </c>
       <c r="I37" s="389" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J37" s="389"/>
     </row>
-    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="38" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B38" s="164"/>
     </row>
-    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="39" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B39" s="163" t="s">
         <v>226</v>
       </c>
@@ -10600,7 +10628,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="40" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B40" s="163" t="s">
         <v>223</v>
       </c>
@@ -10608,7 +10636,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="41" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B41" s="163" t="s">
         <v>225</v>
       </c>
@@ -10616,10 +10644,10 @@
         <v>228</v>
       </c>
     </row>
-    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="42" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B42" s="165"/>
     </row>
-    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="43" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B43" s="163" t="s">
         <v>229</v>
       </c>
@@ -10627,7 +10655,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="44" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B44" s="163" t="s">
         <v>231</v>
       </c>
@@ -10635,7 +10663,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="45" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B45" s="163" t="s">
         <v>275</v>
       </c>
@@ -10643,10 +10671,10 @@
         <v>276</v>
       </c>
     </row>
-    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="46" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B46" s="165"/>
     </row>
-    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="47" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B47" s="163" t="s">
         <v>234</v>
       </c>
@@ -10654,7 +10682,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.75">
+    <row r="48" spans="1:25" s="112" customFormat="1" ht="12.5">
       <c r="B48" s="163" t="s">
         <v>233</v>
       </c>
@@ -10662,7 +10690,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="49" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B49" s="163" t="s">
         <v>277</v>
       </c>
@@ -10670,13 +10698,13 @@
         <v>278</v>
       </c>
     </row>
-    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="50" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B50" s="163"/>
     </row>
-    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="51" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B51" s="163"/>
     </row>
-    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="52" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B52" s="163" t="s">
         <v>237</v>
       </c>
@@ -10684,7 +10712,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="53" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B53" s="163" t="s">
         <v>238</v>
       </c>
@@ -10692,7 +10720,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="54" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B54" s="163" t="s">
         <v>243</v>
       </c>
@@ -10700,7 +10728,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="55" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B55" s="163" t="s">
         <v>245</v>
       </c>
@@ -10708,10 +10736,10 @@
         <v>246</v>
       </c>
     </row>
-    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="56" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B56" s="163"/>
     </row>
-    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="57" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B57" s="163" t="s">
         <v>252</v>
       </c>
@@ -10719,7 +10747,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="58" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B58" s="163" t="s">
         <v>247</v>
       </c>
@@ -10727,7 +10755,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="59" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B59" s="163" t="s">
         <v>249</v>
       </c>
@@ -10735,7 +10763,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="60" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B60" s="163" t="s">
         <v>250</v>
       </c>
@@ -10743,10 +10771,10 @@
         <v>254</v>
       </c>
     </row>
-    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="61" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B61" s="163"/>
     </row>
-    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="62" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B62" s="163" t="s">
         <v>256</v>
       </c>
@@ -10754,7 +10782,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="63" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B63" s="163" t="s">
         <v>257</v>
       </c>
@@ -10762,7 +10790,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="64" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B64" s="163" t="s">
         <v>258</v>
       </c>
@@ -10770,7 +10798,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="65" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B65" s="163" t="s">
         <v>259</v>
       </c>
@@ -10778,7 +10806,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="66" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B66" s="163" t="s">
         <v>260</v>
       </c>
@@ -10786,10 +10814,10 @@
         <v>265</v>
       </c>
     </row>
-    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="67" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B67" s="163"/>
     </row>
-    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="68" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B68" s="163" t="s">
         <v>266</v>
       </c>
@@ -10797,7 +10825,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="69" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B69" s="163" t="s">
         <v>268</v>
       </c>
@@ -10805,10 +10833,10 @@
         <v>269</v>
       </c>
     </row>
-    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="70" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B70" s="163"/>
     </row>
-    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="71" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B71" s="163" t="s">
         <v>272</v>
       </c>
@@ -10816,7 +10844,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="72" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B72" s="163" t="s">
         <v>270</v>
       </c>
@@ -10824,7 +10852,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="73" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B73" s="163" t="s">
         <v>274</v>
       </c>
@@ -10832,10 +10860,10 @@
         <v>279</v>
       </c>
     </row>
-    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="74" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B74" s="163"/>
     </row>
-    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="75" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B75" s="163" t="s">
         <v>281</v>
       </c>
@@ -10843,7 +10871,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="76" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B76" s="163" t="s">
         <v>280</v>
       </c>
@@ -10851,7 +10879,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="77" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B77" s="163" t="s">
         <v>282</v>
       </c>
@@ -10859,7 +10887,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="78" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B78" s="163" t="s">
         <v>284</v>
       </c>
@@ -10867,7 +10895,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="79" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B79" s="163" t="s">
         <v>285</v>
       </c>
@@ -10875,10 +10903,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="80" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B80" s="163"/>
     </row>
-    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="81" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B81" s="163" t="s">
         <v>287</v>
       </c>
@@ -10886,7 +10914,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="82" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B82" s="163" t="s">
         <v>288</v>
       </c>
@@ -10894,7 +10922,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="83" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B83" s="163" t="s">
         <v>289</v>
       </c>
@@ -10902,7 +10930,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="84" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B84" s="163" t="s">
         <v>290</v>
       </c>
@@ -10910,7 +10938,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="85" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B85" s="163" t="s">
         <v>291</v>
       </c>
@@ -10918,10 +10946,10 @@
         <v>286</v>
       </c>
     </row>
-    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="86" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B86" s="163"/>
     </row>
-    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="87" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B87" s="163" t="s">
         <v>294</v>
       </c>
@@ -10929,7 +10957,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="88" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B88" s="163" t="s">
         <v>296</v>
       </c>
@@ -10937,7 +10965,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="89" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B89" s="163" t="s">
         <v>297</v>
       </c>
@@ -10945,7 +10973,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="90" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B90" s="163" t="s">
         <v>300</v>
       </c>
@@ -10953,7 +10981,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="91" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B91" s="163" t="s">
         <v>302</v>
       </c>
@@ -10961,8 +10989,8 @@
         <v>286</v>
       </c>
     </row>
-    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.75"/>
-    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="92" spans="2:3" s="112" customFormat="1" ht="12.5"/>
+    <row r="93" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B93" s="163" t="s">
         <v>199</v>
       </c>
@@ -10970,7 +10998,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="94" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B94" s="163" t="s">
         <v>200</v>
       </c>
@@ -10978,10 +11006,10 @@
         <v>303</v>
       </c>
     </row>
-    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.75">
+    <row r="95" spans="2:3" s="112" customFormat="1" ht="12.5">
       <c r="B95" s="164"/>
     </row>
-    <row r="96" spans="2:3" ht="12.75">
+    <row r="96" spans="2:3" ht="12.5">
       <c r="B96" s="163" t="s">
         <v>221</v>
       </c>
@@ -11110,23 +11138,23 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="2" max="7" width="15.83203125" customWidth="1"/>
+    <col min="2" max="7" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" t="s">
         <v>421</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>422</v>
-      </c>
-      <c r="C1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -11134,7 +11162,7 @@
         <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C3" s="18">
         <f>'Main Page'!B17</f>
@@ -11143,10 +11171,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" t="s">
         <v>436</v>
-      </c>
-      <c r="B4" t="s">
-        <v>437</v>
       </c>
       <c r="C4">
         <v>5.0000000000000001E-3</v>
@@ -11154,10 +11182,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
+        <v>437</v>
+      </c>
+      <c r="B5" t="s">
         <v>438</v>
-      </c>
-      <c r="B5" t="s">
-        <v>439</v>
       </c>
       <c r="C5" s="18" t="str">
         <f>'Main Page'!C144</f>
@@ -11178,10 +11206,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C6" s="18">
         <v>15</v>
@@ -11192,25 +11220,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="B7" t="s">
+        <v>440</v>
+      </c>
+      <c r="C7" t="s">
         <v>441</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>442</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>443</v>
-      </c>
-      <c r="E7" t="s">
-        <v>444</v>
       </c>
       <c r="F7" t="s">
         <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -11235,7 +11263,7 @@
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -11252,7 +11280,7 @@
         <v>2.2166666666666668</v>
       </c>
       <c r="F9" s="396">
-        <f t="shared" ref="F9" si="0">(E$39-E$38)/(D$39-D$38)*(C9-D$38)+E$38</f>
+        <f>(E$39-E$38)/(D$39-D$38)*(C9-D$38)+E$38</f>
         <v>2.268928964524596</v>
       </c>
       <c r="G9">
@@ -11260,7 +11288,7 @@
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -11285,7 +11313,7 @@
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -11310,7 +11338,7 @@
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -11327,15 +11355,15 @@
         <v>2.2166666666666668</v>
       </c>
       <c r="F12" s="396">
-        <f t="shared" ref="F12:F13" si="1">(E$40-E$39)/(D$40-D$39)*(C12-D$39)+E$39</f>
+        <f t="shared" ref="F12:F13" si="0">(E$40-E$39)/(D$40-D$39)*(C12-D$39)+E$39</f>
         <v>2.5779832359664723</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G14" si="2">ROUND((G$40-G$39)/(D$40-D$39)*(C12-D$39)+G$39,0)</f>
+        <f t="shared" ref="G12:G14" si="1">ROUND((G$40-G$39)/(D$40-D$39)*(C12-D$39)+G$39,0)</f>
         <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -11352,15 +11380,15 @@
         <v>2.2166666666666668</v>
       </c>
       <c r="F13" s="396">
+        <f t="shared" si="0"/>
+        <v>2.4124832782998902</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v>2.4124832782998902</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -11381,11 +11409,11 @@
         <v>2.2469833206333085</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -11410,7 +11438,7 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -11427,15 +11455,15 @@
         <v>2.2166666666666668</v>
       </c>
       <c r="F16" s="396">
-        <f t="shared" ref="F16:F18" si="3">(E$41-E$40)/(D$41-D$40)*(C16-D$40)+E$40</f>
+        <f t="shared" ref="F16:F18" si="2">(E$41-E$40)/(D$41-D$40)*(C16-D$40)+E$40</f>
         <v>1.9160731521463046</v>
       </c>
       <c r="G16">
-        <f t="shared" ref="G16:G18" si="4">ROUND((G$41-G$40)/(D$41-D$40)*(C16-D$40)+G$40,0)</f>
+        <f t="shared" ref="G16:G18" si="3">ROUND((G$41-G$40)/(D$41-D$40)*(C16-D$40)+G$40,0)</f>
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17" spans="3:8">
@@ -11452,15 +11480,15 @@
         <v>2.2166666666666668</v>
       </c>
       <c r="F17" s="396">
+        <f t="shared" si="2"/>
+        <v>1.7506375412750828</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="3"/>
-        <v>1.7506375412750828</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="18" spans="3:8">
@@ -11477,15 +11505,15 @@
         <v>2.2166666666666668</v>
       </c>
       <c r="F18" s="396">
+        <f t="shared" si="2"/>
+        <v>1.5852019304038611</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="3"/>
-        <v>1.5852019304038611</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="19" spans="3:8">
@@ -11510,7 +11538,7 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="20" spans="3:8">
@@ -11527,15 +11555,15 @@
         <v>2.2166666666666668</v>
       </c>
       <c r="F20" s="396">
-        <f t="shared" ref="F20:F22" si="5">(E$42-E$41)/(D$42-D$41)*(C20-D$41)+E$41</f>
+        <f t="shared" ref="F20:F22" si="4">(E$42-E$41)/(D$42-D$41)*(C20-D$41)+E$41</f>
         <v>1.2782660231987131</v>
       </c>
       <c r="G20">
-        <f t="shared" ref="G20:G22" si="6">ROUND((G$42-G$41)/(D$42-D$41)*(C20-D$41)+G$41,0)</f>
+        <f t="shared" ref="G20:G22" si="5">ROUND((G$42-G$41)/(D$42-D$41)*(C20-D$41)+G$41,0)</f>
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="21" spans="3:8">
@@ -11552,15 +11580,15 @@
         <v>2.2166666666666668</v>
       </c>
       <c r="F21" s="396">
+        <f t="shared" si="4"/>
+        <v>1.1293675387350777</v>
+      </c>
+      <c r="G21">
         <f t="shared" si="5"/>
-        <v>1.1293675387350777</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="22" spans="3:8">
@@ -11577,20 +11605,20 @@
         <v>2.2166666666666668</v>
       </c>
       <c r="F22" s="396">
+        <f t="shared" si="4"/>
+        <v>0.98046905427144215</v>
+      </c>
+      <c r="G22">
         <f t="shared" si="5"/>
-        <v>0.98046905427144215</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="36" spans="2:7">
       <c r="B36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E36" t="s">
         <v>88</v>
@@ -11616,7 +11644,7 @@
       </c>
       <c r="E37">
         <f>GECbladedata!$C5</f>
-        <v>1.9250698501397006</v>
+        <v>1.8895199390398785</v>
       </c>
       <c r="F37">
         <f>'Main Page'!B136-'Main Page'!B$141</f>
@@ -11632,7 +11660,7 @@
         <v>1.5</v>
       </c>
       <c r="C38" s="397">
-        <f t="shared" ref="C38:C51" si="7">B38/C$6</f>
+        <f t="shared" ref="C38:C51" si="6">B38/C$6</f>
         <v>0.1</v>
       </c>
       <c r="D38" s="102">
@@ -11657,7 +11685,7 @@
         <v>2.5</v>
       </c>
       <c r="C39" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="D39" s="102">
@@ -11682,7 +11710,7 @@
         <v>3.5</v>
       </c>
       <c r="C40" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.23333333333333334</v>
       </c>
       <c r="D40" s="102">
@@ -11707,7 +11735,7 @@
         <v>4.5</v>
       </c>
       <c r="C41" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
       <c r="D41" s="102">
@@ -11732,7 +11760,7 @@
         <v>5.5</v>
       </c>
       <c r="C42" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.36666666666666664</v>
       </c>
       <c r="D42" s="102">
@@ -11757,7 +11785,7 @@
         <v>6.5</v>
       </c>
       <c r="C43" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.43333333333333335</v>
       </c>
     </row>
@@ -11766,7 +11794,7 @@
         <v>7.5</v>
       </c>
       <c r="C44" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
     </row>
@@ -11775,7 +11803,7 @@
         <v>8.5</v>
       </c>
       <c r="C45" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.56666666666666665</v>
       </c>
     </row>
@@ -11784,7 +11812,7 @@
         <v>9.5</v>
       </c>
       <c r="C46" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.6333333333333333</v>
       </c>
     </row>
@@ -11793,7 +11821,7 @@
         <v>10.5</v>
       </c>
       <c r="C47" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.7</v>
       </c>
     </row>
@@ -11802,7 +11830,7 @@
         <v>11.5</v>
       </c>
       <c r="C48" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.76666666666666672</v>
       </c>
     </row>
@@ -11811,7 +11839,7 @@
         <v>12.5</v>
       </c>
       <c r="C49" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
@@ -11820,7 +11848,7 @@
         <v>13.5</v>
       </c>
       <c r="C50" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.9</v>
       </c>
     </row>
@@ -11829,7 +11857,7 @@
         <v>14.5</v>
       </c>
       <c r="C51" s="397">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.96666666666666667</v>
       </c>
     </row>
@@ -11842,16 +11870,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
@@ -11860,13 +11888,13 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" t="s">
         <v>421</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>422</v>
-      </c>
-      <c r="C1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11874,7 +11902,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C3" s="18">
         <f>'Main Page'!A151*100</f>
@@ -11891,7 +11919,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C4" s="18">
         <f>'Main Page'!B151*100</f>
@@ -11910,7 +11938,7 @@
         <v>385</v>
       </c>
       <c r="B5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C5" s="390">
         <f>'Main Page'!C151*100</f>
@@ -11926,31 +11954,31 @@
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="391" t="s">
         <v>426</v>
       </c>
-      <c r="C6" s="391" t="s">
+      <c r="D6" s="391" t="s">
         <v>427</v>
       </c>
-      <c r="D6" s="391" t="s">
+      <c r="E6" s="391" t="s">
         <v>428</v>
       </c>
-      <c r="E6" s="391" t="s">
+      <c r="F6" s="391" t="s">
         <v>429</v>
       </c>
-      <c r="F6" s="391" t="s">
+      <c r="G6" s="391" t="s">
         <v>430</v>
       </c>
-      <c r="G6" s="391" t="s">
+      <c r="H6" s="391" t="s">
         <v>431</v>
       </c>
-      <c r="H6" s="391" t="s">
+      <c r="I6" s="391" t="s">
         <v>432</v>
       </c>
-      <c r="I6" s="391" t="s">
+      <c r="J6" s="391" t="s">
         <v>433</v>
-      </c>
-      <c r="J6" s="391" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12682,22 +12710,22 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B2" t="s">
         <v>421</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>422</v>
-      </c>
-      <c r="C2" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -12711,7 +12739,7 @@
         <v>394</v>
       </c>
       <c r="B4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C4" s="101">
         <f>'Main Page'!B87</f>
@@ -12724,10 +12752,10 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C5" s="397">
         <f>'Main Page'!$B$31</f>
@@ -12737,10 +12765,10 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B6" t="s">
         <v>488</v>
-      </c>
-      <c r="B6" t="s">
-        <v>489</v>
       </c>
       <c r="C6" s="395">
         <f>'Main Page'!B43</f>
@@ -12750,10 +12778,10 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C7" s="395">
         <v>2.6</v>
@@ -12762,10 +12790,10 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C8" s="395">
         <v>2.6</v>
@@ -12774,10 +12802,10 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C9" s="395">
         <v>2.6</v>
@@ -12789,132 +12817,132 @@
         <v>394</v>
       </c>
       <c r="B10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C10">
         <f>'Main Page'!$B$29</f>
         <v>20.462778397529398</v>
       </c>
       <c r="G10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="K10" s="396"/>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C11" s="102">
         <f>'Main Page'!$B$34</f>
         <v>2.6</v>
       </c>
       <c r="G11" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K11" s="396"/>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C12" s="102">
         <f>'Main Page'!$B$35</f>
         <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K12" s="396"/>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C13">
         <f>'Main Page'!$B$40</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="K13" s="396"/>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" t="s">
+        <v>497</v>
+      </c>
+      <c r="B14" t="s">
         <v>498</v>
-      </c>
-      <c r="B14" t="s">
-        <v>499</v>
       </c>
       <c r="C14">
         <f>'Main Page'!$B$37*PI()/180</f>
         <v>4.5378560551852569E-2</v>
       </c>
       <c r="G14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="K14" s="396"/>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B15" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C15">
         <f>'Main Page'!$B$38*PI()/180</f>
         <v>0.52359877559829882</v>
       </c>
       <c r="G15" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="K15" s="396"/>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C16">
         <f>1/C14^C17</f>
         <v>0.21302244142778143</v>
       </c>
       <c r="G16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K16" s="396"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C17">
         <f>'Main Page'!$B$39</f>
         <v>-0.5</v>
       </c>
       <c r="G17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K17" s="396"/>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C18" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
@@ -12927,13 +12955,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K18" s="396"/>
     </row>
     <row r="19" spans="1:11">
       <c r="B19" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C19" s="101">
         <f>(4*'Main Page'!$B$29/30*PI())^2</f>
@@ -12947,7 +12975,7 @@
         <v>1</v>
       </c>
       <c r="G19" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K19" s="102"/>
     </row>
@@ -12972,27 +13000,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" t="s">
         <v>421</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>422</v>
-      </c>
-      <c r="C1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -13000,7 +13028,7 @@
         <v>85</v>
       </c>
       <c r="B3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C3" s="397">
         <f>'Main Page'!B61</f>
@@ -13012,7 +13040,7 @@
         <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C4" s="397">
         <f>('Main Page'!B5*'Main Page'!E5+'Main Page'!B6*'Main Page'!E6+'Main Page'!B7*'Main Page'!E7)/C13</f>
@@ -13025,7 +13053,7 @@
         <v>85</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C5" s="397">
         <f>('Main Page'!C5*'Main Page'!E5+'Main Page'!C6*'Main Page'!E6+'Main Page'!C7*'Main Page'!E7)/C13</f>
@@ -13037,7 +13065,7 @@
         <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C6" s="397">
         <f>('Main Page'!D5*'Main Page'!E5+'Main Page'!D6*'Main Page'!E6+'Main Page'!D7*'Main Page'!E7)/C13+'Main Page'!B46</f>
@@ -13052,7 +13080,7 @@
         <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C7" s="397">
         <f>'Main Page'!B9-'Main Page'!B46</f>
@@ -13067,7 +13095,7 @@
         <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C8" s="397">
         <f>'Main Page'!B46</f>
@@ -13079,10 +13107,10 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>461</v>
+      </c>
+      <c r="B9" t="s">
         <v>462</v>
-      </c>
-      <c r="B9" t="s">
-        <v>463</v>
       </c>
       <c r="C9" s="397">
         <f>-'Main Page'!B11</f>
@@ -13092,10 +13120,10 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C10" s="397">
         <f>-'Main Page'!B18</f>
@@ -13106,10 +13134,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B11" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C11" s="397">
         <f>-'Main Page'!B18</f>
@@ -13120,10 +13148,10 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C12" s="397">
         <f>-'Main Page'!B18</f>
@@ -13137,7 +13165,7 @@
         <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C13" s="397">
         <f>SUM('Main Page'!E5+'Main Page'!E6+'Main Page'!E7)</f>
@@ -13151,7 +13179,7 @@
         <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C14" s="397">
         <f>'Main Page'!E8</f>
@@ -13162,10 +13190,10 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B15" t="s">
         <v>466</v>
-      </c>
-      <c r="B15" t="s">
-        <v>467</v>
       </c>
       <c r="C15" s="397">
         <f>SUM('Main Page'!H5:H7)</f>
@@ -13175,10 +13203,10 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C16" s="397">
         <f>SUM(GECdrivetrain!M11:'GECdrivetrain'!M12)/('Main Page'!$B$88)^2</f>
@@ -13188,10 +13216,10 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B17" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C17" s="397">
         <f>GECdrivetrain!M5</f>
@@ -13200,10 +13228,10 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C18" s="403">
         <f>'Main Page'!B19*100</f>
@@ -13212,10 +13240,10 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C19">
         <f>'Main Page'!$B$88</f>
@@ -13224,10 +13252,10 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
+        <v>471</v>
+      </c>
+      <c r="B20" t="s">
         <v>472</v>
-      </c>
-      <c r="B20" t="s">
-        <v>473</v>
       </c>
       <c r="C20" s="348">
         <f>'Main Page'!B14</f>
@@ -13237,10 +13265,10 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
+        <v>473</v>
+      </c>
+      <c r="B21" t="s">
         <v>474</v>
-      </c>
-      <c r="B21" t="s">
-        <v>475</v>
       </c>
       <c r="C21" s="348">
         <f>2*'Main Page'!B15/100*SQRT(C20*'Main Page'!B16*C16*C19^2/('Main Page'!B16+C16*C19^2))</f>
@@ -13250,10 +13278,10 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
+        <v>475</v>
+      </c>
+      <c r="B22" t="s">
         <v>476</v>
-      </c>
-      <c r="B22" t="s">
-        <v>477</v>
       </c>
       <c r="C22" s="332">
         <f>'Main Page'!B92*1000</f>
@@ -13266,7 +13294,7 @@
         <v>85</v>
       </c>
       <c r="B23" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C23" s="18">
         <f>'Main Page'!B13/2</f>
@@ -13280,7 +13308,7 @@
         <v>85</v>
       </c>
       <c r="B24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C24" s="18">
         <f>'Main Page'!B56/2</f>
@@ -13302,21 +13330,21 @@
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
     <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="15.83203125" customWidth="1"/>
+    <col min="3" max="8" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" t="s">
         <v>421</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>422</v>
-      </c>
-      <c r="C1" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -13324,7 +13352,7 @@
         <v>385</v>
       </c>
       <c r="B3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C3" s="103">
         <f>'Main Page'!B154*100</f>
@@ -13333,7 +13361,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C4" s="103">
         <f>'Main Page'!B155*100</f>
@@ -13345,7 +13373,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="B5" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C5" s="103">
         <f>'Main Page'!B156*100</f>
@@ -13358,7 +13386,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C6" s="103">
         <f>'Main Page'!B157*100</f>
@@ -13371,25 +13399,25 @@
     </row>
     <row r="7" spans="1:14">
       <c r="B7" t="s">
+        <v>477</v>
+      </c>
+      <c r="C7" t="s">
         <v>478</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>479</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>480</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>481</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>482</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>483</v>
-      </c>
-      <c r="H7" t="s">
-        <v>484</v>
       </c>
       <c r="N7" s="352"/>
     </row>
@@ -13681,18 +13709,18 @@
       <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="17" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="16" style="18" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="11" width="12.5" customWidth="1"/>
+    <col min="10" max="11" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="13.5" thickBot="1">
@@ -13700,13 +13728,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12" thickBot="1">
-      <c r="A2" s="419" t="s">
+    <row r="2" spans="1:11" ht="11" thickBot="1">
+      <c r="A2" s="420" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="420"/>
-      <c r="C2" s="420"/>
-      <c r="D2" s="421"/>
+      <c r="B2" s="421"/>
+      <c r="C2" s="421"/>
+      <c r="D2" s="422"/>
       <c r="F2" s="79" t="s">
         <v>54</v>
       </c>
@@ -13732,7 +13760,7 @@
       <c r="G3" s="77"/>
       <c r="H3" s="78"/>
     </row>
-    <row r="4" spans="1:11" ht="12" thickBot="1">
+    <row r="4" spans="1:11" ht="11" thickBot="1">
       <c r="A4" s="363">
         <v>3.4349999999999999E-2</v>
       </c>
@@ -13760,7 +13788,7 @@
       <c r="D6" s="59"/>
       <c r="E6" s="57"/>
     </row>
-    <row r="7" spans="1:11" s="19" customFormat="1" ht="32.450000000000003" customHeight="1" thickBot="1">
+    <row r="7" spans="1:11" s="19" customFormat="1" ht="32.5" customHeight="1" thickBot="1">
       <c r="A7" s="45" t="s">
         <v>1</v>
       </c>
@@ -13795,7 +13823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12" thickBot="1">
+    <row r="8" spans="1:11" ht="10.5" thickBot="1">
       <c r="A8" s="47">
         <v>1</v>
       </c>
@@ -13838,7 +13866,7 @@
         <v>248017961443.11847</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="12" thickBot="1">
+    <row r="9" spans="1:11" ht="10.5" thickBot="1">
       <c r="A9" s="48">
         <v>2</v>
       </c>
@@ -13881,7 +13909,7 @@
         <v>196124484340.01657</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12" thickBot="1">
+    <row r="10" spans="1:11" ht="10.5" thickBot="1">
       <c r="A10" s="48">
         <v>3</v>
       </c>
@@ -13924,7 +13952,7 @@
         <v>152799439475.66925</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12" thickBot="1">
+    <row r="11" spans="1:11" ht="10.5" thickBot="1">
       <c r="A11" s="48">
         <v>4</v>
       </c>
@@ -13967,7 +13995,7 @@
         <v>117048609933.02327</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12" thickBot="1">
+    <row r="12" spans="1:11" ht="10.5" thickBot="1">
       <c r="A12" s="48">
         <v>5</v>
       </c>
@@ -14010,7 +14038,7 @@
         <v>87938673669.764404</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12" thickBot="1">
+    <row r="13" spans="1:11" ht="10.5" thickBot="1">
       <c r="A13" s="48">
         <v>6</v>
       </c>
@@ -14053,7 +14081,7 @@
         <v>64597203518.317947</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12" thickBot="1">
+    <row r="14" spans="1:11" ht="10.5" thickBot="1">
       <c r="A14" s="48">
         <v>7</v>
       </c>
@@ -14096,7 +14124,7 @@
         <v>46212667185.848305</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="12" thickBot="1">
+    <row r="15" spans="1:11" ht="10.5" thickBot="1">
       <c r="A15" s="48">
         <v>8</v>
       </c>
@@ -14139,7 +14167,7 @@
         <v>32034427254.259068</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="12" thickBot="1">
+    <row r="16" spans="1:11" ht="10.5" thickBot="1">
       <c r="A16" s="48">
         <v>9</v>
       </c>
@@ -14435,7 +14463,7 @@
       <c r="J31" s="29"/>
       <c r="K31" s="30"/>
     </row>
-    <row r="32" spans="1:11" ht="12" thickBot="1">
+    <row r="32" spans="1:11" ht="10.5" thickBot="1">
       <c r="A32" s="49">
         <v>25</v>
       </c>
@@ -14472,33 +14500,33 @@
       <selection activeCell="U35" sqref="U35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" customWidth="1"/>
-    <col min="2" max="2" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" customWidth="1"/>
     <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="7.5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" customWidth="1"/>
+    <col min="7" max="7" width="10.109375" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" customWidth="1"/>
-    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="11.44140625" customWidth="1"/>
     <col min="13" max="13" width="12.33203125" customWidth="1"/>
     <col min="14" max="14" width="11.6640625" customWidth="1"/>
     <col min="15" max="15" width="7.33203125" customWidth="1"/>
-    <col min="16" max="16" width="10.5" customWidth="1"/>
-    <col min="17" max="17" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="10.44140625" customWidth="1"/>
+    <col min="17" max="17" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.6" customHeight="1" thickBot="1">
+    <row r="1" spans="1:20" ht="15.65" customHeight="1" thickBot="1">
       <c r="A1" s="55" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="57"/>
     </row>
-    <row r="2" spans="1:20" ht="23.25" thickBot="1">
+    <row r="2" spans="1:20" ht="20.5" thickBot="1">
       <c r="A2" s="96" t="s">
         <v>56</v>
       </c>
@@ -14506,13 +14534,13 @@
         <f>GECbladedata!D12-B3</f>
         <v>33.25</v>
       </c>
-      <c r="D2" s="405" t="s">
+      <c r="D2" s="406" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="407"/>
-      <c r="F2" s="408"/>
-    </row>
-    <row r="3" spans="1:20" ht="23.25" thickBot="1">
+      <c r="E2" s="408"/>
+      <c r="F2" s="409"/>
+    </row>
+    <row r="3" spans="1:20" ht="20.5" thickBot="1">
       <c r="A3" s="98" t="s">
         <v>57</v>
       </c>
@@ -14535,7 +14563,7 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
     </row>
-    <row r="4" spans="1:20" ht="12" thickBot="1">
+    <row r="4" spans="1:20" ht="11" thickBot="1">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="D4" s="264">
@@ -14553,7 +14581,7 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" ht="10.5">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="F5" s="4"/>
@@ -14563,7 +14591,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
     </row>
-    <row r="6" spans="1:20" ht="12.75">
+    <row r="6" spans="1:20" ht="13">
       <c r="A6" s="55" t="s">
         <v>32</v>
       </c>
@@ -14577,7 +14605,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" ht="10.5">
       <c r="A7" s="52" t="s">
         <v>34</v>
       </c>
@@ -14589,7 +14617,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
     </row>
-    <row r="8" spans="1:20" s="5" customFormat="1">
+    <row r="8" spans="1:20" s="5" customFormat="1" ht="10.5">
       <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
@@ -14610,7 +14638,7 @@
       <c r="P8" s="6"/>
       <c r="Q8" s="6"/>
     </row>
-    <row r="9" spans="1:20" s="19" customFormat="1" ht="33.75">
+    <row r="9" spans="1:20" s="19" customFormat="1" ht="30">
       <c r="A9" s="87" t="s">
         <v>0</v>
       </c>
@@ -14696,7 +14724,7 @@
       </c>
       <c r="G10" s="105">
         <f>GECbladedata!H28</f>
-        <v>0.48126746253492514</v>
+        <v>0.47237998475996962</v>
       </c>
       <c r="H10" s="65">
         <f>GECbladedata!I28</f>
@@ -14704,7 +14732,7 @@
       </c>
       <c r="I10" s="105">
         <f>GECbladedata!J28</f>
-        <v>0.48126746253492514</v>
+        <v>0.47237998475996962</v>
       </c>
       <c r="J10" s="104">
         <f>GECbladedata!K28</f>
@@ -14728,7 +14756,7 @@
       </c>
       <c r="O10" s="105">
         <f>GECbladedata!P28</f>
-        <v>1.9250698501397006</v>
+        <v>1.8895199390398785</v>
       </c>
       <c r="P10" s="105">
         <f>GECbladedata!Q28</f>
@@ -16332,7 +16360,7 @@
       <c r="S31" s="9"/>
       <c r="T31" s="9"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" ht="10.5">
       <c r="A32" s="7">
         <v>23</v>
       </c>
@@ -16751,31 +16779,31 @@
   </sheetPr>
   <dimension ref="B2:U50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultRowHeight="10"/>
   <cols>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="11.109375" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="12.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
     <col min="11" max="11" width="11.6640625" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
     <col min="13" max="13" width="10.33203125" customWidth="1"/>
     <col min="14" max="14" width="12.33203125" customWidth="1"/>
-    <col min="15" max="16" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5" customWidth="1"/>
+    <col min="15" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.44140625" customWidth="1"/>
     <col min="19" max="19" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="27" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:21">
@@ -16870,7 +16898,7 @@
       </c>
       <c r="C5" s="200">
         <f>'Main Page'!B124</f>
-        <v>1.9250698501397006</v>
+        <v>1.8895199390398785</v>
       </c>
       <c r="D5" s="201">
         <f>'Main Page'!C124</f>
@@ -17405,14 +17433,14 @@
       </c>
       <c r="H18" s="226">
         <f t="shared" ref="H18:H23" si="4">C5*(G5-F5)</f>
-        <v>0.48126746253492514</v>
+        <v>0.47237998475996962</v>
       </c>
       <c r="I18" s="184">
         <v>0</v>
       </c>
       <c r="J18" s="238">
         <f t="shared" ref="J18:J23" si="5">C5*(H5-F5)</f>
-        <v>0.48126746253492514</v>
+        <v>0.47237998475996962</v>
       </c>
       <c r="K18" s="237">
         <f>'Main Page'!B136-'Main Page'!B$141</f>
@@ -17436,7 +17464,7 @@
       </c>
       <c r="P18" s="226">
         <f t="shared" ref="P18:P23" si="10">C5</f>
-        <v>1.9250698501397006</v>
+        <v>1.8895199390398785</v>
       </c>
       <c r="Q18" s="226">
         <v>0</v>
@@ -17943,7 +17971,7 @@
       </c>
       <c r="H28" s="226">
         <f t="shared" si="11"/>
-        <v>0.48126746253492514</v>
+        <v>0.47237998475996962</v>
       </c>
       <c r="I28" s="184">
         <f t="shared" si="11"/>
@@ -17951,7 +17979,7 @@
       </c>
       <c r="J28" s="238">
         <f t="shared" si="11"/>
-        <v>0.48126746253492514</v>
+        <v>0.47237998475996962</v>
       </c>
       <c r="K28" s="237">
         <f t="shared" si="11"/>
@@ -17975,7 +18003,7 @@
       </c>
       <c r="P28" s="226">
         <f t="shared" si="11"/>
-        <v>1.9250698501397006</v>
+        <v>1.8895199390398785</v>
       </c>
       <c r="Q28" s="226">
         <f t="shared" si="11"/>
@@ -17987,7 +18015,7 @@
       </c>
       <c r="S28">
         <f>(B29-B28)/2*P28*D$12</f>
-        <v>0.67377444754889537</v>
+        <v>0.66133197866395754</v>
       </c>
       <c r="T28">
         <f>D28*(C29-C28)/2*(D$12-D$13)</f>
@@ -19538,7 +19566,7 @@
     <row r="50" spans="19:20">
       <c r="S50">
         <f>SUM(S28:S49)*3/(PI()*D12^2)</f>
-        <v>5.0028064527446757E-2</v>
+        <v>5.0018365194741579E-2</v>
       </c>
       <c r="T50">
         <f>SUM(T28:T49)</f>
